--- a/daily_1.0/daily/lib/localizations/daily_json.xlsx
+++ b/daily_1.0/daily/lib/localizations/daily_json.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>VALUE</t>
   </si>
@@ -34,6 +34,18 @@
     <t>RUSSIAN</t>
   </si>
   <si>
+    <t>FINNISH</t>
+  </si>
+  <si>
+    <t>ITALIAN</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
     <t>errorBlankField</t>
   </si>
   <si>
@@ -148,12 +160,6 @@
     <t>Night mode</t>
   </si>
   <si>
-    <t>settingsIsAndroid</t>
-  </si>
-  <si>
-    <t>isAndroid</t>
-  </si>
-  <si>
     <t>settingProfileURL</t>
   </si>
   <si>
@@ -172,7 +178,7 @@
     <t>Gallery</t>
   </si>
   <si>
-    <t>medfiaSelectionCamera</t>
+    <t>mediaSelectionCamera</t>
   </si>
   <si>
     <t>Camera</t>
@@ -613,6 +619,9 @@
     <col customWidth="1" min="6" max="6" width="52.14"/>
     <col customWidth="1" min="7" max="7" width="61.43"/>
     <col customWidth="1" min="8" max="8" width="57.14"/>
+    <col customWidth="1" min="9" max="9" width="63.86"/>
+    <col customWidth="1" min="10" max="10" width="61.57"/>
+    <col customWidth="1" min="11" max="11" width="68.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,13 +646,25 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""es"")"),"No puedo tener un campo en blanco.")</f>
@@ -665,13 +686,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""ru"")"),"Не может иметь пустое поле.")</f>
         <v>Не может иметь пустое поле.</v>
       </c>
+      <c r="H2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""fi"")"),"Ei voi olla tyhjä kenttä.")</f>
+        <v>Ei voi olla tyhjä kenttä.</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""it"")"),"Non può avere un campo vuoto.")</f>
+        <v>Non può avere un campo vuoto.</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""zh"")"),"不能有一个空白字段。")</f>
+        <v>不能有一个空白字段。</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""ja"")"),"空白のフィールドを持つことはできません。")</f>
+        <v>空白のフィールドを持つことはできません。</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""es"")"),"El nombre debe tener 3-10 caracteres.")</f>
@@ -693,13 +730,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""ru"")"),"Имя должно быть 3-10 символов.")</f>
         <v>Имя должно быть 3-10 символов.</v>
       </c>
+      <c r="H3" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""fi"")"),"Nimen on oltava 3-10 merkkiä.")</f>
+        <v>Nimen on oltava 3-10 merkkiä.</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""it"")"),"Il nome deve essere di 3-10 caratteri.")</f>
+        <v>Il nome deve essere di 3-10 caratteri.</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""zh"")"),"名称必须是3-10个字符。")</f>
+        <v>名称必须是3-10个字符。</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""ja"")"),"名前は3~10文字でなければなりません。")</f>
+        <v>名前は3~10文字でなければなりません。</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""es"")"),"La contraseña debe tener 8-16 caracteres y un número / símbolo.")</f>
@@ -721,13 +774,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""ru"")"),"Пароль должен быть 8-16 символов и число / символ.")</f>
         <v>Пароль должен быть 8-16 символов и число / символ.</v>
       </c>
+      <c r="H4" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""fi"")"),"Salasanan on oltava 8-16 merkkiä ja numero / symboli.")</f>
+        <v>Salasanan on oltava 8-16 merkkiä ja numero / symboli.</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""it"")"),"La password deve essere di 8-16 caratteri e un numero / simbolo.")</f>
+        <v>La password deve essere di 8-16 caratteri e un numero / simbolo.</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""zh"")"),"密码必须为8-16个字符和数字/符号。")</f>
+        <v>密码必须为8-16个字符和数字/符号。</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""ja"")"),"パスワードは8-16文字と番号/記号でなければなりません。")</f>
+        <v>パスワードは8-16文字と番号/記号でなければなりません。</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""es"")"),"Tu contraseña es muy débil.")</f>
@@ -749,13 +818,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ru"")"),"Ваш пароль слишком слабый.")</f>
         <v>Ваш пароль слишком слабый.</v>
       </c>
+      <c r="H5" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fi"")"),"Salasanasi on liian heikko.")</f>
+        <v>Salasanasi on liian heikko.</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""it"")"),"La tua password è troppo debole.")</f>
+        <v>La tua password è troppo debole.</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""zh"")"),"你的密码太简单了。")</f>
+        <v>你的密码太简单了。</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ja"")"),"あなたのパスワードは安全度が低いです。")</f>
+        <v>あなたのパスワードは安全度が低いです。</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
@@ -777,13 +862,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
         <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
+      <c r="H6" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
+        <v>Anna kelvollinen sähköposti.</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""it"")"),"Inserisci una email valida.")</f>
+        <v>Inserisci una email valida.</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
+        <v>请输入有效电子邮件。</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
+        <v>正しいメールアドレスを入力してください。</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
@@ -802,16 +903,32 @@
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
-        <v>Пользователь не существует или пароль не прав.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
+        <v>Пользователь не существует или пароль не так.</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
+        <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
+        <v>L'utente non esiste o la password è sbagliata.</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
+        <v>用户不存在或密码错误。</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
+        <v>ユーザーが存在しないかパスワードが間違っています。</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
@@ -830,16 +947,32 @@
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
-        <v>Пользователь не существует или пароль не прав.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
+        <v>Пользователь не существует или пароль не так.</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
+        <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
+        <v>L'utente non esiste o la password è sbagliata.</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
+        <v>用户不存在或密码错误。</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
+        <v>ユーザーが存在しないかパスワードが間違っています。</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""es"")"),"El usuario ha sido deshabilitado.")</f>
@@ -861,13 +994,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ru"")"),"Пользователь был отключен.")</f>
         <v>Пользователь был отключен.</v>
       </c>
+      <c r="H9" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fi"")"),"Käyttäjä on poistettu käytöstä.")</f>
+        <v>Käyttäjä on poistettu käytöstä.</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""it"")"),"L'utente è stato disabilitato.")</f>
+        <v>L'utente è stato disabilitato.</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""zh"")"),"用户已被禁用。")</f>
+        <v>用户已被禁用。</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ja"")"),"ユーザーが無効になっています。")</f>
+        <v>ユーザーが無効になっています。</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""es"")"),"El correo electrónico ya está en uso en una cuenta diferente.")</f>
@@ -889,13 +1038,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ru"")"),"Электронная почта уже используется на другой учетной записи.")</f>
         <v>Электронная почта уже используется на другой учетной записи.</v>
       </c>
+      <c r="H10" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fi"")"),"Sähköposti on jo käytössä eri tilillä.")</f>
+        <v>Sähköposti on jo käytössä eri tilillä.</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""it"")"),"L'e-mail è già in uso su un account diverso.")</f>
+        <v>L'e-mail è già in uso su un account diverso.</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""zh"")"),"电子邮件已在不同的帐户中使用。")</f>
+        <v>电子邮件已在不同的帐户中使用。</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ja"")"),"電子メールはすでに異なるアカウントで使用されています。")</f>
+        <v>電子メールはすでに異なるアカウントで使用されています。</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
@@ -917,13 +1082,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
         <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
+      <c r="H11" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
+        <v>Anna kelvollinen sähköposti.</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""it"")"),"Inserisci una email valida.")</f>
+        <v>Inserisci una email valida.</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
+        <v>请输入有效电子邮件。</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
+        <v>正しいメールアドレスを入力してください。</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""es"")"),"Error al obtener la imagen.")</f>
@@ -945,13 +1126,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ru"")"),"Не удалось получить изображение.")</f>
         <v>Не удалось получить изображение.</v>
       </c>
+      <c r="H12" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fi"")"),"Kuvan saaminen epäonnistui.")</f>
+        <v>Kuvan saaminen epäonnistui.</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""it"")"),"Impossibile ottenere un'immagine.")</f>
+        <v>Impossibile ottenere un'immagine.</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""zh"")"),"无法获得图像。")</f>
+        <v>无法获得图像。</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ja"")"),"画像を取得できませんでした。")</f>
+        <v>画像を取得できませんでした。</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""es"")"),"Error al compartir.")</f>
@@ -973,13 +1170,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ru"")"),"Не удалось поделиться.")</f>
         <v>Не удалось поделиться.</v>
       </c>
+      <c r="H13" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fi"")"),"Jakaminen epäonnistui.")</f>
+        <v>Jakaminen epäonnistui.</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""it"")"),"Impossibile condividere.")</f>
+        <v>Impossibile condividere.</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""zh"")"),"未能分享。")</f>
+        <v>未能分享。</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ja"")"),"共有に失敗しました。")</f>
+        <v>共有に失敗しました。</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""es"")"),"Ocurrió un error indefinido.")</f>
@@ -1001,13 +1214,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ru"")"),"Произошла неопределенная ошибка.")</f>
         <v>Произошла неопределенная ошибка.</v>
       </c>
+      <c r="H14" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fi"")"),"Määrittelemätön virhe tapahtui.")</f>
+        <v>Määrittelemätön virhe tapahtui.</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""it"")"),"È successo un errore indefinito.")</f>
+        <v>È successo un errore indefinito.</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""zh"")"),"发生了未定义的错误。")</f>
+        <v>发生了未定义的错误。</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ja"")"),"未定義のエラーが発生しました。")</f>
+        <v>未定義のエラーが発生しました。</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""es"")"),"Cuenta")</f>
@@ -1029,13 +1258,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ru"")"),"Счет")</f>
         <v>Счет</v>
       </c>
+      <c r="H15" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fi"")"),"Tili")</f>
+        <v>Tili</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""it"")"),"Account")</f>
+        <v>Account</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""zh"")"),"帐户")</f>
+        <v>帐户</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ja"")"),"アカウント")</f>
+        <v>アカウント</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""es"")"),"General")</f>
@@ -1057,13 +1302,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ru"")"),"Общий")</f>
         <v>Общий</v>
       </c>
+      <c r="H16" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fi"")"),"Yleinen")</f>
+        <v>Yleinen</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""it"")"),"Generale")</f>
+        <v>Generale</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""zh"")"),"一般的")</f>
+        <v>一般的</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ja"")"),"全般的")</f>
+        <v>全般的</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""es"")"),"Intimidad")</f>
@@ -1085,13 +1346,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ru"")"),"Конфиденциальность")</f>
         <v>Конфиденциальность</v>
       </c>
+      <c r="H17" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fi"")"),"Yksityisyys")</f>
+        <v>Yksityisyys</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""it"")"),"Privacy")</f>
+        <v>Privacy</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""zh"")"),"隐私")</f>
+        <v>隐私</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ja"")"),"プライバシー")</f>
+        <v>プライバシー</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Oculto")</f>
@@ -1113,13 +1390,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Скрытый")</f>
         <v>Скрытый</v>
       </c>
+      <c r="H18" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Piilotettu")</f>
+        <v>Piilotettu</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Nascosto")</f>
+        <v>Nascosto</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"隐")</f>
+        <v>隐</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"隠れた")</f>
+        <v>隠れた</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Idioma")</f>
@@ -1141,13 +1434,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Язык")</f>
         <v>Язык</v>
       </c>
+      <c r="H19" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Kieli")</f>
+        <v>Kieli</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Lingua")</f>
+        <v>Lingua</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"语")</f>
+        <v>语</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"言語")</f>
+        <v>言語</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Notificaciones")</f>
@@ -1169,13 +1478,29 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Уверенность")</f>
         <v>Уверенность</v>
       </c>
+      <c r="H20" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Ilmoitukset")</f>
+        <v>Ilmoitukset</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Notifiche")</f>
+        <v>Notifiche</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"通知")</f>
+        <v>通知</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"通知")</f>
+        <v>通知</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"Modo nocturno")</f>
@@ -1197,917 +1522,1412 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"Ночной режим")</f>
         <v>Ночной режим</v>
       </c>
+      <c r="H21" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Yötila")</f>
+        <v>Yötila</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Modalità notturna")</f>
+        <v>Modalità notturna</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"夜间模式")</f>
+        <v>夜间模式</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"ナイトモード")</f>
+        <v>ナイトモード</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"isandroid")</f>
-        <v>isandroid</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"URL del perfil")</f>
+        <v>URL del perfil</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"isandroid")</f>
-        <v>isandroid</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Profil URL")</f>
+        <v>Profil URL</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Isandroid")</f>
-        <v>Isandroid</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Profil-URL")</f>
+        <v>Profil-URL</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"isandroid.")</f>
-        <v>isandroid.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"URL profilu")</f>
+        <v>URL profilu</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"isandroid")</f>
-        <v>isandroid</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"URL профиля")</f>
+        <v>URL профиля</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"profiili-URL")</f>
+        <v>profiili-URL</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"Profilo URL")</f>
+        <v>Profilo URL</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"个人资料网址")</f>
+        <v>个人资料网址</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"プロフィールURL")</f>
+        <v>プロフィールURL</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"URL del perfil")</f>
-        <v>URL del perfil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
+        <v>¿De dónde quieres una foto?</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"Profil URL")</f>
-        <v>Profil URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
+        <v>Où voulez-vous une photo?</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Profil-URL")</f>
-        <v>Profil-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
+        <v>Wo willst du ein Foto von?</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"URL profilu")</f>
-        <v>URL profilu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
+        <v>Skąd chcesz zdjęcie?</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"URL профиля")</f>
-        <v>URL профиля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
+        <v>Откуда вы хотите фотографию?</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
+        <v>Mistä haluat valokuvan?</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
+        <v>Da dove vuoi una foto?</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
+        <v>你想要一张照片吗？</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
+        <v>あなたはどこから写真を望みますか？</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
-        <v>¿De dónde quieres una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"Galería")</f>
+        <v>Galería</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
-        <v>Où voulez-vous une photo?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
-        <v>Wo willst du ein Foto von?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
-        <v>Skąd chcesz zdjęcie?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Galeria")</f>
+        <v>Galeria</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
-        <v>Откуда вы хотите фотографию?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Галерея")</f>
+        <v>Галерея</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Galleria")</f>
+        <v>Galleria</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Galleria")</f>
+        <v>Galleria</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"画廊")</f>
+        <v>画廊</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"ギャラリー")</f>
+        <v>ギャラリー</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"Galería")</f>
-        <v>Galería</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"Cámara")</f>
+        <v>Cámara</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Caméra")</f>
+        <v>Caméra</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Galeria")</f>
-        <v>Galeria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
+        <v>Aparat fotograficzny</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Галерея")</f>
-        <v>Галерея</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Камера")</f>
+        <v>Камера</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Kamera")</f>
+        <v>Kamera</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Telecamera")</f>
+        <v>Telecamera</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"相机")</f>
+        <v>相机</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"カメラ")</f>
+        <v>カメラ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"Cámara")</f>
-        <v>Cámara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"A diario")</f>
+        <v>A diario</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Caméra")</f>
-        <v>Caméra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"du quotidien")</f>
+        <v>du quotidien</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Täglich")</f>
+        <v>Täglich</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
-        <v>Aparat fotograficzny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Codziennie")</f>
+        <v>Codziennie</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Камера")</f>
-        <v>Камера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Ежедневно")</f>
+        <v>Ежедневно</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"Päivittäin")</f>
+        <v>Päivittäin</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"Quotidiano")</f>
+        <v>Quotidiano</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"日常")</f>
+        <v>日常</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"毎日")</f>
+        <v>毎日</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"A diario")</f>
-        <v>A diario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"¡Prepararse!")</f>
+        <v>¡Prepararse!</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"du quotidien")</f>
-        <v>du quotidien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"Sois prêt!")</f>
+        <v>Sois prêt!</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"Täglich")</f>
-        <v>Täglich</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"Bereit machen!")</f>
+        <v>Bereit machen!</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"Codziennie")</f>
-        <v>Codziennie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"Przygotuj się!")</f>
+        <v>Przygotuj się!</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"Ежедневно")</f>
-        <v>Ежедневно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"Приготовься!")</f>
+        <v>Приготовься!</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"Valmistaudu!")</f>
+        <v>Valmistaudu!</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"Preparati!")</f>
+        <v>Preparati!</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"做好准备！")</f>
+        <v>做好准备！</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"準備をしなさい！")</f>
+        <v>準備をしなさい！</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"¡Prepararse!")</f>
-        <v>¡Prepararse!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"Sois prêt!")</f>
-        <v>Sois prêt!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Bereit machen!")</f>
-        <v>Bereit machen!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Przygotuj się!")</f>
-        <v>Przygotuj się!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"Приготовься!")</f>
-        <v>Приготовься!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"EMPEZAR")</f>
+        <v>EMPEZAR</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"COMMENCER")</f>
+        <v>COMMENCER</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"LOSLEGEN")</f>
+        <v>LOSLEGEN</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"ZACZYNAJ")</f>
+        <v>ZACZYNAJ</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"НАЧАТЬ")</f>
+        <v>НАЧАТЬ</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"ALOITTAA")</f>
+        <v>ALOITTAA</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"INIZIARE")</f>
+        <v>INIZIARE</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"开始")</f>
+        <v>开始</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"始まりました")</f>
+        <v>始まりました</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"EMPEZAR")</f>
-        <v>EMPEZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"ACCESO")</f>
+        <v>ACCESO</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"COMMENCER")</f>
-        <v>COMMENCER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"CONNEXION")</f>
+        <v>CONNEXION</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"LOSLEGEN")</f>
-        <v>LOSLEGEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"ANMELDUNG")</f>
+        <v>ANMELDUNG</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"ZACZYNAJ")</f>
-        <v>ZACZYNAJ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
+        <v>ZALOGUJ SIE</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"НАЧАТЬ")</f>
-        <v>НАЧАТЬ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
+        <v>АВТОРИЗОВАТЬСЯ</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
+        <v>KIRJAUDU SISÄÄN</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"ACCEDERE")</f>
+        <v>ACCEDERE</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"登录")</f>
+        <v>登录</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"ログインする")</f>
+        <v>ログインする</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"ACCESO")</f>
-        <v>ACCESO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"INSCRIBIRSE")</f>
+        <v>INSCRIBIRSE</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"CONNEXION")</f>
-        <v>CONNEXION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"S'INSCRIRE")</f>
+        <v>S'INSCRIRE</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"ANMELDUNG")</f>
-        <v>ANMELDUNG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"ANMELDEN")</f>
+        <v>ANMELDEN</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
-        <v>ZALOGUJ SIE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
+        <v>ZAPISZ SIĘ</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
-        <v>АВТОРИЗОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"KIRJAUDU")</f>
+        <v>KIRJAUDU</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"ISCRIVITI")</f>
+        <v>ISCRIVITI</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"报名")</f>
+        <v>报名</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"サインアップ")</f>
+        <v>サインアップ</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"INSCRIBIRSE")</f>
-        <v>INSCRIBIRSE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Nombre")</f>
+        <v>Nombre</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"S'INSCRIRE")</f>
-        <v>S'INSCRIRE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Nom")</f>
+        <v>Nom</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"ANMELDEN")</f>
-        <v>ANMELDEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Name")</f>
+        <v>Name</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
-        <v>ZAPISZ SIĘ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Nazwa")</f>
+        <v>Nazwa</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Имя")</f>
+        <v>Имя</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Nimi")</f>
+        <v>Nimi</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Nome")</f>
+        <v>Nome</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"名称")</f>
+        <v>名称</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"名前")</f>
+        <v>名前</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Nombre")</f>
-        <v>Nombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Nom")</f>
-        <v>Nom</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Name")</f>
-        <v>Name</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"Nazwa")</f>
-        <v>Nazwa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Имя")</f>
-        <v>Имя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Contraseña")</f>
+        <v>Contraseña</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Mot de passe")</f>
+        <v>Mot de passe</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Passwort")</f>
+        <v>Passwort</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"Hasło")</f>
+        <v>Hasło</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Пароль")</f>
+        <v>Пароль</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"Salasana")</f>
+        <v>Salasana</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Parola d'ordine")</f>
+        <v>Parola d'ordine</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"密码")</f>
+        <v>密码</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"パスワード")</f>
+        <v>パスワード</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"Contraseña")</f>
-        <v>Contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
+        <v>¿Has olvidado tu contraseña?</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Mot de passe")</f>
-        <v>Mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Passwort")</f>
-        <v>Passwort</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Hasło")</f>
-        <v>Hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Пароль")</f>
-        <v>Пароль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Забыли пароль?")</f>
+        <v>Забыли пароль?</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
+        <v>Unohtuiko salasana?</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
+        <v>Ha dimenticato la password?</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"忘记密码？")</f>
+        <v>忘记密码？</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
-        <v>¿Has olvidado tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Забыли пароль?")</f>
-        <v>Забыли пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
+        <v>¿No tienes una cuenta?</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
+        <v>Vous n'avez pas de compte?</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
+        <v>Ich habe kein Konto?</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Nie masz konta?")</f>
+        <v>Nie masz konta?</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
+        <v>У вас нет аккаунта?</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
+        <v>Eikö sinulla ole tiliä?</v>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Non hai un account?")</f>
+        <v>Non hai un account?</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"没有帐户？")</f>
+        <v>没有帐户？</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
+        <v>アカウントを持っていませんか？</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
-        <v>¿No tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
-        <v>Vous n'avez pas de compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
-        <v>Ich habe kein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Nie masz konta?")</f>
-        <v>Nie masz konta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
-        <v>У вас нет аккаунта?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
+        <v>¡INSCRIBIRSE!</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
+        <v>S'INSCRIRE!</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"ANMELDEN!")</f>
+        <v>ANMELDEN!</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
+        <v>ZAPISZ SIĘ!</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"KIRJAUDU!")</f>
+        <v>KIRJAUDU!</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"ISCRIVITI!")</f>
+        <v>ISCRIVITI!</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"报名！")</f>
+        <v>报名！</v>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"サインアップ！")</f>
+        <v>サインアップ！</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
-        <v>¡INSCRIBIRSE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
+        <v>¿Olvidaste tu contraseña?</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
-        <v>S'INSCRIRE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"ANMELDEN!")</f>
-        <v>ANMELDEN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
-        <v>ZAPISZ SIĘ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
+        <v>Забыли Ваш пароль?</v>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
+        <v>Unohditko salasanasi?</v>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
+        <v>Hai dimenticato la password?</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"忘记密码了吗？")</f>
+        <v>忘记密码了吗？</v>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
-        <v>¿Olvidaste tu contraseña?</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
-      </c>
-      <c r="F42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
-      </c>
-      <c r="G42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
-        <v>Забыли Ваш пароль?</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.")</f>
         <v>Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.")</f>
         <v>Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
         <v>Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
       </c>
-      <c r="F43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
+      <c r="F42" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.")</f>
         <v>Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.</v>
       </c>
-      <c r="G43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
+      <c r="G42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.")</f>
         <v>Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.</v>
       </c>
+      <c r="H42" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
+Vastaanota salasanan nollausviesti.")</f>
+        <v>Anna käyttäjän sähköposti alla
+Vastaanota salasanan nollausviesti.</v>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
+Ricevi un messaggio di reimpostazione della password.")</f>
+        <v>Inserisci la tua email utente qui sotto per
+Ricevi un messaggio di reimpostazione della password.</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"输入下面的用户电子邮件
+收到密码重置消息。")</f>
+        <v>输入下面的用户电子邮件
+收到密码重置消息。</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
+パスワードリセットメッセージを受信します。")</f>
+        <v>下のユーザー - 電子メールを入力してください
+パスワードリセットメッセージを受信します。</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
+        <v>El correo electrónico no puede estar vacío</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
+        <v>L'email ne peut pas être vide</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
+        <v>E-Mail kann nicht leer sein</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
+        <v>E-mail nie może być pusty</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
+        <v>Электронная почта не может быть пустым</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
+        <v>Sähköposti ei voi olla tyhjä</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
+        <v>L'e-mail non può essere vuota</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"电子邮件不能为空")</f>
+        <v>电子邮件不能为空</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
+        <v>電子メールは空にすることはできません</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
-        <v>El correo electrónico no puede estar vacío</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
-        <v>L'email ne peut pas être vide</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
-        <v>E-Mail kann nicht leer sein</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
-        <v>E-mail nie może być pusty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
-        <v>Электронная почта не может быть пустым</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
+      </c>
+      <c r="I44" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"Enviar")</f>
+        <v>Enviar</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"Envoyer")</f>
+        <v>Envoyer</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"Senden")</f>
+        <v>Senden</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"Wysłać")</f>
+        <v>Wysłać</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"Отправлять")</f>
+        <v>Отправлять</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"Lähettää")</f>
+        <v>Lähettää</v>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"Spedire")</f>
+        <v>Spedire</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"发送")</f>
+        <v>发送</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"送信")</f>
+        <v>送信</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"Enviar")</f>
-        <v>Enviar</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"No lo entendí?")</f>
+        <v>No lo entendí?</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Envoyer")</f>
-        <v>Envoyer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
+        <v>Ne l'a pas eu?</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Senden")</f>
-        <v>Senden</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
+        <v>Hast es nicht bekommen?</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Wysłać")</f>
-        <v>Wysłać</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
+        <v>Nie zrozumiałeś?</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Отправлять")</f>
-        <v>Отправлять</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Не понял?")</f>
+        <v>Не понял?</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
+        <v>Ei saanut sitä?</v>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"Non ho capito?")</f>
+        <v>Non ho capito?</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"没有得到它？")</f>
+        <v>没有得到它？</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"手に入れなかった？")</f>
+        <v>手に入れなかった？</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"No lo entendí?")</f>
-        <v>No lo entendí?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"¡Resolver!")</f>
+        <v>¡Resolver!</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
-        <v>Ne l'a pas eu?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Renvoyez!")</f>
+        <v>Renvoyez!</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
-        <v>Hast es nicht bekommen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Erneut senden!")</f>
+        <v>Erneut senden!</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
-        <v>Nie zrozumiałeś?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
+        <v>Wysłać ponownie!</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Не понял?")</f>
-        <v>Не понял?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Отправить!")</f>
+        <v>Отправить!</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
+        <v>Uudelleen lähettää!</v>
+      </c>
+      <c r="I47" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"Resenda!")</f>
+        <v>Resenda!</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"重发！")</f>
+        <v>重发！</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"res！")</f>
+        <v>res！</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"¡Resolver!")</f>
-        <v>¡Resolver!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Ajustes")</f>
+        <v>Ajustes</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"Renvoyez!")</f>
-        <v>Renvoyez!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"Réglages")</f>
+        <v>Réglages</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Erneut senden!")</f>
-        <v>Erneut senden!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Einstellungen")</f>
+        <v>Einstellungen</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
-        <v>Wysłać ponownie!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Ustawienia")</f>
+        <v>Ustawienia</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Отправить!")</f>
-        <v>Отправить!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Настройки")</f>
+        <v>Настройки</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"asetukset")</f>
+        <v>asetukset</v>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"Impostazioni")</f>
+        <v>Impostazioni</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"设置")</f>
+        <v>设置</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"設定")</f>
+        <v>設定</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Ajustes")</f>
-        <v>Ajustes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Restablecer la contraseña")</f>
+        <v>Restablecer la contraseña</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Réglages")</f>
-        <v>Réglages</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
+        <v>Réinitialiser le mot de passe</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Einstellungen")</f>
-        <v>Einstellungen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
+        <v>Passwort zurücksetzen</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Ustawienia")</f>
-        <v>Ustawienia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Zresetuj hasło")</f>
+        <v>Zresetuj hasło</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Настройки")</f>
-        <v>Настройки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Сброс пароля")</f>
+        <v>Сброс пароля</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Nollaa salasana")</f>
+        <v>Nollaa salasana</v>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Resetta la password")</f>
+        <v>Resetta la password</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"重设密码")</f>
+        <v>重设密码</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワードを再設定する")</f>
+        <v>パスワードを再設定する</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"Restablecer la contraseña")</f>
-        <v>Restablecer la contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
+        <v>E-mail ha sido enviado</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
-        <v>Réinitialiser le mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"L'email a été envoyé")</f>
+        <v>L'email a été envoyé</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
-        <v>Passwort zurücksetzen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
+        <v>Die Email wurde verschickt</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Zresetuj hasło")</f>
-        <v>Zresetuj hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Email został wysłany")</f>
+        <v>Email został wysłany</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Сброс пароля")</f>
-        <v>Сброс пароля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Письмо было отправлено")</f>
+        <v>Письмо было отправлено</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
+        <v>Sähköposti on lähetetty</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"L'email è stata inviata")</f>
+        <v>L'email è stata inviata</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"邮件已发送")</f>
+        <v>邮件已发送</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"メールが送信されました")</f>
+        <v>メールが送信されました</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
-        <v>E-mail ha sido enviado</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"DESCONECTAR")</f>
+        <v>DESCONECTAR</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"L'email a été envoyé")</f>
-        <v>L'email a été envoyé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
+        <v>SE DÉCONNECTER</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
-        <v>Die Email wurde verschickt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"AUSTRAGEN")</f>
+        <v>AUSTRAGEN</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Email został wysłany")</f>
-        <v>Email został wysłany</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
+        <v>WYLOGUJ SIĘ</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"Письмо было отправлено")</f>
-        <v>Письмо было отправлено</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"DESCONECTAR")</f>
-        <v>DESCONECTAR</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
-        <v>SE DÉCONNECTER</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"AUSTRAGEN")</f>
-        <v>AUSTRAGEN</v>
-      </c>
-      <c r="F52" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
-        <v>WYLOGUJ SIĘ</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"ВЫХОД")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"ВЫХОД")</f>
         <v>ВЫХОД</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="4" t="str">
-        <f t="array" ref="B54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingNotifications": "Notifications", "settingIsDark": "Night mode", "settingsIsAndroid": "isAndroid", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "medfiaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+      <c r="H51" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
+        <v>KIRJAUDU ULOS</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"DISCONNESSIONE")</f>
+        <v>DISCONNESSIONE</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"登出")</f>
+        <v>登出</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"サインアウト")</f>
+        <v>サインアウト</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="str">
+        <f t="array" ref="B53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingNotifications": "Notifications", "settingIsDark": "Night mode", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
 receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</v>
       </c>
-      <c r="C54" s="4" t="str">
-        <f t="array" ref="C54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingNotifications": "Notificaciones", "settingIsDark": "Modo nocturno", "settingsIsAndroid": "isandroid", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "medfiaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
+      <c r="C53" s="4" t="str">
+        <f t="array" ref="C53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingNotifications": "Notificaciones", "settingIsDark": "Modo nocturno", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</v>
       </c>
-      <c r="D54" s="4" t="str">
-        <f t="array" ref="D54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingNotifications": "Notifications", "settingIsDark": "Mode nuit", "settingsIsAndroid": "isandroid", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "medfiaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D53" s="4" t="str">
+        <f t="array" ref="D53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingNotifications": "Notifications", "settingIsDark": "Mode nuit", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</v>
       </c>
-      <c r="E54" s="4" t="str">
-        <f t="array" ref="E54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingNotifications": "Benachrichtigungen", "settingIsDark": "Nacht-Modus", "settingsIsAndroid": "Isandroid", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "medfiaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E53" s="4" t="str">
+        <f t="array" ref="E53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingNotifications": "Benachrichtigungen", "settingIsDark": "Nacht-Modus", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f t="array" ref="F54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingNotifications": "Powiadomienia", "settingIsDark": "Tryb nocny", "settingsIsAndroid": "isandroid.", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "medfiaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
+      <c r="F53" s="4" t="str">
+        <f t="array" ref="F53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingNotifications": "Powiadomienia", "settingIsDark": "Tryb nocny", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
       </c>
-      <c r="G54" s="4" t="str">
-        <f t="array" ref="G54">concatenate("{", join(", ", char(34)&amp;A2:A52&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G52&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingNotifications": "Уверенность", "settingIsDark": "Ночной режим", "settingsIsAndroid": "isandroid", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "medfiaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
+      <c r="G53" s="4" t="str">
+        <f t="array" ref="G53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не так.", "errorUserNotFound": "Пользователь не существует или пароль не так.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingNotifications": "Уверенность", "settingIsDark": "Ночной режим", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H53" s="4" t="str">
+        <f t="array" ref="H53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingNotifications": "Ilmoitukset", "settingIsDark": "Yötila", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
+Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</v>
+      </c>
+      <c r="I53" s="4" t="str">
+        <f t="array" ref="I53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingNotifications": "Notifiche", "settingIsDark": "Modalità notturna", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
+Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f t="array" ref="J53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingNotifications": "通知", "settingIsDark": "夜间模式", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
+收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</v>
+      </c>
+      <c r="K53" s="4" t="str">
+        <f t="array" ref="K53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K51&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingNotifications": "通知", "settingIsDark": "ナイトモード", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
+パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/daily_1.0/daily/lib/localizations/daily_json.xlsx
+++ b/daily_1.0/daily/lib/localizations/daily_json.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>VALUE</t>
   </si>
@@ -148,16 +148,94 @@
     <t>Language</t>
   </si>
   <si>
+    <t>settingLocaleChinese</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>settingLocaleEnglish</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>settingLocaleFinnish</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>settingLocaleFrench</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>settingLocaleGerman</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>settingLocaleItalian</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>settingLocaleJapanese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>settingLocalePolish</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>settingLocaleRussian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>settingLocaleSpanish</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>settingNotifications</t>
   </si>
   <si>
     <t>Notifications</t>
   </si>
   <si>
-    <t>settingIsDark</t>
-  </si>
-  <si>
-    <t>Night mode</t>
+    <t>settingTheme</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>settingThemeLight</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>settingThemeDark</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>settingThemeDefault</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
   <si>
     <t>settingProfileURL</t>
@@ -330,6 +408,49 @@
   </si>
   <si>
     <t>SIGN OUT</t>
+  </si>
+  <si>
+    <t>JSON Format</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
+Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
+Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
+erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
+Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
+Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
+Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
+Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
+收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</t>
+  </si>
+  <si>
+    <t>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
+パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</t>
   </si>
 </sst>
 </file>
@@ -357,12 +478,24 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -383,16 +516,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,11 +748,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.14"/>
+    <col customWidth="1" min="1" max="1" width="32.57"/>
     <col customWidth="1" min="2" max="2" width="55.14"/>
     <col customWidth="1" min="3" max="3" width="57.86"/>
     <col customWidth="1" min="4" max="4" width="59.71"/>
@@ -658,2276 +804,5773 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""es"")"),"No puedo tener un campo en blanco.")</f>
         <v>No puedo tener un campo en blanco.</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""fr"")"),"Ne peut pas avoir un champ vide.")</f>
         <v>Ne peut pas avoir un champ vide.</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""de"")"),"Ich kann kein leeres Feld haben.")</f>
         <v>Ich kann kein leeres Feld haben.</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""pl"")"),"Nie mogę mieć pustego pola.")</f>
         <v>Nie mogę mieć pustego pola.</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""ru"")"),"Не может иметь пустое поле.")</f>
         <v>Не может иметь пустое поле.</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""fi"")"),"Ei voi olla tyhjä kenttä.")</f>
         <v>Ei voi olla tyhjä kenttä.</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""it"")"),"Non può avere un campo vuoto.")</f>
         <v>Non può avere un campo vuoto.</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""zh"")"),"不能有一个空白字段。")</f>
         <v>不能有一个空白字段。</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2, ""en"", ""ja"")"),"空白のフィールドを持つことはできません。")</f>
         <v>空白のフィールドを持つことはできません。</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""es"")"),"El nombre debe tener 3-10 caracteres.")</f>
         <v>El nombre debe tener 3-10 caracteres.</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""fr"")"),"Le nom doit être de 3 à 10 caractères.")</f>
         <v>Le nom doit être de 3 à 10 caractères.</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""de"")"),"Der Name muss 3-10 Zeichen sein.")</f>
         <v>Der Name muss 3-10 Zeichen sein.</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""pl"")"),"Nazwa musi wynosić 3-10 znaków.")</f>
         <v>Nazwa musi wynosić 3-10 znaków.</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""ru"")"),"Имя должно быть 3-10 символов.")</f>
         <v>Имя должно быть 3-10 символов.</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""fi"")"),"Nimen on oltava 3-10 merkkiä.")</f>
         <v>Nimen on oltava 3-10 merkkiä.</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""it"")"),"Il nome deve essere di 3-10 caratteri.")</f>
         <v>Il nome deve essere di 3-10 caratteri.</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""zh"")"),"名称必须是3-10个字符。")</f>
         <v>名称必须是3-10个字符。</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3, ""en"", ""ja"")"),"名前は3~10文字でなければなりません。")</f>
         <v>名前は3~10文字でなければなりません。</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""es"")"),"La contraseña debe tener 8-16 caracteres y un número / símbolo.")</f>
         <v>La contraseña debe tener 8-16 caracteres y un número / símbolo.</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""fr"")"),"Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.")</f>
         <v>Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""de"")"),"Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.")</f>
         <v>Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""pl"")"),"Hasło musi wynosić 8-16 znaków i numer / symbol.")</f>
         <v>Hasło musi wynosić 8-16 znaków i numer / symbol.</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""ru"")"),"Пароль должен быть 8-16 символов и число / символ.")</f>
         <v>Пароль должен быть 8-16 символов и число / символ.</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""fi"")"),"Salasanan on oltava 8-16 merkkiä ja numero / symboli.")</f>
         <v>Salasanan on oltava 8-16 merkkiä ja numero / symboli.</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""it"")"),"La password deve essere di 8-16 caratteri e un numero / simbolo.")</f>
         <v>La password deve essere di 8-16 caratteri e un numero / simbolo.</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""zh"")"),"密码必须为8-16个字符和数字/符号。")</f>
         <v>密码必须为8-16个字符和数字/符号。</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4, ""en"", ""ja"")"),"パスワードは8-16文字と番号/記号でなければなりません。")</f>
         <v>パスワードは8-16文字と番号/記号でなければなりません。</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""es"")"),"Tu contraseña es muy débil.")</f>
         <v>Tu contraseña es muy débil.</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fr"")"),"Votre mot de passe est trop faible.")</f>
         <v>Votre mot de passe est trop faible.</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""de"")"),"Ihr Passwort ist zu schwach.")</f>
         <v>Ihr Passwort ist zu schwach.</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""pl"")"),"Twoje hasło jest za słabe.")</f>
         <v>Twoje hasło jest za słabe.</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ru"")"),"Ваш пароль слишком слабый.")</f>
         <v>Ваш пароль слишком слабый.</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fi"")"),"Salasanasi on liian heikko.")</f>
         <v>Salasanasi on liian heikko.</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""it"")"),"La tua password è troppo debole.")</f>
         <v>La tua password è troppo debole.</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""zh"")"),"你的密码太简单了。")</f>
         <v>你的密码太简单了。</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ja"")"),"あなたのパスワードは安全度が低いです。")</f>
         <v>あなたのパスワードは安全度が低いです。</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
         <v>Por favor introduzca una dirección de correo electrónico válida.</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
         <v>Veuillez entrer un email valide.</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
         <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
         <v>Proszę wpisać prawidłowy email.</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
         <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
         <v>Anna kelvollinen sähköposti.</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""it"")"),"Inserisci una email valida.")</f>
         <v>Inserisci una email valida.</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
         <v>请输入有效电子邮件。</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
         <v>正しいメールアドレスを入力してください。</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
         <v>El usuario no existe o la contraseña es incorrecta.</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fr"")"),"L'utilisateur n'existe pas ou le mot de passe est faux.")</f>
         <v>L'utilisateur n'existe pas ou le mot de passe est faux.</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""de"")"),"Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.")</f>
         <v>Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""pl"")"),"Użytkownik nie istnieje, czy hasło jest nieprawidłowe.")</f>
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
-        <v>Пользователь не существует или пароль не так.</v>
-      </c>
-      <c r="H7" s="3" t="str">
+      <c r="G7" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
+        <v>Пользователь не существует или пароль не прав.</v>
+      </c>
+      <c r="H7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
         <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
         <v>L'utente non esiste o la password è sbagliata.</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
         <v>用户不存在或密码错误。</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
         <v>ユーザーが存在しないかパスワードが間違っています。</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
         <v>El usuario no existe o la contraseña es incorrecta.</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""fr"")"),"L'utilisateur n'existe pas ou le mot de passe est faux.")</f>
         <v>L'utilisateur n'existe pas ou le mot de passe est faux.</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""de"")"),"Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.")</f>
         <v>Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""pl"")"),"Użytkownik nie istnieje, czy hasło jest nieprawidłowe.")</f>
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
-        <v>Пользователь не существует или пароль не так.</v>
-      </c>
-      <c r="H8" s="3" t="str">
+      <c r="G8" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
+        <v>Пользователь не существует или пароль не прав.</v>
+      </c>
+      <c r="H8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
         <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
         <v>L'utente non esiste o la password è sbagliata.</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
         <v>用户不存在或密码错误。</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
         <v>ユーザーが存在しないかパスワードが間違っています。</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""es"")"),"El usuario ha sido deshabilitado.")</f>
         <v>El usuario ha sido deshabilitado.</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fr"")"),"L'utilisateur a été désactivé.")</f>
         <v>L'utilisateur a été désactivé.</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""de"")"),"Benutzer wurde deaktiviert.")</f>
         <v>Benutzer wurde deaktiviert.</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""pl"")"),"Użytkownik został wyłączony.")</f>
         <v>Użytkownik został wyłączony.</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ru"")"),"Пользователь был отключен.")</f>
         <v>Пользователь был отключен.</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fi"")"),"Käyttäjä on poistettu käytöstä.")</f>
         <v>Käyttäjä on poistettu käytöstä.</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""it"")"),"L'utente è stato disabilitato.")</f>
         <v>L'utente è stato disabilitato.</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""zh"")"),"用户已被禁用。")</f>
         <v>用户已被禁用。</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ja"")"),"ユーザーが無効になっています。")</f>
         <v>ユーザーが無効になっています。</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""es"")"),"El correo electrónico ya está en uso en una cuenta diferente.")</f>
         <v>El correo electrónico ya está en uso en una cuenta diferente.</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fr"")"),"Le courrier électronique est déjà utilisé sur un compte différent.")</f>
         <v>Le courrier électronique est déjà utilisé sur un compte différent.</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""de"")"),"E-Mail ist bereits auf einem anderen Konto verwendet.")</f>
         <v>E-Mail ist bereits auf einem anderen Konto verwendet.</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""pl"")"),"E-mail jest już używany na różnych kontach.")</f>
         <v>E-mail jest już używany na różnych kontach.</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ru"")"),"Электронная почта уже используется на другой учетной записи.")</f>
         <v>Электронная почта уже используется на другой учетной записи.</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fi"")"),"Sähköposti on jo käytössä eri tilillä.")</f>
         <v>Sähköposti on jo käytössä eri tilillä.</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""it"")"),"L'e-mail è già in uso su un account diverso.")</f>
         <v>L'e-mail è già in uso su un account diverso.</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""zh"")"),"电子邮件已在不同的帐户中使用。")</f>
         <v>电子邮件已在不同的帐户中使用。</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ja"")"),"電子メールはすでに異なるアカウントで使用されています。")</f>
         <v>電子メールはすでに異なるアカウントで使用されています。</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
         <v>Por favor introduzca una dirección de correo electrónico válida.</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
         <v>Veuillez entrer un email valide.</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
         <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
         <v>Proszę wpisać prawidłowy email.</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
         <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
         <v>Anna kelvollinen sähköposti.</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""it"")"),"Inserisci una email valida.")</f>
         <v>Inserisci una email valida.</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
         <v>请输入有效电子邮件。</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
         <v>正しいメールアドレスを入力してください。</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""es"")"),"Error al obtener la imagen.")</f>
         <v>Error al obtener la imagen.</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fr"")"),"Impossible d'obtenir une image.")</f>
         <v>Impossible d'obtenir une image.</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""de"")"),"Image konnte nicht abgerufen werden.")</f>
         <v>Image konnte nicht abgerufen werden.</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""pl"")"),"Nie udało się uzyskać obrazu.")</f>
         <v>Nie udało się uzyskać obrazu.</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ru"")"),"Не удалось получить изображение.")</f>
         <v>Не удалось получить изображение.</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fi"")"),"Kuvan saaminen epäonnistui.")</f>
         <v>Kuvan saaminen epäonnistui.</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""it"")"),"Impossibile ottenere un'immagine.")</f>
         <v>Impossibile ottenere un'immagine.</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="J12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""zh"")"),"无法获得图像。")</f>
         <v>无法获得图像。</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="K12" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ja"")"),"画像を取得できませんでした。")</f>
         <v>画像を取得できませんでした。</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""es"")"),"Error al compartir.")</f>
         <v>Error al compartir.</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fr"")"),"Échoué à partager.")</f>
         <v>Échoué à partager.</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""de"")"),"Nicht teilen.")</f>
         <v>Nicht teilen.</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""pl"")"),"Nie udało się udostępnić.")</f>
         <v>Nie udało się udostępnić.</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ru"")"),"Не удалось поделиться.")</f>
         <v>Не удалось поделиться.</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fi"")"),"Jakaminen epäonnistui.")</f>
         <v>Jakaminen epäonnistui.</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""it"")"),"Impossibile condividere.")</f>
         <v>Impossibile condividere.</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="J13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""zh"")"),"未能分享。")</f>
         <v>未能分享。</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ja"")"),"共有に失敗しました。")</f>
         <v>共有に失敗しました。</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""es"")"),"Ocurrió un error indefinido.")</f>
         <v>Ocurrió un error indefinido.</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fr"")"),"Une erreur non définie s'est produite.")</f>
         <v>Une erreur non définie s'est produite.</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""de"")"),"Ein undefinierter Fehler ist passiert.")</f>
         <v>Ein undefinierter Fehler ist passiert.</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""pl"")"),"Zdarzyło się niezdefiniowany błąd.")</f>
         <v>Zdarzyło się niezdefiniowany błąd.</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ru"")"),"Произошла неопределенная ошибка.")</f>
         <v>Произошла неопределенная ошибка.</v>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fi"")"),"Määrittelemätön virhe tapahtui.")</f>
         <v>Määrittelemätön virhe tapahtui.</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""it"")"),"È successo un errore indefinito.")</f>
         <v>È successo un errore indefinito.</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="J14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""zh"")"),"发生了未定义的错误。")</f>
         <v>发生了未定义的错误。</v>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="K14" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ja"")"),"未定義のエラーが発生しました。")</f>
         <v>未定義のエラーが発生しました。</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""es"")"),"Cuenta")</f>
         <v>Cuenta</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fr"")"),"Compte")</f>
         <v>Compte</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""de"")"),"Konto")</f>
         <v>Konto</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""pl"")"),"Rachunek")</f>
         <v>Rachunek</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ru"")"),"Счет")</f>
         <v>Счет</v>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fi"")"),"Tili")</f>
         <v>Tili</v>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""it"")"),"Account")</f>
         <v>Account</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="J15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""zh"")"),"帐户")</f>
         <v>帐户</v>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="K15" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ja"")"),"アカウント")</f>
         <v>アカウント</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""es"")"),"General")</f>
         <v>General</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fr"")"),"Général")</f>
         <v>Général</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""de"")"),"Allgemein")</f>
         <v>Allgemein</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""pl"")"),"Ogólny")</f>
         <v>Ogólny</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ru"")"),"Общий")</f>
         <v>Общий</v>
       </c>
-      <c r="H16" s="3" t="str">
+      <c r="H16" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fi"")"),"Yleinen")</f>
         <v>Yleinen</v>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""it"")"),"Generale")</f>
         <v>Generale</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="J16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""zh"")"),"一般的")</f>
         <v>一般的</v>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="K16" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ja"")"),"全般的")</f>
         <v>全般的</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""es"")"),"Intimidad")</f>
         <v>Intimidad</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fr"")"),"Vie privée")</f>
         <v>Vie privée</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""de"")"),"Privatsphäre")</f>
         <v>Privatsphäre</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""pl"")"),"Prywatność")</f>
         <v>Prywatność</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="G17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ru"")"),"Конфиденциальность")</f>
         <v>Конфиденциальность</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fi"")"),"Yksityisyys")</f>
         <v>Yksityisyys</v>
       </c>
-      <c r="I17" s="3" t="str">
+      <c r="I17" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""it"")"),"Privacy")</f>
         <v>Privacy</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="J17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""zh"")"),"隐私")</f>
         <v>隐私</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="K17" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ja"")"),"プライバシー")</f>
         <v>プライバシー</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Oculto")</f>
         <v>Oculto</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Caché")</f>
         <v>Caché</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""de"")"),"Versteckt")</f>
         <v>Versteckt</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pl"")"),"Ukryty")</f>
         <v>Ukryty</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="G18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Скрытый")</f>
         <v>Скрытый</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Piilotettu")</f>
         <v>Piilotettu</v>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Nascosto")</f>
         <v>Nascosto</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="J18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"隐")</f>
         <v>隐</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="K18" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"隠れた")</f>
         <v>隠れた</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Idioma")</f>
         <v>Idioma</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Langue")</f>
         <v>Langue</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""de"")"),"Sprache")</f>
         <v>Sprache</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pl"")"),"Język")</f>
         <v>Język</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Язык")</f>
         <v>Язык</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Kieli")</f>
         <v>Kieli</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I19" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Lingua")</f>
         <v>Lingua</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="J19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"语")</f>
         <v>语</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="K19" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"言語")</f>
         <v>言語</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Notificaciones")</f>
+      <c r="C20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"polaco")</f>
+        <v>polaco</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"polonais")</f>
+        <v>polonais</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"Polieren")</f>
+        <v>Polieren</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"Polskie")</f>
+        <v>Polskie</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"Польский")</f>
+        <v>Польский</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"Kiillottaa")</f>
+        <v>Kiillottaa</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"polacco")</f>
+        <v>polacco</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"抛光")</f>
+        <v>抛光</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"研磨")</f>
+        <v>研磨</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"ruso")</f>
+        <v>ruso</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"russe")</f>
+        <v>russe</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Russisch")</f>
+        <v>Russisch</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Rosyjski")</f>
+        <v>Rosyjski</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"русский")</f>
+        <v>русский</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Venäjän kieli")</f>
+        <v>Venäjän kieli</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"russo")</f>
+        <v>russo</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"俄语")</f>
+        <v>俄语</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"ロシア")</f>
+        <v>ロシア</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"español")</f>
+        <v>español</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"Espagnol")</f>
+        <v>Espagnol</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"Spanisch")</f>
+        <v>Spanisch</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"hiszpański")</f>
+        <v>hiszpański</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"испанский язык")</f>
+        <v>испанский язык</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"Espanja")</f>
+        <v>Espanja</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"spagnolo")</f>
+        <v>spagnolo</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"西班牙语")</f>
+        <v>西班牙语</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"スペイン語")</f>
+        <v>スペイン語</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"Notificaciones")</f>
         <v>Notificaciones</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Notifications")</f>
+      <c r="D30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"Notifications")</f>
         <v>Notifications</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Benachrichtigungen")</f>
+      <c r="E30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"Benachrichtigungen")</f>
         <v>Benachrichtigungen</v>
       </c>
-      <c r="F20" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Powiadomienia")</f>
+      <c r="F30" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"Powiadomienia")</f>
         <v>Powiadomienia</v>
       </c>
-      <c r="G20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Уверенность")</f>
+      <c r="G30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"Уверенность")</f>
         <v>Уверенность</v>
       </c>
-      <c r="H20" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Ilmoitukset")</f>
+      <c r="H30" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"Ilmoitukset")</f>
         <v>Ilmoitukset</v>
       </c>
-      <c r="I20" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Notifiche")</f>
+      <c r="I30" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"Notifiche")</f>
         <v>Notifiche</v>
       </c>
-      <c r="J20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"通知")</f>
+      <c r="J30" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"通知")</f>
         <v>通知</v>
       </c>
-      <c r="K20" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"通知")</f>
+      <c r="K30" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"通知")</f>
         <v>通知</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"Modo nocturno")</f>
-        <v>Modo nocturno</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Mode nuit")</f>
-        <v>Mode nuit</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Nacht-Modus")</f>
-        <v>Nacht-Modus</v>
-      </c>
-      <c r="F21" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"Tryb nocny")</f>
-        <v>Tryb nocny</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"Ночной режим")</f>
-        <v>Ночной режим</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Yötila")</f>
-        <v>Yötila</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Modalità notturna")</f>
-        <v>Modalità notturna</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"夜间模式")</f>
-        <v>夜间模式</v>
-      </c>
-      <c r="K21" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"ナイトモード")</f>
-        <v>ナイトモード</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"URL del perfil")</f>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"Tema")</f>
+        <v>Tema</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"Thème")</f>
+        <v>Thème</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"Thema")</f>
+        <v>Thema</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"Temat")</f>
+        <v>Temat</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"Тема")</f>
+        <v>Тема</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"Teema")</f>
+        <v>Teema</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"Tema")</f>
+        <v>Tema</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"主题")</f>
+        <v>主题</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"テーマ")</f>
+        <v>テーマ</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"Ligero")</f>
+        <v>Ligero</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"Lumière")</f>
+        <v>Lumière</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"Hell")</f>
+        <v>Hell</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"Światło")</f>
+        <v>Światło</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"Светлый")</f>
+        <v>Светлый</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"Kevyt")</f>
+        <v>Kevyt</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"Luce")</f>
+        <v>Luce</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"光")</f>
+        <v>光</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"光")</f>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Oscuro")</f>
+        <v>Oscuro</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Foncé")</f>
+        <v>Foncé</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Dunkel")</f>
+        <v>Dunkel</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Ciemny")</f>
+        <v>Ciemny</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Темно")</f>
+        <v>Темно</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Tumma")</f>
+        <v>Tumma</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Buio")</f>
+        <v>Buio</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"黑暗的")</f>
+        <v>黑暗的</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"闇")</f>
+        <v>闇</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Defecto")</f>
+        <v>Defecto</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Défaut")</f>
+        <v>Défaut</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Standard")</f>
+        <v>Standard</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"Domyślna")</f>
+        <v>Domyślna</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Дефолт")</f>
+        <v>Дефолт</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Oletusarvo")</f>
+        <v>Oletusarvo</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"Predefinito")</f>
+        <v>Predefinito</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"默认")</f>
+        <v>默认</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"ディフォルト")</f>
+        <v>ディフォルト</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"URL del perfil")</f>
         <v>URL del perfil</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Profil URL")</f>
+      <c r="D35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Profil URL")</f>
         <v>Profil URL</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Profil-URL")</f>
+      <c r="E35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Profil-URL")</f>
         <v>Profil-URL</v>
       </c>
-      <c r="F22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"URL profilu")</f>
+      <c r="F35" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"URL profilu")</f>
         <v>URL profilu</v>
       </c>
-      <c r="G22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"URL профиля")</f>
+      <c r="G35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"URL профиля")</f>
         <v>URL профиля</v>
       </c>
-      <c r="H22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"profiili-URL")</f>
+      <c r="H35" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"profiili-URL")</f>
         <v>profiili-URL</v>
       </c>
-      <c r="I22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"Profilo URL")</f>
+      <c r="I35" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Profilo URL")</f>
         <v>Profilo URL</v>
       </c>
-      <c r="J22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"个人资料网址")</f>
+      <c r="J35" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"个人资料网址")</f>
         <v>个人资料网址</v>
       </c>
-      <c r="K22" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"プロフィールURL")</f>
+      <c r="K35" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"プロフィールURL")</f>
         <v>プロフィールURL</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
         <v>¿De dónde quieres una foto?</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
+      <c r="D36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
         <v>Où voulez-vous une photo?</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
+      <c r="E36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
         <v>Wo willst du ein Foto von?</v>
       </c>
-      <c r="F23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
+      <c r="F36" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
         <v>Skąd chcesz zdjęcie?</v>
       </c>
-      <c r="G23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
+      <c r="G36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
         <v>Откуда вы хотите фотографию?</v>
       </c>
-      <c r="H23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
+      <c r="H36" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
         <v>Mistä haluat valokuvan?</v>
       </c>
-      <c r="I23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
+      <c r="I36" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
         <v>Da dove vuoi una foto?</v>
       </c>
-      <c r="J23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
+      <c r="J36" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
         <v>你想要一张照片吗？</v>
       </c>
-      <c r="K23" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
+      <c r="K36" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
         <v>あなたはどこから写真を望みますか？</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"Galería")</f>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"Galería")</f>
         <v>Galería</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"Galerie")</f>
+      <c r="D37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Galerie")</f>
         <v>Galerie</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Galerie")</f>
+      <c r="E37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Galerie")</f>
         <v>Galerie</v>
       </c>
-      <c r="F24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Galeria")</f>
+      <c r="F37" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Galeria")</f>
         <v>Galeria</v>
       </c>
-      <c r="G24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Галерея")</f>
+      <c r="G37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Галерея")</f>
         <v>Галерея</v>
       </c>
-      <c r="H24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Galleria")</f>
+      <c r="H37" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Galleria")</f>
         <v>Galleria</v>
       </c>
-      <c r="I24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Galleria")</f>
+      <c r="I37" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Galleria")</f>
         <v>Galleria</v>
       </c>
-      <c r="J24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"画廊")</f>
+      <c r="J37" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"画廊")</f>
         <v>画廊</v>
       </c>
-      <c r="K24" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"ギャラリー")</f>
+      <c r="K37" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"ギャラリー")</f>
         <v>ギャラリー</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"Cámara")</f>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Cámara")</f>
         <v>Cámara</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Caméra")</f>
+      <c r="D38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Caméra")</f>
         <v>Caméra</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Kamera")</f>
+      <c r="E38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Kamera")</f>
         <v>Kamera</v>
       </c>
-      <c r="F25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
+      <c r="F38" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
         <v>Aparat fotograficzny</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Камера")</f>
+      <c r="G38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Камера")</f>
         <v>Камера</v>
       </c>
-      <c r="H25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Kamera")</f>
+      <c r="H38" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Kamera")</f>
         <v>Kamera</v>
       </c>
-      <c r="I25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Telecamera")</f>
+      <c r="I38" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Telecamera")</f>
         <v>Telecamera</v>
       </c>
-      <c r="J25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"相机")</f>
+      <c r="J38" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"相机")</f>
         <v>相机</v>
       </c>
-      <c r="K25" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"カメラ")</f>
+      <c r="K38" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"カメラ")</f>
         <v>カメラ</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"A diario")</f>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"A diario")</f>
         <v>A diario</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"du quotidien")</f>
+      <c r="D39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"du quotidien")</f>
         <v>du quotidien</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Täglich")</f>
+      <c r="E39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Täglich")</f>
         <v>Täglich</v>
       </c>
-      <c r="F26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Codziennie")</f>
+      <c r="F39" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Codziennie")</f>
         <v>Codziennie</v>
       </c>
-      <c r="G26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Ежедневно")</f>
+      <c r="G39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Ежедневно")</f>
         <v>Ежедневно</v>
       </c>
-      <c r="H26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"Päivittäin")</f>
+      <c r="H39" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Päivittäin")</f>
         <v>Päivittäin</v>
       </c>
-      <c r="I26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"Quotidiano")</f>
+      <c r="I39" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Quotidiano")</f>
         <v>Quotidiano</v>
       </c>
-      <c r="J26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"日常")</f>
+      <c r="J39" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"日常")</f>
         <v>日常</v>
       </c>
-      <c r="K26" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"毎日")</f>
+      <c r="K39" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"毎日")</f>
         <v>毎日</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"¡Prepararse!")</f>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"¡Prepararse!")</f>
         <v>¡Prepararse!</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"Sois prêt!")</f>
+      <c r="D40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"Sois prêt!")</f>
         <v>Sois prêt!</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"Bereit machen!")</f>
+      <c r="E40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Bereit machen!")</f>
         <v>Bereit machen!</v>
       </c>
-      <c r="F27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"Przygotuj się!")</f>
+      <c r="F40" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Przygotuj się!")</f>
         <v>Przygotuj się!</v>
       </c>
-      <c r="G27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"Приготовься!")</f>
+      <c r="G40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Приготовься!")</f>
         <v>Приготовься!</v>
       </c>
-      <c r="H27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"Valmistaudu!")</f>
+      <c r="H40" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Valmistaudu!")</f>
         <v>Valmistaudu!</v>
       </c>
-      <c r="I27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"Preparati!")</f>
+      <c r="I40" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Preparati!")</f>
         <v>Preparati!</v>
       </c>
-      <c r="J27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"做好准备！")</f>
+      <c r="J40" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"做好准备！")</f>
         <v>做好准备！</v>
       </c>
-      <c r="K27" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"準備をしなさい！")</f>
+      <c r="K40" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"準備をしなさい！")</f>
         <v>準備をしなさい！</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
         <v>¿Ya tienes una cuenta?</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+      <c r="D41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
         <v>Vous avez déjà un compte?</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+      <c r="E41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
         <v>Sie haben bereits ein Konto?</v>
       </c>
-      <c r="F28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+      <c r="F41" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
         <v>Posiadasz już konto?</v>
       </c>
-      <c r="G28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+      <c r="G41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
         <v>Уже есть аккаунт?</v>
       </c>
-      <c r="H28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+      <c r="H41" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
         <v>Onko sinulla jo tili?</v>
       </c>
-      <c r="I28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"Hai già un account?")</f>
+      <c r="I41" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Hai già un account?")</f>
         <v>Hai già un account?</v>
       </c>
-      <c r="J28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+      <c r="J41" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"已经有一个帐户？")</f>
         <v>已经有一个帐户？</v>
       </c>
-      <c r="K28" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+      <c r="K41" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
         <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"¡ACCESO!")</f>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"¡ACCESO!")</f>
         <v>¡ACCESO!</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"CONNEXION!")</f>
+      <c r="D42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"CONNEXION!")</f>
         <v>CONNEXION!</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"ANMELDUNG!")</f>
+      <c r="E42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"ANMELDUNG!")</f>
         <v>ANMELDUNG!</v>
       </c>
-      <c r="F29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+      <c r="F42" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
         <v>ZALOGUJ SIE!</v>
       </c>
-      <c r="G29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+      <c r="G42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
         <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
-      <c r="H29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+      <c r="H42" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
         <v>KIRJAUDU SISÄÄN!</v>
       </c>
-      <c r="I29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"ACCEDERE!")</f>
+      <c r="I42" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"ACCEDERE!")</f>
         <v>ACCEDERE!</v>
       </c>
-      <c r="J29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"登录！")</f>
+      <c r="J42" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"登录！")</f>
         <v>登录！</v>
       </c>
-      <c r="K29" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"ログインする！")</f>
+      <c r="K42" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"ログインする！")</f>
         <v>ログインする！</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"EMPEZAR")</f>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"EMPEZAR")</f>
         <v>EMPEZAR</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"COMMENCER")</f>
+      <c r="D43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"COMMENCER")</f>
         <v>COMMENCER</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"LOSLEGEN")</f>
+      <c r="E43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"LOSLEGEN")</f>
         <v>LOSLEGEN</v>
       </c>
-      <c r="F30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"ZACZYNAJ")</f>
+      <c r="F43" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"ZACZYNAJ")</f>
         <v>ZACZYNAJ</v>
       </c>
-      <c r="G30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"НАЧАТЬ")</f>
+      <c r="G43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"НАЧАТЬ")</f>
         <v>НАЧАТЬ</v>
       </c>
-      <c r="H30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"ALOITTAA")</f>
+      <c r="H43" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"ALOITTAA")</f>
         <v>ALOITTAA</v>
       </c>
-      <c r="I30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"INIZIARE")</f>
+      <c r="I43" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"INIZIARE")</f>
         <v>INIZIARE</v>
       </c>
-      <c r="J30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"开始")</f>
+      <c r="J43" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"开始")</f>
         <v>开始</v>
       </c>
-      <c r="K30" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"始まりました")</f>
+      <c r="K43" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"始まりました")</f>
         <v>始まりました</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"ACCESO")</f>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"ACCESO")</f>
         <v>ACCESO</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"CONNEXION")</f>
+      <c r="D44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"CONNEXION")</f>
         <v>CONNEXION</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"ANMELDUNG")</f>
+      <c r="E44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"ANMELDUNG")</f>
         <v>ANMELDUNG</v>
       </c>
-      <c r="F31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
+      <c r="F44" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
         <v>ZALOGUJ SIE</v>
       </c>
-      <c r="G31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
+      <c r="G44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
         <v>АВТОРИЗОВАТЬСЯ</v>
       </c>
-      <c r="H31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
+      <c r="H44" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
         <v>KIRJAUDU SISÄÄN</v>
       </c>
-      <c r="I31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"ACCEDERE")</f>
+      <c r="I44" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"ACCEDERE")</f>
         <v>ACCEDERE</v>
       </c>
-      <c r="J31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"登录")</f>
+      <c r="J44" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"登录")</f>
         <v>登录</v>
       </c>
-      <c r="K31" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"ログインする")</f>
+      <c r="K44" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"ログインする")</f>
         <v>ログインする</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"INSCRIBIRSE")</f>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"INSCRIBIRSE")</f>
         <v>INSCRIBIRSE</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"S'INSCRIRE")</f>
+      <c r="D45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"S'INSCRIRE")</f>
         <v>S'INSCRIRE</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"ANMELDEN")</f>
+      <c r="E45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDEN")</f>
         <v>ANMELDEN</v>
       </c>
-      <c r="F32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
+      <c r="F45" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
         <v>ZAPISZ SIĘ</v>
       </c>
-      <c r="G32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
+      <c r="G45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
         <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
       </c>
-      <c r="H32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"KIRJAUDU")</f>
+      <c r="H45" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU")</f>
         <v>KIRJAUDU</v>
       </c>
-      <c r="I32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"ISCRIVITI")</f>
+      <c r="I45" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ISCRIVITI")</f>
         <v>ISCRIVITI</v>
       </c>
-      <c r="J32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"报名")</f>
+      <c r="J45" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"报名")</f>
         <v>报名</v>
       </c>
-      <c r="K32" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"サインアップ")</f>
+      <c r="K45" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"サインアップ")</f>
         <v>サインアップ</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Nombre")</f>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"Nombre")</f>
         <v>Nombre</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Nom")</f>
+      <c r="D46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Nom")</f>
         <v>Nom</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Name")</f>
+      <c r="E46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Name")</f>
         <v>Name</v>
       </c>
-      <c r="F33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Nazwa")</f>
+      <c r="F46" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Nazwa")</f>
         <v>Nazwa</v>
       </c>
-      <c r="G33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Имя")</f>
+      <c r="G46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Имя")</f>
         <v>Имя</v>
       </c>
-      <c r="H33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Nimi")</f>
+      <c r="H46" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"Nimi")</f>
         <v>Nimi</v>
       </c>
-      <c r="I33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Nome")</f>
+      <c r="I46" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"Nome")</f>
         <v>Nome</v>
       </c>
-      <c r="J33" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"名称")</f>
+      <c r="J46" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"名称")</f>
         <v>名称</v>
       </c>
-      <c r="K33" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"名前")</f>
+      <c r="K46" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"名前")</f>
         <v>名前</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Correo electrónico")</f>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"Correo electrónico")</f>
         <v>Correo electrónico</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"E-mail")</f>
+      <c r="D47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="E34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Email")</f>
+      <c r="E47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Email")</f>
         <v>Email</v>
       </c>
-      <c r="F34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"E-mail")</f>
+      <c r="F47" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="G34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Электронное письмо")</f>
+      <c r="G47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Электронное письмо")</f>
         <v>Электронное письмо</v>
       </c>
-      <c r="H34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Sähköposti")</f>
+      <c r="H47" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Sähköposti")</f>
         <v>Sähköposti</v>
       </c>
-      <c r="I34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"E-mail")</f>
+      <c r="I47" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"电子邮件")</f>
+      <c r="J47" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"电子邮件")</f>
         <v>电子邮件</v>
       </c>
-      <c r="K34" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"Eメール")</f>
+      <c r="K47" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"Eメール")</f>
         <v>Eメール</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Contraseña")</f>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Contraseña")</f>
         <v>Contraseña</v>
       </c>
-      <c r="D35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Mot de passe")</f>
+      <c r="D48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"Mot de passe")</f>
         <v>Mot de passe</v>
       </c>
-      <c r="E35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Passwort")</f>
+      <c r="E48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Passwort")</f>
         <v>Passwort</v>
       </c>
-      <c r="F35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"Hasło")</f>
+      <c r="F48" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Hasło")</f>
         <v>Hasło</v>
       </c>
-      <c r="G35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Пароль")</f>
+      <c r="G48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Пароль")</f>
         <v>Пароль</v>
       </c>
-      <c r="H35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"Salasana")</f>
+      <c r="H48" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"Salasana")</f>
         <v>Salasana</v>
       </c>
-      <c r="I35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Parola d'ordine")</f>
+      <c r="I48" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"Parola d'ordine")</f>
         <v>Parola d'ordine</v>
       </c>
-      <c r="J35" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"密码")</f>
+      <c r="J48" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"密码")</f>
         <v>密码</v>
       </c>
-      <c r="K35" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"パスワード")</f>
+      <c r="K48" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"パスワード")</f>
         <v>パスワード</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
         <v>¿Has olvidado tu contraseña?</v>
       </c>
-      <c r="D36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+      <c r="D49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
         <v>Mot de passe oublié?</v>
       </c>
-      <c r="E36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Passwort vergessen?")</f>
+      <c r="E49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort vergessen?")</f>
         <v>Passwort vergessen?</v>
       </c>
-      <c r="F36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+      <c r="F49" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
         <v>Zapomniałeś hasła?</v>
       </c>
-      <c r="G36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Забыли пароль?")</f>
+      <c r="G49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Забыли пароль?")</f>
         <v>Забыли пароль?</v>
       </c>
-      <c r="H36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
+      <c r="H49" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
         <v>Unohtuiko salasana?</v>
       </c>
-      <c r="I36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
+      <c r="I49" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
         <v>Ha dimenticato la password?</v>
       </c>
-      <c r="J36" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"忘记密码？")</f>
+      <c r="J49" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"忘记密码？")</f>
         <v>忘记密码？</v>
       </c>
-      <c r="K36" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+      <c r="K49" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
         <v>パスワードをお忘れですか？</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
         <v>¿Ya tienes una cuenta?</v>
       </c>
-      <c r="D37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+      <c r="D50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
         <v>Vous avez déjà un compte?</v>
       </c>
-      <c r="E37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+      <c r="E50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
         <v>Sie haben bereits ein Konto?</v>
       </c>
-      <c r="F37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+      <c r="F50" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
         <v>Posiadasz już konto?</v>
       </c>
-      <c r="G37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+      <c r="G50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
         <v>Уже есть аккаунт?</v>
       </c>
-      <c r="H37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+      <c r="H50" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
         <v>Onko sinulla jo tili?</v>
       </c>
-      <c r="I37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Hai già un account?")</f>
+      <c r="I50" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"Hai già un account?")</f>
         <v>Hai già un account?</v>
       </c>
-      <c r="J37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+      <c r="J50" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"已经有一个帐户？")</f>
         <v>已经有一个帐户？</v>
       </c>
-      <c r="K37" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+      <c r="K50" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
         <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
         <v>¿No tienes una cuenta?</v>
       </c>
-      <c r="D38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
+      <c r="D51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
         <v>Vous n'avez pas de compte?</v>
       </c>
-      <c r="E38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
+      <c r="E51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
         <v>Ich habe kein Konto?</v>
       </c>
-      <c r="F38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Nie masz konta?")</f>
+      <c r="F51" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Nie masz konta?")</f>
         <v>Nie masz konta?</v>
       </c>
-      <c r="G38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
+      <c r="G51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
         <v>У вас нет аккаунта?</v>
       </c>
-      <c r="H38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
+      <c r="H51" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
         <v>Eikö sinulla ole tiliä?</v>
       </c>
-      <c r="I38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Non hai un account?")</f>
+      <c r="I51" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Non hai un account?")</f>
         <v>Non hai un account?</v>
       </c>
-      <c r="J38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"没有帐户？")</f>
+      <c r="J51" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"没有帐户？")</f>
         <v>没有帐户？</v>
       </c>
-      <c r="K38" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
+      <c r="K51" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
         <v>アカウントを持っていませんか？</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"¡ACCESO!")</f>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¡ACCESO!")</f>
         <v>¡ACCESO!</v>
       </c>
-      <c r="D39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"CONNEXION!")</f>
+      <c r="D52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"CONNEXION!")</f>
         <v>CONNEXION!</v>
       </c>
-      <c r="E39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"ANMELDUNG!")</f>
+      <c r="E52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"ANMELDUNG!")</f>
         <v>ANMELDUNG!</v>
       </c>
-      <c r="F39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+      <c r="F52" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
         <v>ZALOGUJ SIE!</v>
       </c>
-      <c r="G39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+      <c r="G52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
         <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
-      <c r="H39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+      <c r="H52" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
         <v>KIRJAUDU SISÄÄN!</v>
       </c>
-      <c r="I39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"ACCEDERE!")</f>
+      <c r="I52" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"ACCEDERE!")</f>
         <v>ACCEDERE!</v>
       </c>
-      <c r="J39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"登录！")</f>
+      <c r="J52" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"登录！")</f>
         <v>登录！</v>
       </c>
-      <c r="K39" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"ログインする！")</f>
+      <c r="K52" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"ログインする！")</f>
         <v>ログインする！</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
         <v>¡INSCRIBIRSE!</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
+      <c r="D53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
         <v>S'INSCRIRE!</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"ANMELDEN!")</f>
+      <c r="E53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"ANMELDEN!")</f>
         <v>ANMELDEN!</v>
       </c>
-      <c r="F40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
+      <c r="F53" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
         <v>ZAPISZ SIĘ!</v>
       </c>
-      <c r="G40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
+      <c r="G53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
         <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
       </c>
-      <c r="H40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"KIRJAUDU!")</f>
+      <c r="H53" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"KIRJAUDU!")</f>
         <v>KIRJAUDU!</v>
       </c>
-      <c r="I40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"ISCRIVITI!")</f>
+      <c r="I53" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"ISCRIVITI!")</f>
         <v>ISCRIVITI!</v>
       </c>
-      <c r="J40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"报名！")</f>
+      <c r="J53" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"报名！")</f>
         <v>报名！</v>
       </c>
-      <c r="K40" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"サインアップ！")</f>
+      <c r="K53" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"サインアップ！")</f>
         <v>サインアップ！</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
         <v>¿Olvidaste tu contraseña?</v>
       </c>
-      <c r="D41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+      <c r="D54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
         <v>Mot de passe oublié?</v>
       </c>
-      <c r="E41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Passwort vergessen?")</f>
+      <c r="E54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"Passwort vergessen?")</f>
         <v>Passwort vergessen?</v>
       </c>
-      <c r="F41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+      <c r="F54" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
         <v>Zapomniałeś hasła?</v>
       </c>
-      <c r="G41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
+      <c r="G54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
         <v>Забыли Ваш пароль?</v>
       </c>
-      <c r="H41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
+      <c r="H54" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
         <v>Unohditko salasanasi?</v>
       </c>
-      <c r="I41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
+      <c r="I54" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
         <v>Hai dimenticato la password?</v>
       </c>
-      <c r="J41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"忘记密码了吗？")</f>
+      <c r="J54" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"忘记密码了吗？")</f>
         <v>忘记密码了吗？</v>
       </c>
-      <c r="K41" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+      <c r="K54" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
         <v>パスワードをお忘れですか？</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.")</f>
         <v>Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.</v>
       </c>
-      <c r="D42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.")</f>
         <v>Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
         <v>Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
       </c>
-      <c r="F42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
+      <c r="F55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.")</f>
         <v>Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.</v>
       </c>
-      <c r="G42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
+      <c r="G55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.")</f>
         <v>Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.</v>
       </c>
-      <c r="H42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
+      <c r="H55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.")</f>
         <v>Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.</v>
       </c>
-      <c r="I42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
+      <c r="I55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.")</f>
         <v>Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.</v>
       </c>
-      <c r="J42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"输入下面的用户电子邮件
+      <c r="J55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"输入下面的用户电子邮件
 收到密码重置消息。")</f>
         <v>输入下面的用户电子邮件
 收到密码重置消息。</v>
       </c>
-      <c r="K42" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
+      <c r="K55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。")</f>
         <v>下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
         <v>El correo electrónico no puede estar vacío</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
         <v>L'email ne peut pas être vide</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
+      <c r="E56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
         <v>E-Mail kann nicht leer sein</v>
       </c>
-      <c r="F43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
+      <c r="F56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
         <v>E-mail nie może być pusty</v>
       </c>
-      <c r="G43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
+      <c r="G56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
         <v>Электронная почта не может быть пустым</v>
       </c>
-      <c r="H43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
+      <c r="H56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
         <v>Sähköposti ei voi olla tyhjä</v>
       </c>
-      <c r="I43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
+      <c r="I56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
         <v>L'e-mail non può essere vuota</v>
       </c>
-      <c r="J43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"电子邮件不能为空")</f>
+      <c r="J56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"电子邮件不能为空")</f>
         <v>电子邮件不能为空</v>
       </c>
-      <c r="K43" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
+      <c r="K56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
         <v>電子メールは空にすることはできません</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"Correo electrónico")</f>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"Correo electrónico")</f>
         <v>Correo electrónico</v>
       </c>
-      <c r="D44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"E-mail")</f>
+      <c r="D57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="E44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"Email")</f>
+      <c r="E57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"Email")</f>
         <v>Email</v>
       </c>
-      <c r="F44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"E-mail")</f>
+      <c r="F57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="G44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Электронное письмо")</f>
+      <c r="G57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Электронное письмо")</f>
         <v>Электронное письмо</v>
       </c>
-      <c r="H44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"Sähköposti")</f>
+      <c r="H57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Sähköposti")</f>
         <v>Sähköposti</v>
       </c>
-      <c r="I44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"E-mail")</f>
+      <c r="I57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"E-mail")</f>
         <v>E-mail</v>
       </c>
-      <c r="J44" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"电子邮件")</f>
+      <c r="J57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"电子邮件")</f>
         <v>电子邮件</v>
       </c>
-      <c r="K44" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"Eメール")</f>
+      <c r="K57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"Eメール")</f>
         <v>Eメール</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"Enviar")</f>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Enviar")</f>
         <v>Enviar</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"Envoyer")</f>
+      <c r="D58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"Envoyer")</f>
         <v>Envoyer</v>
       </c>
-      <c r="E45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"Senden")</f>
+      <c r="E58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Senden")</f>
         <v>Senden</v>
       </c>
-      <c r="F45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"Wysłać")</f>
+      <c r="F58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"Wysłać")</f>
         <v>Wysłać</v>
       </c>
-      <c r="G45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"Отправлять")</f>
+      <c r="G58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Отправлять")</f>
         <v>Отправлять</v>
       </c>
-      <c r="H45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"Lähettää")</f>
+      <c r="H58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Lähettää")</f>
         <v>Lähettää</v>
       </c>
-      <c r="I45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"Spedire")</f>
+      <c r="I58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"Spedire")</f>
         <v>Spedire</v>
       </c>
-      <c r="J45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"发送")</f>
+      <c r="J58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"发送")</f>
         <v>发送</v>
       </c>
-      <c r="K45" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"送信")</f>
+      <c r="K58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"送信")</f>
         <v>送信</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"No lo entendí?")</f>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"No lo entendí?")</f>
         <v>No lo entendí?</v>
       </c>
-      <c r="D46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
+      <c r="D59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
         <v>Ne l'a pas eu?</v>
       </c>
-      <c r="E46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
+      <c r="E59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
         <v>Hast es nicht bekommen?</v>
       </c>
-      <c r="F46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
+      <c r="F59" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
         <v>Nie zrozumiałeś?</v>
       </c>
-      <c r="G46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Не понял?")</f>
+      <c r="G59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Не понял?")</f>
         <v>Не понял?</v>
       </c>
-      <c r="H46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
+      <c r="H59" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
         <v>Ei saanut sitä?</v>
       </c>
-      <c r="I46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"Non ho capito?")</f>
+      <c r="I59" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"Non ho capito?")</f>
         <v>Non ho capito?</v>
       </c>
-      <c r="J46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"没有得到它？")</f>
+      <c r="J59" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"没有得到它？")</f>
         <v>没有得到它？</v>
       </c>
-      <c r="K46" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"手に入れなかった？")</f>
+      <c r="K59" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"手に入れなかった？")</f>
         <v>手に入れなかった？</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"¡Resolver!")</f>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"¡Resolver!")</f>
         <v>¡Resolver!</v>
       </c>
-      <c r="D47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Renvoyez!")</f>
+      <c r="D60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"Renvoyez!")</f>
         <v>Renvoyez!</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Erneut senden!")</f>
+      <c r="E60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Erneut senden!")</f>
         <v>Erneut senden!</v>
       </c>
-      <c r="F47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
+      <c r="F60" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
         <v>Wysłać ponownie!</v>
       </c>
-      <c r="G47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Отправить!")</f>
+      <c r="G60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Отправить!")</f>
         <v>Отправить!</v>
       </c>
-      <c r="H47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
+      <c r="H60" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
         <v>Uudelleen lähettää!</v>
       </c>
-      <c r="I47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"Resenda!")</f>
+      <c r="I60" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"Resenda!")</f>
         <v>Resenda!</v>
       </c>
-      <c r="J47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"重发！")</f>
+      <c r="J60" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"重发！")</f>
         <v>重发！</v>
       </c>
-      <c r="K47" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"res！")</f>
+      <c r="K60" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"res！")</f>
         <v>res！</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Ajustes")</f>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"Ajustes")</f>
         <v>Ajustes</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"Réglages")</f>
+      <c r="D61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Réglages")</f>
         <v>Réglages</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Einstellungen")</f>
+      <c r="E61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Einstellungen")</f>
         <v>Einstellungen</v>
       </c>
-      <c r="F48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Ustawienia")</f>
+      <c r="F61" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Ustawienia")</f>
         <v>Ustawienia</v>
       </c>
-      <c r="G48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Настройки")</f>
+      <c r="G61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Настройки")</f>
         <v>Настройки</v>
       </c>
-      <c r="H48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"asetukset")</f>
+      <c r="H61" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"asetukset")</f>
         <v>asetukset</v>
       </c>
-      <c r="I48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"Impostazioni")</f>
+      <c r="I61" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Impostazioni")</f>
         <v>Impostazioni</v>
       </c>
-      <c r="J48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"设置")</f>
+      <c r="J61" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"设置")</f>
         <v>设置</v>
       </c>
-      <c r="K48" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"設定")</f>
+      <c r="K61" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"設定")</f>
         <v>設定</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Restablecer la contraseña")</f>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"Restablecer la contraseña")</f>
         <v>Restablecer la contraseña</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
+      <c r="D62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
         <v>Réinitialiser le mot de passe</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
+      <c r="E62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
         <v>Passwort zurücksetzen</v>
       </c>
-      <c r="F49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Zresetuj hasło")</f>
+      <c r="F62" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Zresetuj hasło")</f>
         <v>Zresetuj hasło</v>
       </c>
-      <c r="G49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Сброс пароля")</f>
+      <c r="G62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Сброс пароля")</f>
         <v>Сброс пароля</v>
       </c>
-      <c r="H49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Nollaa salasana")</f>
+      <c r="H62" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"Nollaa salasana")</f>
         <v>Nollaa salasana</v>
       </c>
-      <c r="I49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Resetta la password")</f>
+      <c r="I62" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Resetta la password")</f>
         <v>Resetta la password</v>
       </c>
-      <c r="J49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"重设密码")</f>
+      <c r="J62" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"重设密码")</f>
         <v>重设密码</v>
       </c>
-      <c r="K49" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワードを再設定する")</f>
+      <c r="K62" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"パスワードを再設定する")</f>
         <v>パスワードを再設定する</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
         <v>E-mail ha sido enviado</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"L'email a été envoyé")</f>
+      <c r="D63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"L'email a été envoyé")</f>
         <v>L'email a été envoyé</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
+      <c r="E63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
         <v>Die Email wurde verschickt</v>
       </c>
-      <c r="F50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Email został wysłany")</f>
+      <c r="F63" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Email został wysłany")</f>
         <v>Email został wysłany</v>
       </c>
-      <c r="G50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Письмо было отправлено")</f>
+      <c r="G63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Письмо было отправлено")</f>
         <v>Письмо было отправлено</v>
       </c>
-      <c r="H50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
+      <c r="H63" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
         <v>Sähköposti on lähetetty</v>
       </c>
-      <c r="I50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"L'email è stata inviata")</f>
+      <c r="I63" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"L'email è stata inviata")</f>
         <v>L'email è stata inviata</v>
       </c>
-      <c r="J50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"邮件已发送")</f>
+      <c r="J63" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"邮件已发送")</f>
         <v>邮件已发送</v>
       </c>
-      <c r="K50" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"メールが送信されました")</f>
+      <c r="K63" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"メールが送信されました")</f>
         <v>メールが送信されました</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"DESCONECTAR")</f>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"DESCONECTAR")</f>
         <v>DESCONECTAR</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
+      <c r="D64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
         <v>SE DÉCONNECTER</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"AUSTRAGEN")</f>
+      <c r="E64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"AUSTRAGEN")</f>
         <v>AUSTRAGEN</v>
       </c>
-      <c r="F51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
+      <c r="F64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
         <v>WYLOGUJ SIĘ</v>
       </c>
-      <c r="G51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"ВЫХОД")</f>
+      <c r="G64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"ВЫХОД")</f>
         <v>ВЫХОД</v>
       </c>
-      <c r="H51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
+      <c r="H64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
         <v>KIRJAUDU ULOS</v>
       </c>
-      <c r="I51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"DISCONNESSIONE")</f>
+      <c r="I64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"DISCONNESSIONE")</f>
         <v>DISCONNESSIONE</v>
       </c>
-      <c r="J51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"登出")</f>
+      <c r="J64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"登出")</f>
         <v>登出</v>
       </c>
-      <c r="K51" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"サインアウト")</f>
+      <c r="K64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"サインアウト")</f>
         <v>サインアウト</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="4" t="str">
-        <f t="array" ref="B53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingNotifications": "Notifications", "settingIsDark": "Night mode", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+    <row r="65">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="8" t="str">
+        <f t="array" ref="B66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B64&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
 receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</v>
       </c>
-      <c r="C53" s="4" t="str">
-        <f t="array" ref="C53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingNotifications": "Notificaciones", "settingIsDark": "Modo nocturno", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
-Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</v>
-      </c>
-      <c r="D53" s="4" t="str">
-        <f t="array" ref="D53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingNotifications": "Notifications", "settingIsDark": "Mode nuit", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
-Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f t="array" ref="E53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingNotifications": "Benachrichtigungen", "settingIsDark": "Nacht-Modus", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
-erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</v>
-      </c>
-      <c r="F53" s="4" t="str">
-        <f t="array" ref="F53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingNotifications": "Powiadomienia", "settingIsDark": "Tryb nocny", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
-Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
-      </c>
-      <c r="G53" s="4" t="str">
-        <f t="array" ref="G53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не так.", "errorUserNotFound": "Пользователь не существует или пароль не так.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingNotifications": "Уверенность", "settingIsDark": "Ночной режим", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
-Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</v>
-      </c>
-      <c r="H53" s="4" t="str">
-        <f t="array" ref="H53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingNotifications": "Ilmoitukset", "settingIsDark": "Yötila", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
-Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</v>
-      </c>
-      <c r="I53" s="4" t="str">
-        <f t="array" ref="I53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingNotifications": "Notifiche", "settingIsDark": "Modalità notturna", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
-Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</v>
-      </c>
-      <c r="J53" s="4" t="str">
-        <f t="array" ref="J53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingNotifications": "通知", "settingIsDark": "夜间模式", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
-收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</v>
-      </c>
-      <c r="K53" s="4" t="str">
-        <f t="array" ref="K53">concatenate("{", join(", ", char(34)&amp;A2:A51&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K51&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingNotifications": "通知", "settingIsDark": "ナイトモード", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
-パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</v>
-      </c>
+      <c r="C66" s="8" t="str">
+        <f t="array" ref="C66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D66" s="8" t="str">
+        <f t="array" ref="D66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="E66" s="8" t="str">
+        <f t="array" ref="E66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="F66" s="8" t="str">
+        <f t="array" ref="F66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="G66" s="8" t="str">
+        <f t="array" ref="G66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="H66" s="8" t="str">
+        <f t="array" ref="H66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="I66" s="8" t="str">
+        <f t="array" ref="I66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f t="array" ref="J66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="K66" s="8" t="str">
+        <f t="array" ref="K66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K64&amp;char(34)), "}")</f>
+        <v>Loading...</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="7"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="7"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="7"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="7"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="7"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="7"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="7"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="7"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="7"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="7"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="7"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="7"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="7"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="7"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="7"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="7"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="7"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="7"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="7"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="7"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="7"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="7"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="7"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="7"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="7"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="7"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="7"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="7"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="7"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="7"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="7"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="7"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="7"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="7"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="7"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="7"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="7"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="7"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="7"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="7"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="7"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="7"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="7"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="7"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="7"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="7"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="7"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="7"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="7"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="7"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="7"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="7"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="7"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="7"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="7"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="7"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="7"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="7"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="7"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="7"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="7"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="7"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="7"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="7"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="7"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="7"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="7"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="7"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="7"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="7"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="7"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="7"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="7"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="7"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="7"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="7"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="7"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="7"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="7"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="7"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="7"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="7"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="7"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="7"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="7"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="7"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="7"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="7"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="7"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="7"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="7"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="7"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="7"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="7"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="7"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="7"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="7"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="7"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="7"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="7"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="7"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="7"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="7"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="7"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="7"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="7"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="7"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="7"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="7"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="7"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="7"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="7"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="7"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="7"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="7"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="7"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="7"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="7"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="7"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="7"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="7"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="7"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="7"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="7"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="7"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="7"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="7"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="7"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="7"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="7"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="7"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="7"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="7"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="7"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="7"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="7"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="7"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="7"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="7"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="7"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="7"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="7"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="7"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="7"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="7"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="7"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="7"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="7"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="7"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="7"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="7"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="7"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="7"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="7"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="7"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="7"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="7"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="7"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="7"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="7"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="7"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="7"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="7"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="7"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="7"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="7"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="7"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="7"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="7"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="7"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="7"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="7"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="7"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="7"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="7"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="7"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="7"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="7"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="7"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="7"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="7"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="7"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="7"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="7"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="7"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="7"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="7"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="7"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="7"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="7"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="7"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="7"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="7"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="7"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="7"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="7"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="7"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="7"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="7"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="7"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="7"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="7"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="7"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="7"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="7"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="7"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="7"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="7"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="7"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="7"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="7"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="7"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="7"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="7"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="7"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="7"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="7"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="7"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="7"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="7"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="7"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="7"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="7"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="7"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="7"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="7"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="7"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="7"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="7"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="7"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="7"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="7"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="7"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="7"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="7"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="7"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="7"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="7"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="7"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="7"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="7"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="7"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="7"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="7"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="7"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="7"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="7"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="7"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="7"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="7"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="7"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="7"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="7"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="7"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="7"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="7"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="7"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="7"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="7"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="7"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="7"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="7"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="7"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="7"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="7"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="7"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="7"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="7"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="7"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="7"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="7"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="7"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="7"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="7"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="7"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="7"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="7"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="7"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="7"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="7"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="7"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="7"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="7"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="7"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="7"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="7"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="7"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="7"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="7"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="7"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="7"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="7"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="7"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="7"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="7"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="7"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="7"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="7"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="7"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="7"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="7"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="7"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="7"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="7"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="7"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="7"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="7"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="7"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="7"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="7"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="7"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="7"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="7"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="7"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="7"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="7"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="7"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="7"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="7"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="7"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="7"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="7"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="7"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="7"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="7"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="7"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="7"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="7"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="7"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="7"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="7"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="7"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="7"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="7"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="7"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="7"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="7"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="7"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="7"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="7"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="7"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="7"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="7"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="7"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="7"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="7"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="7"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="7"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="7"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="7"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="7"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="7"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="7"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="7"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="7"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="7"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="7"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="7"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="7"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="7"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="7"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="7"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="7"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="7"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="7"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="7"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="7"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="7"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="7"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="7"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="7"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="7"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="7"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="7"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="7"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="7"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="7"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="7"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="7"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="7"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="7"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="7"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="7"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="7"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="7"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="7"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="7"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="7"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="7"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="7"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="7"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="7"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="7"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="7"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="7"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="7"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="7"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="7"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="7"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="7"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="7"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="7"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="7"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="7"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="7"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="7"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="7"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="7"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="7"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="7"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="7"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="7"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="7"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="7"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="7"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="7"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="7"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="7"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="7"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="7"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="7"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="7"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="7"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="7"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="7"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="7"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="7"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="7"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="7"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="7"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="7"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="7"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="7"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="7"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="7"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="7"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="7"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="7"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="7"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="7"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="7"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="7"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="7"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="7"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="7"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="7"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="7"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="7"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="7"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="7"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="7"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="7"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="7"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="7"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="7"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="7"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="7"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="7"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="7"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="7"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="7"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="7"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="7"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="7"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="7"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="7"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="7"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="7"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="7"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="7"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="7"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="7"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="7"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="7"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="7"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="7"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="7"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="7"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="7"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="7"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="7"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="7"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="7"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="7"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="7"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="7"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="7"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="7"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="7"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="7"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="7"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="7"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="7"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="7"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="7"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="7"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="7"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="7"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="7"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="7"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="7"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="7"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="7"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="7"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="7"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="7"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="7"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="7"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="7"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="7"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="7"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="7"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="7"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="7"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="7"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="7"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="7"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="7"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="7"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="7"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="7"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="7"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="7"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="7"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="7"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="7"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="7"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="7"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="7"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="7"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="7"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="7"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="7"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="7"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="7"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="7"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="7"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="7"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="7"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="7"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="7"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="7"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="7"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="7"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="7"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="7"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="7"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="7"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="7"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="7"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="7"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="7"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="7"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="7"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="7"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="7"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="7"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="7"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="7"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="7"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="7"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="7"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="7"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="7"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="7"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="7"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="7"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="7"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="7"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="7"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="7"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="7"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="7"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="7"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="7"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="7"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="7"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="7"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="7"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="7"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="7"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="7"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="7"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="7"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="7"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="7"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="7"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="7"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="7"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="7"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="7"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="7"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="7"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="7"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="7"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="7"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="7"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="7"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="7"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="7"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="7"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="7"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="7"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="7"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="7"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="7"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="7"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="7"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="7"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="7"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="7"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="7"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="7"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="7"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="7"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="7"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="7"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="7"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="7"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="7"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="7"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="7"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="7"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="7"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="7"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="7"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="7"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="7"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="7"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="7"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="7"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="7"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="7"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="7"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="7"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="7"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="7"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="7"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="7"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="7"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="7"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="7"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="7"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="7"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="7"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="7"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="7"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="7"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="7"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="7"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="7"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="7"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="7"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="7"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="7"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="7"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="7"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="7"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="7"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="7"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="7"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="7"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="7"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="7"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="7"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="7"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="7"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="7"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="7"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="7"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="7"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="7"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="7"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="7"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="7"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="7"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="7"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="7"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="7"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="7"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="7"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="7"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="7"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="7"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="7"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="7"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="7"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="7"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="7"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="7"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="7"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="7"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="7"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="7"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="7"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="7"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="7"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="7"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="7"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="7"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="7"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="7"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="7"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="7"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="7"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="7"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="7"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="7"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="7"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="7"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="7"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="7"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="7"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="7"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="7"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="7"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="7"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="7"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="7"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="7"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="7"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="7"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="7"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="7"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="7"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="7"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="7"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="7"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="7"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="7"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="7"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="7"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="7"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="7"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="7"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="7"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="7"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="7"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="7"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="7"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="7"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="7"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="7"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="7"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="7"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="7"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/daily_1.0/daily/lib/localizations/daily_json.xlsx
+++ b/daily_1.0/daily/lib/localizations/daily_json.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>VALUE</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>settingIsDark</t>
+  </si>
+  <si>
+    <t>isDark</t>
   </si>
   <si>
     <t>settingProfileURL</t>
@@ -413,43 +419,43 @@
     <t>JSON Format</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+    <t>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
 receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
+    <t>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
+    <t>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
+    <t>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
+    <t>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
+    <t>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
+    <t>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
+    <t>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
+    <t>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
 收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</t>
   </si>
   <si>
-    <t>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
+    <t>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</t>
   </si>
 </sst>
@@ -758,16 +764,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.57"/>
-    <col customWidth="1" min="2" max="2" width="55.14"/>
-    <col customWidth="1" min="3" max="3" width="57.86"/>
-    <col customWidth="1" min="4" max="4" width="59.71"/>
-    <col customWidth="1" min="5" max="5" width="64.57"/>
-    <col customWidth="1" min="6" max="6" width="52.14"/>
-    <col customWidth="1" min="7" max="7" width="61.43"/>
-    <col customWidth="1" min="8" max="8" width="57.14"/>
-    <col customWidth="1" min="9" max="9" width="63.86"/>
-    <col customWidth="1" min="10" max="10" width="61.57"/>
-    <col customWidth="1" min="11" max="11" width="68.0"/>
+    <col customWidth="1" min="2" max="11" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1651,40 +1648,40 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"chino")</f>
+        <v>chino</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"chinois")</f>
+        <v>chinois</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Chinesisch")</f>
+        <v>Chinesisch</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"chiński")</f>
+        <v>chiński</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"китайский язык")</f>
+        <v>китайский язык</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Kiinalainen")</f>
+        <v>Kiinalainen</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Cinese")</f>
+        <v>Cinese</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"中国人")</f>
+        <v>中国人</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"中国語")</f>
+        <v>中国語</v>
       </c>
     </row>
     <row r="21">
@@ -1695,40 +1692,40 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"inglés")</f>
+        <v>inglés</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Anglais")</f>
+        <v>Anglais</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Englisch")</f>
+        <v>Englisch</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"język angielski")</f>
+        <v>język angielski</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"английский")</f>
+        <v>английский</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Englanti")</f>
+        <v>Englanti</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"inglese")</f>
+        <v>inglese</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"英语")</f>
+        <v>英语</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"英語")</f>
+        <v>英語</v>
       </c>
     </row>
     <row r="22">
@@ -1739,40 +1736,40 @@
         <v>50</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"finlandés")</f>
+        <v>finlandés</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"finlandais")</f>
+        <v>finlandais</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"finnisch")</f>
+        <v>finnisch</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"fiński")</f>
+        <v>fiński</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"Финский")</f>
+        <v>Финский</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Suomalainen")</f>
+        <v>Suomalainen</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"finlandese")</f>
+        <v>finlandese</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"芬兰")</f>
+        <v>芬兰</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"フィンランド語")</f>
+        <v>フィンランド語</v>
       </c>
     </row>
     <row r="23">
@@ -1783,40 +1780,40 @@
         <v>52</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"francés")</f>
+        <v>francés</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"français")</f>
+        <v>français</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Französisch")</f>
+        <v>Französisch</v>
       </c>
       <c r="F23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Francuski")</f>
+        <v>Francuski</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Французский")</f>
+        <v>Французский</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Ranskan kieli")</f>
+        <v>Ranskan kieli</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"francese")</f>
+        <v>francese</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"法语")</f>
+        <v>法语</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"フランス語")</f>
+        <v>フランス語</v>
       </c>
     </row>
     <row r="24">
@@ -1827,40 +1824,40 @@
         <v>54</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"alemán")</f>
+        <v>alemán</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"allemand")</f>
+        <v>allemand</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Deutsch")</f>
+        <v>Deutsch</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Niemiecki")</f>
+        <v>Niemiecki</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Немецкий")</f>
+        <v>Немецкий</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Saksan kieli")</f>
+        <v>Saksan kieli</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Tedesco")</f>
+        <v>Tedesco</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"德语")</f>
+        <v>德语</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"ドイツ人")</f>
+        <v>ドイツ人</v>
       </c>
     </row>
     <row r="25">
@@ -1871,40 +1868,40 @@
         <v>56</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"italiano")</f>
+        <v>italiano</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"italien")</f>
+        <v>italien</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Italienisch")</f>
+        <v>Italienisch</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Włoski")</f>
+        <v>Włoski</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Итальянский")</f>
+        <v>Итальянский</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"italialainen")</f>
+        <v>italialainen</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"italiano")</f>
+        <v>italiano</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"意大利人")</f>
+        <v>意大利人</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"イタリア語")</f>
+        <v>イタリア語</v>
       </c>
     </row>
     <row r="26">
@@ -1915,40 +1912,40 @@
         <v>58</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"japonés")</f>
+        <v>japonés</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Japonais")</f>
+        <v>Japonais</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"japanisch")</f>
+        <v>japanisch</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"język japoński")</f>
+        <v>język japoński</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"японский язык")</f>
+        <v>японский язык</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"japanilainen")</f>
+        <v>japanilainen</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"giapponese")</f>
+        <v>giapponese</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"日本人")</f>
+        <v>日本人</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"Loading...")</f>
-        <v>Loading...</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"日本")</f>
+        <v>日本</v>
       </c>
     </row>
     <row r="27">
@@ -2307,44 +2304,44 @@
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"URL del perfil")</f>
-        <v>URL del perfil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Es oscuro")</f>
+        <v>Es oscuro</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Profil URL")</f>
-        <v>Profil URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"est sombre")</f>
+        <v>est sombre</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Profil-URL")</f>
-        <v>Profil-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"ist dunkel")</f>
+        <v>ist dunkel</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"URL profilu")</f>
-        <v>URL profilu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"jest ciemno")</f>
+        <v>jest ciemno</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"URL профиля")</f>
-        <v>URL профиля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Isdark.")</f>
+        <v>Isdark.</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"profiili-URL")</f>
-        <v>profiili-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"isdark")</f>
+        <v>isdark</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Profilo URL")</f>
-        <v>Profilo URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"è scuro")</f>
+        <v>è scuro</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"个人资料网址")</f>
-        <v>个人资料网址</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"isdark.")</f>
+        <v>isdark.</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"プロフィールURL")</f>
-        <v>プロフィールURL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"は暗い")</f>
+        <v>は暗い</v>
       </c>
     </row>
     <row r="36">
@@ -2355,40 +2352,40 @@
         <v>78</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
-        <v>¿De dónde quieres una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"URL del perfil")</f>
+        <v>URL del perfil</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
-        <v>Où voulez-vous une photo?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Profil URL")</f>
+        <v>Profil URL</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
-        <v>Wo willst du ein Foto von?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Profil-URL")</f>
+        <v>Profil-URL</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
-        <v>Skąd chcesz zdjęcie?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"URL profilu")</f>
+        <v>URL profilu</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
-        <v>Откуда вы хотите фотографию?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"URL профиля")</f>
+        <v>URL профиля</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
-        <v>Mistä haluat valokuvan?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"profiili-URL")</f>
+        <v>profiili-URL</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
-        <v>Da dove vuoi una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Profilo URL")</f>
+        <v>Profilo URL</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
-        <v>你想要一张照片吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"个人资料网址")</f>
+        <v>个人资料网址</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
-        <v>あなたはどこから写真を望みますか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"プロフィールURL")</f>
+        <v>プロフィールURL</v>
       </c>
     </row>
     <row r="37">
@@ -2399,40 +2396,40 @@
         <v>80</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"Galería")</f>
-        <v>Galería</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
+        <v>¿De dónde quieres una foto?</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
+        <v>Où voulez-vous une photo?</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
+        <v>Wo willst du ein Foto von?</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Galeria")</f>
-        <v>Galeria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
+        <v>Skąd chcesz zdjęcie?</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Галерея")</f>
-        <v>Галерея</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
+        <v>Откуда вы хотите фотографию?</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
+        <v>Mistä haluat valokuvan?</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
+        <v>Da dove vuoi una foto?</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"画廊")</f>
-        <v>画廊</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
+        <v>你想要一张照片吗？</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"ギャラリー")</f>
-        <v>ギャラリー</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
+        <v>あなたはどこから写真を望みますか？</v>
       </c>
     </row>
     <row r="38">
@@ -2443,40 +2440,40 @@
         <v>82</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Cámara")</f>
-        <v>Cámara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Galería")</f>
+        <v>Galería</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Caméra")</f>
-        <v>Caméra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
-        <v>Aparat fotograficzny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Galeria")</f>
+        <v>Galeria</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Камера")</f>
-        <v>Камера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Галерея")</f>
+        <v>Галерея</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Telecamera")</f>
-        <v>Telecamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"相机")</f>
-        <v>相机</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"画廊")</f>
+        <v>画廊</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"カメラ")</f>
-        <v>カメラ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"ギャラリー")</f>
+        <v>ギャラリー</v>
       </c>
     </row>
     <row r="39">
@@ -2487,40 +2484,40 @@
         <v>84</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"A diario")</f>
-        <v>A diario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"Cámara")</f>
+        <v>Cámara</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"du quotidien")</f>
-        <v>du quotidien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"Caméra")</f>
+        <v>Caméra</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Täglich")</f>
-        <v>Täglich</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Codziennie")</f>
-        <v>Codziennie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
+        <v>Aparat fotograficzny</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Ежедневно")</f>
-        <v>Ежедневно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Камера")</f>
+        <v>Камера</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Päivittäin")</f>
-        <v>Päivittäin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Quotidiano")</f>
-        <v>Quotidiano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Telecamera")</f>
+        <v>Telecamera</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"日常")</f>
-        <v>日常</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"相机")</f>
+        <v>相机</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"毎日")</f>
-        <v>毎日</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"カメラ")</f>
+        <v>カメラ</v>
       </c>
     </row>
     <row r="40">
@@ -2531,40 +2528,40 @@
         <v>86</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"¡Prepararse!")</f>
-        <v>¡Prepararse!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"A diario")</f>
+        <v>A diario</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"Sois prêt!")</f>
-        <v>Sois prêt!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"du quotidien")</f>
+        <v>du quotidien</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Bereit machen!")</f>
-        <v>Bereit machen!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Täglich")</f>
+        <v>Täglich</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Przygotuj się!")</f>
-        <v>Przygotuj się!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Codziennie")</f>
+        <v>Codziennie</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Приготовься!")</f>
-        <v>Приготовься!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Ежедневно")</f>
+        <v>Ежедневно</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Valmistaudu!")</f>
-        <v>Valmistaudu!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Päivittäin")</f>
+        <v>Päivittäin</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Preparati!")</f>
-        <v>Preparati!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Quotidiano")</f>
+        <v>Quotidiano</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"做好准备！")</f>
-        <v>做好准备！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"日常")</f>
+        <v>日常</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"準備をしなさい！")</f>
-        <v>準備をしなさい！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"毎日")</f>
+        <v>毎日</v>
       </c>
     </row>
     <row r="41">
@@ -2575,40 +2572,40 @@
         <v>88</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¡Prepararse!")</f>
+        <v>¡Prepararse!</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Sois prêt!")</f>
+        <v>Sois prêt!</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Bereit machen!")</f>
+        <v>Bereit machen!</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Przygotuj się!")</f>
+        <v>Przygotuj się!</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Приготовься!")</f>
+        <v>Приготовься!</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Valmistaudu!")</f>
+        <v>Valmistaudu!</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Preparati!")</f>
+        <v>Preparati!</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"做好准备！")</f>
+        <v>做好准备！</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"準備をしなさい！")</f>
+        <v>準備をしなさい！</v>
       </c>
     </row>
     <row r="42">
@@ -2619,40 +2616,40 @@
         <v>90</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="43">
@@ -2663,40 +2660,40 @@
         <v>92</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"EMPEZAR")</f>
-        <v>EMPEZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"COMMENCER")</f>
-        <v>COMMENCER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"LOSLEGEN")</f>
-        <v>LOSLEGEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"ZACZYNAJ")</f>
-        <v>ZACZYNAJ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"НАЧАТЬ")</f>
-        <v>НАЧАТЬ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"ALOITTAA")</f>
-        <v>ALOITTAA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"INIZIARE")</f>
-        <v>INIZIARE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"开始")</f>
-        <v>开始</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"始まりました")</f>
-        <v>始まりました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="44">
@@ -2707,40 +2704,40 @@
         <v>94</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"ACCESO")</f>
-        <v>ACCESO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"EMPEZAR")</f>
+        <v>EMPEZAR</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"CONNEXION")</f>
-        <v>CONNEXION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"COMMENCER")</f>
+        <v>COMMENCER</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"ANMELDUNG")</f>
-        <v>ANMELDUNG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"LOSLEGEN")</f>
+        <v>LOSLEGEN</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
-        <v>ZALOGUJ SIE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"ZACZYNAJ")</f>
+        <v>ZACZYNAJ</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
-        <v>АВТОРИЗОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"НАЧАТЬ")</f>
+        <v>НАЧАТЬ</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
-        <v>KIRJAUDU SISÄÄN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"ALOITTAA")</f>
+        <v>ALOITTAA</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"ACCEDERE")</f>
-        <v>ACCEDERE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"INIZIARE")</f>
+        <v>INIZIARE</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"登录")</f>
-        <v>登录</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"开始")</f>
+        <v>开始</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"ログインする")</f>
-        <v>ログインする</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"始まりました")</f>
+        <v>始まりました</v>
       </c>
     </row>
     <row r="45">
@@ -2751,40 +2748,40 @@
         <v>96</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"INSCRIBIRSE")</f>
-        <v>INSCRIBIRSE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"ACCESO")</f>
+        <v>ACCESO</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"S'INSCRIRE")</f>
-        <v>S'INSCRIRE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"CONNEXION")</f>
+        <v>CONNEXION</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDEN")</f>
-        <v>ANMELDEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDUNG")</f>
+        <v>ANMELDUNG</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
-        <v>ZAPISZ SIĘ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
+        <v>ZALOGUJ SIE</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
+        <v>АВТОРИЗОВАТЬСЯ</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU")</f>
-        <v>KIRJAUDU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
+        <v>KIRJAUDU SISÄÄN</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ISCRIVITI")</f>
-        <v>ISCRIVITI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ACCEDERE")</f>
+        <v>ACCEDERE</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"报名")</f>
-        <v>报名</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"登录")</f>
+        <v>登录</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"サインアップ")</f>
-        <v>サインアップ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"ログインする")</f>
+        <v>ログインする</v>
       </c>
     </row>
     <row r="46">
@@ -2795,40 +2792,40 @@
         <v>98</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"Nombre")</f>
-        <v>Nombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"INSCRIBIRSE")</f>
+        <v>INSCRIBIRSE</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Nom")</f>
-        <v>Nom</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"S'INSCRIRE")</f>
+        <v>S'INSCRIRE</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Name")</f>
-        <v>Name</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"ANMELDEN")</f>
+        <v>ANMELDEN</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Nazwa")</f>
-        <v>Nazwa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
+        <v>ZAPISZ SIĘ</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Имя")</f>
-        <v>Имя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"Nimi")</f>
-        <v>Nimi</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"KIRJAUDU")</f>
+        <v>KIRJAUDU</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"Nome")</f>
-        <v>Nome</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"ISCRIVITI")</f>
+        <v>ISCRIVITI</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"名称")</f>
-        <v>名称</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"报名")</f>
+        <v>报名</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"名前")</f>
-        <v>名前</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"サインアップ")</f>
+        <v>サインアップ</v>
       </c>
     </row>
     <row r="47">
@@ -2839,40 +2836,40 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"Nombre")</f>
+        <v>Nombre</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Nom")</f>
+        <v>Nom</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Name")</f>
+        <v>Name</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Nazwa")</f>
+        <v>Nazwa</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Имя")</f>
+        <v>Имя</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Nimi")</f>
+        <v>Nimi</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"Nome")</f>
+        <v>Nome</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"名称")</f>
+        <v>名称</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"名前")</f>
+        <v>名前</v>
       </c>
     </row>
     <row r="48">
@@ -2883,40 +2880,40 @@
         <v>102</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Contraseña")</f>
-        <v>Contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"Mot de passe")</f>
-        <v>Mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Passwort")</f>
-        <v>Passwort</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Hasło")</f>
-        <v>Hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Пароль")</f>
-        <v>Пароль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"Salasana")</f>
-        <v>Salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"Parola d'ordine")</f>
-        <v>Parola d'ordine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"密码")</f>
-        <v>密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"パスワード")</f>
-        <v>パスワード</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="49">
@@ -2927,40 +2924,40 @@
         <v>104</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
-        <v>¿Has olvidado tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Contraseña")</f>
+        <v>Contraseña</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Mot de passe")</f>
+        <v>Mot de passe</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort")</f>
+        <v>Passwort</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Hasło")</f>
+        <v>Hasło</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Забыли пароль?")</f>
-        <v>Забыли пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Пароль")</f>
+        <v>Пароль</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
-        <v>Unohtuiko salasana?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Salasana")</f>
+        <v>Salasana</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
-        <v>Ha dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Parola d'ordine")</f>
+        <v>Parola d'ordine</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"忘记密码？")</f>
-        <v>忘记密码？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"密码")</f>
+        <v>密码</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワード")</f>
+        <v>パスワード</v>
       </c>
     </row>
     <row r="50">
@@ -2968,87 +2965,87 @@
         <v>105</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
+        <v>¿Has olvidado tu contraseña?</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Забыли пароль?")</f>
+        <v>Забыли пароль?</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
+        <v>Unohtuiko salasana?</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
+        <v>Ha dimenticato la password?</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"忘记密码？")</f>
+        <v>忘记密码？</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
-        <v>¿No tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
-        <v>Vous n'avez pas de compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
-        <v>Ich habe kein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Nie masz konta?")</f>
-        <v>Nie masz konta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
-        <v>У вас нет аккаунта?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
-        <v>Eikö sinulla ole tiliä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Non hai un account?")</f>
-        <v>Non hai un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"没有帐户？")</f>
-        <v>没有帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
-        <v>アカウントを持っていませんか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="52">
@@ -3056,87 +3053,87 @@
         <v>108</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
+        <v>¿No tienes una cuenta?</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
+        <v>Vous n'avez pas de compte?</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
+        <v>Ich habe kein Konto?</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"Nie masz konta?")</f>
+        <v>Nie masz konta?</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
+        <v>У вас нет аккаунта?</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
+        <v>Eikö sinulla ole tiliä?</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"Non hai un account?")</f>
+        <v>Non hai un account?</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"没有帐户？")</f>
+        <v>没有帐户？</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
+        <v>アカウントを持っていませんか？</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
-        <v>¡INSCRIBIRSE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
-        <v>S'INSCRIRE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"ANMELDEN!")</f>
-        <v>ANMELDEN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
-        <v>ZAPISZ SIĘ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"KIRJAUDU!")</f>
-        <v>KIRJAUDU!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"ISCRIVITI!")</f>
-        <v>ISCRIVITI!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"报名！")</f>
-        <v>报名！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"サインアップ！")</f>
-        <v>サインアップ！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="54">
@@ -3147,40 +3144,40 @@
         <v>112</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
-        <v>¿Olvidaste tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
+        <v>¡INSCRIBIRSE!</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
+        <v>S'INSCRIRE!</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"ANMELDEN!")</f>
+        <v>ANMELDEN!</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
+        <v>ZAPISZ SIĘ!</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
-        <v>Забыли Ваш пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
-        <v>Unohditko salasanasi?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"KIRJAUDU!")</f>
+        <v>KIRJAUDU!</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
-        <v>Hai dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"ISCRIVITI!")</f>
+        <v>ISCRIVITI!</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"忘记密码了吗？")</f>
-        <v>忘记密码了吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"报名！")</f>
+        <v>报名！</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"サインアップ！")</f>
+        <v>サインアップ！</v>
       </c>
     </row>
     <row r="55">
@@ -3191,190 +3188,190 @@
         <v>114</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
+        <v>¿Olvidaste tu contraseña?</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
+        <v>Забыли Ваш пароль?</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
+        <v>Unohditko salasanasi?</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
+        <v>Hai dimenticato la password?</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"忘记密码了吗？")</f>
+        <v>忘记密码了吗？</v>
+      </c>
+      <c r="K55" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.")</f>
         <v>Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.</v>
       </c>
-      <c r="D55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.")</f>
         <v>Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.</v>
       </c>
-      <c r="E55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
         <v>Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
       </c>
-      <c r="F55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
+      <c r="F56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.")</f>
         <v>Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.</v>
       </c>
-      <c r="G55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
+      <c r="G56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.")</f>
         <v>Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.</v>
       </c>
-      <c r="H55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
+      <c r="H56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.")</f>
         <v>Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.</v>
       </c>
-      <c r="I55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
+      <c r="I56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.")</f>
         <v>Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.</v>
       </c>
-      <c r="J55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"输入下面的用户电子邮件
+      <c r="J56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"输入下面的用户电子邮件
 收到密码重置消息。")</f>
         <v>输入下面的用户电子邮件
 收到密码重置消息。</v>
       </c>
-      <c r="K55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
+      <c r="K56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。")</f>
         <v>下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
-        <v>El correo electrónico no puede estar vacío</v>
-      </c>
-      <c r="D56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
-        <v>L'email ne peut pas être vide</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
-        <v>E-Mail kann nicht leer sein</v>
-      </c>
-      <c r="F56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
-        <v>E-mail nie może być pusty</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
-        <v>Электронная почта не может быть пустым</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
-        <v>Sähköposti ei voi olla tyhjä</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
-        <v>L'e-mail non può essere vuota</v>
-      </c>
-      <c r="J56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"电子邮件不能为空")</f>
-        <v>电子邮件不能为空</v>
-      </c>
-      <c r="K56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
-        <v>電子メールは空にすることはできません</v>
-      </c>
-    </row>
     <row r="57">
       <c r="A57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
+        <v>El correo electrónico no puede estar vacío</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
+        <v>L'email ne peut pas être vide</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
+        <v>E-Mail kann nicht leer sein</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
+        <v>E-mail nie może być pusty</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
+        <v>Электронная почта не может быть пустым</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
+        <v>Sähköposti ei voi olla tyhjä</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
+        <v>L'e-mail non può essere vuota</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"电子邮件不能为空")</f>
+        <v>电子邮件不能为空</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
+        <v>電子メールは空にすることはできません</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Enviar")</f>
-        <v>Enviar</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"Envoyer")</f>
-        <v>Envoyer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Senden")</f>
-        <v>Senden</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"Wysłać")</f>
-        <v>Wysłać</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Отправлять")</f>
-        <v>Отправлять</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Lähettää")</f>
-        <v>Lähettää</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"Spedire")</f>
-        <v>Spedire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"发送")</f>
-        <v>发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"送信")</f>
-        <v>送信</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="59">
@@ -3385,40 +3382,40 @@
         <v>121</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"No lo entendí?")</f>
-        <v>No lo entendí?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"Enviar")</f>
+        <v>Enviar</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
-        <v>Ne l'a pas eu?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"Envoyer")</f>
+        <v>Envoyer</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
-        <v>Hast es nicht bekommen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"Senden")</f>
+        <v>Senden</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
-        <v>Nie zrozumiałeś?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"Wysłać")</f>
+        <v>Wysłać</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Не понял?")</f>
-        <v>Не понял?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Отправлять")</f>
+        <v>Отправлять</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
-        <v>Ei saanut sitä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Lähettää")</f>
+        <v>Lähettää</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"Non ho capito?")</f>
-        <v>Non ho capito?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"Spedire")</f>
+        <v>Spedire</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"没有得到它？")</f>
-        <v>没有得到它？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"发送")</f>
+        <v>发送</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"手に入れなかった？")</f>
-        <v>手に入れなかった？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"送信")</f>
+        <v>送信</v>
       </c>
     </row>
     <row r="60">
@@ -3429,40 +3426,40 @@
         <v>123</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"¡Resolver!")</f>
-        <v>¡Resolver!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"No lo entendí?")</f>
+        <v>No lo entendí?</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"Renvoyez!")</f>
-        <v>Renvoyez!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
+        <v>Ne l'a pas eu?</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Erneut senden!")</f>
-        <v>Erneut senden!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
+        <v>Hast es nicht bekommen?</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
-        <v>Wysłać ponownie!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
+        <v>Nie zrozumiałeś?</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Отправить!")</f>
-        <v>Отправить!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Не понял?")</f>
+        <v>Не понял?</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
-        <v>Uudelleen lähettää!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
+        <v>Ei saanut sitä?</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"Resenda!")</f>
-        <v>Resenda!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"Non ho capito?")</f>
+        <v>Non ho capito?</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"重发！")</f>
-        <v>重发！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"没有得到它？")</f>
+        <v>没有得到它？</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"res！")</f>
-        <v>res！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"手に入れなかった？")</f>
+        <v>手に入れなかった？</v>
       </c>
     </row>
     <row r="61">
@@ -3473,40 +3470,40 @@
         <v>125</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"Ajustes")</f>
-        <v>Ajustes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"¡Resolver!")</f>
+        <v>¡Resolver!</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Réglages")</f>
-        <v>Réglages</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Renvoyez!")</f>
+        <v>Renvoyez!</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Einstellungen")</f>
-        <v>Einstellungen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Erneut senden!")</f>
+        <v>Erneut senden!</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Ustawienia")</f>
-        <v>Ustawienia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
+        <v>Wysłać ponownie!</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Настройки")</f>
-        <v>Настройки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Отправить!")</f>
+        <v>Отправить!</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"asetukset")</f>
-        <v>asetukset</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
+        <v>Uudelleen lähettää!</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Impostazioni")</f>
-        <v>Impostazioni</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Resenda!")</f>
+        <v>Resenda!</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"设置")</f>
-        <v>设置</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"重发！")</f>
+        <v>重发！</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"設定")</f>
-        <v>設定</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"res！")</f>
+        <v>res！</v>
       </c>
     </row>
     <row r="62">
@@ -3517,40 +3514,40 @@
         <v>127</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"Restablecer la contraseña")</f>
-        <v>Restablecer la contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"Ajustes")</f>
+        <v>Ajustes</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
-        <v>Réinitialiser le mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Réglages")</f>
+        <v>Réglages</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
-        <v>Passwort zurücksetzen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Einstellungen")</f>
+        <v>Einstellungen</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Zresetuj hasło")</f>
-        <v>Zresetuj hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Ustawienia")</f>
+        <v>Ustawienia</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Сброс пароля")</f>
-        <v>Сброс пароля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Настройки")</f>
+        <v>Настройки</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"Nollaa salasana")</f>
-        <v>Nollaa salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"asetukset")</f>
+        <v>asetukset</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Resetta la password")</f>
-        <v>Resetta la password</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Impostazioni")</f>
+        <v>Impostazioni</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"重设密码")</f>
-        <v>重设密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"设置")</f>
+        <v>设置</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"パスワードを再設定する")</f>
-        <v>パスワードを再設定する</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"設定")</f>
+        <v>設定</v>
       </c>
     </row>
     <row r="63">
@@ -3561,40 +3558,40 @@
         <v>129</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
-        <v>E-mail ha sido enviado</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"Restablecer la contraseña")</f>
+        <v>Restablecer la contraseña</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"L'email a été envoyé")</f>
-        <v>L'email a été envoyé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
+        <v>Réinitialiser le mot de passe</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
-        <v>Die Email wurde verschickt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
+        <v>Passwort zurücksetzen</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Email został wysłany")</f>
-        <v>Email został wysłany</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Zresetuj hasło")</f>
+        <v>Zresetuj hasło</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Письмо было отправлено")</f>
-        <v>Письмо было отправлено</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Сброс пароля")</f>
+        <v>Сброс пароля</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
-        <v>Sähköposti on lähetetty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Nollaa salasana")</f>
+        <v>Nollaa salasana</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"L'email è stata inviata")</f>
-        <v>L'email è stata inviata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"Resetta la password")</f>
+        <v>Resetta la password</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"邮件已发送")</f>
-        <v>邮件已发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"重设密码")</f>
+        <v>重设密码</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"メールが送信されました")</f>
-        <v>メールが送信されました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"パスワードを再設定する")</f>
+        <v>パスワードを再設定する</v>
       </c>
     </row>
     <row r="64">
@@ -3605,128 +3602,178 @@
         <v>131</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"DESCONECTAR")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
+        <v>E-mail ha sido enviado</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"L'email a été envoyé")</f>
+        <v>L'email a été envoyé</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
+        <v>Die Email wurde verschickt</v>
+      </c>
+      <c r="F64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"Email został wysłany")</f>
+        <v>Email został wysłany</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"Письмо было отправлено")</f>
+        <v>Письмо было отправлено</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
+        <v>Sähköposti on lähetetty</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"L'email è stata inviata")</f>
+        <v>L'email è stata inviata</v>
+      </c>
+      <c r="J64" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"邮件已发送")</f>
+        <v>邮件已发送</v>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"メールが送信されました")</f>
+        <v>メールが送信されました</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""es"")"),"DESCONECTAR")</f>
         <v>DESCONECTAR</v>
       </c>
-      <c r="D64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
+      <c r="D65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
         <v>SE DÉCONNECTER</v>
       </c>
-      <c r="E64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"AUSTRAGEN")</f>
+      <c r="E65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""de"")"),"AUSTRAGEN")</f>
         <v>AUSTRAGEN</v>
       </c>
-      <c r="F64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
+      <c r="F65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
         <v>WYLOGUJ SIĘ</v>
       </c>
-      <c r="G64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"ВЫХОД")</f>
+      <c r="G65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ru"")"),"ВЫХОД")</f>
         <v>ВЫХОД</v>
       </c>
-      <c r="H64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
+      <c r="H65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
         <v>KIRJAUDU ULOS</v>
       </c>
-      <c r="I64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"DISCONNESSIONE")</f>
+      <c r="I65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""it"")"),"DISCONNESSIONE")</f>
         <v>DISCONNESSIONE</v>
       </c>
-      <c r="J64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"登出")</f>
+      <c r="J65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""zh"")"),"登出")</f>
         <v>登出</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"サインアウト")</f>
+      <c r="K65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ja"")"),"サインアウト")</f>
         <v>サインアウト</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="8" t="str">
-        <f t="array" ref="B66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B64&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+    <row r="66">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="8" t="str">
+        <f t="array" ref="B67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
 receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</v>
       </c>
-      <c r="C66" s="8" t="str">
-        <f t="array" ref="C66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="D66" s="8" t="str">
-        <f t="array" ref="D66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="E66" s="8" t="str">
-        <f t="array" ref="E66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="F66" s="8" t="str">
-        <f t="array" ref="F66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="G66" s="8" t="str">
-        <f t="array" ref="G66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="H66" s="8" t="str">
-        <f t="array" ref="H66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="I66" s="8" t="str">
-        <f t="array" ref="I66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="J66" s="8" t="str">
-        <f t="array" ref="J66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-      <c r="K66" s="8" t="str">
-        <f t="array" ref="K66">concatenate("{", join(", ", char(34)&amp;A2:A64&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K64&amp;char(34)), "}")</f>
-        <v>Loading...</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="8" t="str">
+        <f t="array" ref="C67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
+Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</v>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f t="array" ref="D67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
+Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</v>
+      </c>
+      <c r="E67" s="8" t="str">
+        <f t="array" ref="E67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
+erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</v>
+      </c>
+      <c r="F67" s="8" t="str">
+        <f t="array" ref="F67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
+Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
+      </c>
+      <c r="G67" s="8" t="str">
+        <f t="array" ref="G67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
+Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</v>
+      </c>
+      <c r="H67" s="8" t="str">
+        <f t="array" ref="H67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
+Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f t="array" ref="I67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
+Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f t="array" ref="J67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
+收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</v>
+      </c>
+      <c r="K67" s="8" t="str">
+        <f t="array" ref="K67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K65&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
+パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="7"/>
+      <c r="J68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="7"/>
@@ -6571,6 +6618,9 @@
     </row>
     <row r="1016">
       <c r="A1016" s="7"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/daily_1.0/daily/lib/localizations/daily_json.xlsx
+++ b/daily_1.0/daily/lib/localizations/daily_json.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
   <si>
     <t>VALUE</t>
   </si>
@@ -136,6 +136,12 @@
     <t>Privacy</t>
   </si>
   <si>
+    <t>settingGroupLegal</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
     <t>settingGroupHidden</t>
   </si>
   <si>
@@ -248,6 +254,12 @@
   </si>
   <si>
     <t>profileURL</t>
+  </si>
+  <si>
+    <t>settingLicenses</t>
+  </si>
+  <si>
+    <t>Licenses</t>
   </si>
   <si>
     <t>mediaSelectionTitle</t>
@@ -1092,8 +1104,8 @@
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
-        <v>Пользователь не существует или пароль не прав.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
+        <v>Пользователь не существует или пароль не так.</v>
       </c>
       <c r="H7" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
@@ -1136,8 +1148,8 @@
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
-        <v>Пользователь не существует или пароль не прав.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
+        <v>Пользователь не существует или пароль не так.</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
@@ -1560,128 +1572,128 @@
         <v>42</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Oculto")</f>
-        <v>Oculto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Legal")</f>
+        <v>Legal</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Caché")</f>
-        <v>Caché</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Légal")</f>
+        <v>Légal</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""de"")"),"Versteckt")</f>
-        <v>Versteckt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""de"")"),"Gesetzlich")</f>
+        <v>Gesetzlich</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pl"")"),"Ukryty")</f>
-        <v>Ukryty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pl"")"),"Prawny")</f>
+        <v>Prawny</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Скрытый")</f>
-        <v>Скрытый</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Юридический")</f>
+        <v>Юридический</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Piilotettu")</f>
-        <v>Piilotettu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Laillinen")</f>
+        <v>Laillinen</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Nascosto")</f>
-        <v>Nascosto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Legale")</f>
+        <v>Legale</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"隐")</f>
-        <v>隐</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"合法的")</f>
+        <v>合法的</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"隠れた")</f>
-        <v>隠れた</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"法的")</f>
+        <v>法的</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Idioma")</f>
-        <v>Idioma</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Oculto")</f>
+        <v>Oculto</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Langue")</f>
-        <v>Langue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Caché")</f>
+        <v>Caché</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""de"")"),"Sprache")</f>
-        <v>Sprache</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""de"")"),"Versteckt")</f>
+        <v>Versteckt</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pl"")"),"Język")</f>
-        <v>Język</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pl"")"),"Ukryty")</f>
+        <v>Ukryty</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Язык")</f>
-        <v>Язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Скрытый")</f>
+        <v>Скрытый</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Kieli")</f>
-        <v>Kieli</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Piilotettu")</f>
+        <v>Piilotettu</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Lingua")</f>
-        <v>Lingua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Nascosto")</f>
+        <v>Nascosto</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"语")</f>
-        <v>语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"隐")</f>
+        <v>隐</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"言語")</f>
-        <v>言語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"隠れた")</f>
+        <v>隠れた</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"chino")</f>
-        <v>chino</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Idioma")</f>
+        <v>Idioma</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"chinois")</f>
-        <v>chinois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Langue")</f>
+        <v>Langue</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Chinesisch")</f>
-        <v>Chinesisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Sprache")</f>
+        <v>Sprache</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"chiński")</f>
-        <v>chiński</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Język")</f>
+        <v>Język</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"китайский язык")</f>
-        <v>китайский язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Язык")</f>
+        <v>Язык</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Kiinalainen")</f>
-        <v>Kiinalainen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Kieli")</f>
+        <v>Kieli</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Cinese")</f>
-        <v>Cinese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Lingua")</f>
+        <v>Lingua</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"中国人")</f>
-        <v>中国人</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"语")</f>
+        <v>语</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"中国語")</f>
-        <v>中国語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"言語")</f>
+        <v>言語</v>
       </c>
     </row>
     <row r="21">
@@ -1692,40 +1704,40 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"inglés")</f>
-        <v>inglés</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"chino")</f>
+        <v>chino</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Anglais")</f>
-        <v>Anglais</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"chinois")</f>
+        <v>chinois</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Englisch")</f>
-        <v>Englisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Chinesisch")</f>
+        <v>Chinesisch</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"język angielski")</f>
-        <v>język angielski</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"chiński")</f>
+        <v>chiński</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"английский")</f>
-        <v>английский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"китайский язык")</f>
+        <v>китайский язык</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Englanti")</f>
-        <v>Englanti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Kiinalainen")</f>
+        <v>Kiinalainen</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"inglese")</f>
-        <v>inglese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Cinese")</f>
+        <v>Cinese</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"英语")</f>
-        <v>英语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"中国人")</f>
+        <v>中国人</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"英語")</f>
-        <v>英語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"中国語")</f>
+        <v>中国語</v>
       </c>
     </row>
     <row r="22">
@@ -1736,40 +1748,40 @@
         <v>50</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"finlandés")</f>
-        <v>finlandés</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"inglés")</f>
+        <v>inglés</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"finlandais")</f>
-        <v>finlandais</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Anglais")</f>
+        <v>Anglais</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"finnisch")</f>
-        <v>finnisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Englisch")</f>
+        <v>Englisch</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"fiński")</f>
-        <v>fiński</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"język angielski")</f>
+        <v>język angielski</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"Финский")</f>
-        <v>Финский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"английский")</f>
+        <v>английский</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Suomalainen")</f>
-        <v>Suomalainen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Englanti")</f>
+        <v>Englanti</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"finlandese")</f>
-        <v>finlandese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"inglese")</f>
+        <v>inglese</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"芬兰")</f>
-        <v>芬兰</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"英语")</f>
+        <v>英语</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"フィンランド語")</f>
-        <v>フィンランド語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"英語")</f>
+        <v>英語</v>
       </c>
     </row>
     <row r="23">
@@ -1780,40 +1792,40 @@
         <v>52</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"francés")</f>
-        <v>francés</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"finlandés")</f>
+        <v>finlandés</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"français")</f>
-        <v>français</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"finlandais")</f>
+        <v>finlandais</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"Französisch")</f>
-        <v>Französisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"finnisch")</f>
+        <v>finnisch</v>
       </c>
       <c r="F23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"Francuski")</f>
-        <v>Francuski</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"fiński")</f>
+        <v>fiński</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Французский")</f>
-        <v>Французский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Финский")</f>
+        <v>Финский</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Ranskan kieli")</f>
-        <v>Ranskan kieli</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Suomalainen")</f>
+        <v>Suomalainen</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"francese")</f>
-        <v>francese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"finlandese")</f>
+        <v>finlandese</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"法语")</f>
-        <v>法语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"芬兰")</f>
+        <v>芬兰</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"フランス語")</f>
-        <v>フランス語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"フィンランド語")</f>
+        <v>フィンランド語</v>
       </c>
     </row>
     <row r="24">
@@ -1824,40 +1836,40 @@
         <v>54</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"alemán")</f>
-        <v>alemán</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"francés")</f>
+        <v>francés</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"allemand")</f>
-        <v>allemand</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"français")</f>
+        <v>français</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Deutsch")</f>
-        <v>Deutsch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Französisch")</f>
+        <v>Französisch</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Niemiecki")</f>
-        <v>Niemiecki</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Francuski")</f>
+        <v>Francuski</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Немецкий")</f>
-        <v>Немецкий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Французский")</f>
+        <v>Французский</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Saksan kieli")</f>
-        <v>Saksan kieli</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Ranskan kieli")</f>
+        <v>Ranskan kieli</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"Tedesco")</f>
-        <v>Tedesco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"francese")</f>
+        <v>francese</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"德语")</f>
-        <v>德语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"法语")</f>
+        <v>法语</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"ドイツ人")</f>
-        <v>ドイツ人</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"フランス語")</f>
+        <v>フランス語</v>
       </c>
     </row>
     <row r="25">
@@ -1868,40 +1880,40 @@
         <v>56</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"italiano")</f>
-        <v>italiano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"alemán")</f>
+        <v>alemán</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"italien")</f>
-        <v>italien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"allemand")</f>
+        <v>allemand</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Italienisch")</f>
-        <v>Italienisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Deutsch")</f>
+        <v>Deutsch</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Włoski")</f>
-        <v>Włoski</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Niemiecki")</f>
+        <v>Niemiecki</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Итальянский")</f>
-        <v>Итальянский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Немецкий")</f>
+        <v>Немецкий</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"italialainen")</f>
-        <v>italialainen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Saksan kieli")</f>
+        <v>Saksan kieli</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"italiano")</f>
-        <v>italiano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Tedesco")</f>
+        <v>Tedesco</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"意大利人")</f>
-        <v>意大利人</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"德语")</f>
+        <v>德语</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"イタリア語")</f>
-        <v>イタリア語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"ドイツ人")</f>
+        <v>ドイツ人</v>
       </c>
     </row>
     <row r="26">
@@ -1912,40 +1924,40 @@
         <v>58</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"japonés")</f>
-        <v>japonés</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"italiano")</f>
+        <v>italiano</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Japonais")</f>
-        <v>Japonais</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"italien")</f>
+        <v>italien</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"japanisch")</f>
-        <v>japanisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Italienisch")</f>
+        <v>Italienisch</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"język japoński")</f>
-        <v>język japoński</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Włoski")</f>
+        <v>Włoski</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"японский язык")</f>
-        <v>японский язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Итальянский")</f>
+        <v>Итальянский</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"japanilainen")</f>
-        <v>japanilainen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"italialainen")</f>
+        <v>italialainen</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"giapponese")</f>
-        <v>giapponese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"italiano")</f>
+        <v>italiano</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"日本人")</f>
-        <v>日本人</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"意大利人")</f>
+        <v>意大利人</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"日本")</f>
-        <v>日本</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"イタリア語")</f>
+        <v>イタリア語</v>
       </c>
     </row>
     <row r="27">
@@ -1956,40 +1968,40 @@
         <v>60</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"polaco")</f>
-        <v>polaco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"japonés")</f>
+        <v>japonés</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"polonais")</f>
-        <v>polonais</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"Japonais")</f>
+        <v>Japonais</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"Polieren")</f>
-        <v>Polieren</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"japanisch")</f>
+        <v>japanisch</v>
       </c>
       <c r="F27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"Polskie")</f>
-        <v>Polskie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"język japoński")</f>
+        <v>język japoński</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"Польский")</f>
-        <v>Польский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"японский язык")</f>
+        <v>японский язык</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"Kiillottaa")</f>
-        <v>Kiillottaa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"japanilainen")</f>
+        <v>japanilainen</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"polacco")</f>
-        <v>polacco</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"giapponese")</f>
+        <v>giapponese</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"抛光")</f>
-        <v>抛光</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"日本人")</f>
+        <v>日本人</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"研磨")</f>
-        <v>研磨</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"日本")</f>
+        <v>日本</v>
       </c>
     </row>
     <row r="28">
@@ -2000,40 +2012,40 @@
         <v>62</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"ruso")</f>
-        <v>ruso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"polaco")</f>
+        <v>polaco</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"russe")</f>
-        <v>russe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"polonais")</f>
+        <v>polonais</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Russisch")</f>
-        <v>Russisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Polieren")</f>
+        <v>Polieren</v>
       </c>
       <c r="F28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Rosyjski")</f>
-        <v>Rosyjski</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Polskie")</f>
+        <v>Polskie</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"русский")</f>
-        <v>русский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"Польский")</f>
+        <v>Польский</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Venäjän kieli")</f>
-        <v>Venäjän kieli</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Kiillottaa")</f>
+        <v>Kiillottaa</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"russo")</f>
-        <v>russo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"polacco")</f>
+        <v>polacco</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"俄语")</f>
-        <v>俄语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"抛光")</f>
+        <v>抛光</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"ロシア")</f>
-        <v>ロシア</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"研磨")</f>
+        <v>研磨</v>
       </c>
     </row>
     <row r="29">
@@ -2044,128 +2056,128 @@
         <v>64</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"español")</f>
-        <v>español</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"ruso")</f>
+        <v>ruso</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"Espagnol")</f>
-        <v>Espagnol</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"russe")</f>
+        <v>russe</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"Spanisch")</f>
-        <v>Spanisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"Russisch")</f>
+        <v>Russisch</v>
       </c>
       <c r="F29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"hiszpański")</f>
-        <v>hiszpański</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"Rosyjski")</f>
+        <v>Rosyjski</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"испанский язык")</f>
-        <v>испанский язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"русский")</f>
+        <v>русский</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"Espanja")</f>
-        <v>Espanja</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"Venäjän kieli")</f>
+        <v>Venäjän kieli</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"spagnolo")</f>
-        <v>spagnolo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"russo")</f>
+        <v>russo</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"西班牙语")</f>
-        <v>西班牙语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"俄语")</f>
+        <v>俄语</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"スペイン語")</f>
-        <v>スペイン語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"ロシア")</f>
+        <v>ロシア</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"Notificaciones")</f>
-        <v>Notificaciones</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"español")</f>
+        <v>español</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"Notifications")</f>
-        <v>Notifications</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"Espagnol")</f>
+        <v>Espagnol</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"Benachrichtigungen")</f>
-        <v>Benachrichtigungen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"Spanisch")</f>
+        <v>Spanisch</v>
       </c>
       <c r="F30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"Powiadomienia")</f>
-        <v>Powiadomienia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"hiszpański")</f>
+        <v>hiszpański</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"Уверенность")</f>
-        <v>Уверенность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"испанский язык")</f>
+        <v>испанский язык</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"Ilmoitukset")</f>
-        <v>Ilmoitukset</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"Espanja")</f>
+        <v>Espanja</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"Notifiche")</f>
-        <v>Notifiche</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"spagnolo")</f>
+        <v>spagnolo</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"通知")</f>
-        <v>通知</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"西班牙语")</f>
+        <v>西班牙语</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"通知")</f>
-        <v>通知</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"スペイン語")</f>
+        <v>スペイン語</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"Tema")</f>
-        <v>Tema</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"Notificaciones")</f>
+        <v>Notificaciones</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"Thème")</f>
-        <v>Thème</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"Notifications")</f>
+        <v>Notifications</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"Thema")</f>
-        <v>Thema</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"Benachrichtigungen")</f>
+        <v>Benachrichtigungen</v>
       </c>
       <c r="F31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"Temat")</f>
-        <v>Temat</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"Powiadomienia")</f>
+        <v>Powiadomienia</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"Тема")</f>
-        <v>Тема</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"Уверенность")</f>
+        <v>Уверенность</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"Teema")</f>
-        <v>Teema</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"Ilmoitukset")</f>
+        <v>Ilmoitukset</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"Tema")</f>
-        <v>Tema</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"Notifiche")</f>
+        <v>Notifiche</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"主题")</f>
-        <v>主题</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"通知")</f>
+        <v>通知</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"テーマ")</f>
-        <v>テーマ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"通知")</f>
+        <v>通知</v>
       </c>
     </row>
     <row r="32">
@@ -2176,40 +2188,40 @@
         <v>70</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"Ligero")</f>
-        <v>Ligero</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"Tema")</f>
+        <v>Tema</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"Lumière")</f>
-        <v>Lumière</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"Thème")</f>
+        <v>Thème</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"Hell")</f>
-        <v>Hell</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"Thema")</f>
+        <v>Thema</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"Światło")</f>
-        <v>Światło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"Temat")</f>
+        <v>Temat</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"Светлый")</f>
-        <v>Светлый</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"Тема")</f>
+        <v>Тема</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"Kevyt")</f>
-        <v>Kevyt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"Teema")</f>
+        <v>Teema</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"Luce")</f>
-        <v>Luce</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"Tema")</f>
+        <v>Tema</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"光")</f>
-        <v>光</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"主题")</f>
+        <v>主题</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"光")</f>
-        <v>光</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"テーマ")</f>
+        <v>テーマ</v>
       </c>
     </row>
     <row r="33">
@@ -2220,40 +2232,40 @@
         <v>72</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Oscuro")</f>
-        <v>Oscuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Ligero")</f>
+        <v>Ligero</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Foncé")</f>
-        <v>Foncé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Lumière")</f>
+        <v>Lumière</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Dunkel")</f>
-        <v>Dunkel</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Hell")</f>
+        <v>Hell</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Ciemny")</f>
-        <v>Ciemny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Światło")</f>
+        <v>Światło</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Темно")</f>
-        <v>Темно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Светлый")</f>
+        <v>Светлый</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Tumma")</f>
-        <v>Tumma</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Kevyt")</f>
+        <v>Kevyt</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Buio")</f>
-        <v>Buio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Luce")</f>
+        <v>Luce</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"黑暗的")</f>
-        <v>黑暗的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"光")</f>
+        <v>光</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"闇")</f>
-        <v>闇</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"光")</f>
+        <v>光</v>
       </c>
     </row>
     <row r="34">
@@ -2264,40 +2276,40 @@
         <v>74</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Defecto")</f>
-        <v>Defecto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Oscuro")</f>
+        <v>Oscuro</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Défaut")</f>
-        <v>Défaut</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Foncé")</f>
+        <v>Foncé</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Standard")</f>
-        <v>Standard</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Dunkel")</f>
+        <v>Dunkel</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"Domyślna")</f>
-        <v>Domyślna</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"Ciemny")</f>
+        <v>Ciemny</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Дефолт")</f>
-        <v>Дефолт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Темно")</f>
+        <v>Темно</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Oletusarvo")</f>
-        <v>Oletusarvo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Tumma")</f>
+        <v>Tumma</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"Predefinito")</f>
-        <v>Predefinito</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"Buio")</f>
+        <v>Buio</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"默认")</f>
-        <v>默认</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"黑暗的")</f>
+        <v>黑暗的</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"ディフォルト")</f>
-        <v>ディフォルト</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"闇")</f>
+        <v>闇</v>
       </c>
     </row>
     <row r="35">
@@ -2308,84 +2320,84 @@
         <v>76</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Es oscuro")</f>
-        <v>Es oscuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Defecto")</f>
+        <v>Defecto</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"est sombre")</f>
-        <v>est sombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Défaut")</f>
+        <v>Défaut</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"ist dunkel")</f>
-        <v>ist dunkel</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Standard")</f>
+        <v>Standard</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"jest ciemno")</f>
-        <v>jest ciemno</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"Domyślna")</f>
+        <v>Domyślna</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Isdark.")</f>
-        <v>Isdark.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Дефолт")</f>
+        <v>Дефолт</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"isdark")</f>
-        <v>isdark</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"Oletusarvo")</f>
+        <v>Oletusarvo</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"è scuro")</f>
-        <v>è scuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Predefinito")</f>
+        <v>Predefinito</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"isdark.")</f>
-        <v>isdark.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"默认")</f>
+        <v>默认</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"は暗い")</f>
-        <v>は暗い</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"ディフォルト")</f>
+        <v>ディフォルト</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"URL del perfil")</f>
-        <v>URL del perfil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"Es oscuro")</f>
+        <v>Es oscuro</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Profil URL")</f>
-        <v>Profil URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"est sombre")</f>
+        <v>est sombre</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Profil-URL")</f>
-        <v>Profil-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"ist dunkel")</f>
+        <v>ist dunkel</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"URL profilu")</f>
-        <v>URL profilu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"jest ciemno")</f>
+        <v>jest ciemno</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"URL профиля")</f>
-        <v>URL профиля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Isdark.")</f>
+        <v>Isdark.</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"profiili-URL")</f>
-        <v>profiili-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"isdark")</f>
+        <v>isdark</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Profilo URL")</f>
-        <v>Profilo URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"è scuro")</f>
+        <v>è scuro</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"个人资料网址")</f>
-        <v>个人资料网址</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"isdark.")</f>
+        <v>isdark.</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"プロフィールURL")</f>
-        <v>プロフィールURL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"は暗い")</f>
+        <v>は暗い</v>
       </c>
     </row>
     <row r="37">
@@ -2396,84 +2408,84 @@
         <v>80</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
-        <v>¿De dónde quieres una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"URL del perfil")</f>
+        <v>URL del perfil</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
-        <v>Où voulez-vous une photo?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Profil URL")</f>
+        <v>Profil URL</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
-        <v>Wo willst du ein Foto von?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Profil-URL")</f>
+        <v>Profil-URL</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
-        <v>Skąd chcesz zdjęcie?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"URL profilu")</f>
+        <v>URL profilu</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
-        <v>Откуда вы хотите фотографию?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"URL профиля")</f>
+        <v>URL профиля</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
-        <v>Mistä haluat valokuvan?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"profiili-URL")</f>
+        <v>profiili-URL</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
-        <v>Da dove vuoi una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Profilo URL")</f>
+        <v>Profilo URL</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
-        <v>你想要一张照片吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"个人资料网址")</f>
+        <v>个人资料网址</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
-        <v>あなたはどこから写真を望みますか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"プロフィールURL")</f>
+        <v>プロフィールURL</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Galería")</f>
-        <v>Galería</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Licencias")</f>
+        <v>Licencias</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Licences")</f>
+        <v>Licences</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Lizenzen")</f>
+        <v>Lizenzen</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Galeria")</f>
-        <v>Galeria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Licencje.")</f>
+        <v>Licencje.</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Галерея")</f>
-        <v>Галерея</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Лицензии")</f>
+        <v>Лицензии</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Lisenssit")</f>
+        <v>Lisenssit</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Licenze")</f>
+        <v>Licenze</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"画廊")</f>
-        <v>画廊</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"许可证")</f>
+        <v>许可证</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"ギャラリー")</f>
-        <v>ギャラリー</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"ライセンス")</f>
+        <v>ライセンス</v>
       </c>
     </row>
     <row r="39">
@@ -2484,40 +2496,40 @@
         <v>84</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"Cámara")</f>
-        <v>Cámara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
+        <v>¿De dónde quieres una foto?</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"Caméra")</f>
-        <v>Caméra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
+        <v>Où voulez-vous une photo?</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
+        <v>Wo willst du ein Foto von?</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
-        <v>Aparat fotograficzny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
+        <v>Skąd chcesz zdjęcie?</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Камера")</f>
-        <v>Камера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
+        <v>Откуда вы хотите фотографию?</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
+        <v>Mistä haluat valokuvan?</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Telecamera")</f>
-        <v>Telecamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
+        <v>Da dove vuoi una foto?</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"相机")</f>
-        <v>相机</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
+        <v>你想要一张照片吗？</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"カメラ")</f>
-        <v>カメラ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
+        <v>あなたはどこから写真を望みますか？</v>
       </c>
     </row>
     <row r="40">
@@ -2528,40 +2540,40 @@
         <v>86</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"A diario")</f>
-        <v>A diario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"Galería")</f>
+        <v>Galería</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"du quotidien")</f>
-        <v>du quotidien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Täglich")</f>
-        <v>Täglich</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Codziennie")</f>
-        <v>Codziennie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Galeria")</f>
+        <v>Galeria</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Ежедневно")</f>
-        <v>Ежедневно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Галерея")</f>
+        <v>Галерея</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Päivittäin")</f>
-        <v>Päivittäin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Quotidiano")</f>
-        <v>Quotidiano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"日常")</f>
-        <v>日常</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"画廊")</f>
+        <v>画廊</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"毎日")</f>
-        <v>毎日</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"ギャラリー")</f>
+        <v>ギャラリー</v>
       </c>
     </row>
     <row r="41">
@@ -2572,40 +2584,40 @@
         <v>88</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"¡Prepararse!")</f>
-        <v>¡Prepararse!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"Cámara")</f>
+        <v>Cámara</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Sois prêt!")</f>
-        <v>Sois prêt!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Caméra")</f>
+        <v>Caméra</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Bereit machen!")</f>
-        <v>Bereit machen!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Przygotuj się!")</f>
-        <v>Przygotuj się!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
+        <v>Aparat fotograficzny</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Приготовься!")</f>
-        <v>Приготовься!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Камера")</f>
+        <v>Камера</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Valmistaudu!")</f>
-        <v>Valmistaudu!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Preparati!")</f>
-        <v>Preparati!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Telecamera")</f>
+        <v>Telecamera</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"做好准备！")</f>
-        <v>做好准备！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"相机")</f>
+        <v>相机</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"準備をしなさい！")</f>
-        <v>準備をしなさい！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"カメラ")</f>
+        <v>カメラ</v>
       </c>
     </row>
     <row r="42">
@@ -2616,40 +2628,40 @@
         <v>90</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"A diario")</f>
+        <v>A diario</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"du quotidien")</f>
+        <v>du quotidien</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Täglich")</f>
+        <v>Täglich</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Codziennie")</f>
+        <v>Codziennie</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Ежедневно")</f>
+        <v>Ежедневно</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Päivittäin")</f>
+        <v>Päivittäin</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Quotidiano")</f>
+        <v>Quotidiano</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"日常")</f>
+        <v>日常</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"毎日")</f>
+        <v>毎日</v>
       </c>
     </row>
     <row r="43">
@@ -2660,40 +2672,40 @@
         <v>92</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"¡Prepararse!")</f>
+        <v>¡Prepararse!</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"Sois prêt!")</f>
+        <v>Sois prêt!</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"Bereit machen!")</f>
+        <v>Bereit machen!</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"Przygotuj się!")</f>
+        <v>Przygotuj się!</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Приготовься!")</f>
+        <v>Приготовься!</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"Valmistaudu!")</f>
+        <v>Valmistaudu!</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"Preparati!")</f>
+        <v>Preparati!</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"做好准备！")</f>
+        <v>做好准备！</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"準備をしなさい！")</f>
+        <v>準備をしなさい！</v>
       </c>
     </row>
     <row r="44">
@@ -2704,40 +2716,40 @@
         <v>94</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"EMPEZAR")</f>
-        <v>EMPEZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"COMMENCER")</f>
-        <v>COMMENCER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"LOSLEGEN")</f>
-        <v>LOSLEGEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"ZACZYNAJ")</f>
-        <v>ZACZYNAJ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"НАЧАТЬ")</f>
-        <v>НАЧАТЬ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"ALOITTAA")</f>
-        <v>ALOITTAA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"INIZIARE")</f>
-        <v>INIZIARE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"开始")</f>
-        <v>开始</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"始まりました")</f>
-        <v>始まりました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="45">
@@ -2748,40 +2760,40 @@
         <v>96</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"ACCESO")</f>
-        <v>ACCESO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"CONNEXION")</f>
-        <v>CONNEXION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDUNG")</f>
-        <v>ANMELDUNG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
-        <v>ZALOGUJ SIE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
-        <v>АВТОРИЗОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
-        <v>KIRJAUDU SISÄÄN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ACCEDERE")</f>
-        <v>ACCEDERE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"登录")</f>
-        <v>登录</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"ログインする")</f>
-        <v>ログインする</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="46">
@@ -2792,40 +2804,40 @@
         <v>98</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"INSCRIBIRSE")</f>
-        <v>INSCRIBIRSE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"EMPEZAR")</f>
+        <v>EMPEZAR</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"S'INSCRIRE")</f>
-        <v>S'INSCRIRE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"COMMENCER")</f>
+        <v>COMMENCER</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"ANMELDEN")</f>
-        <v>ANMELDEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"LOSLEGEN")</f>
+        <v>LOSLEGEN</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
-        <v>ZAPISZ SIĘ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"ZACZYNAJ")</f>
+        <v>ZACZYNAJ</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"НАЧАТЬ")</f>
+        <v>НАЧАТЬ</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"KIRJAUDU")</f>
-        <v>KIRJAUDU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"ALOITTAA")</f>
+        <v>ALOITTAA</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"ISCRIVITI")</f>
-        <v>ISCRIVITI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"INIZIARE")</f>
+        <v>INIZIARE</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"报名")</f>
-        <v>报名</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"开始")</f>
+        <v>开始</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"サインアップ")</f>
-        <v>サインアップ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"始まりました")</f>
+        <v>始まりました</v>
       </c>
     </row>
     <row r="47">
@@ -2836,40 +2848,40 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"Nombre")</f>
-        <v>Nombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"ACCESO")</f>
+        <v>ACCESO</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Nom")</f>
-        <v>Nom</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"CONNEXION")</f>
+        <v>CONNEXION</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Name")</f>
-        <v>Name</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"ANMELDUNG")</f>
+        <v>ANMELDUNG</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Nazwa")</f>
-        <v>Nazwa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
+        <v>ZALOGUJ SIE</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Имя")</f>
-        <v>Имя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
+        <v>АВТОРИЗОВАТЬСЯ</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Nimi")</f>
-        <v>Nimi</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
+        <v>KIRJAUDU SISÄÄN</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"Nome")</f>
-        <v>Nome</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"ACCEDERE")</f>
+        <v>ACCEDERE</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"名称")</f>
-        <v>名称</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"登录")</f>
+        <v>登录</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"名前")</f>
-        <v>名前</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"ログインする")</f>
+        <v>ログインする</v>
       </c>
     </row>
     <row r="48">
@@ -2880,40 +2892,40 @@
         <v>102</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"INSCRIBIRSE")</f>
+        <v>INSCRIBIRSE</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"S'INSCRIRE")</f>
+        <v>S'INSCRIRE</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"ANMELDEN")</f>
+        <v>ANMELDEN</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
+        <v>ZAPISZ SIĘ</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"KIRJAUDU")</f>
+        <v>KIRJAUDU</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"ISCRIVITI")</f>
+        <v>ISCRIVITI</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"报名")</f>
+        <v>报名</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"サインアップ")</f>
+        <v>サインアップ</v>
       </c>
     </row>
     <row r="49">
@@ -2924,40 +2936,40 @@
         <v>104</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Contraseña")</f>
-        <v>Contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Nombre")</f>
+        <v>Nombre</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Mot de passe")</f>
-        <v>Mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Nom")</f>
+        <v>Nom</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Passwort")</f>
-        <v>Passwort</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Name")</f>
+        <v>Name</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Hasło")</f>
-        <v>Hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Nazwa")</f>
+        <v>Nazwa</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Пароль")</f>
-        <v>Пароль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Имя")</f>
+        <v>Имя</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Salasana")</f>
-        <v>Salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Nimi")</f>
+        <v>Nimi</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Parola d'ordine")</f>
-        <v>Parola d'ordine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Nome")</f>
+        <v>Nome</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"密码")</f>
-        <v>密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"名称")</f>
+        <v>名称</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"パスワード")</f>
-        <v>パスワード</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"名前")</f>
+        <v>名前</v>
       </c>
     </row>
     <row r="50">
@@ -2968,40 +2980,40 @@
         <v>106</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
-        <v>¿Has olvidado tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Забыли пароль?")</f>
-        <v>Забыли пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
-        <v>Unohtuiko salasana?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
-        <v>Ha dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"忘记密码？")</f>
-        <v>忘记密码？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="51">
@@ -3009,219 +3021,219 @@
         <v>107</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"Contraseña")</f>
+        <v>Contraseña</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Mot de passe")</f>
+        <v>Mot de passe</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Passwort")</f>
+        <v>Passwort</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Hasło")</f>
+        <v>Hasło</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"Пароль")</f>
+        <v>Пароль</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Salasana")</f>
+        <v>Salasana</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Parola d'ordine")</f>
+        <v>Parola d'ordine</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"密码")</f>
+        <v>密码</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"パスワード")</f>
+        <v>パスワード</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
-        <v>¿No tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
+        <v>¿Has olvidado tu contraseña?</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
-        <v>Vous n'avez pas de compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
-        <v>Ich habe kein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"Nie masz konta?")</f>
-        <v>Nie masz konta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
-        <v>У вас нет аккаунта?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"Забыли пароль?")</f>
+        <v>Забыли пароль?</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
-        <v>Eikö sinulla ole tiliä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
+        <v>Unohtuiko salasana?</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"Non hai un account?")</f>
-        <v>Non hai un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
+        <v>Ha dimenticato la password?</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"没有帐户？")</f>
-        <v>没有帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"忘记密码？")</f>
+        <v>忘记密码？</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
-        <v>アカウントを持っていませんか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
-        <v>¡INSCRIBIRSE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
+        <v>¿No tienes una cuenta?</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
-        <v>S'INSCRIRE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
+        <v>Vous n'avez pas de compte?</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"ANMELDEN!")</f>
-        <v>ANMELDEN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
+        <v>Ich habe kein Konto?</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
-        <v>ZAPISZ SIĘ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"Nie masz konta?")</f>
+        <v>Nie masz konta?</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
+        <v>У вас нет аккаунта?</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"KIRJAUDU!")</f>
-        <v>KIRJAUDU!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
+        <v>Eikö sinulla ole tiliä?</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"ISCRIVITI!")</f>
-        <v>ISCRIVITI!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"Non hai un account?")</f>
+        <v>Non hai un account?</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"报名！")</f>
-        <v>报名！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"没有帐户？")</f>
+        <v>没有帐户？</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"サインアップ！")</f>
-        <v>サインアップ！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
+        <v>アカウントを持っていませんか？</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
-        <v>¿Olvidaste tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
-        <v>Забыли Ваш пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
-        <v>Unohditko salasanasi?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
-        <v>Hai dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"忘记密码了吗？")</f>
-        <v>忘记密码了吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="56">
@@ -3232,234 +3244,234 @@
         <v>116</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
+        <v>¡INSCRIBIRSE!</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
+        <v>S'INSCRIRE!</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"ANMELDEN!")</f>
+        <v>ANMELDEN!</v>
+      </c>
+      <c r="F56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
+        <v>ZAPISZ SIĘ!</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"KIRJAUDU!")</f>
+        <v>KIRJAUDU!</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"ISCRIVITI!")</f>
+        <v>ISCRIVITI!</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"报名！")</f>
+        <v>报名！</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"サインアップ！")</f>
+        <v>サインアップ！</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
+        <v>¿Olvidaste tu contraseña?</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
+        <v>Забыли Ваш пароль?</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
+        <v>Unohditko salasanasi?</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
+        <v>Hai dimenticato la password?</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"忘记密码了吗？")</f>
+        <v>忘记密码了吗？</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.")</f>
         <v>Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.</v>
       </c>
-      <c r="D56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.")</f>
         <v>Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.</v>
       </c>
-      <c r="E56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
         <v>Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
       </c>
-      <c r="F56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
+      <c r="F58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.")</f>
         <v>Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.</v>
       </c>
-      <c r="G56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
+      <c r="G58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.")</f>
         <v>Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.</v>
       </c>
-      <c r="H56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
+      <c r="H58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.")</f>
         <v>Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.</v>
       </c>
-      <c r="I56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
+      <c r="I58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.")</f>
         <v>Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.</v>
       </c>
-      <c r="J56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"输入下面的用户电子邮件
+      <c r="J58" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"输入下面的用户电子邮件
 收到密码重置消息。")</f>
         <v>输入下面的用户电子邮件
 收到密码重置消息。</v>
       </c>
-      <c r="K56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
+      <c r="K58" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。")</f>
         <v>下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
-        <v>El correo electrónico no puede estar vacío</v>
-      </c>
-      <c r="D57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
-        <v>L'email ne peut pas être vide</v>
-      </c>
-      <c r="E57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
-        <v>E-Mail kann nicht leer sein</v>
-      </c>
-      <c r="F57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
-        <v>E-mail nie może być pusty</v>
-      </c>
-      <c r="G57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
-        <v>Электронная почта не может быть пустым</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
-        <v>Sähköposti ei voi olla tyhjä</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
-        <v>L'e-mail non può essere vuota</v>
-      </c>
-      <c r="J57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"电子邮件不能为空")</f>
-        <v>电子邮件不能为空</v>
-      </c>
-      <c r="K57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
-        <v>電子メールは空にすることはできません</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
-      </c>
-      <c r="D58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
-      </c>
-      <c r="F58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
-      </c>
-      <c r="J58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
-      </c>
-      <c r="K58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
-      </c>
-    </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"Enviar")</f>
-        <v>Enviar</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
+        <v>El correo electrónico no puede estar vacío</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"Envoyer")</f>
-        <v>Envoyer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
+        <v>L'email ne peut pas être vide</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"Senden")</f>
-        <v>Senden</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
+        <v>E-Mail kann nicht leer sein</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"Wysłać")</f>
-        <v>Wysłać</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
+        <v>E-mail nie może być pusty</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Отправлять")</f>
-        <v>Отправлять</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
+        <v>Электронная почта не может быть пустым</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Lähettää")</f>
-        <v>Lähettää</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
+        <v>Sähköposti ei voi olla tyhjä</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"Spedire")</f>
-        <v>Spedire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
+        <v>L'e-mail non può essere vuota</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"发送")</f>
-        <v>发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"电子邮件不能为空")</f>
+        <v>电子邮件不能为空</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"送信")</f>
-        <v>送信</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
+        <v>電子メールは空にすることはできません</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"No lo entendí?")</f>
-        <v>No lo entendí?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
-        <v>Ne l'a pas eu?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
-        <v>Hast es nicht bekommen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
-        <v>Nie zrozumiałeś?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Не понял?")</f>
-        <v>Не понял?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Электронное письмо")</f>
+        <v>Электронное письмо</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
-        <v>Ei saanut sitä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"Non ho capito?")</f>
-        <v>Non ho capito?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"没有得到它？")</f>
-        <v>没有得到它？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"手に入れなかった？")</f>
-        <v>手に入れなかった？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="61">
@@ -3470,40 +3482,40 @@
         <v>125</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"¡Resolver!")</f>
-        <v>¡Resolver!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"Enviar")</f>
+        <v>Enviar</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Renvoyez!")</f>
-        <v>Renvoyez!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Envoyer")</f>
+        <v>Envoyer</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Erneut senden!")</f>
-        <v>Erneut senden!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Senden")</f>
+        <v>Senden</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
-        <v>Wysłać ponownie!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Wysłać")</f>
+        <v>Wysłać</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Отправить!")</f>
-        <v>Отправить!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Отправлять")</f>
+        <v>Отправлять</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
-        <v>Uudelleen lähettää!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"Lähettää")</f>
+        <v>Lähettää</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Resenda!")</f>
-        <v>Resenda!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Spedire")</f>
+        <v>Spedire</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"重发！")</f>
-        <v>重发！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"发送")</f>
+        <v>发送</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"res！")</f>
-        <v>res！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"送信")</f>
+        <v>送信</v>
       </c>
     </row>
     <row r="62">
@@ -3514,40 +3526,40 @@
         <v>127</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"Ajustes")</f>
-        <v>Ajustes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"No lo entendí?")</f>
+        <v>No lo entendí?</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Réglages")</f>
-        <v>Réglages</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
+        <v>Ne l'a pas eu?</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Einstellungen")</f>
-        <v>Einstellungen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
+        <v>Hast es nicht bekommen?</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Ustawienia")</f>
-        <v>Ustawienia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
+        <v>Nie zrozumiałeś?</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Настройки")</f>
-        <v>Настройки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Не понял?")</f>
+        <v>Не понял?</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"asetukset")</f>
-        <v>asetukset</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
+        <v>Ei saanut sitä?</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Impostazioni")</f>
-        <v>Impostazioni</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Non ho capito?")</f>
+        <v>Non ho capito?</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"设置")</f>
-        <v>设置</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"没有得到它？")</f>
+        <v>没有得到它？</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"設定")</f>
-        <v>設定</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"手に入れなかった？")</f>
+        <v>手に入れなかった？</v>
       </c>
     </row>
     <row r="63">
@@ -3558,40 +3570,40 @@
         <v>129</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"Restablecer la contraseña")</f>
-        <v>Restablecer la contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"¡Resolver!")</f>
+        <v>¡Resolver!</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
-        <v>Réinitialiser le mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"Renvoyez!")</f>
+        <v>Renvoyez!</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
-        <v>Passwort zurücksetzen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Erneut senden!")</f>
+        <v>Erneut senden!</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Zresetuj hasło")</f>
-        <v>Zresetuj hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
+        <v>Wysłać ponownie!</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Сброс пароля")</f>
-        <v>Сброс пароля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Отправить!")</f>
+        <v>Отправить!</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Nollaa salasana")</f>
-        <v>Nollaa salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
+        <v>Uudelleen lähettää!</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"Resetta la password")</f>
-        <v>Resetta la password</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"Resenda!")</f>
+        <v>Resenda!</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"重设密码")</f>
-        <v>重设密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"重发！")</f>
+        <v>重发！</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"パスワードを再設定する")</f>
-        <v>パスワードを再設定する</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"res！")</f>
+        <v>res！</v>
       </c>
     </row>
     <row r="64">
@@ -3602,40 +3614,40 @@
         <v>131</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
-        <v>E-mail ha sido enviado</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"Ajustes")</f>
+        <v>Ajustes</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"L'email a été envoyé")</f>
-        <v>L'email a été envoyé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"Réglages")</f>
+        <v>Réglages</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
-        <v>Die Email wurde verschickt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"Einstellungen")</f>
+        <v>Einstellungen</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"Email został wysłany")</f>
-        <v>Email został wysłany</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"Ustawienia")</f>
+        <v>Ustawienia</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"Письмо было отправлено")</f>
-        <v>Письмо было отправлено</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"Настройки")</f>
+        <v>Настройки</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
-        <v>Sähköposti on lähetetty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"asetukset")</f>
+        <v>asetukset</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"L'email è stata inviata")</f>
-        <v>L'email è stata inviata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"Impostazioni")</f>
+        <v>Impostazioni</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"邮件已发送")</f>
-        <v>邮件已发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"设置")</f>
+        <v>设置</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"メールが送信されました")</f>
-        <v>メールが送信されました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"設定")</f>
+        <v>設定</v>
       </c>
     </row>
     <row r="65">
@@ -3646,140 +3658,222 @@
         <v>133</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""es"")"),"DESCONECTAR")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""es"")"),"Restablecer la contraseña")</f>
+        <v>Restablecer la contraseña</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
+        <v>Réinitialiser le mot de passe</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
+        <v>Passwort zurücksetzen</v>
+      </c>
+      <c r="F65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pl"")"),"Zresetuj hasło")</f>
+        <v>Zresetuj hasło</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ru"")"),"Сброс пароля")</f>
+        <v>Сброс пароля</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fi"")"),"Nollaa salasana")</f>
+        <v>Nollaa salasana</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""it"")"),"Resetta la password")</f>
+        <v>Resetta la password</v>
+      </c>
+      <c r="J65" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""zh"")"),"重设密码")</f>
+        <v>重设密码</v>
+      </c>
+      <c r="K65" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ja"")"),"パスワードを再設定する")</f>
+        <v>パスワードを再設定する</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
+        <v>E-mail ha sido enviado</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fr"")"),"L'email a été envoyé")</f>
+        <v>L'email a été envoyé</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
+        <v>Die Email wurde verschickt</v>
+      </c>
+      <c r="F66" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""pl"")"),"Email został wysłany")</f>
+        <v>Email został wysłany</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ru"")"),"Письмо было отправлено")</f>
+        <v>Письмо было отправлено</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
+        <v>Sähköposti on lähetetty</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""it"")"),"L'email è stata inviata")</f>
+        <v>L'email è stata inviata</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""zh"")"),"邮件已发送")</f>
+        <v>邮件已发送</v>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ja"")"),"メールが送信されました")</f>
+        <v>メールが送信されました</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""es"")"),"DESCONECTAR")</f>
         <v>DESCONECTAR</v>
       </c>
-      <c r="D65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
+      <c r="D67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
         <v>SE DÉCONNECTER</v>
       </c>
-      <c r="E65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""de"")"),"AUSTRAGEN")</f>
+      <c r="E67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""de"")"),"AUSTRAGEN")</f>
         <v>AUSTRAGEN</v>
       </c>
-      <c r="F65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
+      <c r="F67" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
         <v>WYLOGUJ SIĘ</v>
       </c>
-      <c r="G65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ru"")"),"ВЫХОД")</f>
+      <c r="G67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ru"")"),"ВЫХОД")</f>
         <v>ВЫХОД</v>
       </c>
-      <c r="H65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
+      <c r="H67" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
         <v>KIRJAUDU ULOS</v>
       </c>
-      <c r="I65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""it"")"),"DISCONNESSIONE")</f>
+      <c r="I67" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""it"")"),"DISCONNESSIONE")</f>
         <v>DISCONNESSIONE</v>
       </c>
-      <c r="J65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""zh"")"),"登出")</f>
+      <c r="J67" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""zh"")"),"登出")</f>
         <v>登出</v>
       </c>
-      <c r="K65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ja"")"),"サインアウト")</f>
+      <c r="K67" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ja"")"),"サインアウト")</f>
         <v>サインアウト</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="7"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="8" t="str">
-        <f t="array" ref="B67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
+    <row r="68">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="8" t="str">
+        <f t="array" ref="B69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legal", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "settingLicenses": "Licenses", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
 receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="array" ref="C67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
+      <c r="C69" s="8" t="str">
+        <f t="array" ref="C69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupLegal": "Legal", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "settingLicenses": "Licencias", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
 Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</v>
       </c>
-      <c r="D67" s="8" t="str">
-        <f t="array" ref="D67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
+      <c r="D69" s="8" t="str">
+        <f t="array" ref="D69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupLegal": "Légal", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "settingLicenses": "Licences", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
 Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</v>
       </c>
-      <c r="E67" s="8" t="str">
-        <f t="array" ref="E67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
+      <c r="E69" s="8" t="str">
+        <f t="array" ref="E69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupLegal": "Gesetzlich", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "settingLicenses": "Lizenzen", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
 erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</v>
       </c>
-      <c r="F67" s="8" t="str">
-        <f t="array" ref="F67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
+      <c r="F69" s="8" t="str">
+        <f t="array" ref="F69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupLegal": "Prawny", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "settingLicenses": "Licencje.", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
 Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
       </c>
-      <c r="G67" s="8" t="str">
-        <f t="array" ref="G67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
+      <c r="G69" s="8" t="str">
+        <f t="array" ref="G69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не так.", "errorUserNotFound": "Пользователь не существует или пароль не так.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupLegal": "Юридический", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "settingLicenses": "Лицензии", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
 Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</v>
       </c>
-      <c r="H67" s="8" t="str">
-        <f t="array" ref="H67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
+      <c r="H69" s="8" t="str">
+        <f t="array" ref="H69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupLegal": "Laillinen", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "settingLicenses": "Lisenssit", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
 Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</v>
       </c>
-      <c r="I67" s="8" t="str">
-        <f t="array" ref="I67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
+      <c r="I69" s="8" t="str">
+        <f t="array" ref="I69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legale", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "settingLicenses": "Licenze", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
 Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</v>
       </c>
-      <c r="J67" s="8" t="str">
-        <f t="array" ref="J67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
+      <c r="J69" s="8" t="str">
+        <f t="array" ref="J69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupLegal": "合法的", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "settingLicenses": "许可证", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
 收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</v>
       </c>
-      <c r="K67" s="8" t="str">
-        <f t="array" ref="K67">concatenate("{", join(", ", char(34)&amp;A2:A65&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K65&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
+      <c r="K69" s="8" t="str">
+        <f t="array" ref="K69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K67&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupLegal": "法的", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "settingLicenses": "ライセンス", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
 パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="4" t="s">
+    <row r="70">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="7"/>
+      <c r="H70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="7"/>
@@ -6621,6 +6715,12 @@
     </row>
     <row r="1017">
       <c r="A1017" s="7"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="7"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/daily_1.0/daily/lib/localizations/daily_json.xlsx
+++ b/daily_1.0/daily/lib/localizations/daily_json.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="182">
   <si>
     <t>VALUE</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Password must be 8-16 characters and a number/symbol.</t>
   </si>
   <si>
+    <t>errorPasswordMatch</t>
+  </si>
+  <si>
+    <t>Passwords don't match.</t>
+  </si>
+  <si>
     <t>errorInvalidPassword</t>
   </si>
   <si>
@@ -148,6 +154,12 @@
     <t>Hidden</t>
   </si>
   <si>
+    <t>settingResetPassword</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
     <t>settingLocale</t>
   </si>
   <si>
@@ -157,7 +169,7 @@
     <t>settingLocaleChinese</t>
   </si>
   <si>
-    <t>Chinese</t>
+    <t>中国人 (Chinese)</t>
   </si>
   <si>
     <t>settingLocaleEnglish</t>
@@ -169,49 +181,49 @@
     <t>settingLocaleFinnish</t>
   </si>
   <si>
-    <t>Finnish</t>
+    <t>Suomalainen (Finnish)</t>
   </si>
   <si>
     <t>settingLocaleFrench</t>
   </si>
   <si>
-    <t>French</t>
+    <t>français (French)</t>
   </si>
   <si>
     <t>settingLocaleGerman</t>
   </si>
   <si>
-    <t>German</t>
+    <t>Deutsch (German)</t>
   </si>
   <si>
     <t>settingLocaleItalian</t>
   </si>
   <si>
-    <t>Italian</t>
+    <t>italiano (Italian)</t>
   </si>
   <si>
     <t>settingLocaleJapanese</t>
   </si>
   <si>
-    <t>Japanese</t>
+    <t>日本 (Japanese)</t>
   </si>
   <si>
     <t>settingLocalePolish</t>
   </si>
   <si>
-    <t>Polish</t>
+    <t>Polskie (Polish)</t>
   </si>
   <si>
     <t>settingLocaleRussian</t>
   </si>
   <si>
-    <t>Russian</t>
+    <t>русский (Russian)</t>
   </si>
   <si>
     <t>settingLocaleSpanish</t>
   </si>
   <si>
-    <t>Spanish</t>
+    <t>español (Spanish)</t>
   </si>
   <si>
     <t>settingNotifications</t>
@@ -220,6 +232,12 @@
     <t>Notifications</t>
   </si>
   <si>
+    <t>settingAbout</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
     <t>settingTheme</t>
   </si>
   <si>
@@ -256,12 +274,30 @@
     <t>profileURL</t>
   </si>
   <si>
+    <t>settingTermsAndConditions</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>settingPrivacyPolicy</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
     <t>settingLicenses</t>
   </si>
   <si>
     <t>Licenses</t>
   </si>
   <si>
+    <t>settingHelpSupport</t>
+  </si>
+  <si>
+    <t>Help/Support</t>
+  </si>
+  <si>
     <t>mediaSelectionTitle</t>
   </si>
   <si>
@@ -310,6 +346,18 @@
     <t>GET STARTED</t>
   </si>
   <si>
+    <t>authTitleSignIn</t>
+  </si>
+  <si>
+    <t>Login to Daily</t>
+  </si>
+  <si>
+    <t>authTitleSignUp</t>
+  </si>
+  <si>
+    <t>Register for Daily</t>
+  </si>
+  <si>
     <t>authSignIn</t>
   </si>
   <si>
@@ -340,12 +388,39 @@
     <t>Password</t>
   </si>
   <si>
+    <t>authFormPassVerify</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
     <t>authForgotPassword</t>
   </si>
   <si>
     <t>Forgot Password?</t>
   </si>
   <si>
+    <t>authPolicyAndTaCPrimary</t>
+  </si>
+  <si>
+    <t>By continuing, you agree to our</t>
+  </si>
+  <si>
+    <t>authPolicyAndTaCPrivacy</t>
+  </si>
+  <si>
+    <t>authPolicyAndTaCSeconday</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>authPolicyAndTaCConditions</t>
+  </si>
+  <si>
+    <t>Terms and Conditions.</t>
+  </si>
+  <si>
     <t>authSwitchSignInPrimary</t>
   </si>
   <si>
@@ -370,11 +445,16 @@
     <t>Forgot your password?</t>
   </si>
   <si>
-    <t>forgotPasswordSubtitle</t>
-  </si>
-  <si>
-    <t>Enter your user-email below to 
-receive a password reset message.</t>
+    <t>forgotPasswordSubtitlePrimary</t>
+  </si>
+  <si>
+    <t>Enter your user-email below to</t>
+  </si>
+  <si>
+    <t>forgotPasswordSubtitleSecondary</t>
+  </si>
+  <si>
+    <t>receive a password reset message.</t>
   </si>
   <si>
     <t>forgotPasswordValidatorEmailFormat</t>
@@ -410,10 +490,10 @@
     <t>Settings</t>
   </si>
   <si>
-    <t>settingsResetPassword</t>
-  </si>
-  <si>
-    <t>Reset password</t>
+    <t>settingsNullName</t>
+  </si>
+  <si>
+    <t>Null name.</t>
   </si>
   <si>
     <t>settingsResetPasswordSent</t>
@@ -422,6 +502,54 @@
     <t>Email has been sent</t>
   </si>
   <si>
+    <t>settingsHelpSupportBox</t>
+  </si>
+  <si>
+    <t>For help/support please email:</t>
+  </si>
+  <si>
+    <t>settingsAboutBoxName</t>
+  </si>
+  <si>
+    <t>settingsAboutBoxVersion</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>v0.2</t>
+  </si>
+  <si>
+    <t>v0.3</t>
+  </si>
+  <si>
+    <t>v0.4</t>
+  </si>
+  <si>
+    <t>v0.5</t>
+  </si>
+  <si>
+    <t>v0.6</t>
+  </si>
+  <si>
+    <t>v0.7</t>
+  </si>
+  <si>
+    <t>v0.8</t>
+  </si>
+  <si>
+    <t>v0.9</t>
+  </si>
+  <si>
+    <t>v0.10</t>
+  </si>
+  <si>
+    <t>settingsAboutBoxLegalese</t>
+  </si>
+  <si>
+    <t>©2022 Phoenix</t>
+  </si>
+  <si>
     <t>settingsSignOut</t>
   </si>
   <si>
@@ -429,53 +557,13 @@
   </si>
   <si>
     <t>JSON Format</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
-receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
-Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
-Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
-erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
-Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
-Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
-Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
-Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
-收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</t>
-  </si>
-  <si>
-    <t>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
-パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -489,6 +577,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -534,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,8 +642,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,44 +1094,44 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""es"")"),"Tu contraseña es muy débil.")</f>
-        <v>Tu contraseña es muy débil.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""es"")"),"Las contraseñas no coinciden.")</f>
+        <v>Las contraseñas no coinciden.</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fr"")"),"Votre mot de passe est trop faible.")</f>
-        <v>Votre mot de passe est trop faible.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fr"")"),"Les mots de passe ne correspondent pas.")</f>
+        <v>Les mots de passe ne correspondent pas.</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""de"")"),"Ihr Passwort ist zu schwach.")</f>
-        <v>Ihr Passwort ist zu schwach.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""de"")"),"Passwörter stimmen nicht überein.")</f>
+        <v>Passwörter stimmen nicht überein.</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""pl"")"),"Twoje hasło jest za słabe.")</f>
-        <v>Twoje hasło jest za słabe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""pl"")"),"Hasła nie pasują.")</f>
+        <v>Hasła nie pasują.</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ru"")"),"Ваш пароль слишком слабый.")</f>
-        <v>Ваш пароль слишком слабый.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ru"")"),"Пароли не совпадают.")</f>
+        <v>Пароли не совпадают.</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fi"")"),"Salasanasi on liian heikko.")</f>
-        <v>Salasanasi on liian heikko.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""fi"")"),"Salasanat eivät vastaa.")</f>
+        <v>Salasanat eivät vastaa.</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""it"")"),"La tua password è troppo debole.")</f>
-        <v>La tua password è troppo debole.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""it"")"),"Le password non corrispondono.")</f>
+        <v>Le password non corrispondono.</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""zh"")"),"你的密码太简单了。")</f>
-        <v>你的密码太简单了。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""zh"")"),"密码不匹配。")</f>
+        <v>密码不匹配。</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ja"")"),"あなたのパスワードは安全度が低いです。")</f>
-        <v>あなたのパスワードは安全度が低いです。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5, ""en"", ""ja"")"),"パスワードが一致しません。")</f>
+        <v>パスワードが一致しません。</v>
       </c>
     </row>
     <row r="6">
@@ -1044,40 +1142,40 @@
         <v>20</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
-        <v>Por favor introduzca una dirección de correo electrónico válida.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""es"")"),"Tu contraseña es muy débil.")</f>
+        <v>Tu contraseña es muy débil.</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
-        <v>Veuillez entrer un email valide.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fr"")"),"Votre mot de passe est trop faible.")</f>
+        <v>Votre mot de passe est trop faible.</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
-        <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""de"")"),"Dein Passwort ist zu schwach.")</f>
+        <v>Dein Passwort ist zu schwach.</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
-        <v>Proszę wpisać prawidłowy email.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""pl"")"),"Twoje hasło jest za słabe.")</f>
+        <v>Twoje hasło jest za słabe.</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
-        <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ru"")"),"Ваш пароль слишком слабый.")</f>
+        <v>Ваш пароль слишком слабый.</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
-        <v>Anna kelvollinen sähköposti.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""fi"")"),"Salasanasi on liian heikko.")</f>
+        <v>Salasanasi on liian heikko.</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""it"")"),"Inserisci una email valida.")</f>
-        <v>Inserisci una email valida.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""it"")"),"La tua password è troppo debole.")</f>
+        <v>La tua password è troppo debole.</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
-        <v>请输入有效电子邮件。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""zh"")"),"你的密码太简单了。")</f>
+        <v>你的密码太简单了。</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
-        <v>正しいメールアドレスを入力してください。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6, ""en"", ""ja"")"),"あなたのパスワードは安全度が低いです。")</f>
+        <v>あなたのパスワードは安全度が低いです。</v>
       </c>
     </row>
     <row r="7">
@@ -1088,40 +1186,40 @@
         <v>22</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
-        <v>El usuario no existe o la contraseña es incorrecta.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
+        <v>Por favor introduzca una dirección de correo electrónico válida.</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fr"")"),"L'utilisateur n'existe pas ou le mot de passe est faux.")</f>
-        <v>L'utilisateur n'existe pas ou le mot de passe est faux.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
+        <v>Veuillez entrer un email valide.</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""de"")"),"Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.")</f>
-        <v>Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
+        <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""pl"")"),"Użytkownik nie istnieje, czy hasło jest nieprawidłowe.")</f>
-        <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
+        <v>Proszę wpisać prawidłowy email.</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
-        <v>Пользователь не существует или пароль не так.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
+        <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
-        <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
+        <v>Anna kelvollinen sähköposti.</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
-        <v>L'utente non esiste o la password è sbagliata.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""it"")"),"Inserisci una email valida.")</f>
+        <v>Inserisci una email valida.</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
-        <v>用户不存在或密码错误。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
+        <v>请输入有效电子邮件。</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
-        <v>ユーザーが存在しないかパスワードが間違っています。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
+        <v>正しいメールアドレスを入力してください。</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
@@ -1148,8 +1246,8 @@
         <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не так.")</f>
-        <v>Пользователь не существует или пароль не так.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
+        <v>Пользователь не существует или пароль не прав.</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
@@ -1170,46 +1268,46 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""es"")"),"El usuario ha sido deshabilitado.")</f>
-        <v>El usuario ha sido deshabilitado.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""es"")"),"El usuario no existe o la contraseña es incorrecta.")</f>
+        <v>El usuario no existe o la contraseña es incorrecta.</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fr"")"),"L'utilisateur a été désactivé.")</f>
-        <v>L'utilisateur a été désactivé.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fr"")"),"L'utilisateur n'existe pas ou le mot de passe est faux.")</f>
+        <v>L'utilisateur n'existe pas ou le mot de passe est faux.</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""de"")"),"Benutzer wurde deaktiviert.")</f>
-        <v>Benutzer wurde deaktiviert.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""de"")"),"Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.")</f>
+        <v>Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""pl"")"),"Użytkownik został wyłączony.")</f>
-        <v>Użytkownik został wyłączony.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""pl"")"),"Użytkownik nie istnieje, czy hasło jest nieprawidłowe.")</f>
+        <v>Użytkownik nie istnieje, czy hasło jest nieprawidłowe.</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ru"")"),"Пользователь был отключен.")</f>
-        <v>Пользователь был отключен.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ru"")"),"Пользователь не существует или пароль не прав.")</f>
+        <v>Пользователь не существует или пароль не прав.</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fi"")"),"Käyttäjä on poistettu käytöstä.")</f>
-        <v>Käyttäjä on poistettu käytöstä.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""fi"")"),"Käyttäjä ei ole olemassa tai salasana on väärä.")</f>
+        <v>Käyttäjä ei ole olemassa tai salasana on väärä.</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""it"")"),"L'utente è stato disabilitato.")</f>
-        <v>L'utente è stato disabilitato.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""it"")"),"L'utente non esiste o la password è sbagliata.")</f>
+        <v>L'utente non esiste o la password è sbagliata.</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""zh"")"),"用户已被禁用。")</f>
-        <v>用户已被禁用。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""zh"")"),"用户不存在或密码错误。")</f>
+        <v>用户不存在或密码错误。</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ja"")"),"ユーザーが無効になっています。")</f>
-        <v>ユーザーが無効になっています。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9, ""en"", ""ja"")"),"ユーザーが存在しないかパスワードが間違っています。")</f>
+        <v>ユーザーが存在しないかパスワードが間違っています。</v>
       </c>
     </row>
     <row r="10">
@@ -1220,40 +1318,40 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""es"")"),"El correo electrónico ya está en uso en una cuenta diferente.")</f>
-        <v>El correo electrónico ya está en uso en una cuenta diferente.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""es"")"),"El usuario ha sido deshabilitado.")</f>
+        <v>El usuario ha sido deshabilitado.</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fr"")"),"Le courrier électronique est déjà utilisé sur un compte différent.")</f>
-        <v>Le courrier électronique est déjà utilisé sur un compte différent.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fr"")"),"L'utilisateur a été désactivé.")</f>
+        <v>L'utilisateur a été désactivé.</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""de"")"),"E-Mail ist bereits auf einem anderen Konto verwendet.")</f>
-        <v>E-Mail ist bereits auf einem anderen Konto verwendet.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""de"")"),"Benutzer wurde deaktiviert.")</f>
+        <v>Benutzer wurde deaktiviert.</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""pl"")"),"E-mail jest już używany na różnych kontach.")</f>
-        <v>E-mail jest już używany na różnych kontach.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""pl"")"),"Użytkownik został wyłączony.")</f>
+        <v>Użytkownik został wyłączony.</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ru"")"),"Электронная почта уже используется на другой учетной записи.")</f>
-        <v>Электронная почта уже используется на другой учетной записи.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ru"")"),"Пользователь был отключен.")</f>
+        <v>Пользователь был отключен.</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fi"")"),"Sähköposti on jo käytössä eri tilillä.")</f>
-        <v>Sähköposti on jo käytössä eri tilillä.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""fi"")"),"Käyttäjä on poistettu käytöstä.")</f>
+        <v>Käyttäjä on poistettu käytöstä.</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""it"")"),"L'e-mail è già in uso su un account diverso.")</f>
-        <v>L'e-mail è già in uso su un account diverso.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""it"")"),"L'utente è stato disabilitato.")</f>
+        <v>L'utente è stato disabilitato.</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""zh"")"),"电子邮件已在不同的帐户中使用。")</f>
-        <v>电子邮件已在不同的帐户中使用。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""zh"")"),"用户已被禁用。")</f>
+        <v>用户已被禁用。</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ja"")"),"電子メールはすでに異なるアカウントで使用されています。")</f>
-        <v>電子メールはすでに異なるアカウントで使用されています。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10, ""en"", ""ja"")"),"ユーザーが無効になっています。")</f>
+        <v>ユーザーが無効になっています。</v>
       </c>
     </row>
     <row r="11">
@@ -1261,87 +1359,87 @@
         <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
-        <v>Por favor introduzca una dirección de correo electrónico válida.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""es"")"),"El correo electrónico ya está en uso en una cuenta diferente.")</f>
+        <v>El correo electrónico ya está en uso en una cuenta diferente.</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
-        <v>Veuillez entrer un email valide.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fr"")"),"Le courrier électronique est déjà utilisé sur un compte différent.")</f>
+        <v>Le courrier électronique est déjà utilisé sur un compte différent.</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
-        <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""de"")"),"E-Mail ist bereits auf einem anderen Konto verwendet.")</f>
+        <v>E-Mail ist bereits auf einem anderen Konto verwendet.</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
-        <v>Proszę wpisać prawidłowy email.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""pl"")"),"E-mail jest już używany na różnych kontach.")</f>
+        <v>E-mail jest już używany na różnych kontach.</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
-        <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ru"")"),"Электронная почта уже используется на другой учетной записи.")</f>
+        <v>Электронная почта уже используется на другой учетной записи.</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
-        <v>Anna kelvollinen sähköposti.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""fi"")"),"Sähköposti on jo käytössä eri tilillä.")</f>
+        <v>Sähköposti on jo käytössä eri tilillä.</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""it"")"),"Inserisci una email valida.")</f>
-        <v>Inserisci una email valida.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""it"")"),"L'e-mail è già in uso su un account diverso.")</f>
+        <v>L'e-mail è già in uso su un account diverso.</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
-        <v>请输入有效电子邮件。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""zh"")"),"电子邮件已在不同的帐户中使用。")</f>
+        <v>电子邮件已在不同的帐户中使用。</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
-        <v>正しいメールアドレスを入力してください。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11, ""en"", ""ja"")"),"電子メールはすでに異なるアカウントで使用されています。")</f>
+        <v>電子メールはすでに異なるアカウントで使用されています。</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""es"")"),"Error al obtener la imagen.")</f>
-        <v>Error al obtener la imagen.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""es"")"),"Por favor introduzca una dirección de correo electrónico válida.")</f>
+        <v>Por favor introduzca una dirección de correo electrónico válida.</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fr"")"),"Impossible d'obtenir une image.")</f>
-        <v>Impossible d'obtenir une image.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fr"")"),"Veuillez entrer un email valide.")</f>
+        <v>Veuillez entrer un email valide.</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""de"")"),"Image konnte nicht abgerufen werden.")</f>
-        <v>Image konnte nicht abgerufen werden.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""de"")"),"Bitte geben Sie eine gültige Email-Adresse ein.")</f>
+        <v>Bitte geben Sie eine gültige Email-Adresse ein.</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""pl"")"),"Nie udało się uzyskać obrazu.")</f>
-        <v>Nie udało się uzyskać obrazu.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""pl"")"),"Proszę wpisać prawidłowy email.")</f>
+        <v>Proszę wpisać prawidłowy email.</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ru"")"),"Не удалось получить изображение.")</f>
-        <v>Не удалось получить изображение.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ru"")"),"Введите, пожалуйста, действительный адрес электронной почты.")</f>
+        <v>Введите, пожалуйста, действительный адрес электронной почты.</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fi"")"),"Kuvan saaminen epäonnistui.")</f>
-        <v>Kuvan saaminen epäonnistui.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""fi"")"),"Anna kelvollinen sähköposti.")</f>
+        <v>Anna kelvollinen sähköposti.</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""it"")"),"Impossibile ottenere un'immagine.")</f>
-        <v>Impossibile ottenere un'immagine.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""it"")"),"Inserisci una email valida.")</f>
+        <v>Inserisci una email valida.</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""zh"")"),"无法获得图像。")</f>
-        <v>无法获得图像。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""zh"")"),"请输入有效电子邮件。")</f>
+        <v>请输入有效电子邮件。</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ja"")"),"画像を取得できませんでした。")</f>
-        <v>画像を取得できませんでした。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12, ""en"", ""ja"")"),"正しいメールアドレスを入力してください。")</f>
+        <v>正しいメールアドレスを入力してください。</v>
       </c>
     </row>
     <row r="13">
@@ -1352,40 +1450,40 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""es"")"),"Error al compartir.")</f>
-        <v>Error al compartir.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""es"")"),"Error al obtener la imagen.")</f>
+        <v>Error al obtener la imagen.</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fr"")"),"Échoué à partager.")</f>
-        <v>Échoué à partager.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fr"")"),"Impossible d'obtenir une image.")</f>
+        <v>Impossible d'obtenir une image.</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""de"")"),"Nicht teilen.")</f>
-        <v>Nicht teilen.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""de"")"),"Image konnte nicht abgerufen werden.")</f>
+        <v>Image konnte nicht abgerufen werden.</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""pl"")"),"Nie udało się udostępnić.")</f>
-        <v>Nie udało się udostępnić.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""pl"")"),"Nie udało się uzyskać obrazu.")</f>
+        <v>Nie udało się uzyskać obrazu.</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ru"")"),"Не удалось поделиться.")</f>
-        <v>Не удалось поделиться.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ru"")"),"Не удалось получить изображение.")</f>
+        <v>Не удалось получить изображение.</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fi"")"),"Jakaminen epäonnistui.")</f>
-        <v>Jakaminen epäonnistui.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""fi"")"),"Kuvan saaminen epäonnistui.")</f>
+        <v>Kuvan saaminen epäonnistui.</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""it"")"),"Impossibile condividere.")</f>
-        <v>Impossibile condividere.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""it"")"),"Impossibile ottenere un'immagine.")</f>
+        <v>Impossibile ottenere un'immagine.</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""zh"")"),"未能分享。")</f>
-        <v>未能分享。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""zh"")"),"无法获得图像。")</f>
+        <v>无法获得图像。</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ja"")"),"共有に失敗しました。")</f>
-        <v>共有に失敗しました。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13, ""en"", ""ja"")"),"画像を取得できませんでした。")</f>
+        <v>画像を取得できませんでした。</v>
       </c>
     </row>
     <row r="14">
@@ -1396,84 +1494,84 @@
         <v>34</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""es"")"),"Ocurrió un error indefinido.")</f>
-        <v>Ocurrió un error indefinido.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""es"")"),"Error al compartir.")</f>
+        <v>Error al compartir.</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fr"")"),"Une erreur non définie s'est produite.")</f>
-        <v>Une erreur non définie s'est produite.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fr"")"),"Échoué à partager.")</f>
+        <v>Échoué à partager.</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""de"")"),"Ein undefinierter Fehler ist passiert.")</f>
-        <v>Ein undefinierter Fehler ist passiert.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""de"")"),"Nicht teilen.")</f>
+        <v>Nicht teilen.</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""pl"")"),"Zdarzyło się niezdefiniowany błąd.")</f>
-        <v>Zdarzyło się niezdefiniowany błąd.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""pl"")"),"Nie udało się udostępnić.")</f>
+        <v>Nie udało się udostępnić.</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ru"")"),"Произошла неопределенная ошибка.")</f>
-        <v>Произошла неопределенная ошибка.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ru"")"),"Не удалось поделиться.")</f>
+        <v>Не удалось поделиться.</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fi"")"),"Määrittelemätön virhe tapahtui.")</f>
-        <v>Määrittelemätön virhe tapahtui.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fi"")"),"Jakaminen epäonnistui.")</f>
+        <v>Jakaminen epäonnistui.</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""it"")"),"È successo un errore indefinito.")</f>
-        <v>È successo un errore indefinito.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""it"")"),"Impossibile condividere.")</f>
+        <v>Impossibile condividere.</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""zh"")"),"发生了未定义的错误。")</f>
-        <v>发生了未定义的错误。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""zh"")"),"未能分享。")</f>
+        <v>未能分享。</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ja"")"),"未定義のエラーが発生しました。")</f>
-        <v>未定義のエラーが発生しました。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""ja"")"),"共有に失敗しました。")</f>
+        <v>共有に失敗しました。</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""es"")"),"Cuenta")</f>
-        <v>Cuenta</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""es"")"),"Ocurrió un error indefinido.")</f>
+        <v>Ocurrió un error indefinido.</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fr"")"),"Compte")</f>
-        <v>Compte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fr"")"),"Une erreur non définie s'est produite.")</f>
+        <v>Une erreur non définie s'est produite.</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""de"")"),"Konto")</f>
-        <v>Konto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""de"")"),"Ein undefinierter Fehler ist passiert.")</f>
+        <v>Ein undefinierter Fehler ist passiert.</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""pl"")"),"Rachunek")</f>
-        <v>Rachunek</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""pl"")"),"Zdarzyło się niezdefiniowany błąd.")</f>
+        <v>Zdarzyło się niezdefiniowany błąd.</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ru"")"),"Счет")</f>
-        <v>Счет</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ru"")"),"Произошла неопределенная ошибка.")</f>
+        <v>Произошла неопределенная ошибка.</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fi"")"),"Tili")</f>
-        <v>Tili</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""fi"")"),"Määrittelemätön virhe tapahtui.")</f>
+        <v>Määrittelemätön virhe tapahtui.</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""it"")"),"Account")</f>
-        <v>Account</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""it"")"),"È successo un errore indefinito.")</f>
+        <v>È successo un errore indefinito.</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""zh"")"),"帐户")</f>
-        <v>帐户</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""zh"")"),"发生了未定义的错误。")</f>
+        <v>发生了未定义的错误。</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ja"")"),"アカウント")</f>
-        <v>アカウント</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15, ""en"", ""ja"")"),"未定義のエラーが発生しました。")</f>
+        <v>未定義のエラーが発生しました。</v>
       </c>
     </row>
     <row r="16">
@@ -1484,40 +1582,40 @@
         <v>38</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""es"")"),"General")</f>
-        <v>General</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""es"")"),"Cuenta")</f>
+        <v>Cuenta</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fr"")"),"Général")</f>
-        <v>Général</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fr"")"),"Compte")</f>
+        <v>Compte</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""de"")"),"Allgemein")</f>
-        <v>Allgemein</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""de"")"),"Konto")</f>
+        <v>Konto</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""pl"")"),"Ogólny")</f>
-        <v>Ogólny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""pl"")"),"Rachunek")</f>
+        <v>Rachunek</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ru"")"),"Общий")</f>
-        <v>Общий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ru"")"),"Счет")</f>
+        <v>Счет</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fi"")"),"Yleinen")</f>
-        <v>Yleinen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fi"")"),"Tili")</f>
+        <v>Tili</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""it"")"),"Generale")</f>
-        <v>Generale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""it"")"),"Account")</f>
+        <v>Account</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""zh"")"),"一般的")</f>
-        <v>一般的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""zh"")"),"帐户")</f>
+        <v>帐户</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ja"")"),"全般的")</f>
-        <v>全般的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""ja"")"),"アカウント")</f>
+        <v>アカウント</v>
       </c>
     </row>
     <row r="17">
@@ -1528,40 +1626,40 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""es"")"),"Intimidad")</f>
-        <v>Intimidad</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""es"")"),"General")</f>
+        <v>General</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fr"")"),"Vie privée")</f>
-        <v>Vie privée</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fr"")"),"Général")</f>
+        <v>Général</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""de"")"),"Privatsphäre")</f>
-        <v>Privatsphäre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""de"")"),"Allgemein")</f>
+        <v>Allgemein</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""pl"")"),"Prywatność")</f>
-        <v>Prywatność</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""pl"")"),"Ogólny")</f>
+        <v>Ogólny</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ru"")"),"Конфиденциальность")</f>
-        <v>Конфиденциальность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ru"")"),"Общий")</f>
+        <v>Общий</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fi"")"),"Yksityisyys")</f>
-        <v>Yksityisyys</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fi"")"),"Yleinen")</f>
+        <v>Yleinen</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""it"")"),"Privacy")</f>
-        <v>Privacy</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""it"")"),"Generale")</f>
+        <v>Generale</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""zh"")"),"隐私")</f>
-        <v>隐私</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""zh"")"),"一般的")</f>
+        <v>一般的</v>
       </c>
       <c r="K17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ja"")"),"プライバシー")</f>
-        <v>プライバシー</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""ja"")"),"全般的")</f>
+        <v>全般的</v>
       </c>
     </row>
     <row r="18">
@@ -1572,40 +1670,40 @@
         <v>42</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Legal")</f>
-        <v>Legal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""es"")"),"Intimidad")</f>
+        <v>Intimidad</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Légal")</f>
-        <v>Légal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Vie privée")</f>
+        <v>Vie privée</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""de"")"),"Gesetzlich")</f>
-        <v>Gesetzlich</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""de"")"),"Privatsphäre")</f>
+        <v>Privatsphäre</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pl"")"),"Prawny")</f>
-        <v>Prawny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""pl"")"),"Prywatność")</f>
+        <v>Prywatność</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Юридический")</f>
-        <v>Юридический</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ru"")"),"Конфиденциальность")</f>
+        <v>Конфиденциальность</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Laillinen")</f>
-        <v>Laillinen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fi"")"),"Yksityisyys")</f>
+        <v>Yksityisyys</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Legale")</f>
-        <v>Legale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""it"")"),"Privacy")</f>
+        <v>Privacy</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"合法的")</f>
-        <v>合法的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""zh"")"),"隐私")</f>
+        <v>隐私</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"法的")</f>
-        <v>法的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""ja"")"),"プライバシー")</f>
+        <v>プライバシー</v>
       </c>
     </row>
     <row r="19">
@@ -1616,84 +1714,84 @@
         <v>44</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Oculto")</f>
-        <v>Oculto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""es"")"),"Legal")</f>
+        <v>Legal</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Caché")</f>
-        <v>Caché</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Légal")</f>
+        <v>Légal</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""de"")"),"Versteckt")</f>
-        <v>Versteckt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""de"")"),"Gesetzlich")</f>
+        <v>Gesetzlich</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pl"")"),"Ukryty")</f>
-        <v>Ukryty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""pl"")"),"Prawny")</f>
+        <v>Prawny</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Скрытый")</f>
-        <v>Скрытый</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ru"")"),"Юридический")</f>
+        <v>Юридический</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Piilotettu")</f>
-        <v>Piilotettu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fi"")"),"Laillinen")</f>
+        <v>Laillinen</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Nascosto")</f>
-        <v>Nascosto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""it"")"),"Legale")</f>
+        <v>Legale</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"隐")</f>
-        <v>隐</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""zh"")"),"合法的")</f>
+        <v>合法的</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"隠れた")</f>
-        <v>隠れた</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""ja"")"),"法的")</f>
+        <v>法的</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Idioma")</f>
-        <v>Idioma</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""es"")"),"Oculto")</f>
+        <v>Oculto</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Langue")</f>
-        <v>Langue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fr"")"),"Caché")</f>
+        <v>Caché</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Sprache")</f>
-        <v>Sprache</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""de"")"),"Versteckt")</f>
+        <v>Versteckt</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Język")</f>
-        <v>Język</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""pl"")"),"Ukryty")</f>
+        <v>Ukryty</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Язык")</f>
-        <v>Язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ru"")"),"Скрытый")</f>
+        <v>Скрытый</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Kieli")</f>
-        <v>Kieli</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""fi"")"),"Piilotettu")</f>
+        <v>Piilotettu</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Lingua")</f>
-        <v>Lingua</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""it"")"),"Nascosto")</f>
+        <v>Nascosto</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"语")</f>
-        <v>语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""zh"")"),"隐")</f>
+        <v>隐</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"言語")</f>
-        <v>言語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20, ""en"", ""ja"")"),"隠れた")</f>
+        <v>隠れた</v>
       </c>
     </row>
     <row r="21">
@@ -1704,84 +1802,84 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"chino")</f>
-        <v>chino</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""es"")"),"Restablecer la contraseña")</f>
+        <v>Restablecer la contraseña</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"chinois")</f>
-        <v>chinois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"réinitialiser le mot de passe")</f>
+        <v>réinitialiser le mot de passe</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Chinesisch")</f>
-        <v>Chinesisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
+        <v>Passwort zurücksetzen</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"chiński")</f>
-        <v>chiński</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""pl"")"),"Zresetuj hasło")</f>
+        <v>Zresetuj hasło</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"китайский язык")</f>
-        <v>китайский язык</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ru"")"),"Сброс пароля")</f>
+        <v>Сброс пароля</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Kiinalainen")</f>
-        <v>Kiinalainen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fi"")"),"Nollaa salasana")</f>
+        <v>Nollaa salasana</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Cinese")</f>
-        <v>Cinese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""it"")"),"Resetta la password")</f>
+        <v>Resetta la password</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"中国人")</f>
-        <v>中国人</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""zh"")"),"重设密码")</f>
+        <v>重设密码</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"中国語")</f>
-        <v>中国語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""ja"")"),"パスワードを再設定する")</f>
+        <v>パスワードを再設定する</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"inglés")</f>
-        <v>inglés</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""es"")"),"Idioma")</f>
+        <v>Idioma</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Anglais")</f>
-        <v>Anglais</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Langue")</f>
+        <v>Langue</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Englisch")</f>
-        <v>Englisch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""de"")"),"Sprache")</f>
+        <v>Sprache</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"język angielski")</f>
-        <v>język angielski</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""pl"")"),"Język")</f>
+        <v>Język</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"английский")</f>
-        <v>английский</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ru"")"),"Язык")</f>
+        <v>Язык</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Englanti")</f>
-        <v>Englanti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fi"")"),"Kieli")</f>
+        <v>Kieli</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"inglese")</f>
-        <v>inglese</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""it"")"),"Lingua")</f>
+        <v>Lingua</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"英语")</f>
-        <v>英语</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""zh"")"),"语言")</f>
+        <v>语言</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"英語")</f>
-        <v>英語</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""ja"")"),"言語")</f>
+        <v>言語</v>
       </c>
     </row>
     <row r="23">
@@ -1791,41 +1889,32 @@
       <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""es"")"),"finlandés")</f>
-        <v>finlandés</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fr"")"),"finlandais")</f>
-        <v>finlandais</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""de"")"),"finnisch")</f>
-        <v>finnisch</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""pl"")"),"fiński")</f>
-        <v>fiński</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ru"")"),"Финский")</f>
-        <v>Финский</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""fi"")"),"Suomalainen")</f>
-        <v>Suomalainen</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""it"")"),"finlandese")</f>
-        <v>finlandese</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""zh"")"),"芬兰")</f>
-        <v>芬兰</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23, ""en"", ""ja"")"),"フィンランド語")</f>
-        <v>フィンランド語</v>
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1835,41 +1924,32 @@
       <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""es"")"),"francés")</f>
-        <v>francés</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fr"")"),"français")</f>
-        <v>français</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""de"")"),"Französisch")</f>
-        <v>Französisch</v>
-      </c>
-      <c r="F24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""pl"")"),"Francuski")</f>
-        <v>Francuski</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ru"")"),"Французский")</f>
-        <v>Французский</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""fi"")"),"Ranskan kieli")</f>
-        <v>Ranskan kieli</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""it"")"),"francese")</f>
-        <v>francese</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""zh"")"),"法语")</f>
-        <v>法语</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24, ""en"", ""ja"")"),"フランス語")</f>
-        <v>フランス語</v>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -1879,41 +1959,32 @@
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""es"")"),"alemán")</f>
-        <v>alemán</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"allemand")</f>
-        <v>allemand</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""de"")"),"Deutsch")</f>
-        <v>Deutsch</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""pl"")"),"Niemiecki")</f>
-        <v>Niemiecki</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ru"")"),"Немецкий")</f>
-        <v>Немецкий</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fi"")"),"Saksan kieli")</f>
-        <v>Saksan kieli</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""it"")"),"Tedesco")</f>
-        <v>Tedesco</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""zh"")"),"德语")</f>
-        <v>德语</v>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""ja"")"),"ドイツ人")</f>
-        <v>ドイツ人</v>
+      <c r="C25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1923,41 +1994,32 @@
       <c r="B26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""es"")"),"italiano")</f>
-        <v>italiano</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"italien")</f>
-        <v>italien</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""de"")"),"Italienisch")</f>
-        <v>Italienisch</v>
-      </c>
-      <c r="F26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""pl"")"),"Włoski")</f>
-        <v>Włoski</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ru"")"),"Итальянский")</f>
-        <v>Итальянский</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fi"")"),"italialainen")</f>
-        <v>italialainen</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""it"")"),"italiano")</f>
-        <v>italiano</v>
-      </c>
-      <c r="J26" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""zh"")"),"意大利人")</f>
-        <v>意大利人</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""ja"")"),"イタリア語")</f>
-        <v>イタリア語</v>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1967,41 +2029,32 @@
       <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""es"")"),"japonés")</f>
-        <v>japonés</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fr"")"),"Japonais")</f>
-        <v>Japonais</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""de"")"),"japanisch")</f>
-        <v>japanisch</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""pl"")"),"język japoński")</f>
-        <v>język japoński</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ru"")"),"японский язык")</f>
-        <v>японский язык</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""fi"")"),"japanilainen")</f>
-        <v>japanilainen</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""it"")"),"giapponese")</f>
-        <v>giapponese</v>
-      </c>
-      <c r="J27" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""zh"")"),"日本人")</f>
-        <v>日本人</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27, ""en"", ""ja"")"),"日本")</f>
-        <v>日本</v>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -2011,41 +2064,32 @@
       <c r="B28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""es"")"),"polaco")</f>
-        <v>polaco</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"polonais")</f>
-        <v>polonais</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""de"")"),"Polieren")</f>
-        <v>Polieren</v>
-      </c>
-      <c r="F28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""pl"")"),"Polskie")</f>
-        <v>Polskie</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ru"")"),"Польский")</f>
-        <v>Польский</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fi"")"),"Kiillottaa")</f>
-        <v>Kiillottaa</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""it"")"),"polacco")</f>
-        <v>polacco</v>
-      </c>
-      <c r="J28" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""zh"")"),"抛光")</f>
-        <v>抛光</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""ja"")"),"研磨")</f>
-        <v>研磨</v>
+      <c r="C28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -2055,41 +2099,32 @@
       <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""es"")"),"ruso")</f>
-        <v>ruso</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"russe")</f>
-        <v>russe</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""de"")"),"Russisch")</f>
-        <v>Russisch</v>
-      </c>
-      <c r="F29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""pl"")"),"Rosyjski")</f>
-        <v>Rosyjski</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ru"")"),"русский")</f>
-        <v>русский</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fi"")"),"Venäjän kieli")</f>
-        <v>Venäjän kieli</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""it"")"),"russo")</f>
-        <v>russo</v>
-      </c>
-      <c r="J29" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""zh"")"),"俄语")</f>
-        <v>俄语</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""ja"")"),"ロシア")</f>
-        <v>ロシア</v>
+      <c r="C29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -2099,85 +2134,67 @@
       <c r="B30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""es"")"),"español")</f>
-        <v>español</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"Espagnol")</f>
-        <v>Espagnol</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""de"")"),"Spanisch")</f>
-        <v>Spanisch</v>
-      </c>
-      <c r="F30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""pl"")"),"hiszpański")</f>
-        <v>hiszpański</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ru"")"),"испанский язык")</f>
-        <v>испанский язык</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fi"")"),"Espanja")</f>
-        <v>Espanja</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""it"")"),"spagnolo")</f>
-        <v>spagnolo</v>
-      </c>
-      <c r="J30" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""zh"")"),"西班牙语")</f>
-        <v>西班牙语</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""ja"")"),"スペイン語")</f>
-        <v>スペイン語</v>
+      <c r="C30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""es"")"),"Notificaciones")</f>
-        <v>Notificaciones</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fr"")"),"Notifications")</f>
-        <v>Notifications</v>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""de"")"),"Benachrichtigungen")</f>
-        <v>Benachrichtigungen</v>
-      </c>
-      <c r="F31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""pl"")"),"Powiadomienia")</f>
-        <v>Powiadomienia</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ru"")"),"Уверенность")</f>
-        <v>Уверенность</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""fi"")"),"Ilmoitukset")</f>
-        <v>Ilmoitukset</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""it"")"),"Notifiche")</f>
-        <v>Notifiche</v>
-      </c>
-      <c r="J31" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""zh"")"),"通知")</f>
-        <v>通知</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31, ""en"", ""ja"")"),"通知")</f>
-        <v>通知</v>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -2187,85 +2204,76 @@
       <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""es"")"),"Tema")</f>
-        <v>Tema</v>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fr"")"),"Thème")</f>
-        <v>Thème</v>
-      </c>
-      <c r="E32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""de"")"),"Thema")</f>
-        <v>Thema</v>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""pl"")"),"Temat")</f>
-        <v>Temat</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ru"")"),"Тема")</f>
-        <v>Тема</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""fi"")"),"Teema")</f>
-        <v>Teema</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""it"")"),"Tema")</f>
-        <v>Tema</v>
-      </c>
-      <c r="J32" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""zh"")"),"主题")</f>
-        <v>主题</v>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32, ""en"", ""ja"")"),"テーマ")</f>
-        <v>テーマ</v>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Ligero")</f>
-        <v>Ligero</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""es"")"),"Notificaciones")</f>
+        <v>Notificaciones</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Lumière")</f>
-        <v>Lumière</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fr"")"),"Notifications")</f>
+        <v>Notifications</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Hell")</f>
-        <v>Hell</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""de"")"),"Benachrichtigungen")</f>
+        <v>Benachrichtigungen</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Światło")</f>
-        <v>Światło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""pl"")"),"Powiadomienia")</f>
+        <v>Powiadomienia</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Светлый")</f>
-        <v>Светлый</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ru"")"),"Уверенность")</f>
+        <v>Уверенность</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Kevyt")</f>
-        <v>Kevyt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""fi"")"),"Ilmoitukset")</f>
+        <v>Ilmoitukset</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Luce")</f>
-        <v>Luce</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""it"")"),"Notifiche")</f>
+        <v>Notifiche</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"光")</f>
-        <v>光</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""zh"")"),"通知")</f>
+        <v>通知</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"光")</f>
-        <v>光</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33, ""en"", ""ja"")"),"通知")</f>
+        <v>通知</v>
       </c>
     </row>
     <row r="34">
@@ -2276,40 +2284,40 @@
         <v>74</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Oscuro")</f>
-        <v>Oscuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""es"")"),"Sobre")</f>
+        <v>Sobre</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Foncé")</f>
-        <v>Foncé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Sur")</f>
+        <v>Sur</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Dunkel")</f>
-        <v>Dunkel</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""de"")"),"Über")</f>
+        <v>Über</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"Ciemny")</f>
-        <v>Ciemny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""pl"")"),"O")</f>
+        <v>O</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"Темно")</f>
-        <v>Темно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ru"")"),"О")</f>
+        <v>О</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Tumma")</f>
-        <v>Tumma</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fi"")"),"Noin")</f>
+        <v>Noin</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"Buio")</f>
-        <v>Buio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""it"")"),"Di")</f>
+        <v>Di</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"黑暗的")</f>
-        <v>黑暗的</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""zh"")"),"关于")</f>
+        <v>关于</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"闇")</f>
-        <v>闇</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""ja"")"),"だいたい")</f>
+        <v>だいたい</v>
       </c>
     </row>
     <row r="35">
@@ -2320,40 +2328,40 @@
         <v>76</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Defecto")</f>
-        <v>Defecto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""es"")"),"Tema")</f>
+        <v>Tema</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Défaut")</f>
-        <v>Défaut</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fr"")"),"Thème")</f>
+        <v>Thème</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Standard")</f>
-        <v>Standard</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""de"")"),"Thema")</f>
+        <v>Thema</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"Domyślna")</f>
-        <v>Domyślna</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""pl"")"),"Temat")</f>
+        <v>Temat</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Дефолт")</f>
-        <v>Дефолт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ru"")"),"Тема")</f>
+        <v>Тема</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"Oletusarvo")</f>
-        <v>Oletusarvo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""fi"")"),"Teema")</f>
+        <v>Teema</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Predefinito")</f>
-        <v>Predefinito</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""it"")"),"Tema")</f>
+        <v>Tema</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"默认")</f>
-        <v>默认</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""zh"")"),"主题")</f>
+        <v>主题</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"ディフォルト")</f>
-        <v>ディフォルト</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35, ""en"", ""ja"")"),"テーマ")</f>
+        <v>テーマ</v>
       </c>
     </row>
     <row r="36">
@@ -2364,84 +2372,84 @@
         <v>78</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"Es oscuro")</f>
-        <v>Es oscuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""es"")"),"Luz")</f>
+        <v>Luz</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"est sombre")</f>
-        <v>est sombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fr"")"),"Léger")</f>
+        <v>Léger</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"ist dunkel")</f>
-        <v>ist dunkel</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""de"")"),"Hell")</f>
+        <v>Hell</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"jest ciemno")</f>
-        <v>jest ciemno</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""pl"")"),"Lekki")</f>
+        <v>Lekki</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Isdark.")</f>
-        <v>Isdark.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ru"")"),"Свет")</f>
+        <v>Свет</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"isdark")</f>
-        <v>isdark</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""fi"")"),"Kevyt")</f>
+        <v>Kevyt</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"è scuro")</f>
-        <v>è scuro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""it"")"),"Leggero")</f>
+        <v>Leggero</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"isdark.")</f>
-        <v>isdark.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""zh"")"),"光")</f>
+        <v>光</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"は暗い")</f>
-        <v>は暗い</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B36, ""en"", ""ja"")"),"光")</f>
+        <v>光</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"URL del perfil")</f>
-        <v>URL del perfil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""es"")"),"Oscuro")</f>
+        <v>Oscuro</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Profil URL")</f>
-        <v>Profil URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fr"")"),"Sombre")</f>
+        <v>Sombre</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Profil-URL")</f>
-        <v>Profil-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""de"")"),"Dunkel")</f>
+        <v>Dunkel</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"URL profilu")</f>
-        <v>URL profilu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""pl"")"),"Ciemny")</f>
+        <v>Ciemny</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"URL профиля")</f>
-        <v>URL профиля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ru"")"),"Темный")</f>
+        <v>Темный</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"profiili-URL")</f>
-        <v>profiili-URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""fi"")"),"Tumma")</f>
+        <v>Tumma</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Profilo URL")</f>
-        <v>Profilo URL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""it"")"),"Scuro")</f>
+        <v>Scuro</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"个人资料网址")</f>
-        <v>个人资料网址</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""zh"")"),"黑暗的")</f>
+        <v>黑暗的</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"プロフィールURL")</f>
-        <v>プロフィールURL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B37, ""en"", ""ja"")"),"暗い")</f>
+        <v>暗い</v>
       </c>
     </row>
     <row r="38">
@@ -2452,84 +2460,84 @@
         <v>82</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Licencias")</f>
-        <v>Licencias</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""es"")"),"Por defecto")</f>
+        <v>Por defecto</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Licences")</f>
-        <v>Licences</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fr"")"),"Défaut")</f>
+        <v>Défaut</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Lizenzen")</f>
-        <v>Lizenzen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""de"")"),"Standard")</f>
+        <v>Standard</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Licencje.")</f>
-        <v>Licencje.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""pl"")"),"Domyślna")</f>
+        <v>Domyślna</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"Лицензии")</f>
-        <v>Лицензии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ru"")"),"По умолчанию")</f>
+        <v>По умолчанию</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Lisenssit")</f>
-        <v>Lisenssit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""fi"")"),"Oletusarvo")</f>
+        <v>Oletusarvo</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Licenze")</f>
-        <v>Licenze</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""it"")"),"Predefinito")</f>
+        <v>Predefinito</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"许可证")</f>
-        <v>许可证</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""zh"")"),"默认")</f>
+        <v>默认</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"ライセンス")</f>
-        <v>ライセンス</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38, ""en"", ""ja"")"),"ディフォルト")</f>
+        <v>ディフォルト</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
-        <v>¿De dónde quieres una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""es"")"),"Es oscuro")</f>
+        <v>Es oscuro</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
-        <v>Où voulez-vous une photo?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fr"")"),"est sombre")</f>
+        <v>est sombre</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
-        <v>Wo willst du ein Foto von?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""de"")"),"ist dunkel")</f>
+        <v>ist dunkel</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
-        <v>Skąd chcesz zdjęcie?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""pl"")"),"jest ciemno")</f>
+        <v>jest ciemno</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
-        <v>Откуда вы хотите фотографию?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ru"")"),"Isdark.")</f>
+        <v>Isdark.</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
-        <v>Mistä haluat valokuvan?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""fi"")"),"isdark")</f>
+        <v>isdark</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
-        <v>Da dove vuoi una foto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""it"")"),"è scuro")</f>
+        <v>è scuro</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
-        <v>你想要一张照片吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""zh"")"),"isdark.")</f>
+        <v>isdark.</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
-        <v>あなたはどこから写真を望みますか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39, ""en"", ""ja"")"),"は暗い")</f>
+        <v>は暗い</v>
       </c>
     </row>
     <row r="40">
@@ -2540,216 +2548,216 @@
         <v>86</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"Galería")</f>
-        <v>Galería</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""es"")"),"URL del perfil")</f>
+        <v>URL del perfil</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fr"")"),"Profil URL")</f>
+        <v>Profil URL</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Galerie")</f>
-        <v>Galerie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""de"")"),"Profil-URL")</f>
+        <v>Profil-URL</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"Galeria")</f>
-        <v>Galeria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""pl"")"),"URL profilu")</f>
+        <v>URL profilu</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"Галерея")</f>
-        <v>Галерея</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ru"")"),"ссылка на профиль")</f>
+        <v>ссылка на профиль</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""fi"")"),"profiili-URL")</f>
+        <v>profiili-URL</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Galleria")</f>
-        <v>Galleria</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""it"")"),"Profilo URL")</f>
+        <v>Profilo URL</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"画廊")</f>
-        <v>画廊</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""zh"")"),"个人资料网址")</f>
+        <v>个人资料网址</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"ギャラリー")</f>
-        <v>ギャラリー</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40, ""en"", ""ja"")"),"プロフィールURL")</f>
+        <v>プロフィールURL</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"Cámara")</f>
-        <v>Cámara</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""es"")"),"Términos y condiciones")</f>
+        <v>Términos y condiciones</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Caméra")</f>
-        <v>Caméra</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fr"")"),"Termes et conditions")</f>
+        <v>Termes et conditions</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""de"")"),"Geschäftsbedingungen")</f>
+        <v>Geschäftsbedingungen</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Aparat fotograficzny")</f>
-        <v>Aparat fotograficzny</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""pl"")"),"Regulamin")</f>
+        <v>Regulamin</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Камера")</f>
-        <v>Камера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ru"")"),"Условия и положения")</f>
+        <v>Условия и положения</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Kamera")</f>
-        <v>Kamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""fi"")"),"Käyttöehdot")</f>
+        <v>Käyttöehdot</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Telecamera")</f>
-        <v>Telecamera</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""it"")"),"Termini e Condizioni")</f>
+        <v>Termini e Condizioni</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"相机")</f>
-        <v>相机</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""zh"")"),"条款和条件")</f>
+        <v>条款和条件</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"カメラ")</f>
-        <v>カメラ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41, ""en"", ""ja"")"),"規約と条件")</f>
+        <v>規約と条件</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"A diario")</f>
-        <v>A diario</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""es"")"),"Política de privacidad")</f>
+        <v>Política de privacidad</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"du quotidien")</f>
-        <v>du quotidien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fr"")"),"Politique de confidentialité")</f>
+        <v>Politique de confidentialité</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Täglich")</f>
-        <v>Täglich</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""de"")"),"Datenschutz-Bestimmungen")</f>
+        <v>Datenschutz-Bestimmungen</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Codziennie")</f>
-        <v>Codziennie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""pl"")"),"Polityka prywatności")</f>
+        <v>Polityka prywatności</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Ежедневно")</f>
-        <v>Ежедневно</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ru"")"),"Политика конфиденциальности")</f>
+        <v>Политика конфиденциальности</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Päivittäin")</f>
-        <v>Päivittäin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""fi"")"),"Tietosuojakäytäntö")</f>
+        <v>Tietosuojakäytäntö</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"Quotidiano")</f>
-        <v>Quotidiano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""it"")"),"politica sulla riservatezza")</f>
+        <v>politica sulla riservatezza</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"日常")</f>
-        <v>日常</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""zh"")"),"隐私政策")</f>
+        <v>隐私政策</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"毎日")</f>
-        <v>毎日</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42, ""en"", ""ja"")"),"プライバシーポリシー")</f>
+        <v>プライバシーポリシー</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"¡Prepararse!")</f>
-        <v>¡Prepararse!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""es"")"),"Licencias")</f>
+        <v>Licencias</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"Sois prêt!")</f>
-        <v>Sois prêt!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fr"")"),"Licences")</f>
+        <v>Licences</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"Bereit machen!")</f>
-        <v>Bereit machen!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""de"")"),"Lizenzen")</f>
+        <v>Lizenzen</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"Przygotuj się!")</f>
-        <v>Przygotuj się!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""pl"")"),"Licencje.")</f>
+        <v>Licencje.</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Приготовься!")</f>
-        <v>Приготовься!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ru"")"),"Лицензии")</f>
+        <v>Лицензии</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"Valmistaudu!")</f>
-        <v>Valmistaudu!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""fi"")"),"Lisenssit")</f>
+        <v>Lisenssit</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"Preparati!")</f>
-        <v>Preparati!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""it"")"),"Licenze")</f>
+        <v>Licenze</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"做好准备！")</f>
-        <v>做好准备！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""zh"")"),"许可证")</f>
+        <v>许可证</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"準備をしなさい！")</f>
-        <v>準備をしなさい！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43, ""en"", ""ja"")"),"ライセンス")</f>
+        <v>ライセンス</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""es"")"),"Servicio de asistencia")</f>
+        <v>Servicio de asistencia</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fr"")"),"Support d'aide")</f>
+        <v>Support d'aide</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""de"")"),"Hilfe Unterstützung")</f>
+        <v>Hilfe Unterstützung</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""pl"")"),"Pomoc wsparcie")</f>
+        <v>Pomoc wsparcie</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ru"")"),"Справка / поддержка")</f>
+        <v>Справка / поддержка</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""fi"")"),"Ohje / tuki")</f>
+        <v>Ohje / tuki</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""it"")"),"Supporto")</f>
+        <v>Supporto</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""zh"")"),"帮助支持")</f>
+        <v>帮助支持</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44, ""en"", ""ja"")"),"ヘルプサポート")</f>
+        <v>ヘルプサポート</v>
       </c>
     </row>
     <row r="45">
@@ -2760,40 +2768,40 @@
         <v>96</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""es"")"),"¿De dónde quieres una foto?")</f>
+        <v>¿De dónde quieres una foto?</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fr"")"),"Où voulez-vous une photo?")</f>
+        <v>Où voulez-vous une photo?</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""de"")"),"Wo willst du ein Foto von?")</f>
+        <v>Wo willst du ein Foto von?</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""pl"")"),"Skąd chcesz zdjęcie?")</f>
+        <v>Skąd chcesz zdjęcie?</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ru"")"),"Откуда вы хотите фотографию?")</f>
+        <v>Откуда вы хотите фотографию?</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""fi"")"),"Mistä haluat valokuvan?")</f>
+        <v>Mistä haluat valokuvan?</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""it"")"),"Da dove vuoi una foto?")</f>
+        <v>Da dove vuoi una foto?</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""zh"")"),"你想要一张照片吗？")</f>
+        <v>你想要一张照片吗？</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45, ""en"", ""ja"")"),"あなたはどこから写真を望みますか？")</f>
+        <v>あなたはどこから写真を望みますか？</v>
       </c>
     </row>
     <row r="46">
@@ -2804,40 +2812,40 @@
         <v>98</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"EMPEZAR")</f>
-        <v>EMPEZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""es"")"),"Galería")</f>
+        <v>Galería</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"COMMENCER")</f>
-        <v>COMMENCER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fr"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"LOSLEGEN")</f>
-        <v>LOSLEGEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""de"")"),"Galerie")</f>
+        <v>Galerie</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"ZACZYNAJ")</f>
-        <v>ZACZYNAJ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""pl"")"),"Galeria")</f>
+        <v>Galeria</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"НАЧАТЬ")</f>
-        <v>НАЧАТЬ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ru"")"),"Галерея")</f>
+        <v>Галерея</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"ALOITTAA")</f>
-        <v>ALOITTAA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""fi"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"INIZIARE")</f>
-        <v>INIZIARE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""it"")"),"Galleria")</f>
+        <v>Galleria</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"开始")</f>
-        <v>开始</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""zh"")"),"画廊")</f>
+        <v>画廊</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"始まりました")</f>
-        <v>始まりました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46, ""en"", ""ja"")"),"ギャラリー")</f>
+        <v>ギャラリー</v>
       </c>
     </row>
     <row r="47">
@@ -2848,40 +2856,40 @@
         <v>100</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"ACCESO")</f>
-        <v>ACCESO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""es"")"),"Cámara")</f>
+        <v>Cámara</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"CONNEXION")</f>
-        <v>CONNEXION</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fr"")"),"Appareil photo")</f>
+        <v>Appareil photo</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"ANMELDUNG")</f>
-        <v>ANMELDUNG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""de"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
-        <v>ZALOGUJ SIE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""pl"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
-        <v>АВТОРИЗОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ru"")"),"Камера")</f>
+        <v>Камера</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
-        <v>KIRJAUDU SISÄÄN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""fi"")"),"Kamera")</f>
+        <v>Kamera</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"ACCEDERE")</f>
-        <v>ACCEDERE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""it"")"),"Telecamera")</f>
+        <v>Telecamera</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"登录")</f>
-        <v>登录</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""zh"")"),"相机")</f>
+        <v>相机</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"ログインする")</f>
-        <v>ログインする</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47, ""en"", ""ja"")"),"カメラ")</f>
+        <v>カメラ</v>
       </c>
     </row>
     <row r="48">
@@ -2892,40 +2900,40 @@
         <v>102</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"INSCRIBIRSE")</f>
-        <v>INSCRIBIRSE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""es"")"),"A diario")</f>
+        <v>A diario</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"S'INSCRIRE")</f>
-        <v>S'INSCRIRE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fr"")"),"du quotidien")</f>
+        <v>du quotidien</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"ANMELDEN")</f>
-        <v>ANMELDEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""de"")"),"Täglich")</f>
+        <v>Täglich</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
-        <v>ZAPISZ SIĘ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""pl"")"),"Codziennie")</f>
+        <v>Codziennie</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ru"")"),"Ежедневно")</f>
+        <v>Ежедневно</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"KIRJAUDU")</f>
-        <v>KIRJAUDU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""fi"")"),"Päivittäin")</f>
+        <v>Päivittäin</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"ISCRIVITI")</f>
-        <v>ISCRIVITI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""it"")"),"Quotidiano")</f>
+        <v>Quotidiano</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"报名")</f>
-        <v>报名</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""zh"")"),"日常的")</f>
+        <v>日常的</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"サインアップ")</f>
-        <v>サインアップ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48, ""en"", ""ja"")"),"毎日")</f>
+        <v>毎日</v>
       </c>
     </row>
     <row r="49">
@@ -2936,40 +2944,40 @@
         <v>104</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"Nombre")</f>
-        <v>Nombre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""es"")"),"¡Prepararse!")</f>
+        <v>¡Prepararse!</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Nom")</f>
-        <v>Nom</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fr"")"),"Sois prêt!")</f>
+        <v>Sois prêt!</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Name")</f>
-        <v>Name</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""de"")"),"Sich fertig machen!")</f>
+        <v>Sich fertig machen!</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Nazwa")</f>
-        <v>Nazwa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""pl"")"),"Przygotuj się!")</f>
+        <v>Przygotuj się!</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Имя")</f>
-        <v>Имя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ru"")"),"Приготовься!")</f>
+        <v>Приготовься!</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Nimi")</f>
-        <v>Nimi</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""fi"")"),"Valmistaudu!")</f>
+        <v>Valmistaudu!</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Nome")</f>
-        <v>Nome</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""it"")"),"Preparati!")</f>
+        <v>Preparati!</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"名称")</f>
-        <v>名称</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""zh"")"),"做好准备！")</f>
+        <v>做好准备！</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"名前")</f>
-        <v>名前</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49, ""en"", ""ja"")"),"準備をしなさい！")</f>
+        <v>準備をしなさい！</v>
       </c>
     </row>
     <row r="50">
@@ -2980,40 +2988,40 @@
         <v>106</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="51">
@@ -3024,40 +3032,40 @@
         <v>108</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"Contraseña")</f>
-        <v>Contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"Mot de passe")</f>
-        <v>Mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"Passwort")</f>
-        <v>Passwort</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"Hasło")</f>
-        <v>Hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"Пароль")</f>
-        <v>Пароль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"Salasana")</f>
-        <v>Salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"Parola d'ordine")</f>
-        <v>Parola d'ordine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"密码")</f>
-        <v>密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"パスワード")</f>
-        <v>パスワード</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
       </c>
     </row>
     <row r="52">
@@ -3068,3659 +3076,4361 @@
         <v>110</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
-        <v>¿Has olvidado tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""es"")"),"EMPEZAR")</f>
+        <v>EMPEZAR</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fr"")"),"COMMENCER")</f>
+        <v>COMMENCER</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""de"")"),"LOSLEGEN")</f>
+        <v>LOSLEGEN</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""pl"")"),"ZACZYNAJ")</f>
+        <v>ZACZYNAJ</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"Забыли пароль?")</f>
-        <v>Забыли пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ru"")"),"НАЧАТЬ")</f>
+        <v>НАЧАТЬ</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
-        <v>Unohtuiko salasana?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""fi"")"),"ALOITTAA")</f>
+        <v>ALOITTAA</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
-        <v>Ha dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""it"")"),"INIZIARE")</f>
+        <v>INIZIARE</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"忘记密码？")</f>
-        <v>忘记密码？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""zh"")"),"开始")</f>
+        <v>开始</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52, ""en"", ""ja"")"),"始まりました")</f>
+        <v>始まりました</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>94</v>
+      <c r="B53" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
-        <v>¿Ya tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""es"")"),"Iniciar sesión a diario")</f>
+        <v>Iniciar sesión a diario</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
-        <v>Vous avez déjà un compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fr"")"),"Connectez-vous à tous les jours")</f>
+        <v>Connectez-vous à tous les jours</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
-        <v>Sie haben bereits ein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""de"")"),"Melden Sie sich täglich an")</f>
+        <v>Melden Sie sich täglich an</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
-        <v>Posiadasz już konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""pl"")"),"Zaloguj się do codzienności")</f>
+        <v>Zaloguj się do codzienności</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
-        <v>Уже есть аккаунт?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ru"")"),"Войдите в день в день")</f>
+        <v>Войдите в день в день</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
-        <v>Onko sinulla jo tili?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""fi"")"),"Kirjaudu sisään päivittäin")</f>
+        <v>Kirjaudu sisään päivittäin</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"Hai già un account?")</f>
-        <v>Hai già un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""it"")"),"Accedi al quotidiano")</f>
+        <v>Accedi al quotidiano</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"已经有一个帐户？")</f>
-        <v>已经有一个帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""zh"")"),"登录日常")</f>
+        <v>登录日常</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
-        <v>すでにアカウントをお持ちですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B53, ""en"", ""ja"")"),"毎日ログインしてください")</f>
+        <v>毎日ログインしてください</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="B54" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="C54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
-        <v>¿No tienes una cuenta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""es"")"),"Registrarse para diariamente")</f>
+        <v>Registrarse para diariamente</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
-        <v>Vous n'avez pas de compte?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fr"")"),"Inscrivez-vous pour tous les jours")</f>
+        <v>Inscrivez-vous pour tous les jours</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
-        <v>Ich habe kein Konto?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""de"")"),"Registrieren Sie sich täglich")</f>
+        <v>Registrieren Sie sich täglich</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"Nie masz konta?")</f>
-        <v>Nie masz konta?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""pl"")"),"Zarejestruj się na dobę")</f>
+        <v>Zarejestruj się na dobę</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
-        <v>У вас нет аккаунта?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ru"")"),"Регистрация для ежедневных")</f>
+        <v>Регистрация для ежедневных</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
-        <v>Eikö sinulla ole tiliä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""fi"")"),"Rekisteröidy päivittäin")</f>
+        <v>Rekisteröidy päivittäin</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"Non hai un account?")</f>
-        <v>Non hai un account?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""it"")"),"Registrati per ogni giorno")</f>
+        <v>Registrati per ogni giorno</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"没有帐户？")</f>
-        <v>没有帐户？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""zh"")"),"每日注册")</f>
+        <v>每日注册</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
-        <v>アカウントを持っていませんか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B54, ""en"", ""ja"")"),"毎日登録してください")</f>
+        <v>毎日登録してください</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"¡ACCESO!")</f>
-        <v>¡ACCESO!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""es"")"),"ACCESO")</f>
+        <v>ACCESO</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"CONNEXION!")</f>
-        <v>CONNEXION!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fr"")"),"CONNEXION")</f>
+        <v>CONNEXION</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"ANMELDUNG!")</f>
-        <v>ANMELDUNG!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""de"")"),"ANMELDUNG")</f>
+        <v>ANMELDUNG</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
-        <v>ZALOGUJ SIE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""pl"")"),"ZALOGUJ SIE")</f>
+        <v>ZALOGUJ SIE</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
-        <v>АВТОРИЗОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ")</f>
+        <v>АВТОРИЗОВАТЬСЯ</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
-        <v>KIRJAUDU SISÄÄN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN")</f>
+        <v>KIRJAUDU SISÄÄN</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"ACCEDERE!")</f>
-        <v>ACCEDERE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""it"")"),"ACCEDERE")</f>
+        <v>ACCEDERE</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"登录！")</f>
-        <v>登录！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""zh"")"),"登录")</f>
+        <v>登录</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"ログインする！")</f>
-        <v>ログインする！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55, ""en"", ""ja"")"),"ログインする")</f>
+        <v>ログインする</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
-        <v>¡INSCRIBIRSE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""es"")"),"INSCRIBIRSE")</f>
+        <v>INSCRIBIRSE</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
-        <v>S'INSCRIRE!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fr"")"),"S'INSCRIRE")</f>
+        <v>S'INSCRIRE</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"ANMELDEN!")</f>
-        <v>ANMELDEN!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""de"")"),"ANMELDUNG")</f>
+        <v>ANMELDUNG</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
-        <v>ZAPISZ SIĘ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""pl"")"),"ZAPISZ SIĘ")</f>
+        <v>ZAPISZ SIĘ</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
-        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"KIRJAUDU!")</f>
-        <v>KIRJAUDU!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""fi"")"),"KIRJAUDU")</f>
+        <v>KIRJAUDU</v>
       </c>
       <c r="I56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"ISCRIVITI!")</f>
-        <v>ISCRIVITI!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""it"")"),"ISCRIZIONE")</f>
+        <v>ISCRIZIONE</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"报名！")</f>
-        <v>报名！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""zh"")"),"报名")</f>
+        <v>报名</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"サインアップ！")</f>
-        <v>サインアップ！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56, ""en"", ""ja"")"),"サインアップ")</f>
+        <v>サインアップ</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
-        <v>¿Olvidaste tu contraseña?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""es"")"),"Nombre")</f>
+        <v>Nombre</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
-        <v>Mot de passe oublié?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fr"")"),"Nom")</f>
+        <v>Nom</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"Passwort vergessen?")</f>
-        <v>Passwort vergessen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""de"")"),"Name")</f>
+        <v>Name</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
-        <v>Zapomniałeś hasła?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""pl"")"),"Imię")</f>
+        <v>Imię</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
-        <v>Забыли Ваш пароль?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ru"")"),"Имя")</f>
+        <v>Имя</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
-        <v>Unohditko salasanasi?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""fi"")"),"Nimi")</f>
+        <v>Nimi</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
-        <v>Hai dimenticato la password?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""it"")"),"Nome")</f>
+        <v>Nome</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"忘记密码了吗？")</f>
-        <v>忘记密码了吗？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""zh"")"),"姓名")</f>
+        <v>姓名</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
-        <v>パスワードをお忘れですか？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57, ""en"", ""ja"")"),"名前")</f>
+        <v>名前</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para
-Reciba un mensaje de restablecimiento de contraseña.")</f>
-        <v>Ingrese su correo electrónico de usuario a continuación para
-Reciba un mensaje de restablecimiento de contraseña.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour
-Recevez un message de réinitialisation du mot de passe.")</f>
-        <v>Entrez votre utilisateur-e-mail ci-dessous pour
-Recevez un message de réinitialisation du mot de passe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an
-erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
-        <v>Geben Sie unten Ihre Anwender-E-Mail an
-erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do
-Otrzymaj wiadomość resetowania hasła.")</f>
-        <v>Wpisz swój adres e-mail poniżej do
-Otrzymaj wiadomość resetowania hasła.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже
-Получите сообщение сброса пароля.")</f>
-        <v>Введите свой пользователь-адрес электронной почты ниже
-Получите сообщение сброса пароля.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ru"")"),"Эл. адрес")</f>
+        <v>Эл. адрес</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla
-Vastaanota salasanan nollausviesti.")</f>
-        <v>Anna käyttäjän sähköposti alla
-Vastaanota salasanan nollausviesti.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per
-Ricevi un messaggio di reimpostazione della password.")</f>
-        <v>Inserisci la tua email utente qui sotto per
-Ricevi un messaggio di reimpostazione della password.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"输入下面的用户电子邮件
-收到密码重置消息。")</f>
-        <v>输入下面的用户电子邮件
-收到密码重置消息。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください
-パスワードリセットメッセージを受信します。")</f>
-        <v>下のユーザー - 電子メールを入力してください
-パスワードリセットメッセージを受信します。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
-        <v>El correo electrónico no puede estar vacío</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""es"")"),"Clave")</f>
+        <v>Clave</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
-        <v>L'email ne peut pas être vide</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fr"")"),"Mot de passe")</f>
+        <v>Mot de passe</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
-        <v>E-Mail kann nicht leer sein</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""de"")"),"Passwort")</f>
+        <v>Passwort</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
-        <v>E-mail nie może być pusty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""pl"")"),"Hasło")</f>
+        <v>Hasło</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
-        <v>Электронная почта не может быть пустым</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ru"")"),"Пароль")</f>
+        <v>Пароль</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
-        <v>Sähköposti ei voi olla tyhjä</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""fi"")"),"Salasana")</f>
+        <v>Salasana</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
-        <v>L'e-mail non può essere vuota</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""it"")"),"Parola d'ordine")</f>
+        <v>Parola d'ordine</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"电子邮件不能为空")</f>
-        <v>电子邮件不能为空</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""zh"")"),"密码")</f>
+        <v>密码</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
-        <v>電子メールは空にすることはできません</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B59, ""en"", ""ja"")"),"パスワード")</f>
+        <v>パスワード</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"Correo electrónico")</f>
-        <v>Correo electrónico</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""es"")"),"Confirmar contraseña")</f>
+        <v>Confirmar contraseña</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fr"")"),"Confirmez le mot de passe")</f>
+        <v>Confirmez le mot de passe</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Email")</f>
-        <v>Email</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""de"")"),"Bestätige das Passwort")</f>
+        <v>Bestätige das Passwort</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""pl"")"),"Potwierdź hasło")</f>
+        <v>Potwierdź hasło</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Электронное письмо")</f>
-        <v>Электронное письмо</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ru"")"),"Подтвердить Пароль")</f>
+        <v>Подтвердить Пароль</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Sähköposti")</f>
-        <v>Sähköposti</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""fi"")"),"Vahvista salasana")</f>
+        <v>Vahvista salasana</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"E-mail")</f>
-        <v>E-mail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""it"")"),"Conferma password")</f>
+        <v>Conferma password</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"电子邮件")</f>
-        <v>电子邮件</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""zh"")"),"确认密码")</f>
+        <v>确认密码</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"Eメール")</f>
-        <v>Eメール</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B60, ""en"", ""ja"")"),"パスワードを認証する")</f>
+        <v>パスワードを認証する</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"Enviar")</f>
-        <v>Enviar</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""es"")"),"¿Has olvidado tu contraseña?")</f>
+        <v>¿Has olvidado tu contraseña?</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Envoyer")</f>
-        <v>Envoyer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Senden")</f>
-        <v>Senden</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""de"")"),"Passwort vergessen?")</f>
+        <v>Passwort vergessen?</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Wysłać")</f>
-        <v>Wysłać</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Отправлять")</f>
-        <v>Отправлять</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ru"")"),"Забыл пароль?")</f>
+        <v>Забыл пароль?</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"Lähettää")</f>
-        <v>Lähettää</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""fi"")"),"Unohtuiko salasana?")</f>
+        <v>Unohtuiko salasana?</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Spedire")</f>
-        <v>Spedire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""it"")"),"Ha dimenticato la password?")</f>
+        <v>Ha dimenticato la password?</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"发送")</f>
-        <v>发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""zh"")"),"忘记密码？")</f>
+        <v>忘记密码？</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"送信")</f>
-        <v>送信</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"No lo entendí?")</f>
-        <v>No lo entendí?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""es"")"),"Al continuar, usted acepta nuestro")</f>
+        <v>Al continuar, usted acepta nuestro</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
-        <v>Ne l'a pas eu?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fr"")"),"En continuant, vous acceptez notre")</f>
+        <v>En continuant, vous acceptez notre</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
-        <v>Hast es nicht bekommen?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""de"")"),"Indem Sie fortfahren, stimmen Sie unserem zu")</f>
+        <v>Indem Sie fortfahren, stimmen Sie unserem zu</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
-        <v>Nie zrozumiałeś?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""pl"")"),"Kontynuując, zgadzasz się na nasze")</f>
+        <v>Kontynuując, zgadzasz się na nasze</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Не понял?")</f>
-        <v>Не понял?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ru"")"),"Продолжая, вы согласны с нашим")</f>
+        <v>Продолжая, вы согласны с нашим</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
-        <v>Ei saanut sitä?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""fi"")"),"Jatkamalla, hyväksyt meidän")</f>
+        <v>Jatkamalla, hyväksyt meidän</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Non ho capito?")</f>
-        <v>Non ho capito?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""it"")"),"Continuando, accetti il ​​nostro")</f>
+        <v>Continuando, accetti il ​​nostro</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"没有得到它？")</f>
-        <v>没有得到它？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""zh"")"),"继续，您同意我们的同意")</f>
+        <v>继续，您同意我们的同意</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"手に入れなかった？")</f>
-        <v>手に入れなかった？</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62, ""en"", ""ja"")"),"続けることによって、あなたは私たちに同意します")</f>
+        <v>続けることによって、あなたは私たちに同意します</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"¡Resolver!")</f>
-        <v>¡Resolver!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""es"")"),"Política de privacidad")</f>
+        <v>Política de privacidad</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"Renvoyez!")</f>
-        <v>Renvoyez!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fr"")"),"Politique de confidentialité")</f>
+        <v>Politique de confidentialité</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Erneut senden!")</f>
-        <v>Erneut senden!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""de"")"),"Datenschutz-Bestimmungen")</f>
+        <v>Datenschutz-Bestimmungen</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
-        <v>Wysłać ponownie!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""pl"")"),"Polityka prywatności")</f>
+        <v>Polityka prywatności</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Отправить!")</f>
-        <v>Отправить!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ru"")"),"Политика конфиденциальности")</f>
+        <v>Политика конфиденциальности</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
-        <v>Uudelleen lähettää!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""fi"")"),"Tietosuojakäytäntö")</f>
+        <v>Tietosuojakäytäntö</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"Resenda!")</f>
-        <v>Resenda!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""it"")"),"politica sulla riservatezza")</f>
+        <v>politica sulla riservatezza</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"重发！")</f>
-        <v>重发！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""zh"")"),"隐私政策")</f>
+        <v>隐私政策</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"res！")</f>
-        <v>res！</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63, ""en"", ""ja"")"),"プライバシーポリシー")</f>
+        <v>プライバシーポリシー</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"Ajustes")</f>
-        <v>Ajustes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""es"")"),"y")</f>
+        <v>y</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"Réglages")</f>
-        <v>Réglages</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fr"")"),"et")</f>
+        <v>et</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"Einstellungen")</f>
-        <v>Einstellungen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""de"")"),"und")</f>
+        <v>und</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"Ustawienia")</f>
-        <v>Ustawienia</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""pl"")"),"oraz")</f>
+        <v>oraz</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"Настройки")</f>
-        <v>Настройки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ru"")"),"а также")</f>
+        <v>а также</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"asetukset")</f>
-        <v>asetukset</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""fi"")"),"ja")</f>
+        <v>ja</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"Impostazioni")</f>
-        <v>Impostazioni</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""it"")"),"e")</f>
+        <v>e</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"设置")</f>
-        <v>设置</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""zh"")"),"和")</f>
+        <v>和</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"設定")</f>
-        <v>設定</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64, ""en"", ""ja"")"),"と")</f>
+        <v>と</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""es"")"),"Restablecer la contraseña")</f>
-        <v>Restablecer la contraseña</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""es"")"),"Términos y condiciones.")</f>
+        <v>Términos y condiciones.</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fr"")"),"Réinitialiser le mot de passe")</f>
-        <v>Réinitialiser le mot de passe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fr"")"),"Termes et conditions.")</f>
+        <v>Termes et conditions.</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""de"")"),"Passwort zurücksetzen")</f>
-        <v>Passwort zurücksetzen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""de"")"),"Geschäftsbedingungen.")</f>
+        <v>Geschäftsbedingungen.</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pl"")"),"Zresetuj hasło")</f>
-        <v>Zresetuj hasło</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""pl"")"),"Regulamin.")</f>
+        <v>Regulamin.</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ru"")"),"Сброс пароля")</f>
-        <v>Сброс пароля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ru"")"),"Условия и положения.")</f>
+        <v>Условия и положения.</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fi"")"),"Nollaa salasana")</f>
-        <v>Nollaa salasana</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""fi"")"),"Käyttöehdot.")</f>
+        <v>Käyttöehdot.</v>
       </c>
       <c r="I65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""it"")"),"Resetta la password")</f>
-        <v>Resetta la password</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""it"")"),"Termini e Condizioni.")</f>
+        <v>Termini e Condizioni.</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""zh"")"),"重设密码")</f>
-        <v>重设密码</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""zh"")"),"条款和条件。")</f>
+        <v>条款和条件。</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ja"")"),"パスワードを再設定する")</f>
-        <v>パスワードを再設定する</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65, ""en"", ""ja"")"),"規約と条件。")</f>
+        <v>規約と条件。</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
-        <v>E-mail ha sido enviado</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""es"")"),"¿Ya tienes una cuenta?")</f>
+        <v>¿Ya tienes una cuenta?</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fr"")"),"L'email a été envoyé")</f>
-        <v>L'email a été envoyé</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fr"")"),"Vous avez déjà un compte?")</f>
+        <v>Vous avez déjà un compte?</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
-        <v>Die Email wurde verschickt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""de"")"),"Sie haben bereits ein Konto?")</f>
+        <v>Sie haben bereits ein Konto?</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""pl"")"),"Email został wysłany")</f>
-        <v>Email został wysłany</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""pl"")"),"Posiadasz już konto?")</f>
+        <v>Posiadasz już konto?</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ru"")"),"Письмо было отправлено")</f>
-        <v>Письмо было отправлено</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ru"")"),"Уже есть аккаунт?")</f>
+        <v>Уже есть аккаунт?</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
-        <v>Sähköposti on lähetetty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fi"")"),"Onko sinulla jo tili?")</f>
+        <v>Onko sinulla jo tili?</v>
       </c>
       <c r="I66" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""it"")"),"L'email è stata inviata")</f>
-        <v>L'email è stata inviata</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""it"")"),"Hai già un account?")</f>
+        <v>Hai già un account?</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""zh"")"),"邮件已发送")</f>
-        <v>邮件已发送</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""zh"")"),"已经有一个帐户？")</f>
+        <v>已经有一个帐户？</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ja"")"),"メールが送信されました")</f>
-        <v>メールが送信されました</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""ja"")"),"すでにアカウントをお持ちですか？")</f>
+        <v>すでにアカウントをお持ちですか？</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""es"")"),"DESCONECTAR")</f>
-        <v>DESCONECTAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""es"")"),"¿No tienes una cuenta?")</f>
+        <v>¿No tienes una cuenta?</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
-        <v>SE DÉCONNECTER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fr"")"),"Vous n'avez pas de compte?")</f>
+        <v>Vous n'avez pas de compte?</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""de"")"),"AUSTRAGEN")</f>
-        <v>AUSTRAGEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""de"")"),"Ich habe kein Konto?")</f>
+        <v>Ich habe kein Konto?</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
-        <v>WYLOGUJ SIĘ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""pl"")"),"Nie masz konta?")</f>
+        <v>Nie masz konta?</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ru"")"),"ВЫХОД")</f>
-        <v>ВЫХОД</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ru"")"),"У вас нет аккаунта?")</f>
+        <v>У вас нет аккаунта?</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
-        <v>KIRJAUDU ULOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""fi"")"),"Eikö sinulla ole tiliä?")</f>
+        <v>Eikö sinulla ole tiliä?</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""it"")"),"DISCONNESSIONE")</f>
-        <v>DISCONNESSIONE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""it"")"),"Non hai un account?")</f>
+        <v>Non hai un account?</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""zh"")"),"登出")</f>
-        <v>登出</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""zh"")"),"没有帐户？")</f>
+        <v>没有帐户？</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ja"")"),"サインアウト")</f>
-        <v>サインアウト</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67, ""en"", ""ja"")"),"アカウントを持っていませんか？")</f>
+        <v>アカウントを持っていませんか？</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""es"")"),"¡ACCESO!")</f>
+        <v>¡ACCESO!</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""fr"")"),"CONNEXION!")</f>
+        <v>CONNEXION!</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
+      </c>
+      <c r="F68" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""pl"")"),"ZALOGUJ SIE!")</f>
+        <v>ZALOGUJ SIE!</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""ru"")"),"АВТОРИЗОВАТЬСЯ!")</f>
+        <v>АВТОРИЗОВАТЬСЯ!</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""fi"")"),"KIRJAUDU SISÄÄN!")</f>
+        <v>KIRJAUDU SISÄÄN!</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""it"")"),"ACCEDERE!")</f>
+        <v>ACCEDERE!</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""zh"")"),"登录！")</f>
+        <v>登录！</v>
+      </c>
+      <c r="K68" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68, ""en"", ""ja"")"),"ログインする！")</f>
+        <v>ログインする！</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="8" t="str">
-        <f t="array" ref="B69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legal", "settingGroupHidden": "Hidden", "settingLocale": "Language", "settingLocaleChinese": "Chinese", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Finnish", "settingLocaleFrench": "French", "settingLocaleGerman": "German", "settingLocaleItalian": "Italian", "settingLocaleJapanese": "Japanese", "settingLocalePolish": "Polish", "settingLocaleRussian": "Russian", "settingLocaleSpanish": "Spanish", "settingNotifications": "Notifications", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "settingLicenses": "Licenses", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authForgotPassword": "Forgot Password?", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitle": "Enter your user-email below to 
-receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsResetPassword": "Reset password", "settingsResetPasswordSent": "Email has been sent", "settingsSignOut": "SIGN OUT"}</v>
-      </c>
-      <c r="C69" s="8" t="str">
-        <f t="array" ref="C69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupLegal": "Legal", "settingGroupHidden": "Oculto", "settingLocale": "Idioma", "settingLocaleChinese": "chino", "settingLocaleEnglish": "inglés", "settingLocaleFinnish": "finlandés", "settingLocaleFrench": "francés", "settingLocaleGerman": "alemán", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "japonés", "settingLocalePolish": "polaco", "settingLocaleRussian": "ruso", "settingLocaleSpanish": "español", "settingNotifications": "Notificaciones", "settingTheme": "Tema", "settingThemeLight": "Ligero", "settingThemeDark": "Oscuro", "settingThemeDefault": "Defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "settingLicenses": "Licencias", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitle": "Ingrese su correo electrónico de usuario a continuación para
-Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsResetPassword": "Restablecer la contraseña", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsSignOut": "DESCONECTAR"}</v>
-      </c>
-      <c r="D69" s="8" t="str">
-        <f t="array" ref="D69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupLegal": "Légal", "settingGroupHidden": "Caché", "settingLocale": "Langue", "settingLocaleChinese": "chinois", "settingLocaleEnglish": "Anglais", "settingLocaleFinnish": "finlandais", "settingLocaleFrench": "français", "settingLocaleGerman": "allemand", "settingLocaleItalian": "italien", "settingLocaleJapanese": "Japonais", "settingLocalePolish": "polonais", "settingLocaleRussian": "russe", "settingLocaleSpanish": "Espagnol", "settingNotifications": "Notifications", "settingTheme": "Thème", "settingThemeLight": "Lumière", "settingThemeDark": "Foncé", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "settingLicenses": "Licences", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Caméra", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authForgotPassword": "Mot de passe oublié?", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitle": "Entrez votre utilisateur-e-mail ci-dessous pour
-Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsResetPassword": "Réinitialiser le mot de passe", "settingsResetPasswordSent": "L'email a été envoyé", "settingsSignOut": "SE DÉCONNECTER"}</v>
-      </c>
-      <c r="E69" s="8" t="str">
-        <f t="array" ref="E69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorInvalidPassword": "Ihr Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupLegal": "Gesetzlich", "settingGroupHidden": "Versteckt", "settingLocale": "Sprache", "settingLocaleChinese": "Chinesisch", "settingLocaleEnglish": "Englisch", "settingLocaleFinnish": "finnisch", "settingLocaleFrench": "Französisch", "settingLocaleGerman": "Deutsch", "settingLocaleItalian": "Italienisch", "settingLocaleJapanese": "japanisch", "settingLocalePolish": "Polieren", "settingLocaleRussian": "Russisch", "settingLocaleSpanish": "Spanisch", "settingNotifications": "Benachrichtigungen", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "settingLicenses": "Lizenzen", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Bereit machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDEN", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authForgotPassword": "Passwort vergessen?", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDEN!", "forgotPasswordTitle": "Passwort vergessen?", "forgotPasswordSubtitle": "Geben Sie unten Ihre Anwender-E-Mail an
-erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Senden", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsResetPassword": "Passwort zurücksetzen", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsSignOut": "AUSTRAGEN"}</v>
-      </c>
-      <c r="F69" s="8" t="str">
-        <f t="array" ref="F69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupLegal": "Prawny", "settingGroupHidden": "Ukryty", "settingLocale": "Język", "settingLocaleChinese": "chiński", "settingLocaleEnglish": "język angielski", "settingLocaleFinnish": "fiński", "settingLocaleFrench": "Francuski", "settingLocaleGerman": "Niemiecki", "settingLocaleItalian": "Włoski", "settingLocaleJapanese": "język japoński", "settingLocalePolish": "Polskie", "settingLocaleRussian": "Rosyjski", "settingLocaleSpanish": "hiszpański", "settingNotifications": "Powiadomienia", "settingTheme": "Temat", "settingThemeLight": "Światło", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "settingLicenses": "Licencje.", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Aparat fotograficzny", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Nazwa", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authForgotPassword": "Zapomniałeś hasła?", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitle": "Wpisz swój adres e-mail poniżej do
-Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsResetPassword": "Zresetuj hasło", "settingsResetPasswordSent": "Email został wysłany", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
-      </c>
-      <c r="G69" s="8" t="str">
-        <f t="array" ref="G69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не так.", "errorUserNotFound": "Пользователь не существует или пароль не так.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupLegal": "Юридический", "settingGroupHidden": "Скрытый", "settingLocale": "Язык", "settingLocaleChinese": "китайский язык", "settingLocaleEnglish": "английский", "settingLocaleFinnish": "Финский", "settingLocaleFrench": "Французский", "settingLocaleGerman": "Немецкий", "settingLocaleItalian": "Итальянский", "settingLocaleJapanese": "японский язык", "settingLocalePolish": "Польский", "settingLocaleRussian": "русский", "settingLocaleSpanish": "испанский язык", "settingNotifications": "Уверенность", "settingTheme": "Тема", "settingThemeLight": "Светлый", "settingThemeDark": "Темно", "settingThemeDefault": "Дефолт", "settingIsDark": "Isdark.", "settingProfileURL": "URL профиля", "settingLicenses": "Лицензии", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Электронное письмо", "authFormPass": "Пароль", "authForgotPassword": "Забыли пароль?", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitle": "Введите свой пользователь-адрес электронной почты ниже
-Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Электронное письмо", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsResetPassword": "Сброс пароля", "settingsResetPasswordSent": "Письмо было отправлено", "settingsSignOut": "ВЫХОД"}</v>
-      </c>
-      <c r="H69" s="8" t="str">
-        <f t="array" ref="H69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupLegal": "Laillinen", "settingGroupHidden": "Piilotettu", "settingLocale": "Kieli", "settingLocaleChinese": "Kiinalainen", "settingLocaleEnglish": "Englanti", "settingLocaleFinnish": "Suomalainen", "settingLocaleFrench": "Ranskan kieli", "settingLocaleGerman": "Saksan kieli", "settingLocaleItalian": "italialainen", "settingLocaleJapanese": "japanilainen", "settingLocalePolish": "Kiillottaa", "settingLocaleRussian": "Venäjän kieli", "settingLocaleSpanish": "Espanja", "settingNotifications": "Ilmoitukset", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "settingLicenses": "Lisenssit", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authForgotPassword": "Unohtuiko salasana?", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitle": "Anna käyttäjän sähköposti alla
-Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsResetPassword": "Nollaa salasana", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsSignOut": "KIRJAUDU ULOS"}</v>
-      </c>
-      <c r="I69" s="8" t="str">
-        <f t="array" ref="I69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legale", "settingGroupHidden": "Nascosto", "settingLocale": "Lingua", "settingLocaleChinese": "Cinese", "settingLocaleEnglish": "inglese", "settingLocaleFinnish": "finlandese", "settingLocaleFrench": "francese", "settingLocaleGerman": "Tedesco", "settingLocaleItalian": "italiano", "settingLocaleJapanese": "giapponese", "settingLocalePolish": "polacco", "settingLocaleRussian": "russo", "settingLocaleSpanish": "spagnolo", "settingNotifications": "Notifiche", "settingTheme": "Tema", "settingThemeLight": "Luce", "settingThemeDark": "Buio", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "settingLicenses": "Licenze", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIVITI", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authForgotPassword": "Ha dimenticato la password?", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIVITI!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitle": "Inserisci la tua email utente qui sotto per
-Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsResetPassword": "Resetta la password", "settingsResetPasswordSent": "L'email è stata inviata", "settingsSignOut": "DISCONNESSIONE"}</v>
-      </c>
-      <c r="J69" s="8" t="str">
-        <f t="array" ref="J69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupLegal": "合法的", "settingGroupHidden": "隐", "settingLocale": "语", "settingLocaleChinese": "中国人", "settingLocaleEnglish": "英语", "settingLocaleFinnish": "芬兰", "settingLocaleFrench": "法语", "settingLocaleGerman": "德语", "settingLocaleItalian": "意大利人", "settingLocaleJapanese": "日本人", "settingLocalePolish": "抛光", "settingLocaleRussian": "俄语", "settingLocaleSpanish": "西班牙语", "settingNotifications": "通知", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "settingLicenses": "许可证", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "名称", "authFormEmail": "电子邮件", "authFormPass": "密码", "authForgotPassword": "忘记密码？", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitle": "输入下面的用户电子邮件
-收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsResetPassword": "重设密码", "settingsResetPasswordSent": "邮件已发送", "settingsSignOut": "登出"}</v>
-      </c>
-      <c r="K69" s="8" t="str">
-        <f t="array" ref="K69">concatenate("{", join(", ", char(34)&amp;A2:A67&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K67&amp;char(34)), "}")</f>
-        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupLegal": "法的", "settingGroupHidden": "隠れた", "settingLocale": "言語", "settingLocaleChinese": "中国語", "settingLocaleEnglish": "英語", "settingLocaleFinnish": "フィンランド語", "settingLocaleFrench": "フランス語", "settingLocaleGerman": "ドイツ人", "settingLocaleItalian": "イタリア語", "settingLocaleJapanese": "日本", "settingLocalePolish": "研磨", "settingLocaleRussian": "ロシア", "settingLocaleSpanish": "スペイン語", "settingNotifications": "通知", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "闇", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "settingLicenses": "ライセンス", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authForgotPassword": "パスワードをお忘れですか？", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitle": "下のユーザー - 電子メールを入力してください
-パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsResetPassword": "パスワードを再設定する", "settingsResetPasswordSent": "メールが送信されました", "settingsSignOut": "サインアウト"}</v>
+        <v>140</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""es"")"),"¡INSCRIBIRSE!")</f>
+        <v>¡INSCRIBIRSE!</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""fr"")"),"S'INSCRIRE!")</f>
+        <v>S'INSCRIRE!</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""de"")"),"ANMELDUNG!")</f>
+        <v>ANMELDUNG!</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""pl"")"),"ZAPISZ SIĘ!")</f>
+        <v>ZAPISZ SIĘ!</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""ru"")"),"ЗАРЕГИСТРИРОВАТЬСЯ!")</f>
+        <v>ЗАРЕГИСТРИРОВАТЬСЯ!</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""fi"")"),"KIRJAUDU!")</f>
+        <v>KIRJAUDU!</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""it"")"),"ISCRIZIONE!")</f>
+        <v>ISCRIZIONE!</v>
+      </c>
+      <c r="J69" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""zh"")"),"报名！")</f>
+        <v>报名！</v>
+      </c>
+      <c r="K69" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69, ""en"", ""ja"")"),"サインアップ！")</f>
+        <v>サインアップ！</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="C70" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""es"")"),"¿Olvidaste tu contraseña?")</f>
+        <v>¿Olvidaste tu contraseña?</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""fr"")"),"Mot de passe oublié?")</f>
+        <v>Mot de passe oublié?</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""de"")"),"Haben Sie Ihr Passwort vergessen?")</f>
+        <v>Haben Sie Ihr Passwort vergessen?</v>
+      </c>
+      <c r="F70" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""pl"")"),"Zapomniałeś hasła?")</f>
+        <v>Zapomniałeś hasła?</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""ru"")"),"Забыли Ваш пароль?")</f>
+        <v>Забыли Ваш пароль?</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""fi"")"),"Unohditko salasanasi?")</f>
+        <v>Unohditko salasanasi?</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""it"")"),"Hai dimenticato la password?")</f>
+        <v>Hai dimenticato la password?</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""zh"")"),"忘记密码了吗？")</f>
+        <v>忘记密码了吗？</v>
+      </c>
+      <c r="K70" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B70, ""en"", ""ja"")"),"パスワードをお忘れですか？")</f>
+        <v>パスワードをお忘れですか？</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="C71" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""es"")"),"Ingrese su correo electrónico de usuario a continuación para")</f>
+        <v>Ingrese su correo electrónico de usuario a continuación para</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""fr"")"),"Entrez votre utilisateur-e-mail ci-dessous pour")</f>
+        <v>Entrez votre utilisateur-e-mail ci-dessous pour</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""de"")"),"Geben Sie unten Ihre Anwender-E-Mail an")</f>
+        <v>Geben Sie unten Ihre Anwender-E-Mail an</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""pl"")"),"Wpisz swój adres e-mail poniżej do")</f>
+        <v>Wpisz swój adres e-mail poniżej do</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""ru"")"),"Введите свой пользователь-адрес электронной почты ниже")</f>
+        <v>Введите свой пользователь-адрес электронной почты ниже</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""fi"")"),"Anna käyttäjän sähköposti alla")</f>
+        <v>Anna käyttäjän sähköposti alla</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""it"")"),"Inserisci la tua email utente qui sotto per")</f>
+        <v>Inserisci la tua email utente qui sotto per</v>
+      </c>
+      <c r="J71" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""zh"")"),"输入下面的用户电子邮件")</f>
+        <v>输入下面的用户电子邮件</v>
+      </c>
+      <c r="K71" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71, ""en"", ""ja"")"),"下のユーザー - 電子メールを入力してください")</f>
+        <v>下のユーザー - 電子メールを入力してください</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="B72" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="C72" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""es"")"),"Reciba un mensaje de restablecimiento de contraseña.")</f>
+        <v>Reciba un mensaje de restablecimiento de contraseña.</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""fr"")"),"Recevez un message de réinitialisation du mot de passe.")</f>
+        <v>Recevez un message de réinitialisation du mot de passe.</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""de"")"),"erhalten Sie eine Kennwortrücksetzungsnachricht.")</f>
+        <v>erhalten Sie eine Kennwortrücksetzungsnachricht.</v>
+      </c>
+      <c r="F72" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""pl"")"),"Otrzymaj wiadomość resetowania hasła.")</f>
+        <v>Otrzymaj wiadomość resetowania hasła.</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""ru"")"),"Получите сообщение сброса пароля.")</f>
+        <v>Получите сообщение сброса пароля.</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""fi"")"),"Vastaanota salasanan nollausviesti.")</f>
+        <v>Vastaanota salasanan nollausviesti.</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""it"")"),"Ricevi un messaggio di reimpostazione della password.")</f>
+        <v>Ricevi un messaggio di reimpostazione della password.</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""zh"")"),"收到密码重置消息。")</f>
+        <v>收到密码重置消息。</v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""ja"")"),"パスワードリセットメッセージを受信します。")</f>
+        <v>パスワードリセットメッセージを受信します。</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="7"/>
+      <c r="B73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""es"")"),"El correo electrónico no puede estar vacío")</f>
+        <v>El correo electrónico no puede estar vacío</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""fr"")"),"L'email ne peut pas être vide")</f>
+        <v>L'email ne peut pas être vide</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""de"")"),"E-Mail kann nicht leer sein")</f>
+        <v>E-Mail kann nicht leer sein</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""pl"")"),"E-mail nie może być pusty")</f>
+        <v>E-mail nie może być pusty</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""ru"")"),"Электронная почта не может быть пустым")</f>
+        <v>Электронная почта не может быть пустым</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""fi"")"),"Sähköposti ei voi olla tyhjä")</f>
+        <v>Sähköposti ei voi olla tyhjä</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""it"")"),"L'e-mail non può essere vuota")</f>
+        <v>L'e-mail non può essere vuota</v>
+      </c>
+      <c r="J73" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""zh"")"),"电子邮件不能为空")</f>
+        <v>电子邮件不能为空</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B73, ""en"", ""ja"")"),"電子メールは空にすることはできません")</f>
+        <v>電子メールは空にすることはできません</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="7"/>
+      <c r="A74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""es"")"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""fr"")"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""de"")"),"Email")</f>
+        <v>Email</v>
+      </c>
+      <c r="F74" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""pl"")"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""ru"")"),"Эл. адрес")</f>
+        <v>Эл. адрес</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""fi"")"),"Sähköposti")</f>
+        <v>Sähköposti</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""it"")"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""zh"")"),"电子邮件")</f>
+        <v>电子邮件</v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B74, ""en"", ""ja"")"),"Eメール")</f>
+        <v>Eメール</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="7"/>
+      <c r="A75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""es"")"),"Enviar")</f>
+        <v>Enviar</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""fr"")"),"Envoyer")</f>
+        <v>Envoyer</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""de"")"),"Schicken")</f>
+        <v>Schicken</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""pl"")"),"Wysłać")</f>
+        <v>Wysłać</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""ru"")"),"Отправлять")</f>
+        <v>Отправлять</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""fi"")"),"Lähettää")</f>
+        <v>Lähettää</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""it"")"),"Spedire")</f>
+        <v>Spedire</v>
+      </c>
+      <c r="J75" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""zh"")"),"发送")</f>
+        <v>发送</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75, ""en"", ""ja"")"),"送信")</f>
+        <v>送信</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="7"/>
+      <c r="A76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""es"")"),"No lo entendí?")</f>
+        <v>No lo entendí?</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""fr"")"),"Ne l'a pas eu?")</f>
+        <v>Ne l'a pas eu?</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""de"")"),"Hast es nicht bekommen?")</f>
+        <v>Hast es nicht bekommen?</v>
+      </c>
+      <c r="F76" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""pl"")"),"Nie zrozumiałeś?")</f>
+        <v>Nie zrozumiałeś?</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""ru"")"),"Не понял?")</f>
+        <v>Не понял?</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""fi"")"),"Ei saanut sitä?")</f>
+        <v>Ei saanut sitä?</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""it"")"),"Non ho capito?")</f>
+        <v>Non ho capito?</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""zh"")"),"没有得到它？")</f>
+        <v>没有得到它？</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76, ""en"", ""ja"")"),"手に入れなかった？")</f>
+        <v>手に入れなかった？</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="7"/>
+      <c r="A77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""es"")"),"¡Resolver!")</f>
+        <v>¡Resolver!</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""fr"")"),"Renvoyez!")</f>
+        <v>Renvoyez!</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""de"")"),"Erneut senden!")</f>
+        <v>Erneut senden!</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""pl"")"),"Wysłać ponownie!")</f>
+        <v>Wysłać ponownie!</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""ru"")"),"Отправить!")</f>
+        <v>Отправить!</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""fi"")"),"Uudelleen lähettää!")</f>
+        <v>Uudelleen lähettää!</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""it"")"),"Resenda!")</f>
+        <v>Resenda!</v>
+      </c>
+      <c r="J77" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""zh"")"),"重发！")</f>
+        <v>重发！</v>
+      </c>
+      <c r="K77" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77, ""en"", ""ja"")"),"res！")</f>
+        <v>res！</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="7"/>
+      <c r="A78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""es"")"),"Ajustes")</f>
+        <v>Ajustes</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""fr"")"),"Réglages")</f>
+        <v>Réglages</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""de"")"),"Einstellungen")</f>
+        <v>Einstellungen</v>
+      </c>
+      <c r="F78" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""pl"")"),"Ustawienia")</f>
+        <v>Ustawienia</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""ru"")"),"Настройки")</f>
+        <v>Настройки</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""fi"")"),"asetukset")</f>
+        <v>asetukset</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""it"")"),"Impostazioni")</f>
+        <v>Impostazioni</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""zh"")"),"设置")</f>
+        <v>设置</v>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""ja"")"),"設定")</f>
+        <v>設定</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="7"/>
+      <c r="A79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""es"")"),"Nombre null.")</f>
+        <v>Nombre null.</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""fr"")"),"Nom null.")</f>
+        <v>Nom null.</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""de"")"),"NULL-Name")</f>
+        <v>NULL-Name</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""pl"")"),"Nazwa NULL.")</f>
+        <v>Nazwa NULL.</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""ru"")"),"NULL имя.")</f>
+        <v>NULL имя.</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""fi"")"),"Nolla nimi.")</f>
+        <v>Nolla nimi.</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""it"")"),"Nome NULL.")</f>
+        <v>Nome NULL.</v>
+      </c>
+      <c r="J79" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""zh"")"),"null名称。")</f>
+        <v>null名称。</v>
+      </c>
+      <c r="K79" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B79, ""en"", ""ja"")"),"NULL名。")</f>
+        <v>NULL名。</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="7"/>
+      <c r="A80" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""es"")"),"E-mail ha sido enviado")</f>
+        <v>E-mail ha sido enviado</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""fr"")"),"L'email a été envoyé")</f>
+        <v>L'email a été envoyé</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""de"")"),"Die Email wurde verschickt")</f>
+        <v>Die Email wurde verschickt</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""pl"")"),"Email został wysłany")</f>
+        <v>Email został wysłany</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""ru"")"),"Письмо было отправлено")</f>
+        <v>Письмо было отправлено</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""fi"")"),"Sähköposti on lähetetty")</f>
+        <v>Sähköposti on lähetetty</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""it"")"),"L'email è stata inviata")</f>
+        <v>L'email è stata inviata</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""zh"")"),"邮件已发送")</f>
+        <v>邮件已发送</v>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80, ""en"", ""ja"")"),"メールが送信されました")</f>
+        <v>メールが送信されました</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="7"/>
+      <c r="A81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""es"")"),"Para ayuda / soporte por favor correo electrónico:")</f>
+        <v>Para ayuda / soporte por favor correo electrónico:</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""fr"")"),"Pour aide / support, veuillez envoyer un email:")</f>
+        <v>Pour aide / support, veuillez envoyer un email:</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""de"")"),"Für die Hilfe / Unterstützung bitte E-Mail:")</f>
+        <v>Für die Hilfe / Unterstützung bitte E-Mail:</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""pl"")"),"Aby uzyskać pomoc / wsparcie, e-mail:")</f>
+        <v>Aby uzyskać pomoc / wsparcie, e-mail:</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""ru"")"),"Для справки / поддержки, пожалуйста, напишите:")</f>
+        <v>Для справки / поддержки, пожалуйста, напишите:</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""fi"")"),"Apua / tukea saat sähköpostitse:")</f>
+        <v>Apua / tukea saat sähköpostitse:</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""it"")"),"Per aiuto / supporto per favore e-mail:")</f>
+        <v>Per aiuto / supporto per favore e-mail:</v>
+      </c>
+      <c r="J81" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""zh"")"),"有关帮助/支持请发送电子邮件：")</f>
+        <v>有关帮助/支持请发送电子邮件：</v>
+      </c>
+      <c r="K81" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""ja"")"),"ヘルプ/サポートの場合は、電子メールでお願いします。")</f>
+        <v>ヘルプ/サポートの場合は、電子メールでお願いします。</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="7"/>
+      <c r="A82" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="7"/>
+      <c r="A83" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
+      <c r="A84" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="7"/>
+      <c r="A85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""es"")"),"DESCONECTAR")</f>
+        <v>DESCONECTAR</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""fr"")"),"SE DÉCONNECTER")</f>
+        <v>SE DÉCONNECTER</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""de"")"),"AUSTRAGEN")</f>
+        <v>AUSTRAGEN</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""pl"")"),"WYLOGUJ SIĘ")</f>
+        <v>WYLOGUJ SIĘ</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""ru"")"),"ВЫХОД")</f>
+        <v>ВЫХОД</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""fi"")"),"KIRJAUDU ULOS")</f>
+        <v>KIRJAUDU ULOS</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""it"")"),"DISCONNESSIONE")</f>
+        <v>DISCONNESSIONE</v>
+      </c>
+      <c r="J85" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""zh"")"),"登出")</f>
+        <v>登出</v>
+      </c>
+      <c r="K85" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85, ""en"", ""ja"")"),"サインアウト")</f>
+        <v>サインアウト</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="7"/>
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="10" t="str">
+        <f t="array" ref="B87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;B2:B85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Can't have a blank field.", "errorInvalidName": "Name must be 3-10 characters.", "errorPasswordRequirements": "Password must be 8-16 characters and a number/symbol.", "errorPasswordMatch": "Passwords don't match.", "errorInvalidPassword": "Your password is too weak.", "errorInvalidEmail": "Please enter a valid email.", "errorWrongPassword": "User does not exist or password is wrong.", "errorUserNotFound": "User does not exist or password is wrong.", "errorUserDisabled": "User has been disabled.", "errorEmailAlreadyExists": "Email is already in use on different account.", "errorInvalidCredential": "Please enter a valid email.", "errorImage": "Failed to get image.", "errorShare": "Failed to share.", "errorDefault": "An undefined Error happened.", "settingGroupAccount": "Account", "settingGroupGeneral": "General", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legal", "settingGroupHidden": "Hidden", "settingResetPassword": "Reset Password", "settingLocale": "Language", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Notifications", "settingAbout": "About", "settingTheme": "Theme", "settingThemeLight": "Light", "settingThemeDark": "Dark", "settingThemeDefault": "Default", "settingIsDark": "isDark", "settingProfileURL": "profileURL", "settingTermsAndConditions": "Terms and Conditions", "settingPrivacyPolicy": "Privacy Policy", "settingLicenses": "Licenses", "settingHelpSupport": "Help/Support", "mediaSelectionTitle": "Where do you want a photo from?", "mediaSelectionGallery": "Gallery", "mediaSelectionCamera": "Camera", "welcomeTitle": "Daily", "welcomeSubtitle": "Get Ready!", "welcomeAccountAlready": "Already have an account? ", "welcomeAccountAlreadyLogin": "LOGIN!", "welcomeGetStarted": "GET STARTED", "authTitleSignIn": "Login to Daily", "authTitleSignUp": "Register for Daily", "authSignIn": "LOGIN", "authSignUp": "SIGN UP", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Password", "authFormPassVerify": "Confirm Password", "authForgotPassword": "Forgot Password?", "authPolicyAndTaCPrimary": "By continuing, you agree to our", "authPolicyAndTaCPrivacy": "Privacy Policy", "authPolicyAndTaCSeconday": "and", "authPolicyAndTaCConditions": "Terms and Conditions.", "authSwitchSignInPrimary": "Already have an account? ", "authSwitchSignUpPrimary": "Don't have an account? ", "authSwitchSignInSecondary": "LOGIN!", "authSwitchSignUpSecondary": "SIGN UP!", "forgotPasswordTitle": "Forgot your password?", "forgotPasswordSubtitlePrimary": "Enter your user-email below to", "forgotPasswordSubtitleSecondary": "receive a password reset message.", "forgotPasswordValidatorEmailFormat": "Email can't be empty", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Send", "forgotPasswordResendPrimary": "Didn't get it? ", "forgotPasswordResendSecondary": "Resend!", "settingsTitle": "Settings", "settingsNullName": "Null name.", "settingsResetPasswordSent": "Email has been sent", "settingsHelpSupportBox": "For help/support please email:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.1", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "SIGN OUT"}</v>
+      </c>
+      <c r="C87" s="10" t="str">
+        <f t="array" ref="C87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;C2:C85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "No puedo tener un campo en blanco.", "errorInvalidName": "El nombre debe tener 3-10 caracteres.", "errorPasswordRequirements": "La contraseña debe tener 8-16 caracteres y un número / símbolo.", "errorPasswordMatch": "Las contraseñas no coinciden.", "errorInvalidPassword": "Tu contraseña es muy débil.", "errorInvalidEmail": "Por favor introduzca una dirección de correo electrónico válida.", "errorWrongPassword": "El usuario no existe o la contraseña es incorrecta.", "errorUserNotFound": "El usuario no existe o la contraseña es incorrecta.", "errorUserDisabled": "El usuario ha sido deshabilitado.", "errorEmailAlreadyExists": "El correo electrónico ya está en uso en una cuenta diferente.", "errorInvalidCredential": "Por favor introduzca una dirección de correo electrónico válida.", "errorImage": "Error al obtener la imagen.", "errorShare": "Error al compartir.", "errorDefault": "Ocurrió un error indefinido.", "settingGroupAccount": "Cuenta", "settingGroupGeneral": "General", "settingGroupPrivacy": "Intimidad", "settingGroupLegal": "Legal", "settingGroupHidden": "Oculto", "settingResetPassword": "Restablecer la contraseña", "settingLocale": "Idioma", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Notificaciones", "settingAbout": "Sobre", "settingTheme": "Tema", "settingThemeLight": "Luz", "settingThemeDark": "Oscuro", "settingThemeDefault": "Por defecto", "settingIsDark": "Es oscuro", "settingProfileURL": "URL del perfil", "settingTermsAndConditions": "Términos y condiciones", "settingPrivacyPolicy": "Política de privacidad", "settingLicenses": "Licencias", "settingHelpSupport": "Servicio de asistencia", "mediaSelectionTitle": "¿De dónde quieres una foto?", "mediaSelectionGallery": "Galería", "mediaSelectionCamera": "Cámara", "welcomeTitle": "A diario", "welcomeSubtitle": "¡Prepararse!", "welcomeAccountAlready": "¿Ya tienes una cuenta?", "welcomeAccountAlreadyLogin": "¡ACCESO!", "welcomeGetStarted": "EMPEZAR", "authTitleSignIn": "Iniciar sesión a diario", "authTitleSignUp": "Registrarse para diariamente", "authSignIn": "ACCESO", "authSignUp": "INSCRIBIRSE", "authFormName": "Nombre", "authFormEmail": "Correo electrónico", "authFormPass": "Clave", "authFormPassVerify": "Confirmar contraseña", "authForgotPassword": "¿Has olvidado tu contraseña?", "authPolicyAndTaCPrimary": "Al continuar, usted acepta nuestro", "authPolicyAndTaCPrivacy": "Política de privacidad", "authPolicyAndTaCSeconday": "y", "authPolicyAndTaCConditions": "Términos y condiciones.", "authSwitchSignInPrimary": "¿Ya tienes una cuenta?", "authSwitchSignUpPrimary": "¿No tienes una cuenta?", "authSwitchSignInSecondary": "¡ACCESO!", "authSwitchSignUpSecondary": "¡INSCRIBIRSE!", "forgotPasswordTitle": "¿Olvidaste tu contraseña?", "forgotPasswordSubtitlePrimary": "Ingrese su correo electrónico de usuario a continuación para", "forgotPasswordSubtitleSecondary": "Reciba un mensaje de restablecimiento de contraseña.", "forgotPasswordValidatorEmailFormat": "El correo electrónico no puede estar vacío", "forgotPasswordFormEmail": "Correo electrónico", "forgotPasswordSend": "Enviar", "forgotPasswordResendPrimary": "No lo entendí?", "forgotPasswordResendSecondary": "¡Resolver!", "settingsTitle": "Ajustes", "settingsNullName": "Nombre null.", "settingsResetPasswordSent": "E-mail ha sido enviado", "settingsHelpSupportBox": "Para ayuda / soporte por favor correo electrónico:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.2", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "DESCONECTAR"}</v>
+      </c>
+      <c r="D87" s="10" t="str">
+        <f t="array" ref="D87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;D2:D85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ne peut pas avoir un champ vide.", "errorInvalidName": "Le nom doit être de 3 à 10 caractères.", "errorPasswordRequirements": "Le mot de passe doit comporter 8-16 caractères et un numéro / symbole.", "errorPasswordMatch": "Les mots de passe ne correspondent pas.", "errorInvalidPassword": "Votre mot de passe est trop faible.", "errorInvalidEmail": "Veuillez entrer un email valide.", "errorWrongPassword": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserNotFound": "L'utilisateur n'existe pas ou le mot de passe est faux.", "errorUserDisabled": "L'utilisateur a été désactivé.", "errorEmailAlreadyExists": "Le courrier électronique est déjà utilisé sur un compte différent.", "errorInvalidCredential": "Veuillez entrer un email valide.", "errorImage": "Impossible d'obtenir une image.", "errorShare": "Échoué à partager.", "errorDefault": "Une erreur non définie s'est produite.", "settingGroupAccount": "Compte", "settingGroupGeneral": "Général", "settingGroupPrivacy": "Vie privée", "settingGroupLegal": "Légal", "settingGroupHidden": "Caché", "settingResetPassword": "réinitialiser le mot de passe", "settingLocale": "Langue", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Notifications", "settingAbout": "Sur", "settingTheme": "Thème", "settingThemeLight": "Léger", "settingThemeDark": "Sombre", "settingThemeDefault": "Défaut", "settingIsDark": "est sombre", "settingProfileURL": "Profil URL", "settingTermsAndConditions": "Termes et conditions", "settingPrivacyPolicy": "Politique de confidentialité", "settingLicenses": "Licences", "settingHelpSupport": "Support d'aide", "mediaSelectionTitle": "Où voulez-vous une photo?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Appareil photo", "welcomeTitle": "du quotidien", "welcomeSubtitle": "Sois prêt!", "welcomeAccountAlready": "Vous avez déjà un compte?", "welcomeAccountAlreadyLogin": "CONNEXION!", "welcomeGetStarted": "COMMENCER", "authTitleSignIn": "Connectez-vous à tous les jours", "authTitleSignUp": "Inscrivez-vous pour tous les jours", "authSignIn": "CONNEXION", "authSignUp": "S'INSCRIRE", "authFormName": "Nom", "authFormEmail": "E-mail", "authFormPass": "Mot de passe", "authFormPassVerify": "Confirmez le mot de passe", "authForgotPassword": "Mot de passe oublié?", "authPolicyAndTaCPrimary": "En continuant, vous acceptez notre", "authPolicyAndTaCPrivacy": "Politique de confidentialité", "authPolicyAndTaCSeconday": "et", "authPolicyAndTaCConditions": "Termes et conditions.", "authSwitchSignInPrimary": "Vous avez déjà un compte?", "authSwitchSignUpPrimary": "Vous n'avez pas de compte?", "authSwitchSignInSecondary": "CONNEXION!", "authSwitchSignUpSecondary": "S'INSCRIRE!", "forgotPasswordTitle": "Mot de passe oublié?", "forgotPasswordSubtitlePrimary": "Entrez votre utilisateur-e-mail ci-dessous pour", "forgotPasswordSubtitleSecondary": "Recevez un message de réinitialisation du mot de passe.", "forgotPasswordValidatorEmailFormat": "L'email ne peut pas être vide", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Envoyer", "forgotPasswordResendPrimary": "Ne l'a pas eu?", "forgotPasswordResendSecondary": "Renvoyez!", "settingsTitle": "Réglages", "settingsNullName": "Nom null.", "settingsResetPasswordSent": "L'email a été envoyé", "settingsHelpSupportBox": "Pour aide / support, veuillez envoyer un email:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.3", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "SE DÉCONNECTER"}</v>
+      </c>
+      <c r="E87" s="10" t="str">
+        <f t="array" ref="E87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;E2:E85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ich kann kein leeres Feld haben.", "errorInvalidName": "Der Name muss 3-10 Zeichen sein.", "errorPasswordRequirements": "Das Passwort muss 8-16 Zeichen und ein Nummer / Symbol sein.", "errorPasswordMatch": "Passwörter stimmen nicht überein.", "errorInvalidPassword": "Dein Passwort ist zu schwach.", "errorInvalidEmail": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorWrongPassword": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserNotFound": "Der Benutzer ist nicht vorhanden, oder das Passwort ist falsch.", "errorUserDisabled": "Benutzer wurde deaktiviert.", "errorEmailAlreadyExists": "E-Mail ist bereits auf einem anderen Konto verwendet.", "errorInvalidCredential": "Bitte geben Sie eine gültige Email-Adresse ein.", "errorImage": "Image konnte nicht abgerufen werden.", "errorShare": "Nicht teilen.", "errorDefault": "Ein undefinierter Fehler ist passiert.", "settingGroupAccount": "Konto", "settingGroupGeneral": "Allgemein", "settingGroupPrivacy": "Privatsphäre", "settingGroupLegal": "Gesetzlich", "settingGroupHidden": "Versteckt", "settingResetPassword": "Passwort zurücksetzen", "settingLocale": "Sprache", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Benachrichtigungen", "settingAbout": "Über", "settingTheme": "Thema", "settingThemeLight": "Hell", "settingThemeDark": "Dunkel", "settingThemeDefault": "Standard", "settingIsDark": "ist dunkel", "settingProfileURL": "Profil-URL", "settingTermsAndConditions": "Geschäftsbedingungen", "settingPrivacyPolicy": "Datenschutz-Bestimmungen", "settingLicenses": "Lizenzen", "settingHelpSupport": "Hilfe Unterstützung", "mediaSelectionTitle": "Wo willst du ein Foto von?", "mediaSelectionGallery": "Galerie", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Täglich", "welcomeSubtitle": "Sich fertig machen!", "welcomeAccountAlready": "Sie haben bereits ein Konto?", "welcomeAccountAlreadyLogin": "ANMELDUNG!", "welcomeGetStarted": "LOSLEGEN", "authTitleSignIn": "Melden Sie sich täglich an", "authTitleSignUp": "Registrieren Sie sich täglich", "authSignIn": "ANMELDUNG", "authSignUp": "ANMELDUNG", "authFormName": "Name", "authFormEmail": "Email", "authFormPass": "Passwort", "authFormPassVerify": "Bestätige das Passwort", "authForgotPassword": "Passwort vergessen?", "authPolicyAndTaCPrimary": "Indem Sie fortfahren, stimmen Sie unserem zu", "authPolicyAndTaCPrivacy": "Datenschutz-Bestimmungen", "authPolicyAndTaCSeconday": "und", "authPolicyAndTaCConditions": "Geschäftsbedingungen.", "authSwitchSignInPrimary": "Sie haben bereits ein Konto?", "authSwitchSignUpPrimary": "Ich habe kein Konto?", "authSwitchSignInSecondary": "ANMELDUNG!", "authSwitchSignUpSecondary": "ANMELDUNG!", "forgotPasswordTitle": "Haben Sie Ihr Passwort vergessen?", "forgotPasswordSubtitlePrimary": "Geben Sie unten Ihre Anwender-E-Mail an", "forgotPasswordSubtitleSecondary": "erhalten Sie eine Kennwortrücksetzungsnachricht.", "forgotPasswordValidatorEmailFormat": "E-Mail kann nicht leer sein", "forgotPasswordFormEmail": "Email", "forgotPasswordSend": "Schicken", "forgotPasswordResendPrimary": "Hast es nicht bekommen?", "forgotPasswordResendSecondary": "Erneut senden!", "settingsTitle": "Einstellungen", "settingsNullName": "NULL-Name", "settingsResetPasswordSent": "Die Email wurde verschickt", "settingsHelpSupportBox": "Für die Hilfe / Unterstützung bitte E-Mail:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.4", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "AUSTRAGEN"}</v>
+      </c>
+      <c r="F87" s="10" t="str">
+        <f t="array" ref="F87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;F2:F85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Nie mogę mieć pustego pola.", "errorInvalidName": "Nazwa musi wynosić 3-10 znaków.", "errorPasswordRequirements": "Hasło musi wynosić 8-16 znaków i numer / symbol.", "errorPasswordMatch": "Hasła nie pasują.", "errorInvalidPassword": "Twoje hasło jest za słabe.", "errorInvalidEmail": "Proszę wpisać prawidłowy email.", "errorWrongPassword": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserNotFound": "Użytkownik nie istnieje, czy hasło jest nieprawidłowe.", "errorUserDisabled": "Użytkownik został wyłączony.", "errorEmailAlreadyExists": "E-mail jest już używany na różnych kontach.", "errorInvalidCredential": "Proszę wpisać prawidłowy email.", "errorImage": "Nie udało się uzyskać obrazu.", "errorShare": "Nie udało się udostępnić.", "errorDefault": "Zdarzyło się niezdefiniowany błąd.", "settingGroupAccount": "Rachunek", "settingGroupGeneral": "Ogólny", "settingGroupPrivacy": "Prywatność", "settingGroupLegal": "Prawny", "settingGroupHidden": "Ukryty", "settingResetPassword": "Zresetuj hasło", "settingLocale": "Język", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Powiadomienia", "settingAbout": "O", "settingTheme": "Temat", "settingThemeLight": "Lekki", "settingThemeDark": "Ciemny", "settingThemeDefault": "Domyślna", "settingIsDark": "jest ciemno", "settingProfileURL": "URL profilu", "settingTermsAndConditions": "Regulamin", "settingPrivacyPolicy": "Polityka prywatności", "settingLicenses": "Licencje.", "settingHelpSupport": "Pomoc wsparcie", "mediaSelectionTitle": "Skąd chcesz zdjęcie?", "mediaSelectionGallery": "Galeria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Codziennie", "welcomeSubtitle": "Przygotuj się!", "welcomeAccountAlready": "Posiadasz już konto?", "welcomeAccountAlreadyLogin": "ZALOGUJ SIE!", "welcomeGetStarted": "ZACZYNAJ", "authTitleSignIn": "Zaloguj się do codzienności", "authTitleSignUp": "Zarejestruj się na dobę", "authSignIn": "ZALOGUJ SIE", "authSignUp": "ZAPISZ SIĘ", "authFormName": "Imię", "authFormEmail": "E-mail", "authFormPass": "Hasło", "authFormPassVerify": "Potwierdź hasło", "authForgotPassword": "Zapomniałeś hasła?", "authPolicyAndTaCPrimary": "Kontynuując, zgadzasz się na nasze", "authPolicyAndTaCPrivacy": "Polityka prywatności", "authPolicyAndTaCSeconday": "oraz", "authPolicyAndTaCConditions": "Regulamin.", "authSwitchSignInPrimary": "Posiadasz już konto?", "authSwitchSignUpPrimary": "Nie masz konta?", "authSwitchSignInSecondary": "ZALOGUJ SIE!", "authSwitchSignUpSecondary": "ZAPISZ SIĘ!", "forgotPasswordTitle": "Zapomniałeś hasła?", "forgotPasswordSubtitlePrimary": "Wpisz swój adres e-mail poniżej do", "forgotPasswordSubtitleSecondary": "Otrzymaj wiadomość resetowania hasła.", "forgotPasswordValidatorEmailFormat": "E-mail nie może być pusty", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Wysłać", "forgotPasswordResendPrimary": "Nie zrozumiałeś?", "forgotPasswordResendSecondary": "Wysłać ponownie!", "settingsTitle": "Ustawienia", "settingsNullName": "Nazwa NULL.", "settingsResetPasswordSent": "Email został wysłany", "settingsHelpSupportBox": "Aby uzyskać pomoc / wsparcie, e-mail:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.5", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "WYLOGUJ SIĘ"}</v>
+      </c>
+      <c r="G87" s="10" t="str">
+        <f t="array" ref="G87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;G2:G85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Не может иметь пустое поле.", "errorInvalidName": "Имя должно быть 3-10 символов.", "errorPasswordRequirements": "Пароль должен быть 8-16 символов и число / символ.", "errorPasswordMatch": "Пароли не совпадают.", "errorInvalidPassword": "Ваш пароль слишком слабый.", "errorInvalidEmail": "Введите, пожалуйста, действительный адрес электронной почты.", "errorWrongPassword": "Пользователь не существует или пароль не прав.", "errorUserNotFound": "Пользователь не существует или пароль не прав.", "errorUserDisabled": "Пользователь был отключен.", "errorEmailAlreadyExists": "Электронная почта уже используется на другой учетной записи.", "errorInvalidCredential": "Введите, пожалуйста, действительный адрес электронной почты.", "errorImage": "Не удалось получить изображение.", "errorShare": "Не удалось поделиться.", "errorDefault": "Произошла неопределенная ошибка.", "settingGroupAccount": "Счет", "settingGroupGeneral": "Общий", "settingGroupPrivacy": "Конфиденциальность", "settingGroupLegal": "Юридический", "settingGroupHidden": "Скрытый", "settingResetPassword": "Сброс пароля", "settingLocale": "Язык", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Уверенность", "settingAbout": "О", "settingTheme": "Тема", "settingThemeLight": "Свет", "settingThemeDark": "Темный", "settingThemeDefault": "По умолчанию", "settingIsDark": "Isdark.", "settingProfileURL": "ссылка на профиль", "settingTermsAndConditions": "Условия и положения", "settingPrivacyPolicy": "Политика конфиденциальности", "settingLicenses": "Лицензии", "settingHelpSupport": "Справка / поддержка", "mediaSelectionTitle": "Откуда вы хотите фотографию?", "mediaSelectionGallery": "Галерея", "mediaSelectionCamera": "Камера", "welcomeTitle": "Ежедневно", "welcomeSubtitle": "Приготовься!", "welcomeAccountAlready": "Уже есть аккаунт?", "welcomeAccountAlreadyLogin": "АВТОРИЗОВАТЬСЯ!", "welcomeGetStarted": "НАЧАТЬ", "authTitleSignIn": "Войдите в день в день", "authTitleSignUp": "Регистрация для ежедневных", "authSignIn": "АВТОРИЗОВАТЬСЯ", "authSignUp": "ЗАРЕГИСТРИРОВАТЬСЯ", "authFormName": "Имя", "authFormEmail": "Эл. адрес", "authFormPass": "Пароль", "authFormPassVerify": "Подтвердить Пароль", "authForgotPassword": "Забыл пароль?", "authPolicyAndTaCPrimary": "Продолжая, вы согласны с нашим", "authPolicyAndTaCPrivacy": "Политика конфиденциальности", "authPolicyAndTaCSeconday": "а также", "authPolicyAndTaCConditions": "Условия и положения.", "authSwitchSignInPrimary": "Уже есть аккаунт?", "authSwitchSignUpPrimary": "У вас нет аккаунта?", "authSwitchSignInSecondary": "АВТОРИЗОВАТЬСЯ!", "authSwitchSignUpSecondary": "ЗАРЕГИСТРИРОВАТЬСЯ!", "forgotPasswordTitle": "Забыли Ваш пароль?", "forgotPasswordSubtitlePrimary": "Введите свой пользователь-адрес электронной почты ниже", "forgotPasswordSubtitleSecondary": "Получите сообщение сброса пароля.", "forgotPasswordValidatorEmailFormat": "Электронная почта не может быть пустым", "forgotPasswordFormEmail": "Эл. адрес", "forgotPasswordSend": "Отправлять", "forgotPasswordResendPrimary": "Не понял?", "forgotPasswordResendSecondary": "Отправить!", "settingsTitle": "Настройки", "settingsNullName": "NULL имя.", "settingsResetPasswordSent": "Письмо было отправлено", "settingsHelpSupportBox": "Для справки / поддержки, пожалуйста, напишите:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.6", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "ВЫХОД"}</v>
+      </c>
+      <c r="H87" s="10" t="str">
+        <f t="array" ref="H87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;H2:H85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Ei voi olla tyhjä kenttä.", "errorInvalidName": "Nimen on oltava 3-10 merkkiä.", "errorPasswordRequirements": "Salasanan on oltava 8-16 merkkiä ja numero / symboli.", "errorPasswordMatch": "Salasanat eivät vastaa.", "errorInvalidPassword": "Salasanasi on liian heikko.", "errorInvalidEmail": "Anna kelvollinen sähköposti.", "errorWrongPassword": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserNotFound": "Käyttäjä ei ole olemassa tai salasana on väärä.", "errorUserDisabled": "Käyttäjä on poistettu käytöstä.", "errorEmailAlreadyExists": "Sähköposti on jo käytössä eri tilillä.", "errorInvalidCredential": "Anna kelvollinen sähköposti.", "errorImage": "Kuvan saaminen epäonnistui.", "errorShare": "Jakaminen epäonnistui.", "errorDefault": "Määrittelemätön virhe tapahtui.", "settingGroupAccount": "Tili", "settingGroupGeneral": "Yleinen", "settingGroupPrivacy": "Yksityisyys", "settingGroupLegal": "Laillinen", "settingGroupHidden": "Piilotettu", "settingResetPassword": "Nollaa salasana", "settingLocale": "Kieli", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Ilmoitukset", "settingAbout": "Noin", "settingTheme": "Teema", "settingThemeLight": "Kevyt", "settingThemeDark": "Tumma", "settingThemeDefault": "Oletusarvo", "settingIsDark": "isdark", "settingProfileURL": "profiili-URL", "settingTermsAndConditions": "Käyttöehdot", "settingPrivacyPolicy": "Tietosuojakäytäntö", "settingLicenses": "Lisenssit", "settingHelpSupport": "Ohje / tuki", "mediaSelectionTitle": "Mistä haluat valokuvan?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Kamera", "welcomeTitle": "Päivittäin", "welcomeSubtitle": "Valmistaudu!", "welcomeAccountAlready": "Onko sinulla jo tili?", "welcomeAccountAlreadyLogin": "KIRJAUDU SISÄÄN!", "welcomeGetStarted": "ALOITTAA", "authTitleSignIn": "Kirjaudu sisään päivittäin", "authTitleSignUp": "Rekisteröidy päivittäin", "authSignIn": "KIRJAUDU SISÄÄN", "authSignUp": "KIRJAUDU", "authFormName": "Nimi", "authFormEmail": "Sähköposti", "authFormPass": "Salasana", "authFormPassVerify": "Vahvista salasana", "authForgotPassword": "Unohtuiko salasana?", "authPolicyAndTaCPrimary": "Jatkamalla, hyväksyt meidän", "authPolicyAndTaCPrivacy": "Tietosuojakäytäntö", "authPolicyAndTaCSeconday": "ja", "authPolicyAndTaCConditions": "Käyttöehdot.", "authSwitchSignInPrimary": "Onko sinulla jo tili?", "authSwitchSignUpPrimary": "Eikö sinulla ole tiliä?", "authSwitchSignInSecondary": "KIRJAUDU SISÄÄN!", "authSwitchSignUpSecondary": "KIRJAUDU!", "forgotPasswordTitle": "Unohditko salasanasi?", "forgotPasswordSubtitlePrimary": "Anna käyttäjän sähköposti alla", "forgotPasswordSubtitleSecondary": "Vastaanota salasanan nollausviesti.", "forgotPasswordValidatorEmailFormat": "Sähköposti ei voi olla tyhjä", "forgotPasswordFormEmail": "Sähköposti", "forgotPasswordSend": "Lähettää", "forgotPasswordResendPrimary": "Ei saanut sitä?", "forgotPasswordResendSecondary": "Uudelleen lähettää!", "settingsTitle": "asetukset", "settingsNullName": "Nolla nimi.", "settingsResetPasswordSent": "Sähköposti on lähetetty", "settingsHelpSupportBox": "Apua / tukea saat sähköpostitse:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.7", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "KIRJAUDU ULOS"}</v>
+      </c>
+      <c r="I87" s="10" t="str">
+        <f t="array" ref="I87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;I2:I85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "Non può avere un campo vuoto.", "errorInvalidName": "Il nome deve essere di 3-10 caratteri.", "errorPasswordRequirements": "La password deve essere di 8-16 caratteri e un numero / simbolo.", "errorPasswordMatch": "Le password non corrispondono.", "errorInvalidPassword": "La tua password è troppo debole.", "errorInvalidEmail": "Inserisci una email valida.", "errorWrongPassword": "L'utente non esiste o la password è sbagliata.", "errorUserNotFound": "L'utente non esiste o la password è sbagliata.", "errorUserDisabled": "L'utente è stato disabilitato.", "errorEmailAlreadyExists": "L'e-mail è già in uso su un account diverso.", "errorInvalidCredential": "Inserisci una email valida.", "errorImage": "Impossibile ottenere un'immagine.", "errorShare": "Impossibile condividere.", "errorDefault": "È successo un errore indefinito.", "settingGroupAccount": "Account", "settingGroupGeneral": "Generale", "settingGroupPrivacy": "Privacy", "settingGroupLegal": "Legale", "settingGroupHidden": "Nascosto", "settingResetPassword": "Resetta la password", "settingLocale": "Lingua", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "Notifiche", "settingAbout": "Di", "settingTheme": "Tema", "settingThemeLight": "Leggero", "settingThemeDark": "Scuro", "settingThemeDefault": "Predefinito", "settingIsDark": "è scuro", "settingProfileURL": "Profilo URL", "settingTermsAndConditions": "Termini e Condizioni", "settingPrivacyPolicy": "politica sulla riservatezza", "settingLicenses": "Licenze", "settingHelpSupport": "Supporto", "mediaSelectionTitle": "Da dove vuoi una foto?", "mediaSelectionGallery": "Galleria", "mediaSelectionCamera": "Telecamera", "welcomeTitle": "Quotidiano", "welcomeSubtitle": "Preparati!", "welcomeAccountAlready": "Hai già un account?", "welcomeAccountAlreadyLogin": "ACCEDERE!", "welcomeGetStarted": "INIZIARE", "authTitleSignIn": "Accedi al quotidiano", "authTitleSignUp": "Registrati per ogni giorno", "authSignIn": "ACCEDERE", "authSignUp": "ISCRIZIONE", "authFormName": "Nome", "authFormEmail": "E-mail", "authFormPass": "Parola d'ordine", "authFormPassVerify": "Conferma password", "authForgotPassword": "Ha dimenticato la password?", "authPolicyAndTaCPrimary": "Continuando, accetti il ​​nostro", "authPolicyAndTaCPrivacy": "politica sulla riservatezza", "authPolicyAndTaCSeconday": "e", "authPolicyAndTaCConditions": "Termini e Condizioni.", "authSwitchSignInPrimary": "Hai già un account?", "authSwitchSignUpPrimary": "Non hai un account?", "authSwitchSignInSecondary": "ACCEDERE!", "authSwitchSignUpSecondary": "ISCRIZIONE!", "forgotPasswordTitle": "Hai dimenticato la password?", "forgotPasswordSubtitlePrimary": "Inserisci la tua email utente qui sotto per", "forgotPasswordSubtitleSecondary": "Ricevi un messaggio di reimpostazione della password.", "forgotPasswordValidatorEmailFormat": "L'e-mail non può essere vuota", "forgotPasswordFormEmail": "E-mail", "forgotPasswordSend": "Spedire", "forgotPasswordResendPrimary": "Non ho capito?", "forgotPasswordResendSecondary": "Resenda!", "settingsTitle": "Impostazioni", "settingsNullName": "Nome NULL.", "settingsResetPasswordSent": "L'email è stata inviata", "settingsHelpSupportBox": "Per aiuto / supporto per favore e-mail:", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.8", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "DISCONNESSIONE"}</v>
+      </c>
+      <c r="J87" s="10" t="str">
+        <f t="array" ref="J87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;J2:J85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "不能有一个空白字段。", "errorInvalidName": "名称必须是3-10个字符。", "errorPasswordRequirements": "密码必须为8-16个字符和数字/符号。", "errorPasswordMatch": "密码不匹配。", "errorInvalidPassword": "你的密码太简单了。", "errorInvalidEmail": "请输入有效电子邮件。", "errorWrongPassword": "用户不存在或密码错误。", "errorUserNotFound": "用户不存在或密码错误。", "errorUserDisabled": "用户已被禁用。", "errorEmailAlreadyExists": "电子邮件已在不同的帐户中使用。", "errorInvalidCredential": "请输入有效电子邮件。", "errorImage": "无法获得图像。", "errorShare": "未能分享。", "errorDefault": "发生了未定义的错误。", "settingGroupAccount": "帐户", "settingGroupGeneral": "一般的", "settingGroupPrivacy": "隐私", "settingGroupLegal": "合法的", "settingGroupHidden": "隐", "settingResetPassword": "重设密码", "settingLocale": "语言", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "通知", "settingAbout": "关于", "settingTheme": "主题", "settingThemeLight": "光", "settingThemeDark": "黑暗的", "settingThemeDefault": "默认", "settingIsDark": "isdark.", "settingProfileURL": "个人资料网址", "settingTermsAndConditions": "条款和条件", "settingPrivacyPolicy": "隐私政策", "settingLicenses": "许可证", "settingHelpSupport": "帮助支持", "mediaSelectionTitle": "你想要一张照片吗？", "mediaSelectionGallery": "画廊", "mediaSelectionCamera": "相机", "welcomeTitle": "日常的", "welcomeSubtitle": "做好准备！", "welcomeAccountAlready": "已经有一个帐户？", "welcomeAccountAlreadyLogin": "登录！", "welcomeGetStarted": "开始", "authTitleSignIn": "登录日常", "authTitleSignUp": "每日注册", "authSignIn": "登录", "authSignUp": "报名", "authFormName": "姓名", "authFormEmail": "电子邮件", "authFormPass": "密码", "authFormPassVerify": "确认密码", "authForgotPassword": "忘记密码？", "authPolicyAndTaCPrimary": "继续，您同意我们的同意", "authPolicyAndTaCPrivacy": "隐私政策", "authPolicyAndTaCSeconday": "和", "authPolicyAndTaCConditions": "条款和条件。", "authSwitchSignInPrimary": "已经有一个帐户？", "authSwitchSignUpPrimary": "没有帐户？", "authSwitchSignInSecondary": "登录！", "authSwitchSignUpSecondary": "报名！", "forgotPasswordTitle": "忘记密码了吗？", "forgotPasswordSubtitlePrimary": "输入下面的用户电子邮件", "forgotPasswordSubtitleSecondary": "收到密码重置消息。", "forgotPasswordValidatorEmailFormat": "电子邮件不能为空", "forgotPasswordFormEmail": "电子邮件", "forgotPasswordSend": "发送", "forgotPasswordResendPrimary": "没有得到它？", "forgotPasswordResendSecondary": "重发！", "settingsTitle": "设置", "settingsNullName": "null名称。", "settingsResetPasswordSent": "邮件已发送", "settingsHelpSupportBox": "有关帮助/支持请发送电子邮件：", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.9", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "登出"}</v>
+      </c>
+      <c r="K87" s="10" t="str">
+        <f t="array" ref="K87">concatenate("{", join(", ", char(34)&amp;A2:A85&amp;char(34)&amp;char(58)&amp;char(32)&amp;char(34)&amp;K2:K85&amp;char(34)), "}")</f>
+        <v>{"errorBlankField": "空白のフィールドを持つことはできません。", "errorInvalidName": "名前は3~10文字でなければなりません。", "errorPasswordRequirements": "パスワードは8-16文字と番号/記号でなければなりません。", "errorPasswordMatch": "パスワードが一致しません。", "errorInvalidPassword": "あなたのパスワードは安全度が低いです。", "errorInvalidEmail": "正しいメールアドレスを入力してください。", "errorWrongPassword": "ユーザーが存在しないかパスワードが間違っています。", "errorUserNotFound": "ユーザーが存在しないかパスワードが間違っています。", "errorUserDisabled": "ユーザーが無効になっています。", "errorEmailAlreadyExists": "電子メールはすでに異なるアカウントで使用されています。", "errorInvalidCredential": "正しいメールアドレスを入力してください。", "errorImage": "画像を取得できませんでした。", "errorShare": "共有に失敗しました。", "errorDefault": "未定義のエラーが発生しました。", "settingGroupAccount": "アカウント", "settingGroupGeneral": "全般的", "settingGroupPrivacy": "プライバシー", "settingGroupLegal": "法的", "settingGroupHidden": "隠れた", "settingResetPassword": "パスワードを再設定する", "settingLocale": "言語", "settingLocaleChinese": "中国人 (Chinese)", "settingLocaleEnglish": "English", "settingLocaleFinnish": "Suomalainen (Finnish)", "settingLocaleFrench": "français (French)", "settingLocaleGerman": "Deutsch (German)", "settingLocaleItalian": "italiano (Italian)", "settingLocaleJapanese": "日本 (Japanese)", "settingLocalePolish": "Polskie (Polish)", "settingLocaleRussian": "русский (Russian)", "settingLocaleSpanish": "español (Spanish)", "settingNotifications": "通知", "settingAbout": "だいたい", "settingTheme": "テーマ", "settingThemeLight": "光", "settingThemeDark": "暗い", "settingThemeDefault": "ディフォルト", "settingIsDark": "は暗い", "settingProfileURL": "プロフィールURL", "settingTermsAndConditions": "規約と条件", "settingPrivacyPolicy": "プライバシーポリシー", "settingLicenses": "ライセンス", "settingHelpSupport": "ヘルプサポート", "mediaSelectionTitle": "あなたはどこから写真を望みますか？", "mediaSelectionGallery": "ギャラリー", "mediaSelectionCamera": "カメラ", "welcomeTitle": "毎日", "welcomeSubtitle": "準備をしなさい！", "welcomeAccountAlready": "すでにアカウントをお持ちですか？", "welcomeAccountAlreadyLogin": "ログインする！", "welcomeGetStarted": "始まりました", "authTitleSignIn": "毎日ログインしてください", "authTitleSignUp": "毎日登録してください", "authSignIn": "ログインする", "authSignUp": "サインアップ", "authFormName": "名前", "authFormEmail": "Eメール", "authFormPass": "パスワード", "authFormPassVerify": "パスワードを認証する", "authForgotPassword": "パスワードをお忘れですか？", "authPolicyAndTaCPrimary": "続けることによって、あなたは私たちに同意します", "authPolicyAndTaCPrivacy": "プライバシーポリシー", "authPolicyAndTaCSeconday": "と", "authPolicyAndTaCConditions": "規約と条件。", "authSwitchSignInPrimary": "すでにアカウントをお持ちですか？", "authSwitchSignUpPrimary": "アカウントを持っていませんか？", "authSwitchSignInSecondary": "ログインする！", "authSwitchSignUpSecondary": "サインアップ！", "forgotPasswordTitle": "パスワードをお忘れですか？", "forgotPasswordSubtitlePrimary": "下のユーザー - 電子メールを入力してください", "forgotPasswordSubtitleSecondary": "パスワードリセットメッセージを受信します。", "forgotPasswordValidatorEmailFormat": "電子メールは空にすることはできません", "forgotPasswordFormEmail": "Eメール", "forgotPasswordSend": "送信", "forgotPasswordResendPrimary": "手に入れなかった？", "forgotPasswordResendSecondary": "res！", "settingsTitle": "設定", "settingsNullName": "NULL名。", "settingsResetPasswordSent": "メールが送信されました", "settingsHelpSupportBox": "ヘルプ/サポートの場合は、電子メールでお願いします。", "settingsAboutBoxName": "Daily", "settingsAboutBoxVersion": "v0.10", "settingsAboutBoxLegalese": "©2022 Phoenix", "settingsSignOut": "サインアウト"}</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
+      <c r="A91" s="9"/>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
+      <c r="A93" s="9"/>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
+      <c r="A95" s="9"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
+      <c r="A96" s="9"/>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
+      <c r="A97" s="9"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
+      <c r="A99" s="9"/>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
+      <c r="A101" s="9"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
+      <c r="A102" s="9"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
+      <c r="A103" s="9"/>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
+      <c r="A104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
+      <c r="A105" s="9"/>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
+      <c r="A106" s="9"/>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
+      <c r="A107" s="9"/>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
+      <c r="A108" s="9"/>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
+      <c r="A109" s="9"/>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
+      <c r="A110" s="9"/>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
+      <c r="A111" s="9"/>
     </row>
     <row r="112">
-      <c r="A112" s="7"/>
+      <c r="A112" s="9"/>
     </row>
     <row r="113">
-      <c r="A113" s="7"/>
+      <c r="A113" s="9"/>
     </row>
     <row r="114">
-      <c r="A114" s="7"/>
+      <c r="A114" s="9"/>
     </row>
     <row r="115">
-      <c r="A115" s="7"/>
+      <c r="A115" s="9"/>
     </row>
     <row r="116">
-      <c r="A116" s="7"/>
+      <c r="A116" s="9"/>
     </row>
     <row r="117">
-      <c r="A117" s="7"/>
+      <c r="A117" s="9"/>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
+      <c r="A118" s="9"/>
     </row>
     <row r="119">
-      <c r="A119" s="7"/>
+      <c r="A119" s="9"/>
     </row>
     <row r="120">
-      <c r="A120" s="7"/>
+      <c r="A120" s="9"/>
     </row>
     <row r="121">
-      <c r="A121" s="7"/>
+      <c r="A121" s="9"/>
     </row>
     <row r="122">
-      <c r="A122" s="7"/>
+      <c r="A122" s="9"/>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
+      <c r="A123" s="9"/>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
+      <c r="A124" s="9"/>
     </row>
     <row r="125">
-      <c r="A125" s="7"/>
+      <c r="A125" s="9"/>
     </row>
     <row r="126">
-      <c r="A126" s="7"/>
+      <c r="A126" s="9"/>
     </row>
     <row r="127">
-      <c r="A127" s="7"/>
+      <c r="A127" s="9"/>
     </row>
     <row r="128">
-      <c r="A128" s="7"/>
+      <c r="A128" s="9"/>
     </row>
     <row r="129">
-      <c r="A129" s="7"/>
+      <c r="A129" s="9"/>
     </row>
     <row r="130">
-      <c r="A130" s="7"/>
+      <c r="A130" s="9"/>
     </row>
     <row r="131">
-      <c r="A131" s="7"/>
+      <c r="A131" s="9"/>
     </row>
     <row r="132">
-      <c r="A132" s="7"/>
+      <c r="A132" s="9"/>
     </row>
     <row r="133">
-      <c r="A133" s="7"/>
+      <c r="A133" s="9"/>
     </row>
     <row r="134">
-      <c r="A134" s="7"/>
+      <c r="A134" s="9"/>
     </row>
     <row r="135">
-      <c r="A135" s="7"/>
+      <c r="A135" s="9"/>
     </row>
     <row r="136">
-      <c r="A136" s="7"/>
+      <c r="A136" s="9"/>
     </row>
     <row r="137">
-      <c r="A137" s="7"/>
+      <c r="A137" s="9"/>
     </row>
     <row r="138">
-      <c r="A138" s="7"/>
+      <c r="A138" s="9"/>
     </row>
     <row r="139">
-      <c r="A139" s="7"/>
+      <c r="A139" s="9"/>
     </row>
     <row r="140">
-      <c r="A140" s="7"/>
+      <c r="A140" s="9"/>
     </row>
     <row r="141">
-      <c r="A141" s="7"/>
+      <c r="A141" s="9"/>
     </row>
     <row r="142">
-      <c r="A142" s="7"/>
+      <c r="A142" s="9"/>
     </row>
     <row r="143">
-      <c r="A143" s="7"/>
+      <c r="A143" s="9"/>
     </row>
     <row r="144">
-      <c r="A144" s="7"/>
+      <c r="A144" s="9"/>
     </row>
     <row r="145">
-      <c r="A145" s="7"/>
+      <c r="A145" s="9"/>
     </row>
     <row r="146">
-      <c r="A146" s="7"/>
+      <c r="A146" s="9"/>
     </row>
     <row r="147">
-      <c r="A147" s="7"/>
+      <c r="A147" s="9"/>
     </row>
     <row r="148">
-      <c r="A148" s="7"/>
+      <c r="A148" s="9"/>
     </row>
     <row r="149">
-      <c r="A149" s="7"/>
+      <c r="A149" s="9"/>
     </row>
     <row r="150">
-      <c r="A150" s="7"/>
+      <c r="A150" s="9"/>
     </row>
     <row r="151">
-      <c r="A151" s="7"/>
+      <c r="A151" s="9"/>
     </row>
     <row r="152">
-      <c r="A152" s="7"/>
+      <c r="A152" s="9"/>
     </row>
     <row r="153">
-      <c r="A153" s="7"/>
+      <c r="A153" s="9"/>
     </row>
     <row r="154">
-      <c r="A154" s="7"/>
+      <c r="A154" s="9"/>
     </row>
     <row r="155">
-      <c r="A155" s="7"/>
+      <c r="A155" s="9"/>
     </row>
     <row r="156">
-      <c r="A156" s="7"/>
+      <c r="A156" s="9"/>
     </row>
     <row r="157">
-      <c r="A157" s="7"/>
+      <c r="A157" s="9"/>
     </row>
     <row r="158">
-      <c r="A158" s="7"/>
+      <c r="A158" s="9"/>
     </row>
     <row r="159">
-      <c r="A159" s="7"/>
+      <c r="A159" s="9"/>
     </row>
     <row r="160">
-      <c r="A160" s="7"/>
+      <c r="A160" s="9"/>
     </row>
     <row r="161">
-      <c r="A161" s="7"/>
+      <c r="A161" s="9"/>
     </row>
     <row r="162">
-      <c r="A162" s="7"/>
+      <c r="A162" s="9"/>
     </row>
     <row r="163">
-      <c r="A163" s="7"/>
+      <c r="A163" s="9"/>
     </row>
     <row r="164">
-      <c r="A164" s="7"/>
+      <c r="A164" s="9"/>
     </row>
     <row r="165">
-      <c r="A165" s="7"/>
+      <c r="A165" s="9"/>
     </row>
     <row r="166">
-      <c r="A166" s="7"/>
+      <c r="A166" s="9"/>
     </row>
     <row r="167">
-      <c r="A167" s="7"/>
+      <c r="A167" s="9"/>
     </row>
     <row r="168">
-      <c r="A168" s="7"/>
+      <c r="A168" s="9"/>
     </row>
     <row r="169">
-      <c r="A169" s="7"/>
+      <c r="A169" s="9"/>
     </row>
     <row r="170">
-      <c r="A170" s="7"/>
+      <c r="A170" s="9"/>
     </row>
     <row r="171">
-      <c r="A171" s="7"/>
+      <c r="A171" s="9"/>
     </row>
     <row r="172">
-      <c r="A172" s="7"/>
+      <c r="A172" s="9"/>
     </row>
     <row r="173">
-      <c r="A173" s="7"/>
+      <c r="A173" s="9"/>
     </row>
     <row r="174">
-      <c r="A174" s="7"/>
+      <c r="A174" s="9"/>
     </row>
     <row r="175">
-      <c r="A175" s="7"/>
+      <c r="A175" s="9"/>
     </row>
     <row r="176">
-      <c r="A176" s="7"/>
+      <c r="A176" s="9"/>
     </row>
     <row r="177">
-      <c r="A177" s="7"/>
+      <c r="A177" s="9"/>
     </row>
     <row r="178">
-      <c r="A178" s="7"/>
+      <c r="A178" s="9"/>
     </row>
     <row r="179">
-      <c r="A179" s="7"/>
+      <c r="A179" s="9"/>
     </row>
     <row r="180">
-      <c r="A180" s="7"/>
+      <c r="A180" s="9"/>
     </row>
     <row r="181">
-      <c r="A181" s="7"/>
+      <c r="A181" s="9"/>
     </row>
     <row r="182">
-      <c r="A182" s="7"/>
+      <c r="A182" s="9"/>
     </row>
     <row r="183">
-      <c r="A183" s="7"/>
+      <c r="A183" s="9"/>
     </row>
     <row r="184">
-      <c r="A184" s="7"/>
+      <c r="A184" s="9"/>
     </row>
     <row r="185">
-      <c r="A185" s="7"/>
+      <c r="A185" s="9"/>
     </row>
     <row r="186">
-      <c r="A186" s="7"/>
+      <c r="A186" s="9"/>
     </row>
     <row r="187">
-      <c r="A187" s="7"/>
+      <c r="A187" s="9"/>
     </row>
     <row r="188">
-      <c r="A188" s="7"/>
+      <c r="A188" s="9"/>
     </row>
     <row r="189">
-      <c r="A189" s="7"/>
+      <c r="A189" s="9"/>
     </row>
     <row r="190">
-      <c r="A190" s="7"/>
+      <c r="A190" s="9"/>
     </row>
     <row r="191">
-      <c r="A191" s="7"/>
+      <c r="A191" s="9"/>
     </row>
     <row r="192">
-      <c r="A192" s="7"/>
+      <c r="A192" s="9"/>
     </row>
     <row r="193">
-      <c r="A193" s="7"/>
+      <c r="A193" s="9"/>
     </row>
     <row r="194">
-      <c r="A194" s="7"/>
+      <c r="A194" s="9"/>
     </row>
     <row r="195">
-      <c r="A195" s="7"/>
+      <c r="A195" s="9"/>
     </row>
     <row r="196">
-      <c r="A196" s="7"/>
+      <c r="A196" s="9"/>
     </row>
     <row r="197">
-      <c r="A197" s="7"/>
+      <c r="A197" s="9"/>
     </row>
     <row r="198">
-      <c r="A198" s="7"/>
+      <c r="A198" s="9"/>
     </row>
     <row r="199">
-      <c r="A199" s="7"/>
+      <c r="A199" s="9"/>
     </row>
     <row r="200">
-      <c r="A200" s="7"/>
+      <c r="A200" s="9"/>
     </row>
     <row r="201">
-      <c r="A201" s="7"/>
+      <c r="A201" s="9"/>
     </row>
     <row r="202">
-      <c r="A202" s="7"/>
+      <c r="A202" s="9"/>
     </row>
     <row r="203">
-      <c r="A203" s="7"/>
+      <c r="A203" s="9"/>
     </row>
     <row r="204">
-      <c r="A204" s="7"/>
+      <c r="A204" s="9"/>
     </row>
     <row r="205">
-      <c r="A205" s="7"/>
+      <c r="A205" s="9"/>
     </row>
     <row r="206">
-      <c r="A206" s="7"/>
+      <c r="A206" s="9"/>
     </row>
     <row r="207">
-      <c r="A207" s="7"/>
+      <c r="A207" s="9"/>
     </row>
     <row r="208">
-      <c r="A208" s="7"/>
+      <c r="A208" s="9"/>
     </row>
     <row r="209">
-      <c r="A209" s="7"/>
+      <c r="A209" s="9"/>
     </row>
     <row r="210">
-      <c r="A210" s="7"/>
+      <c r="A210" s="9"/>
     </row>
     <row r="211">
-      <c r="A211" s="7"/>
+      <c r="A211" s="9"/>
     </row>
     <row r="212">
-      <c r="A212" s="7"/>
+      <c r="A212" s="9"/>
     </row>
     <row r="213">
-      <c r="A213" s="7"/>
+      <c r="A213" s="9"/>
     </row>
     <row r="214">
-      <c r="A214" s="7"/>
+      <c r="A214" s="9"/>
     </row>
     <row r="215">
-      <c r="A215" s="7"/>
+      <c r="A215" s="9"/>
     </row>
     <row r="216">
-      <c r="A216" s="7"/>
+      <c r="A216" s="9"/>
     </row>
     <row r="217">
-      <c r="A217" s="7"/>
+      <c r="A217" s="9"/>
     </row>
     <row r="218">
-      <c r="A218" s="7"/>
+      <c r="A218" s="9"/>
     </row>
     <row r="219">
-      <c r="A219" s="7"/>
+      <c r="A219" s="9"/>
     </row>
     <row r="220">
-      <c r="A220" s="7"/>
+      <c r="A220" s="9"/>
     </row>
     <row r="221">
-      <c r="A221" s="7"/>
+      <c r="A221" s="9"/>
     </row>
     <row r="222">
-      <c r="A222" s="7"/>
+      <c r="A222" s="9"/>
     </row>
     <row r="223">
-      <c r="A223" s="7"/>
+      <c r="A223" s="9"/>
     </row>
     <row r="224">
-      <c r="A224" s="7"/>
+      <c r="A224" s="9"/>
     </row>
     <row r="225">
-      <c r="A225" s="7"/>
+      <c r="A225" s="9"/>
     </row>
     <row r="226">
-      <c r="A226" s="7"/>
+      <c r="A226" s="9"/>
     </row>
     <row r="227">
-      <c r="A227" s="7"/>
+      <c r="A227" s="9"/>
     </row>
     <row r="228">
-      <c r="A228" s="7"/>
+      <c r="A228" s="9"/>
     </row>
     <row r="229">
-      <c r="A229" s="7"/>
+      <c r="A229" s="9"/>
     </row>
     <row r="230">
-      <c r="A230" s="7"/>
+      <c r="A230" s="9"/>
     </row>
     <row r="231">
-      <c r="A231" s="7"/>
+      <c r="A231" s="9"/>
     </row>
     <row r="232">
-      <c r="A232" s="7"/>
+      <c r="A232" s="9"/>
     </row>
     <row r="233">
-      <c r="A233" s="7"/>
+      <c r="A233" s="9"/>
     </row>
     <row r="234">
-      <c r="A234" s="7"/>
+      <c r="A234" s="9"/>
     </row>
     <row r="235">
-      <c r="A235" s="7"/>
+      <c r="A235" s="9"/>
     </row>
     <row r="236">
-      <c r="A236" s="7"/>
+      <c r="A236" s="9"/>
     </row>
     <row r="237">
-      <c r="A237" s="7"/>
+      <c r="A237" s="9"/>
     </row>
     <row r="238">
-      <c r="A238" s="7"/>
+      <c r="A238" s="9"/>
     </row>
     <row r="239">
-      <c r="A239" s="7"/>
+      <c r="A239" s="9"/>
     </row>
     <row r="240">
-      <c r="A240" s="7"/>
+      <c r="A240" s="9"/>
     </row>
     <row r="241">
-      <c r="A241" s="7"/>
+      <c r="A241" s="9"/>
     </row>
     <row r="242">
-      <c r="A242" s="7"/>
+      <c r="A242" s="9"/>
     </row>
     <row r="243">
-      <c r="A243" s="7"/>
+      <c r="A243" s="9"/>
     </row>
     <row r="244">
-      <c r="A244" s="7"/>
+      <c r="A244" s="9"/>
     </row>
     <row r="245">
-      <c r="A245" s="7"/>
+      <c r="A245" s="9"/>
     </row>
     <row r="246">
-      <c r="A246" s="7"/>
+      <c r="A246" s="9"/>
     </row>
     <row r="247">
-      <c r="A247" s="7"/>
+      <c r="A247" s="9"/>
     </row>
     <row r="248">
-      <c r="A248" s="7"/>
+      <c r="A248" s="9"/>
     </row>
     <row r="249">
-      <c r="A249" s="7"/>
+      <c r="A249" s="9"/>
     </row>
     <row r="250">
-      <c r="A250" s="7"/>
+      <c r="A250" s="9"/>
     </row>
     <row r="251">
-      <c r="A251" s="7"/>
+      <c r="A251" s="9"/>
     </row>
     <row r="252">
-      <c r="A252" s="7"/>
+      <c r="A252" s="9"/>
     </row>
     <row r="253">
-      <c r="A253" s="7"/>
+      <c r="A253" s="9"/>
     </row>
     <row r="254">
-      <c r="A254" s="7"/>
+      <c r="A254" s="9"/>
     </row>
     <row r="255">
-      <c r="A255" s="7"/>
+      <c r="A255" s="9"/>
     </row>
     <row r="256">
-      <c r="A256" s="7"/>
+      <c r="A256" s="9"/>
     </row>
     <row r="257">
-      <c r="A257" s="7"/>
+      <c r="A257" s="9"/>
     </row>
     <row r="258">
-      <c r="A258" s="7"/>
+      <c r="A258" s="9"/>
     </row>
     <row r="259">
-      <c r="A259" s="7"/>
+      <c r="A259" s="9"/>
     </row>
     <row r="260">
-      <c r="A260" s="7"/>
+      <c r="A260" s="9"/>
     </row>
     <row r="261">
-      <c r="A261" s="7"/>
+      <c r="A261" s="9"/>
     </row>
     <row r="262">
-      <c r="A262" s="7"/>
+      <c r="A262" s="9"/>
     </row>
     <row r="263">
-      <c r="A263" s="7"/>
+      <c r="A263" s="9"/>
     </row>
     <row r="264">
-      <c r="A264" s="7"/>
+      <c r="A264" s="9"/>
     </row>
     <row r="265">
-      <c r="A265" s="7"/>
+      <c r="A265" s="9"/>
     </row>
     <row r="266">
-      <c r="A266" s="7"/>
+      <c r="A266" s="9"/>
     </row>
     <row r="267">
-      <c r="A267" s="7"/>
+      <c r="A267" s="9"/>
     </row>
     <row r="268">
-      <c r="A268" s="7"/>
+      <c r="A268" s="9"/>
     </row>
     <row r="269">
-      <c r="A269" s="7"/>
+      <c r="A269" s="9"/>
     </row>
     <row r="270">
-      <c r="A270" s="7"/>
+      <c r="A270" s="9"/>
     </row>
     <row r="271">
-      <c r="A271" s="7"/>
+      <c r="A271" s="9"/>
     </row>
     <row r="272">
-      <c r="A272" s="7"/>
+      <c r="A272" s="9"/>
     </row>
     <row r="273">
-      <c r="A273" s="7"/>
+      <c r="A273" s="9"/>
     </row>
     <row r="274">
-      <c r="A274" s="7"/>
+      <c r="A274" s="9"/>
     </row>
     <row r="275">
-      <c r="A275" s="7"/>
+      <c r="A275" s="9"/>
     </row>
     <row r="276">
-      <c r="A276" s="7"/>
+      <c r="A276" s="9"/>
     </row>
     <row r="277">
-      <c r="A277" s="7"/>
+      <c r="A277" s="9"/>
     </row>
     <row r="278">
-      <c r="A278" s="7"/>
+      <c r="A278" s="9"/>
     </row>
     <row r="279">
-      <c r="A279" s="7"/>
+      <c r="A279" s="9"/>
     </row>
     <row r="280">
-      <c r="A280" s="7"/>
+      <c r="A280" s="9"/>
     </row>
     <row r="281">
-      <c r="A281" s="7"/>
+      <c r="A281" s="9"/>
     </row>
     <row r="282">
-      <c r="A282" s="7"/>
+      <c r="A282" s="9"/>
     </row>
     <row r="283">
-      <c r="A283" s="7"/>
+      <c r="A283" s="9"/>
     </row>
     <row r="284">
-      <c r="A284" s="7"/>
+      <c r="A284" s="9"/>
     </row>
     <row r="285">
-      <c r="A285" s="7"/>
+      <c r="A285" s="9"/>
     </row>
     <row r="286">
-      <c r="A286" s="7"/>
+      <c r="A286" s="9"/>
     </row>
     <row r="287">
-      <c r="A287" s="7"/>
+      <c r="A287" s="9"/>
     </row>
     <row r="288">
-      <c r="A288" s="7"/>
+      <c r="A288" s="9"/>
     </row>
     <row r="289">
-      <c r="A289" s="7"/>
+      <c r="A289" s="9"/>
     </row>
     <row r="290">
-      <c r="A290" s="7"/>
+      <c r="A290" s="9"/>
     </row>
     <row r="291">
-      <c r="A291" s="7"/>
+      <c r="A291" s="9"/>
     </row>
     <row r="292">
-      <c r="A292" s="7"/>
+      <c r="A292" s="9"/>
     </row>
     <row r="293">
-      <c r="A293" s="7"/>
+      <c r="A293" s="9"/>
     </row>
     <row r="294">
-      <c r="A294" s="7"/>
+      <c r="A294" s="9"/>
     </row>
     <row r="295">
-      <c r="A295" s="7"/>
+      <c r="A295" s="9"/>
     </row>
     <row r="296">
-      <c r="A296" s="7"/>
+      <c r="A296" s="9"/>
     </row>
     <row r="297">
-      <c r="A297" s="7"/>
+      <c r="A297" s="9"/>
     </row>
     <row r="298">
-      <c r="A298" s="7"/>
+      <c r="A298" s="9"/>
     </row>
     <row r="299">
-      <c r="A299" s="7"/>
+      <c r="A299" s="9"/>
     </row>
     <row r="300">
-      <c r="A300" s="7"/>
+      <c r="A300" s="9"/>
     </row>
     <row r="301">
-      <c r="A301" s="7"/>
+      <c r="A301" s="9"/>
     </row>
     <row r="302">
-      <c r="A302" s="7"/>
+      <c r="A302" s="9"/>
     </row>
     <row r="303">
-      <c r="A303" s="7"/>
+      <c r="A303" s="9"/>
     </row>
     <row r="304">
-      <c r="A304" s="7"/>
+      <c r="A304" s="9"/>
     </row>
     <row r="305">
-      <c r="A305" s="7"/>
+      <c r="A305" s="9"/>
     </row>
     <row r="306">
-      <c r="A306" s="7"/>
+      <c r="A306" s="9"/>
     </row>
     <row r="307">
-      <c r="A307" s="7"/>
+      <c r="A307" s="9"/>
     </row>
     <row r="308">
-      <c r="A308" s="7"/>
+      <c r="A308" s="9"/>
     </row>
     <row r="309">
-      <c r="A309" s="7"/>
+      <c r="A309" s="9"/>
     </row>
     <row r="310">
-      <c r="A310" s="7"/>
+      <c r="A310" s="9"/>
     </row>
     <row r="311">
-      <c r="A311" s="7"/>
+      <c r="A311" s="9"/>
     </row>
     <row r="312">
-      <c r="A312" s="7"/>
+      <c r="A312" s="9"/>
     </row>
     <row r="313">
-      <c r="A313" s="7"/>
+      <c r="A313" s="9"/>
     </row>
     <row r="314">
-      <c r="A314" s="7"/>
+      <c r="A314" s="9"/>
     </row>
     <row r="315">
-      <c r="A315" s="7"/>
+      <c r="A315" s="9"/>
     </row>
     <row r="316">
-      <c r="A316" s="7"/>
+      <c r="A316" s="9"/>
     </row>
     <row r="317">
-      <c r="A317" s="7"/>
+      <c r="A317" s="9"/>
     </row>
     <row r="318">
-      <c r="A318" s="7"/>
+      <c r="A318" s="9"/>
     </row>
     <row r="319">
-      <c r="A319" s="7"/>
+      <c r="A319" s="9"/>
     </row>
     <row r="320">
-      <c r="A320" s="7"/>
+      <c r="A320" s="9"/>
     </row>
     <row r="321">
-      <c r="A321" s="7"/>
+      <c r="A321" s="9"/>
     </row>
     <row r="322">
-      <c r="A322" s="7"/>
+      <c r="A322" s="9"/>
     </row>
     <row r="323">
-      <c r="A323" s="7"/>
+      <c r="A323" s="9"/>
     </row>
     <row r="324">
-      <c r="A324" s="7"/>
+      <c r="A324" s="9"/>
     </row>
     <row r="325">
-      <c r="A325" s="7"/>
+      <c r="A325" s="9"/>
     </row>
     <row r="326">
-      <c r="A326" s="7"/>
+      <c r="A326" s="9"/>
     </row>
     <row r="327">
-      <c r="A327" s="7"/>
+      <c r="A327" s="9"/>
     </row>
     <row r="328">
-      <c r="A328" s="7"/>
+      <c r="A328" s="9"/>
     </row>
     <row r="329">
-      <c r="A329" s="7"/>
+      <c r="A329" s="9"/>
     </row>
     <row r="330">
-      <c r="A330" s="7"/>
+      <c r="A330" s="9"/>
     </row>
     <row r="331">
-      <c r="A331" s="7"/>
+      <c r="A331" s="9"/>
     </row>
     <row r="332">
-      <c r="A332" s="7"/>
+      <c r="A332" s="9"/>
     </row>
     <row r="333">
-      <c r="A333" s="7"/>
+      <c r="A333" s="9"/>
     </row>
     <row r="334">
-      <c r="A334" s="7"/>
+      <c r="A334" s="9"/>
     </row>
     <row r="335">
-      <c r="A335" s="7"/>
+      <c r="A335" s="9"/>
     </row>
     <row r="336">
-      <c r="A336" s="7"/>
+      <c r="A336" s="9"/>
     </row>
     <row r="337">
-      <c r="A337" s="7"/>
+      <c r="A337" s="9"/>
     </row>
     <row r="338">
-      <c r="A338" s="7"/>
+      <c r="A338" s="9"/>
     </row>
     <row r="339">
-      <c r="A339" s="7"/>
+      <c r="A339" s="9"/>
     </row>
     <row r="340">
-      <c r="A340" s="7"/>
+      <c r="A340" s="9"/>
     </row>
     <row r="341">
-      <c r="A341" s="7"/>
+      <c r="A341" s="9"/>
     </row>
     <row r="342">
-      <c r="A342" s="7"/>
+      <c r="A342" s="9"/>
     </row>
     <row r="343">
-      <c r="A343" s="7"/>
+      <c r="A343" s="9"/>
     </row>
     <row r="344">
-      <c r="A344" s="7"/>
+      <c r="A344" s="9"/>
     </row>
     <row r="345">
-      <c r="A345" s="7"/>
+      <c r="A345" s="9"/>
     </row>
     <row r="346">
-      <c r="A346" s="7"/>
+      <c r="A346" s="9"/>
     </row>
     <row r="347">
-      <c r="A347" s="7"/>
+      <c r="A347" s="9"/>
     </row>
     <row r="348">
-      <c r="A348" s="7"/>
+      <c r="A348" s="9"/>
     </row>
     <row r="349">
-      <c r="A349" s="7"/>
+      <c r="A349" s="9"/>
     </row>
     <row r="350">
-      <c r="A350" s="7"/>
+      <c r="A350" s="9"/>
     </row>
     <row r="351">
-      <c r="A351" s="7"/>
+      <c r="A351" s="9"/>
     </row>
     <row r="352">
-      <c r="A352" s="7"/>
+      <c r="A352" s="9"/>
     </row>
     <row r="353">
-      <c r="A353" s="7"/>
+      <c r="A353" s="9"/>
     </row>
     <row r="354">
-      <c r="A354" s="7"/>
+      <c r="A354" s="9"/>
     </row>
     <row r="355">
-      <c r="A355" s="7"/>
+      <c r="A355" s="9"/>
     </row>
     <row r="356">
-      <c r="A356" s="7"/>
+      <c r="A356" s="9"/>
     </row>
     <row r="357">
-      <c r="A357" s="7"/>
+      <c r="A357" s="9"/>
     </row>
     <row r="358">
-      <c r="A358" s="7"/>
+      <c r="A358" s="9"/>
     </row>
     <row r="359">
-      <c r="A359" s="7"/>
+      <c r="A359" s="9"/>
     </row>
     <row r="360">
-      <c r="A360" s="7"/>
+      <c r="A360" s="9"/>
     </row>
     <row r="361">
-      <c r="A361" s="7"/>
+      <c r="A361" s="9"/>
     </row>
     <row r="362">
-      <c r="A362" s="7"/>
+      <c r="A362" s="9"/>
     </row>
     <row r="363">
-      <c r="A363" s="7"/>
+      <c r="A363" s="9"/>
     </row>
     <row r="364">
-      <c r="A364" s="7"/>
+      <c r="A364" s="9"/>
     </row>
     <row r="365">
-      <c r="A365" s="7"/>
+      <c r="A365" s="9"/>
     </row>
     <row r="366">
-      <c r="A366" s="7"/>
+      <c r="A366" s="9"/>
     </row>
     <row r="367">
-      <c r="A367" s="7"/>
+      <c r="A367" s="9"/>
     </row>
     <row r="368">
-      <c r="A368" s="7"/>
+      <c r="A368" s="9"/>
     </row>
     <row r="369">
-      <c r="A369" s="7"/>
+      <c r="A369" s="9"/>
     </row>
     <row r="370">
-      <c r="A370" s="7"/>
+      <c r="A370" s="9"/>
     </row>
     <row r="371">
-      <c r="A371" s="7"/>
+      <c r="A371" s="9"/>
     </row>
     <row r="372">
-      <c r="A372" s="7"/>
+      <c r="A372" s="9"/>
     </row>
     <row r="373">
-      <c r="A373" s="7"/>
+      <c r="A373" s="9"/>
     </row>
     <row r="374">
-      <c r="A374" s="7"/>
+      <c r="A374" s="9"/>
     </row>
     <row r="375">
-      <c r="A375" s="7"/>
+      <c r="A375" s="9"/>
     </row>
     <row r="376">
-      <c r="A376" s="7"/>
+      <c r="A376" s="9"/>
     </row>
     <row r="377">
-      <c r="A377" s="7"/>
+      <c r="A377" s="9"/>
     </row>
     <row r="378">
-      <c r="A378" s="7"/>
+      <c r="A378" s="9"/>
     </row>
     <row r="379">
-      <c r="A379" s="7"/>
+      <c r="A379" s="9"/>
     </row>
     <row r="380">
-      <c r="A380" s="7"/>
+      <c r="A380" s="9"/>
     </row>
     <row r="381">
-      <c r="A381" s="7"/>
+      <c r="A381" s="9"/>
     </row>
     <row r="382">
-      <c r="A382" s="7"/>
+      <c r="A382" s="9"/>
     </row>
     <row r="383">
-      <c r="A383" s="7"/>
+      <c r="A383" s="9"/>
     </row>
     <row r="384">
-      <c r="A384" s="7"/>
+      <c r="A384" s="9"/>
     </row>
     <row r="385">
-      <c r="A385" s="7"/>
+      <c r="A385" s="9"/>
     </row>
     <row r="386">
-      <c r="A386" s="7"/>
+      <c r="A386" s="9"/>
     </row>
     <row r="387">
-      <c r="A387" s="7"/>
+      <c r="A387" s="9"/>
     </row>
     <row r="388">
-      <c r="A388" s="7"/>
+      <c r="A388" s="9"/>
     </row>
     <row r="389">
-      <c r="A389" s="7"/>
+      <c r="A389" s="9"/>
     </row>
     <row r="390">
-      <c r="A390" s="7"/>
+      <c r="A390" s="9"/>
     </row>
     <row r="391">
-      <c r="A391" s="7"/>
+      <c r="A391" s="9"/>
     </row>
     <row r="392">
-      <c r="A392" s="7"/>
+      <c r="A392" s="9"/>
     </row>
     <row r="393">
-      <c r="A393" s="7"/>
+      <c r="A393" s="9"/>
     </row>
     <row r="394">
-      <c r="A394" s="7"/>
+      <c r="A394" s="9"/>
     </row>
     <row r="395">
-      <c r="A395" s="7"/>
+      <c r="A395" s="9"/>
     </row>
     <row r="396">
-      <c r="A396" s="7"/>
+      <c r="A396" s="9"/>
     </row>
     <row r="397">
-      <c r="A397" s="7"/>
+      <c r="A397" s="9"/>
     </row>
     <row r="398">
-      <c r="A398" s="7"/>
+      <c r="A398" s="9"/>
     </row>
     <row r="399">
-      <c r="A399" s="7"/>
+      <c r="A399" s="9"/>
     </row>
     <row r="400">
-      <c r="A400" s="7"/>
+      <c r="A400" s="9"/>
     </row>
     <row r="401">
-      <c r="A401" s="7"/>
+      <c r="A401" s="9"/>
     </row>
     <row r="402">
-      <c r="A402" s="7"/>
+      <c r="A402" s="9"/>
     </row>
     <row r="403">
-      <c r="A403" s="7"/>
+      <c r="A403" s="9"/>
     </row>
     <row r="404">
-      <c r="A404" s="7"/>
+      <c r="A404" s="9"/>
     </row>
     <row r="405">
-      <c r="A405" s="7"/>
+      <c r="A405" s="9"/>
     </row>
     <row r="406">
-      <c r="A406" s="7"/>
+      <c r="A406" s="9"/>
     </row>
     <row r="407">
-      <c r="A407" s="7"/>
+      <c r="A407" s="9"/>
     </row>
     <row r="408">
-      <c r="A408" s="7"/>
+      <c r="A408" s="9"/>
     </row>
     <row r="409">
-      <c r="A409" s="7"/>
+      <c r="A409" s="9"/>
     </row>
     <row r="410">
-      <c r="A410" s="7"/>
+      <c r="A410" s="9"/>
     </row>
     <row r="411">
-      <c r="A411" s="7"/>
+      <c r="A411" s="9"/>
     </row>
     <row r="412">
-      <c r="A412" s="7"/>
+      <c r="A412" s="9"/>
     </row>
     <row r="413">
-      <c r="A413" s="7"/>
+      <c r="A413" s="9"/>
     </row>
     <row r="414">
-      <c r="A414" s="7"/>
+      <c r="A414" s="9"/>
     </row>
     <row r="415">
-      <c r="A415" s="7"/>
+      <c r="A415" s="9"/>
     </row>
     <row r="416">
-      <c r="A416" s="7"/>
+      <c r="A416" s="9"/>
     </row>
     <row r="417">
-      <c r="A417" s="7"/>
+      <c r="A417" s="9"/>
     </row>
     <row r="418">
-      <c r="A418" s="7"/>
+      <c r="A418" s="9"/>
     </row>
     <row r="419">
-      <c r="A419" s="7"/>
+      <c r="A419" s="9"/>
     </row>
     <row r="420">
-      <c r="A420" s="7"/>
+      <c r="A420" s="9"/>
     </row>
     <row r="421">
-      <c r="A421" s="7"/>
+      <c r="A421" s="9"/>
     </row>
     <row r="422">
-      <c r="A422" s="7"/>
+      <c r="A422" s="9"/>
     </row>
     <row r="423">
-      <c r="A423" s="7"/>
+      <c r="A423" s="9"/>
     </row>
     <row r="424">
-      <c r="A424" s="7"/>
+      <c r="A424" s="9"/>
     </row>
     <row r="425">
-      <c r="A425" s="7"/>
+      <c r="A425" s="9"/>
     </row>
     <row r="426">
-      <c r="A426" s="7"/>
+      <c r="A426" s="9"/>
     </row>
     <row r="427">
-      <c r="A427" s="7"/>
+      <c r="A427" s="9"/>
     </row>
     <row r="428">
-      <c r="A428" s="7"/>
+      <c r="A428" s="9"/>
     </row>
     <row r="429">
-      <c r="A429" s="7"/>
+      <c r="A429" s="9"/>
     </row>
     <row r="430">
-      <c r="A430" s="7"/>
+      <c r="A430" s="9"/>
     </row>
     <row r="431">
-      <c r="A431" s="7"/>
+      <c r="A431" s="9"/>
     </row>
     <row r="432">
-      <c r="A432" s="7"/>
+      <c r="A432" s="9"/>
     </row>
     <row r="433">
-      <c r="A433" s="7"/>
+      <c r="A433" s="9"/>
     </row>
     <row r="434">
-      <c r="A434" s="7"/>
+      <c r="A434" s="9"/>
     </row>
     <row r="435">
-      <c r="A435" s="7"/>
+      <c r="A435" s="9"/>
     </row>
     <row r="436">
-      <c r="A436" s="7"/>
+      <c r="A436" s="9"/>
     </row>
     <row r="437">
-      <c r="A437" s="7"/>
+      <c r="A437" s="9"/>
     </row>
     <row r="438">
-      <c r="A438" s="7"/>
+      <c r="A438" s="9"/>
     </row>
     <row r="439">
-      <c r="A439" s="7"/>
+      <c r="A439" s="9"/>
     </row>
     <row r="440">
-      <c r="A440" s="7"/>
+      <c r="A440" s="9"/>
     </row>
     <row r="441">
-      <c r="A441" s="7"/>
+      <c r="A441" s="9"/>
     </row>
     <row r="442">
-      <c r="A442" s="7"/>
+      <c r="A442" s="9"/>
     </row>
     <row r="443">
-      <c r="A443" s="7"/>
+      <c r="A443" s="9"/>
     </row>
     <row r="444">
-      <c r="A444" s="7"/>
+      <c r="A444" s="9"/>
     </row>
     <row r="445">
-      <c r="A445" s="7"/>
+      <c r="A445" s="9"/>
     </row>
     <row r="446">
-      <c r="A446" s="7"/>
+      <c r="A446" s="9"/>
     </row>
     <row r="447">
-      <c r="A447" s="7"/>
+      <c r="A447" s="9"/>
     </row>
     <row r="448">
-      <c r="A448" s="7"/>
+      <c r="A448" s="9"/>
     </row>
     <row r="449">
-      <c r="A449" s="7"/>
+      <c r="A449" s="9"/>
     </row>
     <row r="450">
-      <c r="A450" s="7"/>
+      <c r="A450" s="9"/>
     </row>
     <row r="451">
-      <c r="A451" s="7"/>
+      <c r="A451" s="9"/>
     </row>
     <row r="452">
-      <c r="A452" s="7"/>
+      <c r="A452" s="9"/>
     </row>
     <row r="453">
-      <c r="A453" s="7"/>
+      <c r="A453" s="9"/>
     </row>
     <row r="454">
-      <c r="A454" s="7"/>
+      <c r="A454" s="9"/>
     </row>
     <row r="455">
-      <c r="A455" s="7"/>
+      <c r="A455" s="9"/>
     </row>
     <row r="456">
-      <c r="A456" s="7"/>
+      <c r="A456" s="9"/>
     </row>
     <row r="457">
-      <c r="A457" s="7"/>
+      <c r="A457" s="9"/>
     </row>
     <row r="458">
-      <c r="A458" s="7"/>
+      <c r="A458" s="9"/>
     </row>
     <row r="459">
-      <c r="A459" s="7"/>
+      <c r="A459" s="9"/>
     </row>
     <row r="460">
-      <c r="A460" s="7"/>
+      <c r="A460" s="9"/>
     </row>
     <row r="461">
-      <c r="A461" s="7"/>
+      <c r="A461" s="9"/>
     </row>
     <row r="462">
-      <c r="A462" s="7"/>
+      <c r="A462" s="9"/>
     </row>
     <row r="463">
-      <c r="A463" s="7"/>
+      <c r="A463" s="9"/>
     </row>
     <row r="464">
-      <c r="A464" s="7"/>
+      <c r="A464" s="9"/>
     </row>
     <row r="465">
-      <c r="A465" s="7"/>
+      <c r="A465" s="9"/>
     </row>
     <row r="466">
-      <c r="A466" s="7"/>
+      <c r="A466" s="9"/>
     </row>
     <row r="467">
-      <c r="A467" s="7"/>
+      <c r="A467" s="9"/>
     </row>
     <row r="468">
-      <c r="A468" s="7"/>
+      <c r="A468" s="9"/>
     </row>
     <row r="469">
-      <c r="A469" s="7"/>
+      <c r="A469" s="9"/>
     </row>
     <row r="470">
-      <c r="A470" s="7"/>
+      <c r="A470" s="9"/>
     </row>
     <row r="471">
-      <c r="A471" s="7"/>
+      <c r="A471" s="9"/>
     </row>
     <row r="472">
-      <c r="A472" s="7"/>
+      <c r="A472" s="9"/>
     </row>
     <row r="473">
-      <c r="A473" s="7"/>
+      <c r="A473" s="9"/>
     </row>
     <row r="474">
-      <c r="A474" s="7"/>
+      <c r="A474" s="9"/>
     </row>
     <row r="475">
-      <c r="A475" s="7"/>
+      <c r="A475" s="9"/>
     </row>
     <row r="476">
-      <c r="A476" s="7"/>
+      <c r="A476" s="9"/>
     </row>
     <row r="477">
-      <c r="A477" s="7"/>
+      <c r="A477" s="9"/>
     </row>
     <row r="478">
-      <c r="A478" s="7"/>
+      <c r="A478" s="9"/>
     </row>
     <row r="479">
-      <c r="A479" s="7"/>
+      <c r="A479" s="9"/>
     </row>
     <row r="480">
-      <c r="A480" s="7"/>
+      <c r="A480" s="9"/>
     </row>
     <row r="481">
-      <c r="A481" s="7"/>
+      <c r="A481" s="9"/>
     </row>
     <row r="482">
-      <c r="A482" s="7"/>
+      <c r="A482" s="9"/>
     </row>
     <row r="483">
-      <c r="A483" s="7"/>
+      <c r="A483" s="9"/>
     </row>
     <row r="484">
-      <c r="A484" s="7"/>
+      <c r="A484" s="9"/>
     </row>
     <row r="485">
-      <c r="A485" s="7"/>
+      <c r="A485" s="9"/>
     </row>
     <row r="486">
-      <c r="A486" s="7"/>
+      <c r="A486" s="9"/>
     </row>
     <row r="487">
-      <c r="A487" s="7"/>
+      <c r="A487" s="9"/>
     </row>
     <row r="488">
-      <c r="A488" s="7"/>
+      <c r="A488" s="9"/>
     </row>
     <row r="489">
-      <c r="A489" s="7"/>
+      <c r="A489" s="9"/>
     </row>
     <row r="490">
-      <c r="A490" s="7"/>
+      <c r="A490" s="9"/>
     </row>
     <row r="491">
-      <c r="A491" s="7"/>
+      <c r="A491" s="9"/>
     </row>
     <row r="492">
-      <c r="A492" s="7"/>
+      <c r="A492" s="9"/>
     </row>
     <row r="493">
-      <c r="A493" s="7"/>
+      <c r="A493" s="9"/>
     </row>
     <row r="494">
-      <c r="A494" s="7"/>
+      <c r="A494" s="9"/>
     </row>
     <row r="495">
-      <c r="A495" s="7"/>
+      <c r="A495" s="9"/>
     </row>
     <row r="496">
-      <c r="A496" s="7"/>
+      <c r="A496" s="9"/>
     </row>
     <row r="497">
-      <c r="A497" s="7"/>
+      <c r="A497" s="9"/>
     </row>
     <row r="498">
-      <c r="A498" s="7"/>
+      <c r="A498" s="9"/>
     </row>
     <row r="499">
-      <c r="A499" s="7"/>
+      <c r="A499" s="9"/>
     </row>
     <row r="500">
-      <c r="A500" s="7"/>
+      <c r="A500" s="9"/>
     </row>
     <row r="501">
-      <c r="A501" s="7"/>
+      <c r="A501" s="9"/>
     </row>
     <row r="502">
-      <c r="A502" s="7"/>
+      <c r="A502" s="9"/>
     </row>
     <row r="503">
-      <c r="A503" s="7"/>
+      <c r="A503" s="9"/>
     </row>
     <row r="504">
-      <c r="A504" s="7"/>
+      <c r="A504" s="9"/>
     </row>
     <row r="505">
-      <c r="A505" s="7"/>
+      <c r="A505" s="9"/>
     </row>
     <row r="506">
-      <c r="A506" s="7"/>
+      <c r="A506" s="9"/>
     </row>
     <row r="507">
-      <c r="A507" s="7"/>
+      <c r="A507" s="9"/>
     </row>
     <row r="508">
-      <c r="A508" s="7"/>
+      <c r="A508" s="9"/>
     </row>
     <row r="509">
-      <c r="A509" s="7"/>
+      <c r="A509" s="9"/>
     </row>
     <row r="510">
-      <c r="A510" s="7"/>
+      <c r="A510" s="9"/>
     </row>
     <row r="511">
-      <c r="A511" s="7"/>
+      <c r="A511" s="9"/>
     </row>
     <row r="512">
-      <c r="A512" s="7"/>
+      <c r="A512" s="9"/>
     </row>
     <row r="513">
-      <c r="A513" s="7"/>
+      <c r="A513" s="9"/>
     </row>
     <row r="514">
-      <c r="A514" s="7"/>
+      <c r="A514" s="9"/>
     </row>
     <row r="515">
-      <c r="A515" s="7"/>
+      <c r="A515" s="9"/>
     </row>
     <row r="516">
-      <c r="A516" s="7"/>
+      <c r="A516" s="9"/>
     </row>
     <row r="517">
-      <c r="A517" s="7"/>
+      <c r="A517" s="9"/>
     </row>
     <row r="518">
-      <c r="A518" s="7"/>
+      <c r="A518" s="9"/>
     </row>
     <row r="519">
-      <c r="A519" s="7"/>
+      <c r="A519" s="9"/>
     </row>
     <row r="520">
-      <c r="A520" s="7"/>
+      <c r="A520" s="9"/>
     </row>
     <row r="521">
-      <c r="A521" s="7"/>
+      <c r="A521" s="9"/>
     </row>
     <row r="522">
-      <c r="A522" s="7"/>
+      <c r="A522" s="9"/>
     </row>
     <row r="523">
-      <c r="A523" s="7"/>
+      <c r="A523" s="9"/>
     </row>
     <row r="524">
-      <c r="A524" s="7"/>
+      <c r="A524" s="9"/>
     </row>
     <row r="525">
-      <c r="A525" s="7"/>
+      <c r="A525" s="9"/>
     </row>
     <row r="526">
-      <c r="A526" s="7"/>
+      <c r="A526" s="9"/>
     </row>
     <row r="527">
-      <c r="A527" s="7"/>
+      <c r="A527" s="9"/>
     </row>
     <row r="528">
-      <c r="A528" s="7"/>
+      <c r="A528" s="9"/>
     </row>
     <row r="529">
-      <c r="A529" s="7"/>
+      <c r="A529" s="9"/>
     </row>
     <row r="530">
-      <c r="A530" s="7"/>
+      <c r="A530" s="9"/>
     </row>
     <row r="531">
-      <c r="A531" s="7"/>
+      <c r="A531" s="9"/>
     </row>
     <row r="532">
-      <c r="A532" s="7"/>
+      <c r="A532" s="9"/>
     </row>
     <row r="533">
-      <c r="A533" s="7"/>
+      <c r="A533" s="9"/>
     </row>
     <row r="534">
-      <c r="A534" s="7"/>
+      <c r="A534" s="9"/>
     </row>
     <row r="535">
-      <c r="A535" s="7"/>
+      <c r="A535" s="9"/>
     </row>
     <row r="536">
-      <c r="A536" s="7"/>
+      <c r="A536" s="9"/>
     </row>
     <row r="537">
-      <c r="A537" s="7"/>
+      <c r="A537" s="9"/>
     </row>
     <row r="538">
-      <c r="A538" s="7"/>
+      <c r="A538" s="9"/>
     </row>
     <row r="539">
-      <c r="A539" s="7"/>
+      <c r="A539" s="9"/>
     </row>
     <row r="540">
-      <c r="A540" s="7"/>
+      <c r="A540" s="9"/>
     </row>
     <row r="541">
-      <c r="A541" s="7"/>
+      <c r="A541" s="9"/>
     </row>
     <row r="542">
-      <c r="A542" s="7"/>
+      <c r="A542" s="9"/>
     </row>
     <row r="543">
-      <c r="A543" s="7"/>
+      <c r="A543" s="9"/>
     </row>
     <row r="544">
-      <c r="A544" s="7"/>
+      <c r="A544" s="9"/>
     </row>
     <row r="545">
-      <c r="A545" s="7"/>
+      <c r="A545" s="9"/>
     </row>
     <row r="546">
-      <c r="A546" s="7"/>
+      <c r="A546" s="9"/>
     </row>
     <row r="547">
-      <c r="A547" s="7"/>
+      <c r="A547" s="9"/>
     </row>
     <row r="548">
-      <c r="A548" s="7"/>
+      <c r="A548" s="9"/>
     </row>
     <row r="549">
-      <c r="A549" s="7"/>
+      <c r="A549" s="9"/>
     </row>
     <row r="550">
-      <c r="A550" s="7"/>
+      <c r="A550" s="9"/>
     </row>
     <row r="551">
-      <c r="A551" s="7"/>
+      <c r="A551" s="9"/>
     </row>
     <row r="552">
-      <c r="A552" s="7"/>
+      <c r="A552" s="9"/>
     </row>
     <row r="553">
-      <c r="A553" s="7"/>
+      <c r="A553" s="9"/>
     </row>
     <row r="554">
-      <c r="A554" s="7"/>
+      <c r="A554" s="9"/>
     </row>
     <row r="555">
-      <c r="A555" s="7"/>
+      <c r="A555" s="9"/>
     </row>
     <row r="556">
-      <c r="A556" s="7"/>
+      <c r="A556" s="9"/>
     </row>
     <row r="557">
-      <c r="A557" s="7"/>
+      <c r="A557" s="9"/>
     </row>
     <row r="558">
-      <c r="A558" s="7"/>
+      <c r="A558" s="9"/>
     </row>
     <row r="559">
-      <c r="A559" s="7"/>
+      <c r="A559" s="9"/>
     </row>
     <row r="560">
-      <c r="A560" s="7"/>
+      <c r="A560" s="9"/>
     </row>
     <row r="561">
-      <c r="A561" s="7"/>
+      <c r="A561" s="9"/>
     </row>
     <row r="562">
-      <c r="A562" s="7"/>
+      <c r="A562" s="9"/>
     </row>
     <row r="563">
-      <c r="A563" s="7"/>
+      <c r="A563" s="9"/>
     </row>
     <row r="564">
-      <c r="A564" s="7"/>
+      <c r="A564" s="9"/>
     </row>
     <row r="565">
-      <c r="A565" s="7"/>
+      <c r="A565" s="9"/>
     </row>
     <row r="566">
-      <c r="A566" s="7"/>
+      <c r="A566" s="9"/>
     </row>
     <row r="567">
-      <c r="A567" s="7"/>
+      <c r="A567" s="9"/>
     </row>
     <row r="568">
-      <c r="A568" s="7"/>
+      <c r="A568" s="9"/>
     </row>
     <row r="569">
-      <c r="A569" s="7"/>
+      <c r="A569" s="9"/>
     </row>
     <row r="570">
-      <c r="A570" s="7"/>
+      <c r="A570" s="9"/>
     </row>
     <row r="571">
-      <c r="A571" s="7"/>
+      <c r="A571" s="9"/>
     </row>
     <row r="572">
-      <c r="A572" s="7"/>
+      <c r="A572" s="9"/>
     </row>
     <row r="573">
-      <c r="A573" s="7"/>
+      <c r="A573" s="9"/>
     </row>
     <row r="574">
-      <c r="A574" s="7"/>
+      <c r="A574" s="9"/>
     </row>
     <row r="575">
-      <c r="A575" s="7"/>
+      <c r="A575" s="9"/>
     </row>
     <row r="576">
-      <c r="A576" s="7"/>
+      <c r="A576" s="9"/>
     </row>
     <row r="577">
-      <c r="A577" s="7"/>
+      <c r="A577" s="9"/>
     </row>
     <row r="578">
-      <c r="A578" s="7"/>
+      <c r="A578" s="9"/>
     </row>
     <row r="579">
-      <c r="A579" s="7"/>
+      <c r="A579" s="9"/>
     </row>
     <row r="580">
-      <c r="A580" s="7"/>
+      <c r="A580" s="9"/>
     </row>
     <row r="581">
-      <c r="A581" s="7"/>
+      <c r="A581" s="9"/>
     </row>
     <row r="582">
-      <c r="A582" s="7"/>
+      <c r="A582" s="9"/>
     </row>
     <row r="583">
-      <c r="A583" s="7"/>
+      <c r="A583" s="9"/>
     </row>
     <row r="584">
-      <c r="A584" s="7"/>
+      <c r="A584" s="9"/>
     </row>
     <row r="585">
-      <c r="A585" s="7"/>
+      <c r="A585" s="9"/>
     </row>
     <row r="586">
-      <c r="A586" s="7"/>
+      <c r="A586" s="9"/>
     </row>
     <row r="587">
-      <c r="A587" s="7"/>
+      <c r="A587" s="9"/>
     </row>
     <row r="588">
-      <c r="A588" s="7"/>
+      <c r="A588" s="9"/>
     </row>
     <row r="589">
-      <c r="A589" s="7"/>
+      <c r="A589" s="9"/>
     </row>
     <row r="590">
-      <c r="A590" s="7"/>
+      <c r="A590" s="9"/>
     </row>
     <row r="591">
-      <c r="A591" s="7"/>
+      <c r="A591" s="9"/>
     </row>
     <row r="592">
-      <c r="A592" s="7"/>
+      <c r="A592" s="9"/>
     </row>
     <row r="593">
-      <c r="A593" s="7"/>
+      <c r="A593" s="9"/>
     </row>
     <row r="594">
-      <c r="A594" s="7"/>
+      <c r="A594" s="9"/>
     </row>
     <row r="595">
-      <c r="A595" s="7"/>
+      <c r="A595" s="9"/>
     </row>
     <row r="596">
-      <c r="A596" s="7"/>
+      <c r="A596" s="9"/>
     </row>
     <row r="597">
-      <c r="A597" s="7"/>
+      <c r="A597" s="9"/>
     </row>
     <row r="598">
-      <c r="A598" s="7"/>
+      <c r="A598" s="9"/>
     </row>
     <row r="599">
-      <c r="A599" s="7"/>
+      <c r="A599" s="9"/>
     </row>
     <row r="600">
-      <c r="A600" s="7"/>
+      <c r="A600" s="9"/>
     </row>
     <row r="601">
-      <c r="A601" s="7"/>
+      <c r="A601" s="9"/>
     </row>
     <row r="602">
-      <c r="A602" s="7"/>
+      <c r="A602" s="9"/>
     </row>
     <row r="603">
-      <c r="A603" s="7"/>
+      <c r="A603" s="9"/>
     </row>
     <row r="604">
-      <c r="A604" s="7"/>
+      <c r="A604" s="9"/>
     </row>
     <row r="605">
-      <c r="A605" s="7"/>
+      <c r="A605" s="9"/>
     </row>
     <row r="606">
-      <c r="A606" s="7"/>
+      <c r="A606" s="9"/>
     </row>
     <row r="607">
-      <c r="A607" s="7"/>
+      <c r="A607" s="9"/>
     </row>
     <row r="608">
-      <c r="A608" s="7"/>
+      <c r="A608" s="9"/>
     </row>
     <row r="609">
-      <c r="A609" s="7"/>
+      <c r="A609" s="9"/>
     </row>
     <row r="610">
-      <c r="A610" s="7"/>
+      <c r="A610" s="9"/>
     </row>
     <row r="611">
-      <c r="A611" s="7"/>
+      <c r="A611" s="9"/>
     </row>
     <row r="612">
-      <c r="A612" s="7"/>
+      <c r="A612" s="9"/>
     </row>
     <row r="613">
-      <c r="A613" s="7"/>
+      <c r="A613" s="9"/>
     </row>
     <row r="614">
-      <c r="A614" s="7"/>
+      <c r="A614" s="9"/>
     </row>
     <row r="615">
-      <c r="A615" s="7"/>
+      <c r="A615" s="9"/>
     </row>
     <row r="616">
-      <c r="A616" s="7"/>
+      <c r="A616" s="9"/>
     </row>
     <row r="617">
-      <c r="A617" s="7"/>
+      <c r="A617" s="9"/>
     </row>
     <row r="618">
-      <c r="A618" s="7"/>
+      <c r="A618" s="9"/>
     </row>
     <row r="619">
-      <c r="A619" s="7"/>
+      <c r="A619" s="9"/>
     </row>
     <row r="620">
-      <c r="A620" s="7"/>
+      <c r="A620" s="9"/>
     </row>
     <row r="621">
-      <c r="A621" s="7"/>
+      <c r="A621" s="9"/>
     </row>
     <row r="622">
-      <c r="A622" s="7"/>
+      <c r="A622" s="9"/>
     </row>
     <row r="623">
-      <c r="A623" s="7"/>
+      <c r="A623" s="9"/>
     </row>
     <row r="624">
-      <c r="A624" s="7"/>
+      <c r="A624" s="9"/>
     </row>
     <row r="625">
-      <c r="A625" s="7"/>
+      <c r="A625" s="9"/>
     </row>
     <row r="626">
-      <c r="A626" s="7"/>
+      <c r="A626" s="9"/>
     </row>
     <row r="627">
-      <c r="A627" s="7"/>
+      <c r="A627" s="9"/>
     </row>
     <row r="628">
-      <c r="A628" s="7"/>
+      <c r="A628" s="9"/>
     </row>
     <row r="629">
-      <c r="A629" s="7"/>
+      <c r="A629" s="9"/>
     </row>
     <row r="630">
-      <c r="A630" s="7"/>
+      <c r="A630" s="9"/>
     </row>
     <row r="631">
-      <c r="A631" s="7"/>
+      <c r="A631" s="9"/>
     </row>
     <row r="632">
-      <c r="A632" s="7"/>
+      <c r="A632" s="9"/>
     </row>
     <row r="633">
-      <c r="A633" s="7"/>
+      <c r="A633" s="9"/>
     </row>
     <row r="634">
-      <c r="A634" s="7"/>
+      <c r="A634" s="9"/>
     </row>
     <row r="635">
-      <c r="A635" s="7"/>
+      <c r="A635" s="9"/>
     </row>
     <row r="636">
-      <c r="A636" s="7"/>
+      <c r="A636" s="9"/>
     </row>
     <row r="637">
-      <c r="A637" s="7"/>
+      <c r="A637" s="9"/>
     </row>
     <row r="638">
-      <c r="A638" s="7"/>
+      <c r="A638" s="9"/>
     </row>
     <row r="639">
-      <c r="A639" s="7"/>
+      <c r="A639" s="9"/>
     </row>
     <row r="640">
-      <c r="A640" s="7"/>
+      <c r="A640" s="9"/>
     </row>
     <row r="641">
-      <c r="A641" s="7"/>
+      <c r="A641" s="9"/>
     </row>
     <row r="642">
-      <c r="A642" s="7"/>
+      <c r="A642" s="9"/>
     </row>
     <row r="643">
-      <c r="A643" s="7"/>
+      <c r="A643" s="9"/>
     </row>
     <row r="644">
-      <c r="A644" s="7"/>
+      <c r="A644" s="9"/>
     </row>
     <row r="645">
-      <c r="A645" s="7"/>
+      <c r="A645" s="9"/>
     </row>
     <row r="646">
-      <c r="A646" s="7"/>
+      <c r="A646" s="9"/>
     </row>
     <row r="647">
-      <c r="A647" s="7"/>
+      <c r="A647" s="9"/>
     </row>
     <row r="648">
-      <c r="A648" s="7"/>
+      <c r="A648" s="9"/>
     </row>
     <row r="649">
-      <c r="A649" s="7"/>
+      <c r="A649" s="9"/>
     </row>
     <row r="650">
-      <c r="A650" s="7"/>
+      <c r="A650" s="9"/>
     </row>
     <row r="651">
-      <c r="A651" s="7"/>
+      <c r="A651" s="9"/>
     </row>
     <row r="652">
-      <c r="A652" s="7"/>
+      <c r="A652" s="9"/>
     </row>
     <row r="653">
-      <c r="A653" s="7"/>
+      <c r="A653" s="9"/>
     </row>
     <row r="654">
-      <c r="A654" s="7"/>
+      <c r="A654" s="9"/>
     </row>
     <row r="655">
-      <c r="A655" s="7"/>
+      <c r="A655" s="9"/>
     </row>
     <row r="656">
-      <c r="A656" s="7"/>
+      <c r="A656" s="9"/>
     </row>
     <row r="657">
-      <c r="A657" s="7"/>
+      <c r="A657" s="9"/>
     </row>
     <row r="658">
-      <c r="A658" s="7"/>
+      <c r="A658" s="9"/>
     </row>
     <row r="659">
-      <c r="A659" s="7"/>
+      <c r="A659" s="9"/>
     </row>
     <row r="660">
-      <c r="A660" s="7"/>
+      <c r="A660" s="9"/>
     </row>
     <row r="661">
-      <c r="A661" s="7"/>
+      <c r="A661" s="9"/>
     </row>
     <row r="662">
-      <c r="A662" s="7"/>
+      <c r="A662" s="9"/>
     </row>
     <row r="663">
-      <c r="A663" s="7"/>
+      <c r="A663" s="9"/>
     </row>
     <row r="664">
-      <c r="A664" s="7"/>
+      <c r="A664" s="9"/>
     </row>
     <row r="665">
-      <c r="A665" s="7"/>
+      <c r="A665" s="9"/>
     </row>
     <row r="666">
-      <c r="A666" s="7"/>
+      <c r="A666" s="9"/>
     </row>
     <row r="667">
-      <c r="A667" s="7"/>
+      <c r="A667" s="9"/>
     </row>
     <row r="668">
-      <c r="A668" s="7"/>
+      <c r="A668" s="9"/>
     </row>
     <row r="669">
-      <c r="A669" s="7"/>
+      <c r="A669" s="9"/>
     </row>
     <row r="670">
-      <c r="A670" s="7"/>
+      <c r="A670" s="9"/>
     </row>
     <row r="671">
-      <c r="A671" s="7"/>
+      <c r="A671" s="9"/>
     </row>
     <row r="672">
-      <c r="A672" s="7"/>
+      <c r="A672" s="9"/>
     </row>
     <row r="673">
-      <c r="A673" s="7"/>
+      <c r="A673" s="9"/>
     </row>
     <row r="674">
-      <c r="A674" s="7"/>
+      <c r="A674" s="9"/>
     </row>
     <row r="675">
-      <c r="A675" s="7"/>
+      <c r="A675" s="9"/>
     </row>
     <row r="676">
-      <c r="A676" s="7"/>
+      <c r="A676" s="9"/>
     </row>
     <row r="677">
-      <c r="A677" s="7"/>
+      <c r="A677" s="9"/>
     </row>
     <row r="678">
-      <c r="A678" s="7"/>
+      <c r="A678" s="9"/>
     </row>
     <row r="679">
-      <c r="A679" s="7"/>
+      <c r="A679" s="9"/>
     </row>
     <row r="680">
-      <c r="A680" s="7"/>
+      <c r="A680" s="9"/>
     </row>
     <row r="681">
-      <c r="A681" s="7"/>
+      <c r="A681" s="9"/>
     </row>
     <row r="682">
-      <c r="A682" s="7"/>
+      <c r="A682" s="9"/>
     </row>
     <row r="683">
-      <c r="A683" s="7"/>
+      <c r="A683" s="9"/>
     </row>
     <row r="684">
-      <c r="A684" s="7"/>
+      <c r="A684" s="9"/>
     </row>
     <row r="685">
-      <c r="A685" s="7"/>
+      <c r="A685" s="9"/>
     </row>
     <row r="686">
-      <c r="A686" s="7"/>
+      <c r="A686" s="9"/>
     </row>
     <row r="687">
-      <c r="A687" s="7"/>
+      <c r="A687" s="9"/>
     </row>
     <row r="688">
-      <c r="A688" s="7"/>
+      <c r="A688" s="9"/>
     </row>
     <row r="689">
-      <c r="A689" s="7"/>
+      <c r="A689" s="9"/>
     </row>
     <row r="690">
-      <c r="A690" s="7"/>
+      <c r="A690" s="9"/>
     </row>
     <row r="691">
-      <c r="A691" s="7"/>
+      <c r="A691" s="9"/>
     </row>
     <row r="692">
-      <c r="A692" s="7"/>
+      <c r="A692" s="9"/>
     </row>
     <row r="693">
-      <c r="A693" s="7"/>
+      <c r="A693" s="9"/>
     </row>
     <row r="694">
-      <c r="A694" s="7"/>
+      <c r="A694" s="9"/>
     </row>
     <row r="695">
-      <c r="A695" s="7"/>
+      <c r="A695" s="9"/>
     </row>
     <row r="696">
-      <c r="A696" s="7"/>
+      <c r="A696" s="9"/>
     </row>
     <row r="697">
-      <c r="A697" s="7"/>
+      <c r="A697" s="9"/>
     </row>
     <row r="698">
-      <c r="A698" s="7"/>
+      <c r="A698" s="9"/>
     </row>
     <row r="699">
-      <c r="A699" s="7"/>
+      <c r="A699" s="9"/>
     </row>
     <row r="700">
-      <c r="A700" s="7"/>
+      <c r="A700" s="9"/>
     </row>
     <row r="701">
-      <c r="A701" s="7"/>
+      <c r="A701" s="9"/>
     </row>
     <row r="702">
-      <c r="A702" s="7"/>
+      <c r="A702" s="9"/>
     </row>
     <row r="703">
-      <c r="A703" s="7"/>
+      <c r="A703" s="9"/>
     </row>
     <row r="704">
-      <c r="A704" s="7"/>
+      <c r="A704" s="9"/>
     </row>
     <row r="705">
-      <c r="A705" s="7"/>
+      <c r="A705" s="9"/>
     </row>
     <row r="706">
-      <c r="A706" s="7"/>
+      <c r="A706" s="9"/>
     </row>
     <row r="707">
-      <c r="A707" s="7"/>
+      <c r="A707" s="9"/>
     </row>
     <row r="708">
-      <c r="A708" s="7"/>
+      <c r="A708" s="9"/>
     </row>
     <row r="709">
-      <c r="A709" s="7"/>
+      <c r="A709" s="9"/>
     </row>
     <row r="710">
-      <c r="A710" s="7"/>
+      <c r="A710" s="9"/>
     </row>
     <row r="711">
-      <c r="A711" s="7"/>
+      <c r="A711" s="9"/>
     </row>
     <row r="712">
-      <c r="A712" s="7"/>
+      <c r="A712" s="9"/>
     </row>
     <row r="713">
-      <c r="A713" s="7"/>
+      <c r="A713" s="9"/>
     </row>
     <row r="714">
-      <c r="A714" s="7"/>
+      <c r="A714" s="9"/>
     </row>
     <row r="715">
-      <c r="A715" s="7"/>
+      <c r="A715" s="9"/>
     </row>
     <row r="716">
-      <c r="A716" s="7"/>
+      <c r="A716" s="9"/>
     </row>
     <row r="717">
-      <c r="A717" s="7"/>
+      <c r="A717" s="9"/>
     </row>
     <row r="718">
-      <c r="A718" s="7"/>
+      <c r="A718" s="9"/>
     </row>
     <row r="719">
-      <c r="A719" s="7"/>
+      <c r="A719" s="9"/>
     </row>
     <row r="720">
-      <c r="A720" s="7"/>
+      <c r="A720" s="9"/>
     </row>
     <row r="721">
-      <c r="A721" s="7"/>
+      <c r="A721" s="9"/>
     </row>
     <row r="722">
-      <c r="A722" s="7"/>
+      <c r="A722" s="9"/>
     </row>
     <row r="723">
-      <c r="A723" s="7"/>
+      <c r="A723" s="9"/>
     </row>
     <row r="724">
-      <c r="A724" s="7"/>
+      <c r="A724" s="9"/>
     </row>
     <row r="725">
-      <c r="A725" s="7"/>
+      <c r="A725" s="9"/>
     </row>
     <row r="726">
-      <c r="A726" s="7"/>
+      <c r="A726" s="9"/>
     </row>
     <row r="727">
-      <c r="A727" s="7"/>
+      <c r="A727" s="9"/>
     </row>
     <row r="728">
-      <c r="A728" s="7"/>
+      <c r="A728" s="9"/>
     </row>
     <row r="729">
-      <c r="A729" s="7"/>
+      <c r="A729" s="9"/>
     </row>
     <row r="730">
-      <c r="A730" s="7"/>
+      <c r="A730" s="9"/>
     </row>
     <row r="731">
-      <c r="A731" s="7"/>
+      <c r="A731" s="9"/>
     </row>
     <row r="732">
-      <c r="A732" s="7"/>
+      <c r="A732" s="9"/>
     </row>
     <row r="733">
-      <c r="A733" s="7"/>
+      <c r="A733" s="9"/>
     </row>
     <row r="734">
-      <c r="A734" s="7"/>
+      <c r="A734" s="9"/>
     </row>
     <row r="735">
-      <c r="A735" s="7"/>
+      <c r="A735" s="9"/>
     </row>
     <row r="736">
-      <c r="A736" s="7"/>
+      <c r="A736" s="9"/>
     </row>
     <row r="737">
-      <c r="A737" s="7"/>
+      <c r="A737" s="9"/>
     </row>
     <row r="738">
-      <c r="A738" s="7"/>
+      <c r="A738" s="9"/>
     </row>
     <row r="739">
-      <c r="A739" s="7"/>
+      <c r="A739" s="9"/>
     </row>
     <row r="740">
-      <c r="A740" s="7"/>
+      <c r="A740" s="9"/>
     </row>
     <row r="741">
-      <c r="A741" s="7"/>
+      <c r="A741" s="9"/>
     </row>
     <row r="742">
-      <c r="A742" s="7"/>
+      <c r="A742" s="9"/>
     </row>
     <row r="743">
-      <c r="A743" s="7"/>
+      <c r="A743" s="9"/>
     </row>
     <row r="744">
-      <c r="A744" s="7"/>
+      <c r="A744" s="9"/>
     </row>
     <row r="745">
-      <c r="A745" s="7"/>
+      <c r="A745" s="9"/>
     </row>
     <row r="746">
-      <c r="A746" s="7"/>
+      <c r="A746" s="9"/>
     </row>
     <row r="747">
-      <c r="A747" s="7"/>
+      <c r="A747" s="9"/>
     </row>
     <row r="748">
-      <c r="A748" s="7"/>
+      <c r="A748" s="9"/>
     </row>
     <row r="749">
-      <c r="A749" s="7"/>
+      <c r="A749" s="9"/>
     </row>
     <row r="750">
-      <c r="A750" s="7"/>
+      <c r="A750" s="9"/>
     </row>
     <row r="751">
-      <c r="A751" s="7"/>
+      <c r="A751" s="9"/>
     </row>
     <row r="752">
-      <c r="A752" s="7"/>
+      <c r="A752" s="9"/>
     </row>
     <row r="753">
-      <c r="A753" s="7"/>
+      <c r="A753" s="9"/>
     </row>
     <row r="754">
-      <c r="A754" s="7"/>
+      <c r="A754" s="9"/>
     </row>
     <row r="755">
-      <c r="A755" s="7"/>
+      <c r="A755" s="9"/>
     </row>
     <row r="756">
-      <c r="A756" s="7"/>
+      <c r="A756" s="9"/>
     </row>
     <row r="757">
-      <c r="A757" s="7"/>
+      <c r="A757" s="9"/>
     </row>
     <row r="758">
-      <c r="A758" s="7"/>
+      <c r="A758" s="9"/>
     </row>
     <row r="759">
-      <c r="A759" s="7"/>
+      <c r="A759" s="9"/>
     </row>
     <row r="760">
-      <c r="A760" s="7"/>
+      <c r="A760" s="9"/>
     </row>
     <row r="761">
-      <c r="A761" s="7"/>
+      <c r="A761" s="9"/>
     </row>
     <row r="762">
-      <c r="A762" s="7"/>
+      <c r="A762" s="9"/>
     </row>
     <row r="763">
-      <c r="A763" s="7"/>
+      <c r="A763" s="9"/>
     </row>
     <row r="764">
-      <c r="A764" s="7"/>
+      <c r="A764" s="9"/>
     </row>
     <row r="765">
-      <c r="A765" s="7"/>
+      <c r="A765" s="9"/>
     </row>
     <row r="766">
-      <c r="A766" s="7"/>
+      <c r="A766" s="9"/>
     </row>
     <row r="767">
-      <c r="A767" s="7"/>
+      <c r="A767" s="9"/>
     </row>
     <row r="768">
-      <c r="A768" s="7"/>
+      <c r="A768" s="9"/>
     </row>
     <row r="769">
-      <c r="A769" s="7"/>
+      <c r="A769" s="9"/>
     </row>
     <row r="770">
-      <c r="A770" s="7"/>
+      <c r="A770" s="9"/>
     </row>
     <row r="771">
-      <c r="A771" s="7"/>
+      <c r="A771" s="9"/>
     </row>
     <row r="772">
-      <c r="A772" s="7"/>
+      <c r="A772" s="9"/>
     </row>
     <row r="773">
-      <c r="A773" s="7"/>
+      <c r="A773" s="9"/>
     </row>
     <row r="774">
-      <c r="A774" s="7"/>
+      <c r="A774" s="9"/>
     </row>
     <row r="775">
-      <c r="A775" s="7"/>
+      <c r="A775" s="9"/>
     </row>
     <row r="776">
-      <c r="A776" s="7"/>
+      <c r="A776" s="9"/>
     </row>
     <row r="777">
-      <c r="A777" s="7"/>
+      <c r="A777" s="9"/>
     </row>
     <row r="778">
-      <c r="A778" s="7"/>
+      <c r="A778" s="9"/>
     </row>
     <row r="779">
-      <c r="A779" s="7"/>
+      <c r="A779" s="9"/>
     </row>
     <row r="780">
-      <c r="A780" s="7"/>
+      <c r="A780" s="9"/>
     </row>
     <row r="781">
-      <c r="A781" s="7"/>
+      <c r="A781" s="9"/>
     </row>
     <row r="782">
-      <c r="A782" s="7"/>
+      <c r="A782" s="9"/>
     </row>
     <row r="783">
-      <c r="A783" s="7"/>
+      <c r="A783" s="9"/>
     </row>
     <row r="784">
-      <c r="A784" s="7"/>
+      <c r="A784" s="9"/>
     </row>
     <row r="785">
-      <c r="A785" s="7"/>
+      <c r="A785" s="9"/>
     </row>
     <row r="786">
-      <c r="A786" s="7"/>
+      <c r="A786" s="9"/>
     </row>
     <row r="787">
-      <c r="A787" s="7"/>
+      <c r="A787" s="9"/>
     </row>
     <row r="788">
-      <c r="A788" s="7"/>
+      <c r="A788" s="9"/>
     </row>
     <row r="789">
-      <c r="A789" s="7"/>
+      <c r="A789" s="9"/>
     </row>
     <row r="790">
-      <c r="A790" s="7"/>
+      <c r="A790" s="9"/>
     </row>
     <row r="791">
-      <c r="A791" s="7"/>
+      <c r="A791" s="9"/>
     </row>
     <row r="792">
-      <c r="A792" s="7"/>
+      <c r="A792" s="9"/>
     </row>
     <row r="793">
-      <c r="A793" s="7"/>
+      <c r="A793" s="9"/>
     </row>
     <row r="794">
-      <c r="A794" s="7"/>
+      <c r="A794" s="9"/>
     </row>
     <row r="795">
-      <c r="A795" s="7"/>
+      <c r="A795" s="9"/>
     </row>
     <row r="796">
-      <c r="A796" s="7"/>
+      <c r="A796" s="9"/>
     </row>
     <row r="797">
-      <c r="A797" s="7"/>
+      <c r="A797" s="9"/>
     </row>
     <row r="798">
-      <c r="A798" s="7"/>
+      <c r="A798" s="9"/>
     </row>
     <row r="799">
-      <c r="A799" s="7"/>
+      <c r="A799" s="9"/>
     </row>
     <row r="800">
-      <c r="A800" s="7"/>
+      <c r="A800" s="9"/>
     </row>
     <row r="801">
-      <c r="A801" s="7"/>
+      <c r="A801" s="9"/>
     </row>
     <row r="802">
-      <c r="A802" s="7"/>
+      <c r="A802" s="9"/>
     </row>
     <row r="803">
-      <c r="A803" s="7"/>
+      <c r="A803" s="9"/>
     </row>
     <row r="804">
-      <c r="A804" s="7"/>
+      <c r="A804" s="9"/>
     </row>
     <row r="805">
-      <c r="A805" s="7"/>
+      <c r="A805" s="9"/>
     </row>
     <row r="806">
-      <c r="A806" s="7"/>
+      <c r="A806" s="9"/>
     </row>
     <row r="807">
-      <c r="A807" s="7"/>
+      <c r="A807" s="9"/>
     </row>
     <row r="808">
-      <c r="A808" s="7"/>
+      <c r="A808" s="9"/>
     </row>
     <row r="809">
-      <c r="A809" s="7"/>
+      <c r="A809" s="9"/>
     </row>
     <row r="810">
-      <c r="A810" s="7"/>
+      <c r="A810" s="9"/>
     </row>
     <row r="811">
-      <c r="A811" s="7"/>
+      <c r="A811" s="9"/>
     </row>
     <row r="812">
-      <c r="A812" s="7"/>
+      <c r="A812" s="9"/>
     </row>
     <row r="813">
-      <c r="A813" s="7"/>
+      <c r="A813" s="9"/>
     </row>
     <row r="814">
-      <c r="A814" s="7"/>
+      <c r="A814" s="9"/>
     </row>
     <row r="815">
-      <c r="A815" s="7"/>
+      <c r="A815" s="9"/>
     </row>
     <row r="816">
-      <c r="A816" s="7"/>
+      <c r="A816" s="9"/>
     </row>
     <row r="817">
-      <c r="A817" s="7"/>
+      <c r="A817" s="9"/>
     </row>
     <row r="818">
-      <c r="A818" s="7"/>
+      <c r="A818" s="9"/>
     </row>
     <row r="819">
-      <c r="A819" s="7"/>
+      <c r="A819" s="9"/>
     </row>
     <row r="820">
-      <c r="A820" s="7"/>
+      <c r="A820" s="9"/>
     </row>
     <row r="821">
-      <c r="A821" s="7"/>
+      <c r="A821" s="9"/>
     </row>
     <row r="822">
-      <c r="A822" s="7"/>
+      <c r="A822" s="9"/>
     </row>
     <row r="823">
-      <c r="A823" s="7"/>
+      <c r="A823" s="9"/>
     </row>
     <row r="824">
-      <c r="A824" s="7"/>
+      <c r="A824" s="9"/>
     </row>
     <row r="825">
-      <c r="A825" s="7"/>
+      <c r="A825" s="9"/>
     </row>
     <row r="826">
-      <c r="A826" s="7"/>
+      <c r="A826" s="9"/>
     </row>
     <row r="827">
-      <c r="A827" s="7"/>
+      <c r="A827" s="9"/>
     </row>
     <row r="828">
-      <c r="A828" s="7"/>
+      <c r="A828" s="9"/>
     </row>
     <row r="829">
-      <c r="A829" s="7"/>
+      <c r="A829" s="9"/>
     </row>
     <row r="830">
-      <c r="A830" s="7"/>
+      <c r="A830" s="9"/>
     </row>
     <row r="831">
-      <c r="A831" s="7"/>
+      <c r="A831" s="9"/>
     </row>
     <row r="832">
-      <c r="A832" s="7"/>
+      <c r="A832" s="9"/>
     </row>
     <row r="833">
-      <c r="A833" s="7"/>
+      <c r="A833" s="9"/>
     </row>
     <row r="834">
-      <c r="A834" s="7"/>
+      <c r="A834" s="9"/>
     </row>
     <row r="835">
-      <c r="A835" s="7"/>
+      <c r="A835" s="9"/>
     </row>
     <row r="836">
-      <c r="A836" s="7"/>
+      <c r="A836" s="9"/>
     </row>
     <row r="837">
-      <c r="A837" s="7"/>
+      <c r="A837" s="9"/>
     </row>
     <row r="838">
-      <c r="A838" s="7"/>
+      <c r="A838" s="9"/>
     </row>
     <row r="839">
-      <c r="A839" s="7"/>
+      <c r="A839" s="9"/>
     </row>
     <row r="840">
-      <c r="A840" s="7"/>
+      <c r="A840" s="9"/>
     </row>
     <row r="841">
-      <c r="A841" s="7"/>
+      <c r="A841" s="9"/>
     </row>
     <row r="842">
-      <c r="A842" s="7"/>
+      <c r="A842" s="9"/>
     </row>
     <row r="843">
-      <c r="A843" s="7"/>
+      <c r="A843" s="9"/>
     </row>
     <row r="844">
-      <c r="A844" s="7"/>
+      <c r="A844" s="9"/>
     </row>
     <row r="845">
-      <c r="A845" s="7"/>
+      <c r="A845" s="9"/>
     </row>
     <row r="846">
-      <c r="A846" s="7"/>
+      <c r="A846" s="9"/>
     </row>
     <row r="847">
-      <c r="A847" s="7"/>
+      <c r="A847" s="9"/>
     </row>
     <row r="848">
-      <c r="A848" s="7"/>
+      <c r="A848" s="9"/>
     </row>
     <row r="849">
-      <c r="A849" s="7"/>
+      <c r="A849" s="9"/>
     </row>
     <row r="850">
-      <c r="A850" s="7"/>
+      <c r="A850" s="9"/>
     </row>
     <row r="851">
-      <c r="A851" s="7"/>
+      <c r="A851" s="9"/>
     </row>
     <row r="852">
-      <c r="A852" s="7"/>
+      <c r="A852" s="9"/>
     </row>
     <row r="853">
-      <c r="A853" s="7"/>
+      <c r="A853" s="9"/>
     </row>
     <row r="854">
-      <c r="A854" s="7"/>
+      <c r="A854" s="9"/>
     </row>
     <row r="855">
-      <c r="A855" s="7"/>
+      <c r="A855" s="9"/>
     </row>
     <row r="856">
-      <c r="A856" s="7"/>
+      <c r="A856" s="9"/>
     </row>
     <row r="857">
-      <c r="A857" s="7"/>
+      <c r="A857" s="9"/>
     </row>
     <row r="858">
-      <c r="A858" s="7"/>
+      <c r="A858" s="9"/>
     </row>
     <row r="859">
-      <c r="A859" s="7"/>
+      <c r="A859" s="9"/>
     </row>
     <row r="860">
-      <c r="A860" s="7"/>
+      <c r="A860" s="9"/>
     </row>
     <row r="861">
-      <c r="A861" s="7"/>
+      <c r="A861" s="9"/>
     </row>
     <row r="862">
-      <c r="A862" s="7"/>
+      <c r="A862" s="9"/>
     </row>
     <row r="863">
-      <c r="A863" s="7"/>
+      <c r="A863" s="9"/>
     </row>
     <row r="864">
-      <c r="A864" s="7"/>
+      <c r="A864" s="9"/>
     </row>
     <row r="865">
-      <c r="A865" s="7"/>
+      <c r="A865" s="9"/>
     </row>
     <row r="866">
-      <c r="A866" s="7"/>
+      <c r="A866" s="9"/>
     </row>
     <row r="867">
-      <c r="A867" s="7"/>
+      <c r="A867" s="9"/>
     </row>
     <row r="868">
-      <c r="A868" s="7"/>
+      <c r="A868" s="9"/>
     </row>
     <row r="869">
-      <c r="A869" s="7"/>
+      <c r="A869" s="9"/>
     </row>
     <row r="870">
-      <c r="A870" s="7"/>
+      <c r="A870" s="9"/>
     </row>
     <row r="871">
-      <c r="A871" s="7"/>
+      <c r="A871" s="9"/>
     </row>
     <row r="872">
-      <c r="A872" s="7"/>
+      <c r="A872" s="9"/>
     </row>
     <row r="873">
-      <c r="A873" s="7"/>
+      <c r="A873" s="9"/>
     </row>
     <row r="874">
-      <c r="A874" s="7"/>
+      <c r="A874" s="9"/>
     </row>
     <row r="875">
-      <c r="A875" s="7"/>
+      <c r="A875" s="9"/>
     </row>
     <row r="876">
-      <c r="A876" s="7"/>
+      <c r="A876" s="9"/>
     </row>
     <row r="877">
-      <c r="A877" s="7"/>
+      <c r="A877" s="9"/>
     </row>
     <row r="878">
-      <c r="A878" s="7"/>
+      <c r="A878" s="9"/>
     </row>
     <row r="879">
-      <c r="A879" s="7"/>
+      <c r="A879" s="9"/>
     </row>
     <row r="880">
-      <c r="A880" s="7"/>
+      <c r="A880" s="9"/>
     </row>
     <row r="881">
-      <c r="A881" s="7"/>
+      <c r="A881" s="9"/>
     </row>
     <row r="882">
-      <c r="A882" s="7"/>
+      <c r="A882" s="9"/>
     </row>
     <row r="883">
-      <c r="A883" s="7"/>
+      <c r="A883" s="9"/>
     </row>
     <row r="884">
-      <c r="A884" s="7"/>
+      <c r="A884" s="9"/>
     </row>
     <row r="885">
-      <c r="A885" s="7"/>
+      <c r="A885" s="9"/>
     </row>
     <row r="886">
-      <c r="A886" s="7"/>
+      <c r="A886" s="9"/>
     </row>
     <row r="887">
-      <c r="A887" s="7"/>
+      <c r="A887" s="9"/>
     </row>
     <row r="888">
-      <c r="A888" s="7"/>
+      <c r="A888" s="9"/>
     </row>
     <row r="889">
-      <c r="A889" s="7"/>
+      <c r="A889" s="9"/>
     </row>
     <row r="890">
-      <c r="A890" s="7"/>
+      <c r="A890" s="9"/>
     </row>
     <row r="891">
-      <c r="A891" s="7"/>
+      <c r="A891" s="9"/>
     </row>
     <row r="892">
-      <c r="A892" s="7"/>
+      <c r="A892" s="9"/>
     </row>
     <row r="893">
-      <c r="A893" s="7"/>
+      <c r="A893" s="9"/>
     </row>
     <row r="894">
-      <c r="A894" s="7"/>
+      <c r="A894" s="9"/>
     </row>
     <row r="895">
-      <c r="A895" s="7"/>
+      <c r="A895" s="9"/>
     </row>
     <row r="896">
-      <c r="A896" s="7"/>
+      <c r="A896" s="9"/>
     </row>
     <row r="897">
-      <c r="A897" s="7"/>
+      <c r="A897" s="9"/>
     </row>
     <row r="898">
-      <c r="A898" s="7"/>
+      <c r="A898" s="9"/>
     </row>
     <row r="899">
-      <c r="A899" s="7"/>
+      <c r="A899" s="9"/>
     </row>
     <row r="900">
-      <c r="A900" s="7"/>
+      <c r="A900" s="9"/>
     </row>
     <row r="901">
-      <c r="A901" s="7"/>
+      <c r="A901" s="9"/>
     </row>
     <row r="902">
-      <c r="A902" s="7"/>
+      <c r="A902" s="9"/>
     </row>
     <row r="903">
-      <c r="A903" s="7"/>
+      <c r="A903" s="9"/>
     </row>
     <row r="904">
-      <c r="A904" s="7"/>
+      <c r="A904" s="9"/>
     </row>
     <row r="905">
-      <c r="A905" s="7"/>
+      <c r="A905" s="9"/>
     </row>
     <row r="906">
-      <c r="A906" s="7"/>
+      <c r="A906" s="9"/>
     </row>
     <row r="907">
-      <c r="A907" s="7"/>
+      <c r="A907" s="9"/>
     </row>
     <row r="908">
-      <c r="A908" s="7"/>
+      <c r="A908" s="9"/>
     </row>
     <row r="909">
-      <c r="A909" s="7"/>
+      <c r="A909" s="9"/>
     </row>
     <row r="910">
-      <c r="A910" s="7"/>
+      <c r="A910" s="9"/>
     </row>
     <row r="911">
-      <c r="A911" s="7"/>
+      <c r="A911" s="9"/>
     </row>
     <row r="912">
-      <c r="A912" s="7"/>
+      <c r="A912" s="9"/>
     </row>
     <row r="913">
-      <c r="A913" s="7"/>
+      <c r="A913" s="9"/>
     </row>
     <row r="914">
-      <c r="A914" s="7"/>
+      <c r="A914" s="9"/>
     </row>
     <row r="915">
-      <c r="A915" s="7"/>
+      <c r="A915" s="9"/>
     </row>
     <row r="916">
-      <c r="A916" s="7"/>
+      <c r="A916" s="9"/>
     </row>
     <row r="917">
-      <c r="A917" s="7"/>
+      <c r="A917" s="9"/>
     </row>
     <row r="918">
-      <c r="A918" s="7"/>
+      <c r="A918" s="9"/>
     </row>
     <row r="919">
-      <c r="A919" s="7"/>
+      <c r="A919" s="9"/>
     </row>
     <row r="920">
-      <c r="A920" s="7"/>
+      <c r="A920" s="9"/>
     </row>
     <row r="921">
-      <c r="A921" s="7"/>
+      <c r="A921" s="9"/>
     </row>
     <row r="922">
-      <c r="A922" s="7"/>
+      <c r="A922" s="9"/>
     </row>
     <row r="923">
-      <c r="A923" s="7"/>
+      <c r="A923" s="9"/>
     </row>
     <row r="924">
-      <c r="A924" s="7"/>
+      <c r="A924" s="9"/>
     </row>
     <row r="925">
-      <c r="A925" s="7"/>
+      <c r="A925" s="9"/>
     </row>
     <row r="926">
-      <c r="A926" s="7"/>
+      <c r="A926" s="9"/>
     </row>
     <row r="927">
-      <c r="A927" s="7"/>
+      <c r="A927" s="9"/>
     </row>
     <row r="928">
-      <c r="A928" s="7"/>
+      <c r="A928" s="9"/>
     </row>
     <row r="929">
-      <c r="A929" s="7"/>
+      <c r="A929" s="9"/>
     </row>
     <row r="930">
-      <c r="A930" s="7"/>
+      <c r="A930" s="9"/>
     </row>
     <row r="931">
-      <c r="A931" s="7"/>
+      <c r="A931" s="9"/>
     </row>
     <row r="932">
-      <c r="A932" s="7"/>
+      <c r="A932" s="9"/>
     </row>
     <row r="933">
-      <c r="A933" s="7"/>
+      <c r="A933" s="9"/>
     </row>
     <row r="934">
-      <c r="A934" s="7"/>
+      <c r="A934" s="9"/>
     </row>
     <row r="935">
-      <c r="A935" s="7"/>
+      <c r="A935" s="9"/>
     </row>
     <row r="936">
-      <c r="A936" s="7"/>
+      <c r="A936" s="9"/>
     </row>
     <row r="937">
-      <c r="A937" s="7"/>
+      <c r="A937" s="9"/>
     </row>
     <row r="938">
-      <c r="A938" s="7"/>
+      <c r="A938" s="9"/>
     </row>
     <row r="939">
-      <c r="A939" s="7"/>
+      <c r="A939" s="9"/>
     </row>
     <row r="940">
-      <c r="A940" s="7"/>
+      <c r="A940" s="9"/>
     </row>
     <row r="941">
-      <c r="A941" s="7"/>
+      <c r="A941" s="9"/>
     </row>
     <row r="942">
-      <c r="A942" s="7"/>
+      <c r="A942" s="9"/>
     </row>
     <row r="943">
-      <c r="A943" s="7"/>
+      <c r="A943" s="9"/>
     </row>
     <row r="944">
-      <c r="A944" s="7"/>
+      <c r="A944" s="9"/>
     </row>
     <row r="945">
-      <c r="A945" s="7"/>
+      <c r="A945" s="9"/>
     </row>
     <row r="946">
-      <c r="A946" s="7"/>
+      <c r="A946" s="9"/>
     </row>
     <row r="947">
-      <c r="A947" s="7"/>
+      <c r="A947" s="9"/>
     </row>
     <row r="948">
-      <c r="A948" s="7"/>
+      <c r="A948" s="9"/>
     </row>
     <row r="949">
-      <c r="A949" s="7"/>
+      <c r="A949" s="9"/>
     </row>
     <row r="950">
-      <c r="A950" s="7"/>
+      <c r="A950" s="9"/>
     </row>
     <row r="951">
-      <c r="A951" s="7"/>
+      <c r="A951" s="9"/>
     </row>
     <row r="952">
-      <c r="A952" s="7"/>
+      <c r="A952" s="9"/>
     </row>
     <row r="953">
-      <c r="A953" s="7"/>
+      <c r="A953" s="9"/>
     </row>
     <row r="954">
-      <c r="A954" s="7"/>
+      <c r="A954" s="9"/>
     </row>
     <row r="955">
-      <c r="A955" s="7"/>
+      <c r="A955" s="9"/>
     </row>
     <row r="956">
-      <c r="A956" s="7"/>
+      <c r="A956" s="9"/>
     </row>
     <row r="957">
-      <c r="A957" s="7"/>
+      <c r="A957" s="9"/>
     </row>
     <row r="958">
-      <c r="A958" s="7"/>
+      <c r="A958" s="9"/>
     </row>
     <row r="959">
-      <c r="A959" s="7"/>
+      <c r="A959" s="9"/>
     </row>
     <row r="960">
-      <c r="A960" s="7"/>
+      <c r="A960" s="9"/>
     </row>
     <row r="961">
-      <c r="A961" s="7"/>
+      <c r="A961" s="9"/>
     </row>
     <row r="962">
-      <c r="A962" s="7"/>
+      <c r="A962" s="9"/>
     </row>
     <row r="963">
-      <c r="A963" s="7"/>
+      <c r="A963" s="9"/>
     </row>
     <row r="964">
-      <c r="A964" s="7"/>
+      <c r="A964" s="9"/>
     </row>
     <row r="965">
-      <c r="A965" s="7"/>
+      <c r="A965" s="9"/>
     </row>
     <row r="966">
-      <c r="A966" s="7"/>
+      <c r="A966" s="9"/>
     </row>
     <row r="967">
-      <c r="A967" s="7"/>
+      <c r="A967" s="9"/>
     </row>
     <row r="968">
-      <c r="A968" s="7"/>
+      <c r="A968" s="9"/>
     </row>
     <row r="969">
-      <c r="A969" s="7"/>
+      <c r="A969" s="9"/>
     </row>
     <row r="970">
-      <c r="A970" s="7"/>
+      <c r="A970" s="9"/>
     </row>
     <row r="971">
-      <c r="A971" s="7"/>
+      <c r="A971" s="9"/>
     </row>
     <row r="972">
-      <c r="A972" s="7"/>
+      <c r="A972" s="9"/>
     </row>
     <row r="973">
-      <c r="A973" s="7"/>
+      <c r="A973" s="9"/>
     </row>
     <row r="974">
-      <c r="A974" s="7"/>
+      <c r="A974" s="9"/>
     </row>
     <row r="975">
-      <c r="A975" s="7"/>
+      <c r="A975" s="9"/>
     </row>
     <row r="976">
-      <c r="A976" s="7"/>
+      <c r="A976" s="9"/>
     </row>
     <row r="977">
-      <c r="A977" s="7"/>
+      <c r="A977" s="9"/>
     </row>
     <row r="978">
-      <c r="A978" s="7"/>
+      <c r="A978" s="9"/>
     </row>
     <row r="979">
-      <c r="A979" s="7"/>
+      <c r="A979" s="9"/>
     </row>
     <row r="980">
-      <c r="A980" s="7"/>
+      <c r="A980" s="9"/>
     </row>
     <row r="981">
-      <c r="A981" s="7"/>
+      <c r="A981" s="9"/>
     </row>
     <row r="982">
-      <c r="A982" s="7"/>
+      <c r="A982" s="9"/>
     </row>
     <row r="983">
-      <c r="A983" s="7"/>
+      <c r="A983" s="9"/>
     </row>
     <row r="984">
-      <c r="A984" s="7"/>
+      <c r="A984" s="9"/>
     </row>
     <row r="985">
-      <c r="A985" s="7"/>
+      <c r="A985" s="9"/>
     </row>
     <row r="986">
-      <c r="A986" s="7"/>
+      <c r="A986" s="9"/>
     </row>
     <row r="987">
-      <c r="A987" s="7"/>
+      <c r="A987" s="9"/>
     </row>
     <row r="988">
-      <c r="A988" s="7"/>
+      <c r="A988" s="9"/>
     </row>
     <row r="989">
-      <c r="A989" s="7"/>
+      <c r="A989" s="9"/>
     </row>
     <row r="990">
-      <c r="A990" s="7"/>
+      <c r="A990" s="9"/>
     </row>
     <row r="991">
-      <c r="A991" s="7"/>
+      <c r="A991" s="9"/>
     </row>
     <row r="992">
-      <c r="A992" s="7"/>
+      <c r="A992" s="9"/>
     </row>
     <row r="993">
-      <c r="A993" s="7"/>
+      <c r="A993" s="9"/>
     </row>
     <row r="994">
-      <c r="A994" s="7"/>
+      <c r="A994" s="9"/>
     </row>
     <row r="995">
-      <c r="A995" s="7"/>
+      <c r="A995" s="9"/>
     </row>
     <row r="996">
-      <c r="A996" s="7"/>
+      <c r="A996" s="9"/>
     </row>
     <row r="997">
-      <c r="A997" s="7"/>
+      <c r="A997" s="9"/>
     </row>
     <row r="998">
-      <c r="A998" s="7"/>
+      <c r="A998" s="9"/>
     </row>
     <row r="999">
-      <c r="A999" s="7"/>
+      <c r="A999" s="9"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="7"/>
+      <c r="A1000" s="9"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="7"/>
+      <c r="A1001" s="9"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="7"/>
+      <c r="A1002" s="9"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="7"/>
+      <c r="A1003" s="9"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="7"/>
+      <c r="A1004" s="9"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="7"/>
+      <c r="A1005" s="9"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="7"/>
+      <c r="A1006" s="9"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="7"/>
+      <c r="A1007" s="9"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="7"/>
+      <c r="A1008" s="9"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="7"/>
+      <c r="A1009" s="9"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="7"/>
+      <c r="A1010" s="9"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="7"/>
+      <c r="A1011" s="9"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="7"/>
+      <c r="A1012" s="9"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="7"/>
+      <c r="A1013" s="9"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="7"/>
+      <c r="A1014" s="9"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="7"/>
+      <c r="A1015" s="9"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="7"/>
+      <c r="A1016" s="9"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="7"/>
+      <c r="A1017" s="9"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="7"/>
+      <c r="A1018" s="9"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="7"/>
+      <c r="A1019" s="9"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="9"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="9"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="9"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="9"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="9"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="9"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="9"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="9"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="9"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="9"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="9"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="9"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="9"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="9"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="9"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="9"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
